--- a/config_debug/task_xiaoxiaole_tower_week_server.xlsx
+++ b/config_debug/task_xiaoxiaole_tower_week_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">source!$C$1:$C$812</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">task!$B$1:$B$366</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">task!$B$1:$B$336</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -1442,7 +1442,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4027" uniqueCount="1054">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3937" uniqueCount="1052">
   <si>
     <t>id|任务id</t>
   </si>
@@ -5014,10 +5014,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>common</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>174</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -5163,10 +5159,6 @@
   <si>
     <t>item_id_3</t>
     <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>normal</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1,-1,</t>
@@ -6285,13 +6277,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:W813"/>
+  <dimension ref="A1:W783"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="J175" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="J163" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J193" sqref="J193"/>
+      <selection pane="bottomRight" activeCell="J173" sqref="J173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -13613,1176 +13605,336 @@
       </c>
     </row>
     <row r="176" spans="1:13" s="9" customFormat="1">
-      <c r="A176" s="9">
-        <v>16674</v>
-      </c>
-      <c r="B176" s="57">
-        <v>1</v>
-      </c>
-      <c r="C176" s="58" t="s">
-        <v>986</v>
-      </c>
-      <c r="D176" s="57"/>
-      <c r="E176" s="58" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F176" s="58" t="s">
-        <v>1018</v>
-      </c>
-      <c r="G176" s="57">
-        <v>16674</v>
-      </c>
-      <c r="H176" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I176" s="57">
-        <v>7</v>
-      </c>
-      <c r="J176" s="75">
-        <v>1605046400</v>
-      </c>
-      <c r="K176" s="30">
-        <v>32503651200</v>
-      </c>
-      <c r="L176" s="30">
-        <v>-1</v>
-      </c>
-      <c r="M176" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13" s="9" customFormat="1">
-      <c r="A177" s="9">
-        <v>16675</v>
-      </c>
-      <c r="B177" s="57">
-        <v>1</v>
-      </c>
-      <c r="C177" s="58" t="s">
-        <v>987</v>
-      </c>
+      <c r="B176" s="57"/>
+      <c r="C176" s="58"/>
+      <c r="D176" s="58"/>
+      <c r="E176" s="58"/>
+      <c r="F176" s="58"/>
+      <c r="G176" s="57"/>
+      <c r="H176" s="57"/>
+      <c r="I176" s="57"/>
+      <c r="J176" s="57"/>
+    </row>
+    <row r="177" spans="2:10" s="9" customFormat="1">
+      <c r="B177" s="57"/>
+      <c r="C177" s="58"/>
       <c r="D177" s="58"/>
-      <c r="E177" s="58" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F177" s="58" t="s">
-        <v>1018</v>
-      </c>
-      <c r="G177" s="57">
-        <v>16675</v>
-      </c>
-      <c r="H177" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I177" s="57">
-        <v>7</v>
-      </c>
-      <c r="J177" s="75">
-        <v>1605046400</v>
-      </c>
-      <c r="K177" s="30">
-        <v>32503651200</v>
-      </c>
-      <c r="L177" s="30">
-        <v>-1</v>
-      </c>
-      <c r="M177" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13" s="9" customFormat="1">
-      <c r="A178" s="9">
-        <v>16676</v>
-      </c>
-      <c r="B178" s="57">
-        <v>1</v>
-      </c>
-      <c r="C178" s="58" t="s">
-        <v>988</v>
-      </c>
+      <c r="E177" s="58"/>
+      <c r="F177" s="58"/>
+      <c r="G177" s="57"/>
+      <c r="H177" s="57"/>
+      <c r="I177" s="57"/>
+      <c r="J177" s="57"/>
+    </row>
+    <row r="178" spans="2:10" s="9" customFormat="1">
+      <c r="B178" s="57"/>
+      <c r="C178" s="58"/>
       <c r="D178" s="58"/>
-      <c r="E178" s="58" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F178" s="58" t="s">
-        <v>1018</v>
-      </c>
-      <c r="G178" s="57">
-        <v>16676</v>
-      </c>
-      <c r="H178" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I178" s="57">
-        <v>7</v>
-      </c>
-      <c r="J178" s="75">
-        <v>1605046400</v>
-      </c>
-      <c r="K178" s="30">
-        <v>32503651200</v>
-      </c>
-      <c r="L178" s="30">
-        <v>-1</v>
-      </c>
-      <c r="M178" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13" s="9" customFormat="1">
-      <c r="A179" s="9">
-        <v>16677</v>
-      </c>
-      <c r="B179" s="57">
-        <v>1</v>
-      </c>
-      <c r="C179" s="58" t="s">
-        <v>989</v>
-      </c>
+      <c r="E178" s="58"/>
+      <c r="F178" s="58"/>
+      <c r="G178" s="57"/>
+      <c r="H178" s="57"/>
+      <c r="I178" s="57"/>
+      <c r="J178" s="57"/>
+    </row>
+    <row r="179" spans="2:10" s="9" customFormat="1">
+      <c r="B179" s="57"/>
+      <c r="C179" s="58"/>
       <c r="D179" s="58"/>
-      <c r="E179" s="58" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F179" s="58" t="s">
-        <v>1018</v>
-      </c>
-      <c r="G179" s="57">
-        <v>16677</v>
-      </c>
-      <c r="H179" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I179" s="57">
-        <v>7</v>
-      </c>
-      <c r="J179" s="75">
-        <v>1605046400</v>
-      </c>
-      <c r="K179" s="30">
-        <v>32503651200</v>
-      </c>
-      <c r="L179" s="30">
-        <v>-1</v>
-      </c>
-      <c r="M179" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:13" s="9" customFormat="1">
-      <c r="A180" s="9">
-        <v>16678</v>
-      </c>
-      <c r="B180" s="57">
-        <v>1</v>
-      </c>
-      <c r="C180" s="58" t="s">
-        <v>990</v>
-      </c>
+      <c r="E179" s="58"/>
+      <c r="F179" s="58"/>
+      <c r="G179" s="57"/>
+      <c r="H179" s="57"/>
+      <c r="I179" s="57"/>
+      <c r="J179" s="57"/>
+    </row>
+    <row r="180" spans="2:10" s="9" customFormat="1">
+      <c r="B180" s="57"/>
+      <c r="C180" s="58"/>
       <c r="D180" s="58"/>
-      <c r="E180" s="58" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F180" s="58" t="s">
-        <v>1018</v>
-      </c>
-      <c r="G180" s="57">
-        <v>16678</v>
-      </c>
-      <c r="H180" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I180" s="57">
-        <v>7</v>
-      </c>
-      <c r="J180" s="75">
-        <v>1605046400</v>
-      </c>
-      <c r="K180" s="30">
-        <v>32503651200</v>
-      </c>
-      <c r="L180" s="30">
-        <v>-1</v>
-      </c>
-      <c r="M180" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13" s="9" customFormat="1">
-      <c r="A181" s="9">
-        <v>16679</v>
-      </c>
-      <c r="B181" s="57">
-        <v>1</v>
-      </c>
-      <c r="C181" s="58" t="s">
-        <v>991</v>
-      </c>
+      <c r="E180" s="58"/>
+      <c r="F180" s="58"/>
+      <c r="G180" s="57"/>
+      <c r="H180" s="57"/>
+      <c r="I180" s="57"/>
+      <c r="J180" s="57"/>
+    </row>
+    <row r="181" spans="2:10" s="9" customFormat="1">
+      <c r="B181" s="57"/>
+      <c r="C181" s="58"/>
       <c r="D181" s="58"/>
-      <c r="E181" s="58" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F181" s="58" t="s">
-        <v>1018</v>
-      </c>
-      <c r="G181" s="57">
-        <v>16679</v>
-      </c>
-      <c r="H181" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I181" s="57">
-        <v>7</v>
-      </c>
-      <c r="J181" s="75">
-        <v>1605046400</v>
-      </c>
-      <c r="K181" s="30">
-        <v>32503651200</v>
-      </c>
-      <c r="L181" s="30">
-        <v>-1</v>
-      </c>
-      <c r="M181" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:13" s="9" customFormat="1">
-      <c r="A182" s="9">
-        <v>16680</v>
-      </c>
-      <c r="B182" s="57">
-        <v>1</v>
-      </c>
-      <c r="C182" s="58" t="s">
-        <v>992</v>
-      </c>
+      <c r="E181" s="58"/>
+      <c r="F181" s="57"/>
+      <c r="G181" s="57"/>
+      <c r="H181" s="57"/>
+      <c r="I181" s="57"/>
+      <c r="J181" s="57"/>
+    </row>
+    <row r="182" spans="2:10" s="9" customFormat="1">
+      <c r="B182" s="57"/>
+      <c r="C182" s="58"/>
       <c r="D182" s="58"/>
-      <c r="E182" s="58" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F182" s="58" t="s">
-        <v>1018</v>
-      </c>
-      <c r="G182" s="57">
-        <v>16680</v>
-      </c>
-      <c r="H182" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I182" s="57">
-        <v>7</v>
-      </c>
-      <c r="J182" s="75">
-        <v>1605046400</v>
-      </c>
-      <c r="K182" s="30">
-        <v>32503651200</v>
-      </c>
-      <c r="L182" s="30">
-        <v>-1</v>
-      </c>
-      <c r="M182" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13" s="9" customFormat="1">
-      <c r="A183" s="9">
-        <v>16681</v>
-      </c>
-      <c r="B183" s="57">
-        <v>1</v>
-      </c>
-      <c r="C183" s="58" t="s">
-        <v>993</v>
-      </c>
-      <c r="D183" s="57"/>
-      <c r="E183" s="58" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F183" s="58" t="s">
-        <v>1018</v>
-      </c>
-      <c r="G183" s="57">
-        <v>16681</v>
-      </c>
-      <c r="H183" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I183" s="57">
-        <v>7</v>
-      </c>
-      <c r="J183" s="75">
-        <v>1605046400</v>
-      </c>
-      <c r="K183" s="30">
-        <v>32503651200</v>
-      </c>
-      <c r="L183" s="30">
-        <v>-1</v>
-      </c>
-      <c r="M183" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:13" s="9" customFormat="1">
-      <c r="A184" s="9">
-        <v>16682</v>
-      </c>
-      <c r="B184" s="57">
-        <v>1</v>
-      </c>
-      <c r="C184" s="58" t="s">
-        <v>994</v>
-      </c>
-      <c r="D184" s="57"/>
-      <c r="E184" s="58" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F184" s="58" t="s">
-        <v>1018</v>
-      </c>
-      <c r="G184" s="57">
-        <v>16682</v>
-      </c>
-      <c r="H184" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I184" s="57">
-        <v>7</v>
-      </c>
-      <c r="J184" s="75">
-        <v>1605046400</v>
-      </c>
-      <c r="K184" s="30">
-        <v>32503651200</v>
-      </c>
-      <c r="L184" s="30">
-        <v>-1</v>
-      </c>
-      <c r="M184" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:13" s="9" customFormat="1">
-      <c r="A185" s="9">
-        <v>16683</v>
-      </c>
-      <c r="B185" s="57">
-        <v>1</v>
-      </c>
-      <c r="C185" s="58" t="s">
-        <v>995</v>
-      </c>
+      <c r="E182" s="58"/>
+      <c r="F182" s="58"/>
+      <c r="G182" s="57"/>
+      <c r="H182" s="57"/>
+      <c r="I182" s="57"/>
+      <c r="J182" s="57"/>
+    </row>
+    <row r="183" spans="2:10" s="9" customFormat="1">
+      <c r="B183" s="57"/>
+      <c r="C183" s="58"/>
+      <c r="D183" s="58"/>
+      <c r="E183" s="58"/>
+      <c r="F183" s="58"/>
+      <c r="G183" s="57"/>
+      <c r="H183" s="57"/>
+      <c r="I183" s="57"/>
+      <c r="J183" s="57"/>
+    </row>
+    <row r="184" spans="2:10" s="9" customFormat="1">
+      <c r="B184" s="57"/>
+      <c r="C184" s="58"/>
+      <c r="D184" s="58"/>
+      <c r="E184" s="58"/>
+      <c r="F184" s="58"/>
+      <c r="G184" s="57"/>
+      <c r="H184" s="57"/>
+      <c r="I184" s="57"/>
+      <c r="J184" s="57"/>
+    </row>
+    <row r="185" spans="2:10" s="9" customFormat="1">
+      <c r="B185" s="57"/>
+      <c r="C185" s="58"/>
       <c r="D185" s="58"/>
-      <c r="E185" s="58" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F185" s="58" t="s">
-        <v>1018</v>
-      </c>
-      <c r="G185" s="57">
-        <v>16683</v>
-      </c>
-      <c r="H185" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I185" s="57">
-        <v>7</v>
-      </c>
-      <c r="J185" s="75">
-        <v>1605046400</v>
-      </c>
-      <c r="K185" s="30">
-        <v>32503651200</v>
-      </c>
-      <c r="L185" s="30">
-        <v>-1</v>
-      </c>
-      <c r="M185" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:13" s="9" customFormat="1">
-      <c r="A186" s="9">
-        <v>16684</v>
-      </c>
-      <c r="B186" s="57">
-        <v>1</v>
-      </c>
-      <c r="C186" s="58" t="s">
-        <v>996</v>
-      </c>
+      <c r="E185" s="58"/>
+      <c r="F185" s="58"/>
+      <c r="G185" s="57"/>
+      <c r="H185" s="57"/>
+      <c r="I185" s="57"/>
+      <c r="J185" s="57"/>
+    </row>
+    <row r="186" spans="2:10" s="9" customFormat="1">
+      <c r="B186" s="57"/>
+      <c r="C186" s="58"/>
       <c r="D186" s="58"/>
-      <c r="E186" s="58" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F186" s="58" t="s">
-        <v>1018</v>
-      </c>
-      <c r="G186" s="57">
-        <v>16684</v>
-      </c>
-      <c r="H186" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I186" s="57">
-        <v>7</v>
-      </c>
-      <c r="J186" s="75">
-        <v>1605046400</v>
-      </c>
-      <c r="K186" s="30">
-        <v>32503651200</v>
-      </c>
-      <c r="L186" s="30">
-        <v>-1</v>
-      </c>
-      <c r="M186" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:13" s="9" customFormat="1">
-      <c r="A187" s="9">
-        <v>16685</v>
-      </c>
-      <c r="B187" s="57">
-        <v>1</v>
-      </c>
-      <c r="C187" s="58" t="s">
-        <v>997</v>
-      </c>
+      <c r="E186" s="58"/>
+      <c r="F186" s="58"/>
+      <c r="G186" s="57"/>
+      <c r="H186" s="57"/>
+      <c r="I186" s="57"/>
+      <c r="J186" s="57"/>
+    </row>
+    <row r="187" spans="2:10" s="9" customFormat="1">
+      <c r="B187" s="57"/>
+      <c r="C187" s="58"/>
       <c r="D187" s="58"/>
-      <c r="E187" s="58" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F187" s="58" t="s">
-        <v>1018</v>
-      </c>
-      <c r="G187" s="57">
-        <v>16685</v>
-      </c>
-      <c r="H187" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I187" s="57">
-        <v>7</v>
-      </c>
-      <c r="J187" s="75">
-        <v>1605046400</v>
-      </c>
-      <c r="K187" s="30">
-        <v>32503651200</v>
-      </c>
-      <c r="L187" s="30">
-        <v>-1</v>
-      </c>
-      <c r="M187" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:13" s="9" customFormat="1">
-      <c r="A188" s="9">
-        <v>16686</v>
-      </c>
-      <c r="B188" s="57">
-        <v>1</v>
-      </c>
-      <c r="C188" s="58" t="s">
-        <v>998</v>
-      </c>
+      <c r="E187" s="58"/>
+      <c r="F187" s="58"/>
+      <c r="G187" s="57"/>
+      <c r="H187" s="57"/>
+      <c r="I187" s="57"/>
+      <c r="J187" s="57"/>
+    </row>
+    <row r="188" spans="2:10" s="9" customFormat="1">
+      <c r="B188" s="57"/>
+      <c r="C188" s="58"/>
       <c r="D188" s="58"/>
-      <c r="E188" s="58" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F188" s="58" t="s">
-        <v>1018</v>
-      </c>
-      <c r="G188" s="57">
-        <v>16686</v>
-      </c>
-      <c r="H188" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I188" s="57">
-        <v>7</v>
-      </c>
-      <c r="J188" s="75">
-        <v>1605046400</v>
-      </c>
-      <c r="K188" s="30">
-        <v>32503651200</v>
-      </c>
-      <c r="L188" s="30">
-        <v>-1</v>
-      </c>
-      <c r="M188" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:13" s="9" customFormat="1">
-      <c r="A189" s="9">
-        <v>16687</v>
-      </c>
-      <c r="B189" s="57">
-        <v>1</v>
-      </c>
-      <c r="C189" s="58" t="s">
-        <v>999</v>
-      </c>
+      <c r="E188" s="58"/>
+      <c r="F188" s="58"/>
+      <c r="G188" s="57"/>
+      <c r="H188" s="57"/>
+      <c r="I188" s="57"/>
+      <c r="J188" s="57"/>
+    </row>
+    <row r="189" spans="2:10" s="9" customFormat="1">
+      <c r="B189" s="57"/>
+      <c r="C189" s="58"/>
       <c r="D189" s="58"/>
-      <c r="E189" s="58" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F189" s="58" t="s">
-        <v>1018</v>
-      </c>
-      <c r="G189" s="57">
-        <v>16687</v>
-      </c>
-      <c r="H189" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I189" s="57">
-        <v>7</v>
-      </c>
-      <c r="J189" s="75">
-        <v>1605046400</v>
-      </c>
-      <c r="K189" s="30">
-        <v>32503651200</v>
-      </c>
-      <c r="L189" s="30">
-        <v>-1</v>
-      </c>
-      <c r="M189" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:13" s="9" customFormat="1">
-      <c r="A190" s="9">
-        <v>16688</v>
-      </c>
-      <c r="B190" s="57">
-        <v>1</v>
-      </c>
-      <c r="C190" s="58" t="s">
-        <v>1000</v>
-      </c>
+      <c r="E189" s="58"/>
+      <c r="F189" s="58"/>
+      <c r="G189" s="57"/>
+      <c r="H189" s="57"/>
+      <c r="I189" s="57"/>
+      <c r="J189" s="57"/>
+    </row>
+    <row r="190" spans="2:10" s="9" customFormat="1">
+      <c r="B190" s="57"/>
+      <c r="C190" s="58"/>
       <c r="D190" s="58"/>
-      <c r="E190" s="58" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F190" s="58" t="s">
-        <v>1018</v>
-      </c>
-      <c r="G190" s="57">
-        <v>16688</v>
-      </c>
-      <c r="H190" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I190" s="57">
-        <v>7</v>
-      </c>
-      <c r="J190" s="75">
-        <v>1605046400</v>
-      </c>
-      <c r="K190" s="30">
-        <v>32503651200</v>
-      </c>
-      <c r="L190" s="30">
-        <v>-1</v>
-      </c>
-      <c r="M190" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:13" s="9" customFormat="1">
-      <c r="A191" s="9">
-        <v>16689</v>
-      </c>
-      <c r="B191" s="57">
-        <v>1</v>
-      </c>
-      <c r="C191" s="58" t="s">
-        <v>1001</v>
-      </c>
+      <c r="E190" s="58"/>
+      <c r="F190" s="58"/>
+      <c r="G190" s="57"/>
+      <c r="H190" s="57"/>
+      <c r="I190" s="57"/>
+      <c r="J190" s="57"/>
+    </row>
+    <row r="191" spans="2:10" s="9" customFormat="1">
+      <c r="B191" s="57"/>
+      <c r="C191" s="58"/>
       <c r="D191" s="58"/>
-      <c r="E191" s="58" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F191" s="58" t="s">
-        <v>1018</v>
-      </c>
-      <c r="G191" s="57">
-        <v>16689</v>
-      </c>
-      <c r="H191" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I191" s="57">
-        <v>7</v>
-      </c>
-      <c r="J191" s="75">
-        <v>1605046400</v>
-      </c>
-      <c r="K191" s="30">
-        <v>32503651200</v>
-      </c>
-      <c r="L191" s="30">
-        <v>-1</v>
-      </c>
-      <c r="M191" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:13" s="9" customFormat="1">
-      <c r="A192" s="9">
-        <v>16690</v>
-      </c>
-      <c r="B192" s="57">
-        <v>1</v>
-      </c>
-      <c r="C192" s="58" t="s">
-        <v>1002</v>
-      </c>
+      <c r="E191" s="58"/>
+      <c r="F191" s="58"/>
+      <c r="G191" s="57"/>
+      <c r="H191" s="57"/>
+      <c r="I191" s="57"/>
+      <c r="J191" s="57"/>
+    </row>
+    <row r="192" spans="2:10" s="9" customFormat="1">
+      <c r="B192" s="57"/>
+      <c r="C192" s="58"/>
       <c r="D192" s="58"/>
-      <c r="E192" s="58" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F192" s="58" t="s">
-        <v>1018</v>
-      </c>
-      <c r="G192" s="57">
-        <v>16690</v>
-      </c>
-      <c r="H192" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I192" s="57">
-        <v>7</v>
-      </c>
-      <c r="J192" s="75">
-        <v>1605046400</v>
-      </c>
-      <c r="K192" s="30">
-        <v>32503651200</v>
-      </c>
-      <c r="L192" s="30">
-        <v>-1</v>
-      </c>
-      <c r="M192" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:13" s="9" customFormat="1">
-      <c r="A193" s="9">
-        <v>16691</v>
-      </c>
-      <c r="B193" s="57">
-        <v>1</v>
-      </c>
-      <c r="C193" s="58" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D193" s="58"/>
-      <c r="E193" s="58" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F193" s="58" t="s">
-        <v>1018</v>
-      </c>
-      <c r="G193" s="57">
-        <v>16691</v>
-      </c>
-      <c r="H193" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I193" s="57">
-        <v>7</v>
-      </c>
-      <c r="J193" s="75">
-        <v>1605046400</v>
-      </c>
-      <c r="K193" s="30">
-        <v>32503651200</v>
-      </c>
-      <c r="L193" s="30">
-        <v>-1</v>
-      </c>
-      <c r="M193" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13" s="9" customFormat="1">
-      <c r="A194" s="9">
-        <v>16692</v>
-      </c>
-      <c r="B194" s="57">
-        <v>1</v>
-      </c>
-      <c r="C194" s="58" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D194" s="58"/>
-      <c r="E194" s="58" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F194" s="58" t="s">
-        <v>1018</v>
-      </c>
-      <c r="G194" s="57">
-        <v>16692</v>
-      </c>
-      <c r="H194" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I194" s="57">
-        <v>7</v>
-      </c>
-      <c r="J194" s="75">
-        <v>1605046400</v>
-      </c>
-      <c r="K194" s="30">
-        <v>32503651200</v>
-      </c>
-      <c r="L194" s="30">
-        <v>-1</v>
-      </c>
-      <c r="M194" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13" s="9" customFormat="1">
-      <c r="A195" s="9">
-        <v>16693</v>
-      </c>
-      <c r="B195" s="57">
-        <v>1</v>
-      </c>
-      <c r="C195" s="58" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D195" s="58"/>
-      <c r="E195" s="58" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F195" s="58" t="s">
-        <v>1018</v>
-      </c>
-      <c r="G195" s="57">
-        <v>16693</v>
-      </c>
-      <c r="H195" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I195" s="57">
-        <v>7</v>
-      </c>
-      <c r="J195" s="75">
-        <v>1605046400</v>
-      </c>
-      <c r="K195" s="30">
-        <v>32503651200</v>
-      </c>
-      <c r="L195" s="30">
-        <v>-1</v>
-      </c>
-      <c r="M195" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13" s="9" customFormat="1">
-      <c r="A196" s="9">
-        <v>16694</v>
-      </c>
-      <c r="B196" s="57">
-        <v>1</v>
-      </c>
-      <c r="C196" s="58" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D196" s="58"/>
-      <c r="E196" s="58" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F196" s="58" t="s">
-        <v>1018</v>
-      </c>
-      <c r="G196" s="57">
-        <v>16694</v>
-      </c>
-      <c r="H196" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I196" s="57">
-        <v>7</v>
-      </c>
-      <c r="J196" s="75">
-        <v>1605046400</v>
-      </c>
-      <c r="K196" s="30">
-        <v>32503651200</v>
-      </c>
-      <c r="L196" s="30">
-        <v>-1</v>
-      </c>
-      <c r="M196" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13" s="9" customFormat="1">
-      <c r="A197" s="9">
-        <v>16695</v>
-      </c>
-      <c r="B197" s="57">
-        <v>1</v>
-      </c>
-      <c r="C197" s="58" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D197" s="58"/>
-      <c r="E197" s="58" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F197" s="58" t="s">
-        <v>1018</v>
-      </c>
-      <c r="G197" s="57">
-        <v>16695</v>
-      </c>
-      <c r="H197" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I197" s="57">
-        <v>7</v>
-      </c>
-      <c r="J197" s="75">
-        <v>1605046400</v>
-      </c>
-      <c r="K197" s="30">
-        <v>32503651200</v>
-      </c>
-      <c r="L197" s="30">
-        <v>-1</v>
-      </c>
-      <c r="M197" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13" s="9" customFormat="1">
-      <c r="A198" s="9">
-        <v>16696</v>
-      </c>
-      <c r="B198" s="57">
-        <v>1</v>
-      </c>
-      <c r="C198" s="58" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D198" s="58"/>
-      <c r="E198" s="58" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F198" s="58" t="s">
-        <v>1018</v>
-      </c>
-      <c r="G198" s="57">
-        <v>16696</v>
-      </c>
-      <c r="H198" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I198" s="57">
-        <v>7</v>
-      </c>
-      <c r="J198" s="75">
-        <v>1605046400</v>
-      </c>
-      <c r="K198" s="30">
-        <v>32503651200</v>
-      </c>
-      <c r="L198" s="30">
-        <v>-1</v>
-      </c>
-      <c r="M198" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:13" s="9" customFormat="1">
-      <c r="A199" s="9">
-        <v>16697</v>
-      </c>
-      <c r="B199" s="57">
-        <v>1</v>
-      </c>
-      <c r="C199" s="58" t="s">
-        <v>1009</v>
-      </c>
+      <c r="E192" s="58"/>
+      <c r="F192" s="57"/>
+      <c r="G192" s="57"/>
+      <c r="H192" s="57"/>
+      <c r="I192" s="57"/>
+      <c r="J192" s="57"/>
+    </row>
+    <row r="193" spans="2:10" s="9" customFormat="1">
+      <c r="B193" s="57"/>
+      <c r="C193" s="58"/>
+      <c r="D193" s="57"/>
+      <c r="E193" s="58"/>
+      <c r="F193" s="58"/>
+      <c r="G193" s="57"/>
+      <c r="H193" s="57"/>
+      <c r="I193" s="57"/>
+      <c r="J193" s="57"/>
+    </row>
+    <row r="194" spans="2:10" s="9" customFormat="1">
+      <c r="B194" s="57"/>
+      <c r="C194" s="58"/>
+      <c r="D194" s="57"/>
+      <c r="E194" s="58"/>
+      <c r="F194" s="58"/>
+      <c r="G194" s="57"/>
+      <c r="H194" s="57"/>
+      <c r="I194" s="57"/>
+      <c r="J194" s="57"/>
+    </row>
+    <row r="195" spans="2:10" s="9" customFormat="1">
+      <c r="B195" s="57"/>
+      <c r="C195" s="58"/>
+      <c r="D195" s="57"/>
+      <c r="E195" s="58"/>
+      <c r="F195" s="58"/>
+      <c r="G195" s="57"/>
+      <c r="H195" s="57"/>
+      <c r="I195" s="57"/>
+      <c r="J195" s="57"/>
+    </row>
+    <row r="196" spans="2:10" s="9" customFormat="1">
+      <c r="B196" s="57"/>
+      <c r="C196" s="58"/>
+      <c r="D196" s="57"/>
+      <c r="E196" s="58"/>
+      <c r="F196" s="58"/>
+      <c r="G196" s="57"/>
+      <c r="H196" s="57"/>
+      <c r="I196" s="57"/>
+      <c r="J196" s="57"/>
+    </row>
+    <row r="197" spans="2:10" s="9" customFormat="1">
+      <c r="B197" s="57"/>
+      <c r="C197" s="58"/>
+      <c r="D197" s="57"/>
+      <c r="E197" s="58"/>
+      <c r="F197" s="58"/>
+      <c r="G197" s="57"/>
+      <c r="H197" s="57"/>
+      <c r="I197" s="57"/>
+      <c r="J197" s="57"/>
+    </row>
+    <row r="198" spans="2:10" s="9" customFormat="1">
+      <c r="B198" s="57"/>
+      <c r="C198" s="58"/>
+      <c r="D198" s="57"/>
+      <c r="E198" s="58"/>
+      <c r="F198" s="58"/>
+      <c r="G198" s="57"/>
+      <c r="H198" s="57"/>
+      <c r="I198" s="57"/>
+      <c r="J198" s="57"/>
+    </row>
+    <row r="199" spans="2:10" s="9" customFormat="1">
+      <c r="B199" s="57"/>
+      <c r="C199" s="58"/>
       <c r="D199" s="57"/>
-      <c r="E199" s="58" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F199" s="58" t="s">
-        <v>1018</v>
-      </c>
-      <c r="G199" s="57">
-        <v>16697</v>
-      </c>
-      <c r="H199" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I199" s="57">
-        <v>7</v>
-      </c>
-      <c r="J199" s="75">
-        <v>1605046400</v>
-      </c>
-      <c r="K199" s="30">
-        <v>32503651200</v>
-      </c>
-      <c r="L199" s="30">
-        <v>-1</v>
-      </c>
-      <c r="M199" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:13" s="9" customFormat="1">
-      <c r="A200" s="9">
-        <v>16698</v>
-      </c>
-      <c r="B200" s="57">
-        <v>1</v>
-      </c>
-      <c r="C200" s="58" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D200" s="58"/>
-      <c r="E200" s="58" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F200" s="58" t="s">
-        <v>1018</v>
-      </c>
-      <c r="G200" s="57">
-        <v>16698</v>
-      </c>
-      <c r="H200" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I200" s="57">
-        <v>7</v>
-      </c>
-      <c r="J200" s="75">
-        <v>1605046400</v>
-      </c>
-      <c r="K200" s="30">
-        <v>32503651200</v>
-      </c>
-      <c r="L200" s="30">
-        <v>-1</v>
-      </c>
-      <c r="M200" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:13" s="9" customFormat="1">
-      <c r="A201" s="9">
-        <v>16699</v>
-      </c>
-      <c r="B201" s="57">
-        <v>1</v>
-      </c>
-      <c r="C201" s="58" t="s">
-        <v>1014</v>
-      </c>
+      <c r="E199" s="58"/>
+      <c r="F199" s="58"/>
+      <c r="G199" s="57"/>
+      <c r="H199" s="57"/>
+      <c r="I199" s="57"/>
+      <c r="J199" s="57"/>
+    </row>
+    <row r="200" spans="2:10" s="9" customFormat="1">
+      <c r="B200" s="57"/>
+      <c r="C200" s="58"/>
+      <c r="D200" s="57"/>
+      <c r="E200" s="58"/>
+      <c r="F200" s="58"/>
+      <c r="G200" s="57"/>
+      <c r="H200" s="57"/>
+      <c r="I200" s="57"/>
+      <c r="J200" s="57"/>
+    </row>
+    <row r="201" spans="2:10" s="9" customFormat="1">
+      <c r="B201" s="57"/>
+      <c r="C201" s="58"/>
       <c r="D201" s="58"/>
-      <c r="E201" s="58" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F201" s="58" t="s">
-        <v>1018</v>
-      </c>
-      <c r="G201" s="57">
-        <v>16699</v>
-      </c>
-      <c r="H201" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I201" s="57">
-        <v>7</v>
-      </c>
-      <c r="J201" s="75">
-        <v>1605046400</v>
-      </c>
-      <c r="K201" s="30">
-        <v>32503651200</v>
-      </c>
-      <c r="L201" s="30">
-        <v>-1</v>
-      </c>
-      <c r="M201" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:13" s="9" customFormat="1">
-      <c r="A202" s="9">
-        <v>16700</v>
-      </c>
-      <c r="B202" s="57">
-        <v>1</v>
-      </c>
-      <c r="C202" s="58" t="s">
-        <v>1011</v>
-      </c>
+      <c r="E201" s="58"/>
+      <c r="F201" s="57"/>
+      <c r="G201" s="57"/>
+      <c r="H201" s="57"/>
+      <c r="I201" s="57"/>
+      <c r="J201" s="57"/>
+    </row>
+    <row r="202" spans="2:10" s="9" customFormat="1">
+      <c r="B202" s="57"/>
+      <c r="C202" s="58"/>
       <c r="D202" s="58"/>
-      <c r="E202" s="58" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F202" s="58" t="s">
-        <v>1018</v>
-      </c>
-      <c r="G202" s="57">
-        <v>16700</v>
-      </c>
-      <c r="H202" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I202" s="57">
-        <v>7</v>
-      </c>
-      <c r="J202" s="75">
-        <v>1605046400</v>
-      </c>
-      <c r="K202" s="30">
-        <v>32503651200</v>
-      </c>
-      <c r="L202" s="30">
-        <v>-1</v>
-      </c>
-      <c r="M202" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:13" s="9" customFormat="1">
-      <c r="A203" s="9">
-        <v>16701</v>
-      </c>
-      <c r="B203" s="57">
-        <v>1</v>
-      </c>
-      <c r="C203" s="58" t="s">
-        <v>1012</v>
-      </c>
+      <c r="E202" s="58"/>
+      <c r="F202" s="58"/>
+      <c r="G202" s="57"/>
+      <c r="H202" s="57"/>
+      <c r="I202" s="57"/>
+      <c r="J202" s="57"/>
+    </row>
+    <row r="203" spans="2:10" s="9" customFormat="1">
+      <c r="B203" s="57"/>
+      <c r="C203" s="58"/>
       <c r="D203" s="58"/>
-      <c r="E203" s="58" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F203" s="58" t="s">
-        <v>1018</v>
-      </c>
-      <c r="G203" s="57">
-        <v>16701</v>
-      </c>
-      <c r="H203" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I203" s="57">
-        <v>7</v>
-      </c>
-      <c r="J203" s="75">
-        <v>1605046400</v>
-      </c>
-      <c r="K203" s="30">
-        <v>32503651200</v>
-      </c>
-      <c r="L203" s="30">
-        <v>-1</v>
-      </c>
-      <c r="M203" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:13" s="9" customFormat="1">
-      <c r="A204" s="9">
-        <v>16702</v>
-      </c>
-      <c r="B204" s="57">
-        <v>1</v>
-      </c>
-      <c r="C204" s="58" t="s">
-        <v>1013</v>
-      </c>
+      <c r="E203" s="58"/>
+      <c r="F203" s="58"/>
+      <c r="G203" s="57"/>
+      <c r="H203" s="57"/>
+      <c r="I203" s="57"/>
+      <c r="J203" s="57"/>
+    </row>
+    <row r="204" spans="2:10" s="9" customFormat="1">
+      <c r="B204" s="57"/>
+      <c r="C204" s="58"/>
       <c r="D204" s="58"/>
-      <c r="E204" s="58" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F204" s="58" t="s">
-        <v>1018</v>
-      </c>
-      <c r="G204" s="57">
-        <v>16702</v>
-      </c>
-      <c r="H204" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I204" s="57">
-        <v>7</v>
-      </c>
-      <c r="J204" s="75">
-        <v>1605046400</v>
-      </c>
-      <c r="K204" s="30">
-        <v>32503651200</v>
-      </c>
-      <c r="L204" s="30">
-        <v>-1</v>
-      </c>
-      <c r="M204" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:13" s="9" customFormat="1">
-      <c r="A205" s="9">
-        <v>16703</v>
-      </c>
-      <c r="B205" s="57">
-        <v>1</v>
-      </c>
-      <c r="C205" s="58" t="s">
-        <v>1015</v>
-      </c>
+      <c r="E204" s="58"/>
+      <c r="F204" s="58"/>
+      <c r="G204" s="57"/>
+      <c r="H204" s="57"/>
+      <c r="I204" s="57"/>
+      <c r="J204" s="57"/>
+    </row>
+    <row r="205" spans="2:10" s="9" customFormat="1">
+      <c r="B205" s="57"/>
+      <c r="C205" s="58"/>
       <c r="D205" s="58"/>
-      <c r="E205" s="58" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F205" s="58" t="s">
-        <v>1018</v>
-      </c>
-      <c r="G205" s="57">
-        <v>16703</v>
-      </c>
-      <c r="H205" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I205" s="57">
-        <v>7</v>
-      </c>
-      <c r="J205" s="75">
-        <v>1605046400</v>
-      </c>
-      <c r="K205" s="30">
-        <v>32503651200</v>
-      </c>
-      <c r="L205" s="30">
-        <v>-1</v>
-      </c>
-      <c r="M205" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:13" s="9" customFormat="1">
+      <c r="E205" s="58"/>
+      <c r="F205" s="58"/>
+      <c r="G205" s="57"/>
+      <c r="H205" s="57"/>
+      <c r="I205" s="57"/>
+      <c r="J205" s="57"/>
+    </row>
+    <row r="206" spans="2:10" s="9" customFormat="1">
       <c r="B206" s="57"/>
       <c r="C206" s="58"/>
       <c r="D206" s="58"/>
@@ -14793,7 +13945,7 @@
       <c r="I206" s="57"/>
       <c r="J206" s="57"/>
     </row>
-    <row r="207" spans="1:13" s="9" customFormat="1">
+    <row r="207" spans="2:10" s="9" customFormat="1">
       <c r="B207" s="57"/>
       <c r="C207" s="58"/>
       <c r="D207" s="58"/>
@@ -14804,7 +13956,7 @@
       <c r="I207" s="57"/>
       <c r="J207" s="57"/>
     </row>
-    <row r="208" spans="1:13" s="9" customFormat="1">
+    <row r="208" spans="2:10" s="9" customFormat="1">
       <c r="B208" s="57"/>
       <c r="C208" s="58"/>
       <c r="D208" s="58"/>
@@ -14842,7 +13994,7 @@
       <c r="C211" s="58"/>
       <c r="D211" s="58"/>
       <c r="E211" s="58"/>
-      <c r="F211" s="57"/>
+      <c r="F211" s="58"/>
       <c r="G211" s="57"/>
       <c r="H211" s="57"/>
       <c r="I211" s="57"/>
@@ -14963,7 +14115,7 @@
       <c r="C222" s="58"/>
       <c r="D222" s="58"/>
       <c r="E222" s="58"/>
-      <c r="F222" s="57"/>
+      <c r="F222" s="58"/>
       <c r="G222" s="57"/>
       <c r="H222" s="57"/>
       <c r="I222" s="57"/>
@@ -14972,7 +14124,7 @@
     <row r="223" spans="2:10" s="9" customFormat="1">
       <c r="B223" s="57"/>
       <c r="C223" s="58"/>
-      <c r="D223" s="57"/>
+      <c r="D223" s="58"/>
       <c r="E223" s="58"/>
       <c r="F223" s="58"/>
       <c r="G223" s="57"/>
@@ -14983,7 +14135,7 @@
     <row r="224" spans="2:10" s="9" customFormat="1">
       <c r="B224" s="57"/>
       <c r="C224" s="58"/>
-      <c r="D224" s="57"/>
+      <c r="D224" s="58"/>
       <c r="E224" s="58"/>
       <c r="F224" s="58"/>
       <c r="G224" s="57"/>
@@ -14993,7 +14145,7 @@
     </row>
     <row r="225" spans="2:10" s="9" customFormat="1">
       <c r="B225" s="57"/>
-      <c r="C225" s="58"/>
+      <c r="C225" s="57"/>
       <c r="D225" s="57"/>
       <c r="E225" s="58"/>
       <c r="F225" s="58"/>
@@ -15005,7 +14157,7 @@
     <row r="226" spans="2:10" s="9" customFormat="1">
       <c r="B226" s="57"/>
       <c r="C226" s="58"/>
-      <c r="D226" s="57"/>
+      <c r="D226" s="58"/>
       <c r="E226" s="58"/>
       <c r="F226" s="58"/>
       <c r="G226" s="57"/>
@@ -15016,7 +14168,7 @@
     <row r="227" spans="2:10" s="9" customFormat="1">
       <c r="B227" s="57"/>
       <c r="C227" s="58"/>
-      <c r="D227" s="57"/>
+      <c r="D227" s="58"/>
       <c r="E227" s="58"/>
       <c r="F227" s="58"/>
       <c r="G227" s="57"/>
@@ -15027,7 +14179,7 @@
     <row r="228" spans="2:10" s="9" customFormat="1">
       <c r="B228" s="57"/>
       <c r="C228" s="58"/>
-      <c r="D228" s="57"/>
+      <c r="D228" s="58"/>
       <c r="E228" s="58"/>
       <c r="F228" s="58"/>
       <c r="G228" s="57"/>
@@ -15038,7 +14190,7 @@
     <row r="229" spans="2:10" s="9" customFormat="1">
       <c r="B229" s="57"/>
       <c r="C229" s="58"/>
-      <c r="D229" s="57"/>
+      <c r="D229" s="58"/>
       <c r="E229" s="58"/>
       <c r="F229" s="58"/>
       <c r="G229" s="57"/>
@@ -15049,7 +14201,7 @@
     <row r="230" spans="2:10" s="9" customFormat="1">
       <c r="B230" s="57"/>
       <c r="C230" s="58"/>
-      <c r="D230" s="57"/>
+      <c r="D230" s="58"/>
       <c r="E230" s="58"/>
       <c r="F230" s="58"/>
       <c r="G230" s="57"/>
@@ -15062,7 +14214,7 @@
       <c r="C231" s="58"/>
       <c r="D231" s="58"/>
       <c r="E231" s="58"/>
-      <c r="F231" s="57"/>
+      <c r="F231" s="58"/>
       <c r="G231" s="57"/>
       <c r="H231" s="57"/>
       <c r="I231" s="57"/>
@@ -15106,7 +14258,7 @@
       <c r="C235" s="58"/>
       <c r="D235" s="58"/>
       <c r="E235" s="58"/>
-      <c r="F235" s="58"/>
+      <c r="F235" s="57"/>
       <c r="G235" s="57"/>
       <c r="H235" s="57"/>
       <c r="I235" s="57"/>
@@ -15172,7 +14324,7 @@
       <c r="C241" s="58"/>
       <c r="D241" s="58"/>
       <c r="E241" s="58"/>
-      <c r="F241" s="58"/>
+      <c r="F241" s="57"/>
       <c r="G241" s="57"/>
       <c r="H241" s="57"/>
       <c r="I241" s="57"/>
@@ -15323,8 +14475,8 @@
     </row>
     <row r="255" spans="2:10" s="9" customFormat="1">
       <c r="B255" s="57"/>
-      <c r="C255" s="57"/>
-      <c r="D255" s="57"/>
+      <c r="C255" s="58"/>
+      <c r="D255" s="58"/>
       <c r="E255" s="58"/>
       <c r="F255" s="58"/>
       <c r="G255" s="57"/>
@@ -15433,10 +14585,10 @@
     </row>
     <row r="265" spans="2:10" s="9" customFormat="1">
       <c r="B265" s="57"/>
-      <c r="C265" s="58"/>
+      <c r="C265" s="57"/>
       <c r="D265" s="58"/>
       <c r="E265" s="58"/>
-      <c r="F265" s="57"/>
+      <c r="F265" s="58"/>
       <c r="G265" s="57"/>
       <c r="H265" s="57"/>
       <c r="I265" s="57"/>
@@ -15445,7 +14597,7 @@
     <row r="266" spans="2:10" s="9" customFormat="1">
       <c r="B266" s="57"/>
       <c r="C266" s="58"/>
-      <c r="D266" s="58"/>
+      <c r="D266" s="63"/>
       <c r="E266" s="58"/>
       <c r="F266" s="58"/>
       <c r="G266" s="57"/>
@@ -15469,7 +14621,7 @@
       <c r="C268" s="58"/>
       <c r="D268" s="58"/>
       <c r="E268" s="58"/>
-      <c r="F268" s="58"/>
+      <c r="F268" s="57"/>
       <c r="G268" s="57"/>
       <c r="H268" s="57"/>
       <c r="I268" s="57"/>
@@ -15477,7 +14629,7 @@
     </row>
     <row r="269" spans="2:10" s="9" customFormat="1">
       <c r="B269" s="57"/>
-      <c r="C269" s="58"/>
+      <c r="C269" s="57"/>
       <c r="D269" s="58"/>
       <c r="E269" s="58"/>
       <c r="F269" s="58"/>
@@ -15502,7 +14654,7 @@
       <c r="C271" s="58"/>
       <c r="D271" s="58"/>
       <c r="E271" s="58"/>
-      <c r="F271" s="57"/>
+      <c r="F271" s="58"/>
       <c r="G271" s="57"/>
       <c r="H271" s="57"/>
       <c r="I271" s="57"/>
@@ -15763,7 +14915,7 @@
     </row>
     <row r="295" spans="2:10" s="9" customFormat="1">
       <c r="B295" s="57"/>
-      <c r="C295" s="57"/>
+      <c r="C295" s="58"/>
       <c r="D295" s="58"/>
       <c r="E295" s="58"/>
       <c r="F295" s="58"/>
@@ -15775,7 +14927,7 @@
     <row r="296" spans="2:10" s="9" customFormat="1">
       <c r="B296" s="57"/>
       <c r="C296" s="58"/>
-      <c r="D296" s="63"/>
+      <c r="D296" s="58"/>
       <c r="E296" s="58"/>
       <c r="F296" s="58"/>
       <c r="G296" s="57"/>
@@ -15799,7 +14951,7 @@
       <c r="C298" s="58"/>
       <c r="D298" s="58"/>
       <c r="E298" s="58"/>
-      <c r="F298" s="57"/>
+      <c r="F298" s="58"/>
       <c r="G298" s="57"/>
       <c r="H298" s="57"/>
       <c r="I298" s="57"/>
@@ -15807,7 +14959,7 @@
     </row>
     <row r="299" spans="2:10" s="9" customFormat="1">
       <c r="B299" s="57"/>
-      <c r="C299" s="57"/>
+      <c r="C299" s="58"/>
       <c r="D299" s="58"/>
       <c r="E299" s="58"/>
       <c r="F299" s="58"/>
@@ -15962,7 +15114,7 @@
     <row r="313" spans="2:10" s="9" customFormat="1">
       <c r="B313" s="57"/>
       <c r="C313" s="58"/>
-      <c r="D313" s="58"/>
+      <c r="D313" s="57"/>
       <c r="E313" s="58"/>
       <c r="F313" s="58"/>
       <c r="G313" s="57"/>
@@ -16226,22 +15378,22 @@
     <row r="337" spans="2:10" s="9" customFormat="1">
       <c r="B337" s="57"/>
       <c r="C337" s="58"/>
-      <c r="D337" s="58"/>
+      <c r="D337" s="64"/>
       <c r="E337" s="58"/>
       <c r="F337" s="58"/>
       <c r="G337" s="57"/>
-      <c r="H337" s="57"/>
+      <c r="H337" s="58"/>
       <c r="I337" s="57"/>
       <c r="J337" s="57"/>
     </row>
     <row r="338" spans="2:10" s="9" customFormat="1">
       <c r="B338" s="57"/>
       <c r="C338" s="58"/>
-      <c r="D338" s="58"/>
+      <c r="D338" s="64"/>
       <c r="E338" s="58"/>
       <c r="F338" s="58"/>
       <c r="G338" s="57"/>
-      <c r="H338" s="57"/>
+      <c r="H338" s="58"/>
       <c r="I338" s="57"/>
       <c r="J338" s="57"/>
     </row>
@@ -16252,7 +15404,7 @@
       <c r="E339" s="58"/>
       <c r="F339" s="58"/>
       <c r="G339" s="57"/>
-      <c r="H339" s="57"/>
+      <c r="H339" s="58"/>
       <c r="I339" s="57"/>
       <c r="J339" s="57"/>
     </row>
@@ -16263,11 +15415,11 @@
       <c r="E340" s="58"/>
       <c r="F340" s="58"/>
       <c r="G340" s="57"/>
-      <c r="H340" s="57"/>
+      <c r="H340" s="58"/>
       <c r="I340" s="57"/>
       <c r="J340" s="57"/>
     </row>
-    <row r="341" spans="2:10" s="9" customFormat="1">
+    <row r="341" spans="2:10" s="9" customFormat="1" ht="13.5" customHeight="1">
       <c r="B341" s="57"/>
       <c r="C341" s="58"/>
       <c r="D341" s="58"/>
@@ -16278,7 +15430,7 @@
       <c r="I341" s="57"/>
       <c r="J341" s="57"/>
     </row>
-    <row r="342" spans="2:10" s="9" customFormat="1">
+    <row r="342" spans="2:10" s="9" customFormat="1" ht="13.5" customHeight="1">
       <c r="B342" s="57"/>
       <c r="C342" s="58"/>
       <c r="D342" s="58"/>
@@ -16289,10 +15441,10 @@
       <c r="I342" s="57"/>
       <c r="J342" s="57"/>
     </row>
-    <row r="343" spans="2:10" s="9" customFormat="1">
+    <row r="343" spans="2:10" s="9" customFormat="1" ht="13.5" customHeight="1">
       <c r="B343" s="57"/>
       <c r="C343" s="58"/>
-      <c r="D343" s="57"/>
+      <c r="D343" s="58"/>
       <c r="E343" s="58"/>
       <c r="F343" s="58"/>
       <c r="G343" s="57"/>
@@ -16300,99 +15452,99 @@
       <c r="I343" s="57"/>
       <c r="J343" s="57"/>
     </row>
-    <row r="344" spans="2:10" s="9" customFormat="1">
+    <row r="344" spans="2:10" s="9" customFormat="1" ht="13.5" customHeight="1">
       <c r="B344" s="57"/>
       <c r="C344" s="58"/>
       <c r="D344" s="58"/>
-      <c r="E344" s="58"/>
+      <c r="E344" s="68"/>
       <c r="F344" s="58"/>
       <c r="G344" s="57"/>
       <c r="H344" s="57"/>
       <c r="I344" s="57"/>
       <c r="J344" s="57"/>
     </row>
-    <row r="345" spans="2:10" s="9" customFormat="1">
+    <row r="345" spans="2:10" s="9" customFormat="1" ht="13.5" customHeight="1">
       <c r="B345" s="57"/>
       <c r="C345" s="58"/>
       <c r="D345" s="58"/>
-      <c r="E345" s="58"/>
+      <c r="E345" s="68"/>
       <c r="F345" s="58"/>
       <c r="G345" s="57"/>
       <c r="H345" s="57"/>
       <c r="I345" s="57"/>
       <c r="J345" s="57"/>
     </row>
-    <row r="346" spans="2:10" s="9" customFormat="1">
+    <row r="346" spans="2:10" s="9" customFormat="1" ht="16.5">
       <c r="B346" s="57"/>
       <c r="C346" s="58"/>
       <c r="D346" s="58"/>
-      <c r="E346" s="58"/>
+      <c r="E346" s="68"/>
       <c r="F346" s="58"/>
       <c r="G346" s="57"/>
       <c r="H346" s="57"/>
       <c r="I346" s="57"/>
       <c r="J346" s="57"/>
     </row>
-    <row r="347" spans="2:10" s="9" customFormat="1">
+    <row r="347" spans="2:10" s="9" customFormat="1" ht="16.5">
       <c r="B347" s="57"/>
       <c r="C347" s="58"/>
       <c r="D347" s="58"/>
-      <c r="E347" s="58"/>
+      <c r="E347" s="68"/>
       <c r="F347" s="58"/>
       <c r="G347" s="57"/>
       <c r="H347" s="57"/>
       <c r="I347" s="57"/>
       <c r="J347" s="57"/>
     </row>
-    <row r="348" spans="2:10" s="9" customFormat="1">
+    <row r="348" spans="2:10" s="9" customFormat="1" ht="16.5">
       <c r="B348" s="57"/>
       <c r="C348" s="58"/>
       <c r="D348" s="58"/>
-      <c r="E348" s="58"/>
+      <c r="E348" s="68"/>
       <c r="F348" s="58"/>
       <c r="G348" s="57"/>
       <c r="H348" s="57"/>
       <c r="I348" s="57"/>
       <c r="J348" s="57"/>
     </row>
-    <row r="349" spans="2:10" s="9" customFormat="1">
+    <row r="349" spans="2:10" s="9" customFormat="1" ht="16.5">
       <c r="B349" s="57"/>
       <c r="C349" s="58"/>
       <c r="D349" s="58"/>
-      <c r="E349" s="58"/>
+      <c r="E349" s="68"/>
       <c r="F349" s="58"/>
       <c r="G349" s="57"/>
       <c r="H349" s="57"/>
       <c r="I349" s="57"/>
       <c r="J349" s="57"/>
     </row>
-    <row r="350" spans="2:10" s="9" customFormat="1">
+    <row r="350" spans="2:10" s="9" customFormat="1" ht="16.5">
       <c r="B350" s="57"/>
       <c r="C350" s="58"/>
       <c r="D350" s="58"/>
-      <c r="E350" s="58"/>
+      <c r="E350" s="68"/>
       <c r="F350" s="58"/>
       <c r="G350" s="57"/>
       <c r="H350" s="57"/>
       <c r="I350" s="57"/>
       <c r="J350" s="57"/>
     </row>
-    <row r="351" spans="2:10" s="9" customFormat="1">
+    <row r="351" spans="2:10" s="9" customFormat="1" ht="16.5">
       <c r="B351" s="57"/>
       <c r="C351" s="58"/>
       <c r="D351" s="58"/>
-      <c r="E351" s="58"/>
+      <c r="E351" s="68"/>
       <c r="F351" s="58"/>
       <c r="G351" s="57"/>
       <c r="H351" s="57"/>
       <c r="I351" s="57"/>
       <c r="J351" s="57"/>
     </row>
-    <row r="352" spans="2:10" s="9" customFormat="1">
+    <row r="352" spans="2:10" s="9" customFormat="1" ht="16.5">
       <c r="B352" s="57"/>
       <c r="C352" s="58"/>
       <c r="D352" s="58"/>
-      <c r="E352" s="58"/>
+      <c r="E352" s="68"/>
       <c r="F352" s="58"/>
       <c r="G352" s="57"/>
       <c r="H352" s="57"/>
@@ -16498,18 +15650,18 @@
       <c r="I361" s="57"/>
       <c r="J361" s="57"/>
     </row>
-    <row r="362" spans="2:10" s="9" customFormat="1">
+    <row r="362" spans="2:10" s="9" customFormat="1" ht="15.75" customHeight="1">
       <c r="B362" s="57"/>
       <c r="C362" s="58"/>
-      <c r="D362" s="58"/>
-      <c r="E362" s="58"/>
+      <c r="D362" s="57"/>
+      <c r="E362" s="68"/>
       <c r="F362" s="58"/>
       <c r="G362" s="57"/>
       <c r="H362" s="57"/>
       <c r="I362" s="57"/>
       <c r="J362" s="57"/>
     </row>
-    <row r="363" spans="2:10" s="9" customFormat="1">
+    <row r="363" spans="2:10" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="B363" s="57"/>
       <c r="C363" s="58"/>
       <c r="D363" s="58"/>
@@ -16556,70 +15708,70 @@
     <row r="367" spans="2:10" s="9" customFormat="1">
       <c r="B367" s="57"/>
       <c r="C367" s="58"/>
-      <c r="D367" s="64"/>
+      <c r="D367" s="58"/>
       <c r="E367" s="58"/>
       <c r="F367" s="58"/>
       <c r="G367" s="57"/>
-      <c r="H367" s="58"/>
+      <c r="H367" s="57"/>
       <c r="I367" s="57"/>
       <c r="J367" s="57"/>
     </row>
     <row r="368" spans="2:10" s="9" customFormat="1">
       <c r="B368" s="57"/>
       <c r="C368" s="58"/>
-      <c r="D368" s="64"/>
+      <c r="D368" s="58"/>
       <c r="E368" s="58"/>
       <c r="F368" s="58"/>
       <c r="G368" s="57"/>
-      <c r="H368" s="58"/>
+      <c r="H368" s="57"/>
       <c r="I368" s="57"/>
       <c r="J368" s="57"/>
     </row>
     <row r="369" spans="2:10" s="9" customFormat="1">
       <c r="B369" s="57"/>
-      <c r="C369" s="58"/>
+      <c r="C369" s="57"/>
       <c r="D369" s="58"/>
       <c r="E369" s="58"/>
-      <c r="F369" s="58"/>
+      <c r="F369" s="57"/>
       <c r="G369" s="57"/>
-      <c r="H369" s="58"/>
+      <c r="H369" s="57"/>
       <c r="I369" s="57"/>
       <c r="J369" s="57"/>
     </row>
     <row r="370" spans="2:10" s="9" customFormat="1">
       <c r="B370" s="57"/>
-      <c r="C370" s="58"/>
+      <c r="C370" s="57"/>
       <c r="D370" s="58"/>
       <c r="E370" s="58"/>
-      <c r="F370" s="58"/>
+      <c r="F370" s="57"/>
       <c r="G370" s="57"/>
-      <c r="H370" s="58"/>
+      <c r="H370" s="57"/>
       <c r="I370" s="57"/>
       <c r="J370" s="57"/>
     </row>
-    <row r="371" spans="2:10" s="9" customFormat="1" ht="13.5" customHeight="1">
+    <row r="371" spans="2:10" s="9" customFormat="1">
       <c r="B371" s="57"/>
-      <c r="C371" s="58"/>
+      <c r="C371" s="57"/>
       <c r="D371" s="58"/>
       <c r="E371" s="58"/>
-      <c r="F371" s="58"/>
+      <c r="F371" s="57"/>
       <c r="G371" s="57"/>
       <c r="H371" s="57"/>
       <c r="I371" s="57"/>
       <c r="J371" s="57"/>
     </row>
-    <row r="372" spans="2:10" s="9" customFormat="1" ht="13.5" customHeight="1">
+    <row r="372" spans="2:10" s="9" customFormat="1">
       <c r="B372" s="57"/>
       <c r="C372" s="58"/>
       <c r="D372" s="58"/>
       <c r="E372" s="58"/>
-      <c r="F372" s="58"/>
+      <c r="F372" s="57"/>
       <c r="G372" s="57"/>
       <c r="H372" s="57"/>
       <c r="I372" s="57"/>
       <c r="J372" s="57"/>
     </row>
-    <row r="373" spans="2:10" s="9" customFormat="1" ht="13.5" customHeight="1">
+    <row r="373" spans="2:10" s="9" customFormat="1">
       <c r="B373" s="57"/>
       <c r="C373" s="58"/>
       <c r="D373" s="58"/>
@@ -16630,100 +15782,100 @@
       <c r="I373" s="57"/>
       <c r="J373" s="57"/>
     </row>
-    <row r="374" spans="2:10" s="9" customFormat="1" ht="13.5" customHeight="1">
+    <row r="374" spans="2:10" s="9" customFormat="1">
       <c r="B374" s="57"/>
       <c r="C374" s="58"/>
       <c r="D374" s="58"/>
-      <c r="E374" s="68"/>
+      <c r="E374" s="58"/>
       <c r="F374" s="58"/>
       <c r="G374" s="57"/>
       <c r="H374" s="57"/>
       <c r="I374" s="57"/>
       <c r="J374" s="57"/>
     </row>
-    <row r="375" spans="2:10" s="9" customFormat="1" ht="13.5" customHeight="1">
+    <row r="375" spans="2:10" s="9" customFormat="1">
       <c r="B375" s="57"/>
       <c r="C375" s="58"/>
       <c r="D375" s="58"/>
-      <c r="E375" s="68"/>
+      <c r="E375" s="58"/>
       <c r="F375" s="58"/>
       <c r="G375" s="57"/>
       <c r="H375" s="57"/>
       <c r="I375" s="57"/>
       <c r="J375" s="57"/>
     </row>
-    <row r="376" spans="2:10" s="9" customFormat="1" ht="16.5">
+    <row r="376" spans="2:10" s="9" customFormat="1">
       <c r="B376" s="57"/>
       <c r="C376" s="58"/>
       <c r="D376" s="58"/>
-      <c r="E376" s="68"/>
+      <c r="E376" s="58"/>
       <c r="F376" s="58"/>
       <c r="G376" s="57"/>
       <c r="H376" s="57"/>
       <c r="I376" s="57"/>
       <c r="J376" s="57"/>
     </row>
-    <row r="377" spans="2:10" s="9" customFormat="1" ht="16.5">
+    <row r="377" spans="2:10" s="9" customFormat="1">
       <c r="B377" s="57"/>
       <c r="C377" s="58"/>
       <c r="D377" s="58"/>
-      <c r="E377" s="68"/>
+      <c r="E377" s="58"/>
       <c r="F377" s="58"/>
       <c r="G377" s="57"/>
       <c r="H377" s="57"/>
       <c r="I377" s="57"/>
       <c r="J377" s="57"/>
     </row>
-    <row r="378" spans="2:10" s="9" customFormat="1" ht="16.5">
+    <row r="378" spans="2:10" s="9" customFormat="1">
       <c r="B378" s="57"/>
       <c r="C378" s="58"/>
       <c r="D378" s="58"/>
-      <c r="E378" s="68"/>
+      <c r="E378" s="58"/>
       <c r="F378" s="58"/>
       <c r="G378" s="57"/>
       <c r="H378" s="57"/>
       <c r="I378" s="57"/>
       <c r="J378" s="57"/>
     </row>
-    <row r="379" spans="2:10" s="9" customFormat="1" ht="16.5">
+    <row r="379" spans="2:10" s="9" customFormat="1">
       <c r="B379" s="57"/>
       <c r="C379" s="58"/>
       <c r="D379" s="58"/>
-      <c r="E379" s="68"/>
+      <c r="E379" s="58"/>
       <c r="F379" s="58"/>
       <c r="G379" s="57"/>
       <c r="H379" s="57"/>
       <c r="I379" s="57"/>
       <c r="J379" s="57"/>
     </row>
-    <row r="380" spans="2:10" s="9" customFormat="1" ht="16.5">
+    <row r="380" spans="2:10" s="9" customFormat="1">
       <c r="B380" s="57"/>
       <c r="C380" s="58"/>
       <c r="D380" s="58"/>
-      <c r="E380" s="68"/>
+      <c r="E380" s="58"/>
       <c r="F380" s="58"/>
       <c r="G380" s="57"/>
       <c r="H380" s="57"/>
       <c r="I380" s="57"/>
       <c r="J380" s="57"/>
     </row>
-    <row r="381" spans="2:10" s="9" customFormat="1" ht="16.5">
+    <row r="381" spans="2:10" s="9" customFormat="1">
       <c r="B381" s="57"/>
-      <c r="C381" s="58"/>
-      <c r="D381" s="58"/>
-      <c r="E381" s="68"/>
-      <c r="F381" s="58"/>
+      <c r="C381" s="57"/>
+      <c r="D381" s="57"/>
+      <c r="E381" s="57"/>
+      <c r="F381" s="57"/>
       <c r="G381" s="57"/>
       <c r="H381" s="57"/>
       <c r="I381" s="57"/>
       <c r="J381" s="57"/>
     </row>
-    <row r="382" spans="2:10" s="9" customFormat="1" ht="16.5">
+    <row r="382" spans="2:10" s="9" customFormat="1">
       <c r="B382" s="57"/>
-      <c r="C382" s="58"/>
-      <c r="D382" s="58"/>
-      <c r="E382" s="68"/>
-      <c r="F382" s="58"/>
+      <c r="C382" s="57"/>
+      <c r="D382" s="57"/>
+      <c r="E382" s="57"/>
+      <c r="F382" s="57"/>
       <c r="G382" s="57"/>
       <c r="H382" s="57"/>
       <c r="I382" s="57"/>
@@ -16731,10 +15883,10 @@
     </row>
     <row r="383" spans="2:10" s="9" customFormat="1">
       <c r="B383" s="57"/>
-      <c r="C383" s="58"/>
+      <c r="C383" s="57"/>
       <c r="D383" s="58"/>
       <c r="E383" s="58"/>
-      <c r="F383" s="58"/>
+      <c r="F383" s="57"/>
       <c r="G383" s="57"/>
       <c r="H383" s="57"/>
       <c r="I383" s="57"/>
@@ -16745,7 +15897,7 @@
       <c r="C384" s="58"/>
       <c r="D384" s="58"/>
       <c r="E384" s="58"/>
-      <c r="F384" s="58"/>
+      <c r="F384" s="57"/>
       <c r="G384" s="57"/>
       <c r="H384" s="57"/>
       <c r="I384" s="57"/>
@@ -16756,7 +15908,7 @@
       <c r="C385" s="58"/>
       <c r="D385" s="58"/>
       <c r="E385" s="58"/>
-      <c r="F385" s="58"/>
+      <c r="F385" s="57"/>
       <c r="G385" s="57"/>
       <c r="H385" s="57"/>
       <c r="I385" s="57"/>
@@ -16767,7 +15919,7 @@
       <c r="C386" s="58"/>
       <c r="D386" s="58"/>
       <c r="E386" s="58"/>
-      <c r="F386" s="58"/>
+      <c r="F386" s="57"/>
       <c r="G386" s="57"/>
       <c r="H386" s="57"/>
       <c r="I386" s="57"/>
@@ -16778,7 +15930,7 @@
       <c r="C387" s="58"/>
       <c r="D387" s="58"/>
       <c r="E387" s="58"/>
-      <c r="F387" s="58"/>
+      <c r="F387" s="57"/>
       <c r="G387" s="57"/>
       <c r="H387" s="57"/>
       <c r="I387" s="57"/>
@@ -16789,7 +15941,7 @@
       <c r="C388" s="58"/>
       <c r="D388" s="58"/>
       <c r="E388" s="58"/>
-      <c r="F388" s="58"/>
+      <c r="F388" s="57"/>
       <c r="G388" s="57"/>
       <c r="H388" s="57"/>
       <c r="I388" s="57"/>
@@ -16800,7 +15952,7 @@
       <c r="C389" s="58"/>
       <c r="D389" s="58"/>
       <c r="E389" s="58"/>
-      <c r="F389" s="58"/>
+      <c r="F389" s="57"/>
       <c r="G389" s="57"/>
       <c r="H389" s="57"/>
       <c r="I389" s="57"/>
@@ -16811,7 +15963,7 @@
       <c r="C390" s="58"/>
       <c r="D390" s="58"/>
       <c r="E390" s="58"/>
-      <c r="F390" s="58"/>
+      <c r="F390" s="57"/>
       <c r="G390" s="57"/>
       <c r="H390" s="57"/>
       <c r="I390" s="57"/>
@@ -16822,24 +15974,24 @@
       <c r="C391" s="58"/>
       <c r="D391" s="58"/>
       <c r="E391" s="58"/>
-      <c r="F391" s="58"/>
+      <c r="F391" s="57"/>
       <c r="G391" s="57"/>
       <c r="H391" s="57"/>
       <c r="I391" s="57"/>
       <c r="J391" s="57"/>
     </row>
-    <row r="392" spans="2:10" s="9" customFormat="1" ht="15.75" customHeight="1">
+    <row r="392" spans="2:10" s="9" customFormat="1">
       <c r="B392" s="57"/>
       <c r="C392" s="58"/>
-      <c r="D392" s="57"/>
-      <c r="E392" s="68"/>
-      <c r="F392" s="58"/>
+      <c r="D392" s="58"/>
+      <c r="E392" s="58"/>
+      <c r="F392" s="57"/>
       <c r="G392" s="57"/>
       <c r="H392" s="57"/>
       <c r="I392" s="57"/>
       <c r="J392" s="57"/>
     </row>
-    <row r="393" spans="2:10" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="393" spans="2:10" s="9" customFormat="1">
       <c r="B393" s="57"/>
       <c r="C393" s="58"/>
       <c r="D393" s="58"/>
@@ -16866,7 +16018,7 @@
       <c r="C395" s="58"/>
       <c r="D395" s="58"/>
       <c r="E395" s="58"/>
-      <c r="F395" s="58"/>
+      <c r="F395" s="57"/>
       <c r="G395" s="57"/>
       <c r="H395" s="57"/>
       <c r="I395" s="57"/>
@@ -16877,7 +16029,7 @@
       <c r="C396" s="58"/>
       <c r="D396" s="58"/>
       <c r="E396" s="58"/>
-      <c r="F396" s="58"/>
+      <c r="F396" s="57"/>
       <c r="G396" s="57"/>
       <c r="H396" s="57"/>
       <c r="I396" s="57"/>
@@ -16888,7 +16040,7 @@
       <c r="C397" s="58"/>
       <c r="D397" s="58"/>
       <c r="E397" s="58"/>
-      <c r="F397" s="58"/>
+      <c r="F397" s="57"/>
       <c r="G397" s="57"/>
       <c r="H397" s="57"/>
       <c r="I397" s="57"/>
@@ -16896,10 +16048,10 @@
     </row>
     <row r="398" spans="2:10" s="9" customFormat="1">
       <c r="B398" s="57"/>
-      <c r="C398" s="58"/>
-      <c r="D398" s="58"/>
+      <c r="C398" s="57"/>
+      <c r="D398" s="57"/>
       <c r="E398" s="58"/>
-      <c r="F398" s="58"/>
+      <c r="F398" s="57"/>
       <c r="G398" s="57"/>
       <c r="H398" s="57"/>
       <c r="I398" s="57"/>
@@ -16907,10 +16059,10 @@
     </row>
     <row r="399" spans="2:10" s="9" customFormat="1">
       <c r="B399" s="57"/>
-      <c r="C399" s="57"/>
+      <c r="C399" s="58"/>
       <c r="D399" s="58"/>
       <c r="E399" s="58"/>
-      <c r="F399" s="57"/>
+      <c r="F399" s="58"/>
       <c r="G399" s="57"/>
       <c r="H399" s="57"/>
       <c r="I399" s="57"/>
@@ -16918,10 +16070,10 @@
     </row>
     <row r="400" spans="2:10" s="9" customFormat="1">
       <c r="B400" s="57"/>
-      <c r="C400" s="57"/>
+      <c r="C400" s="58"/>
       <c r="D400" s="58"/>
       <c r="E400" s="58"/>
-      <c r="F400" s="57"/>
+      <c r="F400" s="58"/>
       <c r="G400" s="57"/>
       <c r="H400" s="57"/>
       <c r="I400" s="57"/>
@@ -16929,10 +16081,10 @@
     </row>
     <row r="401" spans="2:10" s="9" customFormat="1">
       <c r="B401" s="57"/>
-      <c r="C401" s="57"/>
+      <c r="C401" s="58"/>
       <c r="D401" s="58"/>
       <c r="E401" s="58"/>
-      <c r="F401" s="57"/>
+      <c r="F401" s="58"/>
       <c r="G401" s="57"/>
       <c r="H401" s="57"/>
       <c r="I401" s="57"/>
@@ -16943,7 +16095,7 @@
       <c r="C402" s="58"/>
       <c r="D402" s="58"/>
       <c r="E402" s="58"/>
-      <c r="F402" s="57"/>
+      <c r="F402" s="58"/>
       <c r="G402" s="57"/>
       <c r="H402" s="57"/>
       <c r="I402" s="57"/>
@@ -17039,10 +16191,10 @@
     </row>
     <row r="411" spans="2:10" s="9" customFormat="1">
       <c r="B411" s="57"/>
-      <c r="C411" s="57"/>
-      <c r="D411" s="57"/>
-      <c r="E411" s="57"/>
-      <c r="F411" s="57"/>
+      <c r="C411" s="58"/>
+      <c r="D411" s="58"/>
+      <c r="E411" s="58"/>
+      <c r="F411" s="58"/>
       <c r="G411" s="57"/>
       <c r="H411" s="57"/>
       <c r="I411" s="57"/>
@@ -17050,10 +16202,10 @@
     </row>
     <row r="412" spans="2:10" s="9" customFormat="1">
       <c r="B412" s="57"/>
-      <c r="C412" s="57"/>
-      <c r="D412" s="57"/>
-      <c r="E412" s="57"/>
-      <c r="F412" s="57"/>
+      <c r="C412" s="58"/>
+      <c r="D412" s="58"/>
+      <c r="E412" s="58"/>
+      <c r="F412" s="58"/>
       <c r="G412" s="57"/>
       <c r="H412" s="57"/>
       <c r="I412" s="57"/>
@@ -17061,10 +16213,10 @@
     </row>
     <row r="413" spans="2:10" s="9" customFormat="1">
       <c r="B413" s="57"/>
-      <c r="C413" s="57"/>
+      <c r="C413" s="58"/>
       <c r="D413" s="58"/>
       <c r="E413" s="58"/>
-      <c r="F413" s="57"/>
+      <c r="F413" s="58"/>
       <c r="G413" s="57"/>
       <c r="H413" s="57"/>
       <c r="I413" s="57"/>
@@ -17075,7 +16227,7 @@
       <c r="C414" s="58"/>
       <c r="D414" s="58"/>
       <c r="E414" s="58"/>
-      <c r="F414" s="57"/>
+      <c r="F414" s="58"/>
       <c r="G414" s="57"/>
       <c r="H414" s="57"/>
       <c r="I414" s="57"/>
@@ -17086,7 +16238,7 @@
       <c r="C415" s="58"/>
       <c r="D415" s="58"/>
       <c r="E415" s="58"/>
-      <c r="F415" s="57"/>
+      <c r="F415" s="58"/>
       <c r="G415" s="57"/>
       <c r="H415" s="57"/>
       <c r="I415" s="57"/>
@@ -17094,82 +16246,82 @@
     </row>
     <row r="416" spans="2:10" s="9" customFormat="1">
       <c r="B416" s="57"/>
-      <c r="C416" s="58"/>
+      <c r="C416" s="57"/>
       <c r="D416" s="58"/>
       <c r="E416" s="58"/>
-      <c r="F416" s="57"/>
+      <c r="F416" s="58"/>
       <c r="G416" s="57"/>
       <c r="H416" s="57"/>
       <c r="I416" s="57"/>
       <c r="J416" s="57"/>
     </row>
-    <row r="417" spans="2:10" s="9" customFormat="1">
+    <row r="417" spans="1:10" s="9" customFormat="1">
       <c r="B417" s="57"/>
       <c r="C417" s="58"/>
       <c r="D417" s="58"/>
       <c r="E417" s="58"/>
-      <c r="F417" s="57"/>
+      <c r="F417" s="58"/>
       <c r="G417" s="57"/>
       <c r="H417" s="57"/>
       <c r="I417" s="57"/>
       <c r="J417" s="57"/>
     </row>
-    <row r="418" spans="2:10" s="9" customFormat="1">
+    <row r="418" spans="1:10" s="9" customFormat="1">
       <c r="B418" s="57"/>
-      <c r="C418" s="58"/>
+      <c r="C418" s="57"/>
       <c r="D418" s="58"/>
       <c r="E418" s="58"/>
-      <c r="F418" s="57"/>
+      <c r="F418" s="58"/>
       <c r="G418" s="57"/>
       <c r="H418" s="57"/>
       <c r="I418" s="57"/>
       <c r="J418" s="57"/>
     </row>
-    <row r="419" spans="2:10" s="9" customFormat="1">
+    <row r="419" spans="1:10" s="9" customFormat="1">
       <c r="B419" s="57"/>
       <c r="C419" s="58"/>
       <c r="D419" s="58"/>
       <c r="E419" s="58"/>
-      <c r="F419" s="57"/>
+      <c r="F419" s="58"/>
       <c r="G419" s="57"/>
       <c r="H419" s="57"/>
       <c r="I419" s="57"/>
       <c r="J419" s="57"/>
     </row>
-    <row r="420" spans="2:10" s="9" customFormat="1">
+    <row r="420" spans="1:10" s="9" customFormat="1">
       <c r="B420" s="57"/>
-      <c r="C420" s="58"/>
+      <c r="C420" s="57"/>
       <c r="D420" s="58"/>
       <c r="E420" s="58"/>
-      <c r="F420" s="57"/>
+      <c r="F420" s="58"/>
       <c r="G420" s="57"/>
       <c r="H420" s="57"/>
       <c r="I420" s="57"/>
       <c r="J420" s="57"/>
     </row>
-    <row r="421" spans="2:10" s="9" customFormat="1">
+    <row r="421" spans="1:10" s="9" customFormat="1">
       <c r="B421" s="57"/>
       <c r="C421" s="58"/>
       <c r="D421" s="58"/>
       <c r="E421" s="58"/>
-      <c r="F421" s="57"/>
+      <c r="F421" s="58"/>
       <c r="G421" s="57"/>
       <c r="H421" s="57"/>
       <c r="I421" s="57"/>
       <c r="J421" s="57"/>
     </row>
-    <row r="422" spans="2:10" s="9" customFormat="1">
+    <row r="422" spans="1:10" s="9" customFormat="1">
       <c r="B422" s="57"/>
-      <c r="C422" s="58"/>
+      <c r="C422" s="57"/>
       <c r="D422" s="58"/>
       <c r="E422" s="58"/>
-      <c r="F422" s="57"/>
+      <c r="F422" s="58"/>
       <c r="G422" s="57"/>
       <c r="H422" s="57"/>
       <c r="I422" s="57"/>
       <c r="J422" s="57"/>
     </row>
-    <row r="423" spans="2:10" s="9" customFormat="1">
+    <row r="423" spans="1:10" s="9" customFormat="1">
       <c r="B423" s="57"/>
       <c r="C423" s="58"/>
       <c r="D423" s="58"/>
@@ -17180,9 +16332,9 @@
       <c r="I423" s="57"/>
       <c r="J423" s="57"/>
     </row>
-    <row r="424" spans="2:10" s="9" customFormat="1">
+    <row r="424" spans="1:10" s="9" customFormat="1">
       <c r="B424" s="57"/>
-      <c r="C424" s="58"/>
+      <c r="C424" s="57"/>
       <c r="D424" s="58"/>
       <c r="E424" s="58"/>
       <c r="F424" s="58"/>
@@ -17191,90 +16343,91 @@
       <c r="I424" s="57"/>
       <c r="J424" s="57"/>
     </row>
-    <row r="425" spans="2:10" s="9" customFormat="1">
+    <row r="425" spans="1:10" s="9" customFormat="1">
       <c r="B425" s="57"/>
       <c r="C425" s="58"/>
       <c r="D425" s="58"/>
       <c r="E425" s="58"/>
-      <c r="F425" s="57"/>
+      <c r="F425" s="58"/>
       <c r="G425" s="57"/>
       <c r="H425" s="57"/>
       <c r="I425" s="57"/>
       <c r="J425" s="57"/>
     </row>
-    <row r="426" spans="2:10" s="9" customFormat="1">
+    <row r="426" spans="1:10" s="9" customFormat="1">
       <c r="B426" s="57"/>
       <c r="C426" s="58"/>
-      <c r="D426" s="58"/>
+      <c r="D426" s="64"/>
       <c r="E426" s="58"/>
-      <c r="F426" s="57"/>
+      <c r="F426" s="58"/>
       <c r="G426" s="57"/>
-      <c r="H426" s="57"/>
+      <c r="H426" s="58"/>
       <c r="I426" s="57"/>
       <c r="J426" s="57"/>
     </row>
-    <row r="427" spans="2:10" s="9" customFormat="1">
+    <row r="427" spans="1:10" s="9" customFormat="1">
       <c r="B427" s="57"/>
       <c r="C427" s="58"/>
-      <c r="D427" s="58"/>
+      <c r="D427" s="64"/>
       <c r="E427" s="58"/>
-      <c r="F427" s="57"/>
+      <c r="F427" s="58"/>
       <c r="G427" s="57"/>
-      <c r="H427" s="57"/>
+      <c r="H427" s="58"/>
       <c r="I427" s="57"/>
       <c r="J427" s="57"/>
     </row>
-    <row r="428" spans="2:10" s="9" customFormat="1">
+    <row r="428" spans="1:10" s="9" customFormat="1">
       <c r="B428" s="57"/>
-      <c r="C428" s="57"/>
-      <c r="D428" s="57"/>
+      <c r="C428" s="58"/>
+      <c r="D428" s="58"/>
       <c r="E428" s="58"/>
-      <c r="F428" s="57"/>
+      <c r="F428" s="58"/>
       <c r="G428" s="57"/>
-      <c r="H428" s="57"/>
+      <c r="H428" s="58"/>
       <c r="I428" s="57"/>
       <c r="J428" s="57"/>
     </row>
-    <row r="429" spans="2:10" s="9" customFormat="1">
+    <row r="429" spans="1:10" s="9" customFormat="1">
       <c r="B429" s="57"/>
-      <c r="C429" s="58"/>
-      <c r="D429" s="58"/>
+      <c r="C429" s="57"/>
+      <c r="D429" s="57"/>
       <c r="E429" s="58"/>
-      <c r="F429" s="58"/>
+      <c r="F429" s="57"/>
       <c r="G429" s="57"/>
-      <c r="H429" s="57"/>
+      <c r="H429" s="58"/>
       <c r="I429" s="57"/>
       <c r="J429" s="57"/>
     </row>
-    <row r="430" spans="2:10" s="9" customFormat="1">
+    <row r="430" spans="1:10" s="9" customFormat="1">
       <c r="B430" s="57"/>
-      <c r="C430" s="58"/>
-      <c r="D430" s="58"/>
-      <c r="E430" s="58"/>
+      <c r="C430" s="57"/>
+      <c r="D430" s="57"/>
+      <c r="E430" s="57"/>
       <c r="F430" s="58"/>
       <c r="G430" s="57"/>
-      <c r="H430" s="57"/>
+      <c r="H430" s="58"/>
       <c r="I430" s="57"/>
       <c r="J430" s="57"/>
     </row>
-    <row r="431" spans="2:10" s="9" customFormat="1">
+    <row r="431" spans="1:10" s="9" customFormat="1">
       <c r="B431" s="57"/>
-      <c r="C431" s="58"/>
-      <c r="D431" s="58"/>
-      <c r="E431" s="58"/>
-      <c r="F431" s="58"/>
+      <c r="C431" s="57"/>
+      <c r="D431" s="57"/>
+      <c r="E431" s="57"/>
+      <c r="F431" s="57"/>
       <c r="G431" s="57"/>
-      <c r="H431" s="57"/>
+      <c r="H431" s="58"/>
       <c r="I431" s="57"/>
       <c r="J431" s="57"/>
     </row>
-    <row r="432" spans="2:10" s="9" customFormat="1">
+    <row r="432" spans="1:10" s="9" customFormat="1">
+      <c r="A432" s="12"/>
       <c r="B432" s="57"/>
       <c r="C432" s="58"/>
       <c r="D432" s="58"/>
       <c r="E432" s="58"/>
       <c r="F432" s="58"/>
-      <c r="G432" s="57"/>
+      <c r="G432" s="58"/>
       <c r="H432" s="57"/>
       <c r="I432" s="57"/>
       <c r="J432" s="57"/>
@@ -17282,22 +16435,22 @@
     <row r="433" spans="2:10" s="9" customFormat="1">
       <c r="B433" s="57"/>
       <c r="C433" s="58"/>
-      <c r="D433" s="58"/>
+      <c r="D433" s="64"/>
       <c r="E433" s="58"/>
       <c r="F433" s="58"/>
       <c r="G433" s="57"/>
-      <c r="H433" s="57"/>
+      <c r="H433" s="58"/>
       <c r="I433" s="57"/>
       <c r="J433" s="57"/>
     </row>
     <row r="434" spans="2:10" s="9" customFormat="1">
       <c r="B434" s="57"/>
       <c r="C434" s="58"/>
-      <c r="D434" s="58"/>
+      <c r="D434" s="64"/>
       <c r="E434" s="58"/>
       <c r="F434" s="58"/>
       <c r="G434" s="57"/>
-      <c r="H434" s="57"/>
+      <c r="H434" s="58"/>
       <c r="I434" s="57"/>
       <c r="J434" s="57"/>
     </row>
@@ -17308,7 +16461,7 @@
       <c r="E435" s="58"/>
       <c r="F435" s="58"/>
       <c r="G435" s="57"/>
-      <c r="H435" s="57"/>
+      <c r="H435" s="58"/>
       <c r="I435" s="57"/>
       <c r="J435" s="57"/>
     </row>
@@ -17319,7 +16472,7 @@
       <c r="E436" s="58"/>
       <c r="F436" s="58"/>
       <c r="G436" s="57"/>
-      <c r="H436" s="57"/>
+      <c r="H436" s="58"/>
       <c r="I436" s="57"/>
       <c r="J436" s="57"/>
     </row>
@@ -17337,22 +16490,22 @@
     <row r="438" spans="2:10" s="9" customFormat="1">
       <c r="B438" s="57"/>
       <c r="C438" s="58"/>
-      <c r="D438" s="58"/>
+      <c r="D438" s="64"/>
       <c r="E438" s="58"/>
       <c r="F438" s="58"/>
       <c r="G438" s="57"/>
-      <c r="H438" s="57"/>
+      <c r="H438" s="58"/>
       <c r="I438" s="57"/>
       <c r="J438" s="57"/>
     </row>
     <row r="439" spans="2:10" s="9" customFormat="1">
       <c r="B439" s="57"/>
       <c r="C439" s="58"/>
-      <c r="D439" s="58"/>
+      <c r="D439" s="64"/>
       <c r="E439" s="58"/>
       <c r="F439" s="58"/>
       <c r="G439" s="57"/>
-      <c r="H439" s="57"/>
+      <c r="H439" s="58"/>
       <c r="I439" s="57"/>
       <c r="J439" s="57"/>
     </row>
@@ -17363,7 +16516,7 @@
       <c r="E440" s="58"/>
       <c r="F440" s="58"/>
       <c r="G440" s="57"/>
-      <c r="H440" s="57"/>
+      <c r="H440" s="58"/>
       <c r="I440" s="57"/>
       <c r="J440" s="57"/>
     </row>
@@ -17373,7 +16526,7 @@
       <c r="D441" s="58"/>
       <c r="E441" s="58"/>
       <c r="F441" s="58"/>
-      <c r="G441" s="57"/>
+      <c r="G441" s="69"/>
       <c r="H441" s="57"/>
       <c r="I441" s="57"/>
       <c r="J441" s="57"/>
@@ -17381,10 +16534,10 @@
     <row r="442" spans="2:10" s="9" customFormat="1">
       <c r="B442" s="57"/>
       <c r="C442" s="58"/>
-      <c r="D442" s="58"/>
+      <c r="D442" s="57"/>
       <c r="E442" s="58"/>
       <c r="F442" s="58"/>
-      <c r="G442" s="57"/>
+      <c r="G442" s="69"/>
       <c r="H442" s="57"/>
       <c r="I442" s="57"/>
       <c r="J442" s="57"/>
@@ -17392,7 +16545,7 @@
     <row r="443" spans="2:10" s="9" customFormat="1">
       <c r="B443" s="57"/>
       <c r="C443" s="58"/>
-      <c r="D443" s="58"/>
+      <c r="D443" s="57"/>
       <c r="E443" s="58"/>
       <c r="F443" s="58"/>
       <c r="G443" s="57"/>
@@ -17414,7 +16567,7 @@
     <row r="445" spans="2:10" s="9" customFormat="1">
       <c r="B445" s="57"/>
       <c r="C445" s="58"/>
-      <c r="D445" s="58"/>
+      <c r="D445" s="57"/>
       <c r="E445" s="58"/>
       <c r="F445" s="58"/>
       <c r="G445" s="57"/>
@@ -17424,8 +16577,8 @@
     </row>
     <row r="446" spans="2:10" s="9" customFormat="1">
       <c r="B446" s="57"/>
-      <c r="C446" s="57"/>
-      <c r="D446" s="58"/>
+      <c r="C446" s="58"/>
+      <c r="D446" s="57"/>
       <c r="E446" s="58"/>
       <c r="F446" s="58"/>
       <c r="G446" s="57"/>
@@ -17436,7 +16589,7 @@
     <row r="447" spans="2:10" s="9" customFormat="1">
       <c r="B447" s="57"/>
       <c r="C447" s="58"/>
-      <c r="D447" s="58"/>
+      <c r="D447" s="57"/>
       <c r="E447" s="58"/>
       <c r="F447" s="58"/>
       <c r="G447" s="57"/>
@@ -17446,30 +16599,30 @@
     </row>
     <row r="448" spans="2:10" s="9" customFormat="1">
       <c r="B448" s="57"/>
-      <c r="C448" s="57"/>
+      <c r="C448" s="58"/>
       <c r="D448" s="58"/>
       <c r="E448" s="58"/>
-      <c r="F448" s="58"/>
+      <c r="F448" s="57"/>
       <c r="G448" s="57"/>
       <c r="H448" s="57"/>
       <c r="I448" s="57"/>
       <c r="J448" s="57"/>
     </row>
-    <row r="449" spans="1:10" s="9" customFormat="1">
+    <row r="449" spans="2:10" s="9" customFormat="1">
       <c r="B449" s="57"/>
       <c r="C449" s="58"/>
       <c r="D449" s="58"/>
       <c r="E449" s="58"/>
-      <c r="F449" s="58"/>
+      <c r="F449" s="57"/>
       <c r="G449" s="57"/>
       <c r="H449" s="57"/>
       <c r="I449" s="57"/>
       <c r="J449" s="57"/>
     </row>
-    <row r="450" spans="1:10" s="9" customFormat="1">
+    <row r="450" spans="2:10" s="9" customFormat="1">
       <c r="B450" s="57"/>
       <c r="C450" s="57"/>
-      <c r="D450" s="58"/>
+      <c r="D450" s="57"/>
       <c r="E450" s="58"/>
       <c r="F450" s="58"/>
       <c r="G450" s="57"/>
@@ -17477,10 +16630,10 @@
       <c r="I450" s="57"/>
       <c r="J450" s="57"/>
     </row>
-    <row r="451" spans="1:10" s="9" customFormat="1">
+    <row r="451" spans="2:10" s="9" customFormat="1">
       <c r="B451" s="57"/>
       <c r="C451" s="58"/>
-      <c r="D451" s="58"/>
+      <c r="D451" s="57"/>
       <c r="E451" s="58"/>
       <c r="F451" s="58"/>
       <c r="G451" s="57"/>
@@ -17488,176 +16641,175 @@
       <c r="I451" s="57"/>
       <c r="J451" s="57"/>
     </row>
-    <row r="452" spans="1:10" s="9" customFormat="1">
+    <row r="452" spans="2:10" s="9" customFormat="1">
       <c r="B452" s="57"/>
-      <c r="C452" s="57"/>
+      <c r="C452" s="58"/>
       <c r="D452" s="58"/>
       <c r="E452" s="58"/>
-      <c r="F452" s="58"/>
+      <c r="F452" s="57"/>
       <c r="G452" s="57"/>
       <c r="H452" s="57"/>
       <c r="I452" s="57"/>
       <c r="J452" s="57"/>
     </row>
-    <row r="453" spans="1:10" s="9" customFormat="1">
+    <row r="453" spans="2:10" s="9" customFormat="1">
       <c r="B453" s="57"/>
       <c r="C453" s="58"/>
       <c r="D453" s="58"/>
       <c r="E453" s="58"/>
-      <c r="F453" s="58"/>
+      <c r="F453" s="57"/>
       <c r="G453" s="57"/>
       <c r="H453" s="57"/>
       <c r="I453" s="57"/>
       <c r="J453" s="57"/>
     </row>
-    <row r="454" spans="1:10" s="9" customFormat="1">
+    <row r="454" spans="2:10" s="9" customFormat="1">
       <c r="B454" s="57"/>
-      <c r="C454" s="57"/>
+      <c r="C454" s="58"/>
       <c r="D454" s="58"/>
       <c r="E454" s="58"/>
-      <c r="F454" s="58"/>
+      <c r="F454" s="57"/>
       <c r="G454" s="57"/>
       <c r="H454" s="57"/>
       <c r="I454" s="57"/>
       <c r="J454" s="57"/>
     </row>
-    <row r="455" spans="1:10" s="9" customFormat="1">
+    <row r="455" spans="2:10" s="9" customFormat="1">
       <c r="B455" s="57"/>
       <c r="C455" s="58"/>
       <c r="D455" s="58"/>
       <c r="E455" s="58"/>
-      <c r="F455" s="58"/>
+      <c r="F455" s="57"/>
       <c r="G455" s="57"/>
       <c r="H455" s="57"/>
       <c r="I455" s="57"/>
       <c r="J455" s="57"/>
     </row>
-    <row r="456" spans="1:10" s="9" customFormat="1">
+    <row r="456" spans="2:10" s="9" customFormat="1">
       <c r="B456" s="57"/>
       <c r="C456" s="58"/>
-      <c r="D456" s="64"/>
+      <c r="D456" s="58"/>
       <c r="E456" s="58"/>
-      <c r="F456" s="58"/>
+      <c r="F456" s="57"/>
       <c r="G456" s="57"/>
-      <c r="H456" s="58"/>
+      <c r="H456" s="57"/>
       <c r="I456" s="57"/>
       <c r="J456" s="57"/>
     </row>
-    <row r="457" spans="1:10" s="9" customFormat="1">
+    <row r="457" spans="2:10" s="9" customFormat="1">
       <c r="B457" s="57"/>
       <c r="C457" s="58"/>
-      <c r="D457" s="64"/>
+      <c r="D457" s="58"/>
       <c r="E457" s="58"/>
-      <c r="F457" s="58"/>
+      <c r="F457" s="57"/>
       <c r="G457" s="57"/>
-      <c r="H457" s="58"/>
+      <c r="H457" s="57"/>
       <c r="I457" s="57"/>
       <c r="J457" s="57"/>
     </row>
-    <row r="458" spans="1:10" s="9" customFormat="1">
+    <row r="458" spans="2:10" s="9" customFormat="1">
       <c r="B458" s="57"/>
       <c r="C458" s="58"/>
       <c r="D458" s="58"/>
       <c r="E458" s="58"/>
-      <c r="F458" s="58"/>
+      <c r="F458" s="57"/>
       <c r="G458" s="57"/>
-      <c r="H458" s="58"/>
+      <c r="H458" s="57"/>
       <c r="I458" s="57"/>
       <c r="J458" s="57"/>
     </row>
-    <row r="459" spans="1:10" s="9" customFormat="1">
+    <row r="459" spans="2:10" s="9" customFormat="1">
       <c r="B459" s="57"/>
-      <c r="C459" s="57"/>
-      <c r="D459" s="57"/>
+      <c r="C459" s="58"/>
+      <c r="D459" s="65"/>
       <c r="E459" s="58"/>
-      <c r="F459" s="57"/>
+      <c r="F459" s="58"/>
       <c r="G459" s="57"/>
-      <c r="H459" s="58"/>
+      <c r="H459" s="57"/>
       <c r="I459" s="57"/>
       <c r="J459" s="57"/>
     </row>
-    <row r="460" spans="1:10" s="9" customFormat="1">
+    <row r="460" spans="2:10" s="9" customFormat="1">
       <c r="B460" s="57"/>
-      <c r="C460" s="57"/>
-      <c r="D460" s="57"/>
-      <c r="E460" s="57"/>
+      <c r="C460" s="58"/>
+      <c r="D460" s="66"/>
+      <c r="E460" s="58"/>
       <c r="F460" s="58"/>
       <c r="G460" s="57"/>
-      <c r="H460" s="58"/>
+      <c r="H460" s="57"/>
       <c r="I460" s="57"/>
       <c r="J460" s="57"/>
     </row>
-    <row r="461" spans="1:10" s="9" customFormat="1">
+    <row r="461" spans="2:10" s="9" customFormat="1">
       <c r="B461" s="57"/>
-      <c r="C461" s="57"/>
-      <c r="D461" s="57"/>
-      <c r="E461" s="57"/>
-      <c r="F461" s="57"/>
+      <c r="C461" s="58"/>
+      <c r="D461" s="66"/>
+      <c r="E461" s="58"/>
+      <c r="F461" s="58"/>
       <c r="G461" s="57"/>
-      <c r="H461" s="58"/>
+      <c r="H461" s="57"/>
       <c r="I461" s="57"/>
       <c r="J461" s="57"/>
     </row>
-    <row r="462" spans="1:10" s="9" customFormat="1">
-      <c r="A462" s="12"/>
+    <row r="462" spans="2:10" s="9" customFormat="1">
       <c r="B462" s="57"/>
       <c r="C462" s="58"/>
-      <c r="D462" s="58"/>
+      <c r="D462" s="66"/>
       <c r="E462" s="58"/>
       <c r="F462" s="58"/>
-      <c r="G462" s="58"/>
+      <c r="G462" s="57"/>
       <c r="H462" s="57"/>
       <c r="I462" s="57"/>
       <c r="J462" s="57"/>
     </row>
-    <row r="463" spans="1:10" s="9" customFormat="1">
+    <row r="463" spans="2:10" s="9" customFormat="1">
       <c r="B463" s="57"/>
       <c r="C463" s="58"/>
-      <c r="D463" s="64"/>
+      <c r="D463" s="67"/>
       <c r="E463" s="58"/>
       <c r="F463" s="58"/>
       <c r="G463" s="57"/>
-      <c r="H463" s="58"/>
+      <c r="H463" s="57"/>
       <c r="I463" s="57"/>
       <c r="J463" s="57"/>
     </row>
-    <row r="464" spans="1:10" s="9" customFormat="1">
+    <row r="464" spans="2:10" s="9" customFormat="1">
       <c r="B464" s="57"/>
       <c r="C464" s="58"/>
-      <c r="D464" s="64"/>
+      <c r="D464" s="66"/>
       <c r="E464" s="58"/>
       <c r="F464" s="58"/>
       <c r="G464" s="57"/>
-      <c r="H464" s="58"/>
+      <c r="H464" s="57"/>
       <c r="I464" s="57"/>
       <c r="J464" s="57"/>
     </row>
     <row r="465" spans="2:10" s="9" customFormat="1">
       <c r="B465" s="57"/>
       <c r="C465" s="58"/>
-      <c r="D465" s="58"/>
+      <c r="D465" s="66"/>
       <c r="E465" s="58"/>
       <c r="F465" s="58"/>
       <c r="G465" s="57"/>
-      <c r="H465" s="58"/>
+      <c r="H465" s="57"/>
       <c r="I465" s="57"/>
       <c r="J465" s="57"/>
     </row>
     <row r="466" spans="2:10" s="9" customFormat="1">
       <c r="B466" s="57"/>
       <c r="C466" s="58"/>
-      <c r="D466" s="58"/>
+      <c r="D466" s="66"/>
       <c r="E466" s="58"/>
       <c r="F466" s="58"/>
       <c r="G466" s="57"/>
-      <c r="H466" s="58"/>
+      <c r="H466" s="57"/>
       <c r="I466" s="57"/>
       <c r="J466" s="57"/>
     </row>
     <row r="467" spans="2:10" s="9" customFormat="1">
       <c r="B467" s="57"/>
       <c r="C467" s="58"/>
-      <c r="D467" s="58"/>
+      <c r="D467" s="65"/>
       <c r="E467" s="58"/>
       <c r="F467" s="58"/>
       <c r="G467" s="57"/>
@@ -17668,43 +16820,43 @@
     <row r="468" spans="2:10" s="9" customFormat="1">
       <c r="B468" s="57"/>
       <c r="C468" s="58"/>
-      <c r="D468" s="64"/>
+      <c r="D468" s="65"/>
       <c r="E468" s="58"/>
       <c r="F468" s="58"/>
       <c r="G468" s="57"/>
-      <c r="H468" s="58"/>
+      <c r="H468" s="57"/>
       <c r="I468" s="57"/>
       <c r="J468" s="57"/>
     </row>
     <row r="469" spans="2:10" s="9" customFormat="1">
       <c r="B469" s="57"/>
       <c r="C469" s="58"/>
-      <c r="D469" s="64"/>
+      <c r="D469" s="65"/>
       <c r="E469" s="58"/>
       <c r="F469" s="58"/>
       <c r="G469" s="57"/>
-      <c r="H469" s="58"/>
+      <c r="H469" s="57"/>
       <c r="I469" s="57"/>
       <c r="J469" s="57"/>
     </row>
     <row r="470" spans="2:10" s="9" customFormat="1">
       <c r="B470" s="57"/>
       <c r="C470" s="58"/>
-      <c r="D470" s="58"/>
+      <c r="D470" s="65"/>
       <c r="E470" s="58"/>
       <c r="F470" s="58"/>
       <c r="G470" s="57"/>
-      <c r="H470" s="58"/>
+      <c r="H470" s="57"/>
       <c r="I470" s="57"/>
       <c r="J470" s="57"/>
     </row>
     <row r="471" spans="2:10" s="9" customFormat="1">
       <c r="B471" s="57"/>
       <c r="C471" s="58"/>
-      <c r="D471" s="58"/>
+      <c r="D471" s="67"/>
       <c r="E471" s="58"/>
       <c r="F471" s="58"/>
-      <c r="G471" s="69"/>
+      <c r="G471" s="57"/>
       <c r="H471" s="57"/>
       <c r="I471" s="57"/>
       <c r="J471" s="57"/>
@@ -17712,10 +16864,10 @@
     <row r="472" spans="2:10" s="9" customFormat="1">
       <c r="B472" s="57"/>
       <c r="C472" s="58"/>
-      <c r="D472" s="57"/>
+      <c r="D472" s="67"/>
       <c r="E472" s="58"/>
       <c r="F472" s="58"/>
-      <c r="G472" s="69"/>
+      <c r="G472" s="57"/>
       <c r="H472" s="57"/>
       <c r="I472" s="57"/>
       <c r="J472" s="57"/>
@@ -17723,7 +16875,7 @@
     <row r="473" spans="2:10" s="9" customFormat="1">
       <c r="B473" s="57"/>
       <c r="C473" s="58"/>
-      <c r="D473" s="57"/>
+      <c r="D473" s="67"/>
       <c r="E473" s="58"/>
       <c r="F473" s="58"/>
       <c r="G473" s="57"/>
@@ -17734,7 +16886,7 @@
     <row r="474" spans="2:10" s="9" customFormat="1">
       <c r="B474" s="57"/>
       <c r="C474" s="58"/>
-      <c r="D474" s="58"/>
+      <c r="D474" s="67"/>
       <c r="E474" s="58"/>
       <c r="F474" s="58"/>
       <c r="G474" s="57"/>
@@ -17742,175 +16894,175 @@
       <c r="I474" s="57"/>
       <c r="J474" s="57"/>
     </row>
-    <row r="475" spans="2:10" s="9" customFormat="1">
-      <c r="B475" s="57"/>
+    <row r="475" spans="2:10" s="12" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B475" s="58"/>
       <c r="C475" s="58"/>
-      <c r="D475" s="57"/>
+      <c r="D475" s="58"/>
       <c r="E475" s="58"/>
       <c r="F475" s="58"/>
-      <c r="G475" s="57"/>
-      <c r="H475" s="57"/>
-      <c r="I475" s="57"/>
-      <c r="J475" s="57"/>
+      <c r="G475" s="58"/>
+      <c r="H475" s="58"/>
+      <c r="I475" s="58"/>
+      <c r="J475" s="58"/>
     </row>
     <row r="476" spans="2:10" s="9" customFormat="1">
       <c r="B476" s="57"/>
-      <c r="C476" s="58"/>
+      <c r="C476" s="57"/>
       <c r="D476" s="57"/>
       <c r="E476" s="58"/>
       <c r="F476" s="58"/>
       <c r="G476" s="57"/>
-      <c r="H476" s="57"/>
+      <c r="H476" s="58"/>
       <c r="I476" s="57"/>
       <c r="J476" s="57"/>
     </row>
     <row r="477" spans="2:10" s="9" customFormat="1">
       <c r="B477" s="57"/>
-      <c r="C477" s="58"/>
+      <c r="C477" s="57"/>
       <c r="D477" s="57"/>
-      <c r="E477" s="58"/>
+      <c r="E477" s="57"/>
       <c r="F477" s="58"/>
       <c r="G477" s="57"/>
-      <c r="H477" s="57"/>
+      <c r="H477" s="58"/>
       <c r="I477" s="57"/>
       <c r="J477" s="57"/>
     </row>
     <row r="478" spans="2:10" s="9" customFormat="1">
       <c r="B478" s="57"/>
       <c r="C478" s="58"/>
-      <c r="D478" s="58"/>
-      <c r="E478" s="58"/>
+      <c r="D478" s="57"/>
+      <c r="E478" s="57"/>
       <c r="F478" s="57"/>
       <c r="G478" s="57"/>
-      <c r="H478" s="57"/>
+      <c r="H478" s="58"/>
       <c r="I478" s="57"/>
       <c r="J478" s="57"/>
     </row>
-    <row r="479" spans="2:10" s="9" customFormat="1">
+    <row r="479" spans="2:10" s="9" customFormat="1" ht="16.5">
       <c r="B479" s="57"/>
       <c r="C479" s="58"/>
-      <c r="D479" s="58"/>
+      <c r="D479" s="66"/>
       <c r="E479" s="58"/>
-      <c r="F479" s="57"/>
+      <c r="F479" s="68"/>
       <c r="G479" s="57"/>
-      <c r="H479" s="57"/>
+      <c r="H479" s="58"/>
       <c r="I479" s="57"/>
       <c r="J479" s="57"/>
     </row>
-    <row r="480" spans="2:10" s="9" customFormat="1">
+    <row r="480" spans="2:10" s="9" customFormat="1" ht="16.5">
       <c r="B480" s="57"/>
-      <c r="C480" s="57"/>
-      <c r="D480" s="57"/>
-      <c r="E480" s="58"/>
-      <c r="F480" s="58"/>
-      <c r="G480" s="57"/>
-      <c r="H480" s="57"/>
+      <c r="C480" s="62"/>
+      <c r="D480" s="58"/>
+      <c r="E480" s="68"/>
+      <c r="F480" s="57"/>
+      <c r="G480" s="58"/>
+      <c r="H480" s="58"/>
       <c r="I480" s="57"/>
       <c r="J480" s="57"/>
     </row>
-    <row r="481" spans="2:10" s="9" customFormat="1">
+    <row r="481" spans="1:15" s="9" customFormat="1" ht="16.5">
       <c r="B481" s="57"/>
-      <c r="C481" s="58"/>
-      <c r="D481" s="57"/>
-      <c r="E481" s="58"/>
-      <c r="F481" s="58"/>
+      <c r="C481" s="62"/>
+      <c r="D481" s="58"/>
+      <c r="E481" s="68"/>
+      <c r="F481" s="57"/>
       <c r="G481" s="57"/>
-      <c r="H481" s="57"/>
+      <c r="H481" s="58"/>
       <c r="I481" s="57"/>
       <c r="J481" s="57"/>
     </row>
-    <row r="482" spans="2:10" s="9" customFormat="1">
+    <row r="482" spans="1:15" s="9" customFormat="1" ht="16.5">
       <c r="B482" s="57"/>
-      <c r="C482" s="58"/>
+      <c r="C482" s="62"/>
       <c r="D482" s="58"/>
-      <c r="E482" s="58"/>
+      <c r="E482" s="68"/>
       <c r="F482" s="57"/>
-      <c r="G482" s="57"/>
-      <c r="H482" s="57"/>
+      <c r="G482" s="58"/>
+      <c r="H482" s="58"/>
       <c r="I482" s="57"/>
       <c r="J482" s="57"/>
     </row>
-    <row r="483" spans="2:10" s="9" customFormat="1">
+    <row r="483" spans="1:15" s="9" customFormat="1" ht="16.5">
       <c r="B483" s="57"/>
-      <c r="C483" s="58"/>
+      <c r="C483" s="62"/>
       <c r="D483" s="58"/>
-      <c r="E483" s="58"/>
+      <c r="E483" s="68"/>
       <c r="F483" s="57"/>
       <c r="G483" s="57"/>
-      <c r="H483" s="57"/>
+      <c r="H483" s="58"/>
       <c r="I483" s="57"/>
       <c r="J483" s="57"/>
     </row>
-    <row r="484" spans="2:10" s="9" customFormat="1">
+    <row r="484" spans="1:15" s="9" customFormat="1" ht="16.5">
       <c r="B484" s="57"/>
-      <c r="C484" s="58"/>
+      <c r="C484" s="62"/>
       <c r="D484" s="58"/>
-      <c r="E484" s="58"/>
+      <c r="E484" s="68"/>
       <c r="F484" s="57"/>
-      <c r="G484" s="57"/>
-      <c r="H484" s="57"/>
+      <c r="G484" s="58"/>
+      <c r="H484" s="58"/>
       <c r="I484" s="57"/>
       <c r="J484" s="57"/>
     </row>
-    <row r="485" spans="2:10" s="9" customFormat="1">
+    <row r="485" spans="1:15" s="9" customFormat="1" ht="16.5">
       <c r="B485" s="57"/>
-      <c r="C485" s="58"/>
+      <c r="C485" s="62"/>
       <c r="D485" s="58"/>
-      <c r="E485" s="58"/>
+      <c r="E485" s="68"/>
       <c r="F485" s="57"/>
       <c r="G485" s="57"/>
-      <c r="H485" s="57"/>
+      <c r="H485" s="58"/>
       <c r="I485" s="57"/>
       <c r="J485" s="57"/>
     </row>
-    <row r="486" spans="2:10" s="9" customFormat="1">
+    <row r="486" spans="1:15" s="9" customFormat="1">
       <c r="B486" s="57"/>
-      <c r="C486" s="58"/>
+      <c r="C486" s="62"/>
       <c r="D486" s="58"/>
       <c r="E486" s="58"/>
-      <c r="F486" s="57"/>
+      <c r="F486" s="58"/>
       <c r="G486" s="57"/>
       <c r="H486" s="57"/>
       <c r="I486" s="57"/>
       <c r="J486" s="57"/>
     </row>
-    <row r="487" spans="2:10" s="9" customFormat="1">
+    <row r="487" spans="1:15" s="9" customFormat="1">
       <c r="B487" s="57"/>
-      <c r="C487" s="58"/>
+      <c r="C487" s="62"/>
       <c r="D487" s="58"/>
       <c r="E487" s="58"/>
-      <c r="F487" s="57"/>
-      <c r="G487" s="57"/>
+      <c r="F487" s="58"/>
+      <c r="G487" s="58"/>
       <c r="H487" s="57"/>
       <c r="I487" s="57"/>
       <c r="J487" s="57"/>
     </row>
-    <row r="488" spans="2:10" s="9" customFormat="1">
+    <row r="488" spans="1:15" s="9" customFormat="1">
       <c r="B488" s="57"/>
-      <c r="C488" s="58"/>
+      <c r="C488" s="57"/>
       <c r="D488" s="58"/>
       <c r="E488" s="58"/>
-      <c r="F488" s="57"/>
+      <c r="F488" s="58"/>
       <c r="G488" s="57"/>
       <c r="H488" s="57"/>
       <c r="I488" s="57"/>
       <c r="J488" s="57"/>
     </row>
-    <row r="489" spans="2:10" s="9" customFormat="1">
+    <row r="489" spans="1:15" s="9" customFormat="1">
       <c r="B489" s="57"/>
-      <c r="C489" s="58"/>
-      <c r="D489" s="65"/>
+      <c r="C489" s="57"/>
+      <c r="D489" s="58"/>
       <c r="E489" s="58"/>
       <c r="F489" s="58"/>
-      <c r="G489" s="57"/>
+      <c r="G489" s="58"/>
       <c r="H489" s="57"/>
       <c r="I489" s="57"/>
       <c r="J489" s="57"/>
     </row>
-    <row r="490" spans="2:10" s="9" customFormat="1">
+    <row r="490" spans="1:15" s="9" customFormat="1">
       <c r="B490" s="57"/>
-      <c r="C490" s="58"/>
-      <c r="D490" s="66"/>
+      <c r="C490" s="57"/>
+      <c r="D490" s="58"/>
       <c r="E490" s="58"/>
       <c r="F490" s="58"/>
       <c r="G490" s="57"/>
@@ -17918,21 +17070,21 @@
       <c r="I490" s="57"/>
       <c r="J490" s="57"/>
     </row>
-    <row r="491" spans="2:10" s="9" customFormat="1">
+    <row r="491" spans="1:15" s="9" customFormat="1">
       <c r="B491" s="57"/>
-      <c r="C491" s="58"/>
-      <c r="D491" s="66"/>
+      <c r="C491" s="57"/>
+      <c r="D491" s="58"/>
       <c r="E491" s="58"/>
       <c r="F491" s="58"/>
-      <c r="G491" s="57"/>
+      <c r="G491" s="58"/>
       <c r="H491" s="57"/>
       <c r="I491" s="57"/>
       <c r="J491" s="57"/>
     </row>
-    <row r="492" spans="2:10" s="9" customFormat="1">
+    <row r="492" spans="1:15" s="9" customFormat="1">
       <c r="B492" s="57"/>
-      <c r="C492" s="58"/>
-      <c r="D492" s="66"/>
+      <c r="C492" s="57"/>
+      <c r="D492" s="58"/>
       <c r="E492" s="58"/>
       <c r="F492" s="58"/>
       <c r="G492" s="57"/>
@@ -17940,21 +17092,21 @@
       <c r="I492" s="57"/>
       <c r="J492" s="57"/>
     </row>
-    <row r="493" spans="2:10" s="9" customFormat="1">
+    <row r="493" spans="1:15" s="9" customFormat="1">
       <c r="B493" s="57"/>
-      <c r="C493" s="58"/>
-      <c r="D493" s="67"/>
+      <c r="C493" s="57"/>
+      <c r="D493" s="58"/>
       <c r="E493" s="58"/>
       <c r="F493" s="58"/>
-      <c r="G493" s="57"/>
+      <c r="G493" s="58"/>
       <c r="H493" s="57"/>
       <c r="I493" s="57"/>
       <c r="J493" s="57"/>
     </row>
-    <row r="494" spans="2:10" s="9" customFormat="1">
+    <row r="494" spans="1:15" s="9" customFormat="1">
       <c r="B494" s="57"/>
-      <c r="C494" s="58"/>
-      <c r="D494" s="66"/>
+      <c r="C494" s="57"/>
+      <c r="D494" s="58"/>
       <c r="E494" s="58"/>
       <c r="F494" s="58"/>
       <c r="G494" s="57"/>
@@ -17962,54 +17114,60 @@
       <c r="I494" s="57"/>
       <c r="J494" s="57"/>
     </row>
-    <row r="495" spans="2:10" s="9" customFormat="1">
+    <row r="495" spans="1:15" s="9" customFormat="1">
       <c r="B495" s="57"/>
-      <c r="C495" s="58"/>
-      <c r="D495" s="66"/>
+      <c r="C495" s="57"/>
+      <c r="D495" s="58"/>
       <c r="E495" s="58"/>
       <c r="F495" s="58"/>
-      <c r="G495" s="57"/>
+      <c r="G495" s="58"/>
       <c r="H495" s="57"/>
       <c r="I495" s="57"/>
       <c r="J495" s="57"/>
     </row>
-    <row r="496" spans="2:10" s="9" customFormat="1">
-      <c r="B496" s="57"/>
-      <c r="C496" s="58"/>
-      <c r="D496" s="66"/>
-      <c r="E496" s="58"/>
-      <c r="F496" s="58"/>
+    <row r="496" spans="1:15" s="39" customFormat="1">
+      <c r="A496" s="9"/>
+      <c r="B496" s="59"/>
+      <c r="C496" s="59"/>
+      <c r="D496" s="59"/>
+      <c r="E496" s="59"/>
+      <c r="F496" s="59"/>
       <c r="G496" s="57"/>
-      <c r="H496" s="57"/>
-      <c r="I496" s="57"/>
+      <c r="H496" s="59"/>
+      <c r="I496" s="59"/>
       <c r="J496" s="57"/>
-    </row>
-    <row r="497" spans="2:10" s="9" customFormat="1">
+      <c r="K496" s="9"/>
+      <c r="L496" s="9"/>
+      <c r="M496" s="9"/>
+      <c r="N496" s="9"/>
+      <c r="O496" s="9"/>
+    </row>
+    <row r="497" spans="1:15" s="9" customFormat="1" ht="13.5" customHeight="1">
       <c r="B497" s="57"/>
       <c r="C497" s="58"/>
-      <c r="D497" s="65"/>
-      <c r="E497" s="58"/>
+      <c r="D497" s="58"/>
+      <c r="E497" s="68"/>
       <c r="F497" s="58"/>
       <c r="G497" s="57"/>
       <c r="H497" s="57"/>
       <c r="I497" s="57"/>
       <c r="J497" s="57"/>
     </row>
-    <row r="498" spans="2:10" s="9" customFormat="1">
+    <row r="498" spans="1:15" s="9" customFormat="1" ht="13.5" customHeight="1">
       <c r="B498" s="57"/>
       <c r="C498" s="58"/>
-      <c r="D498" s="65"/>
-      <c r="E498" s="58"/>
+      <c r="D498" s="58"/>
+      <c r="E498" s="68"/>
       <c r="F498" s="58"/>
       <c r="G498" s="57"/>
       <c r="H498" s="57"/>
       <c r="I498" s="57"/>
       <c r="J498" s="57"/>
     </row>
-    <row r="499" spans="2:10" s="9" customFormat="1">
+    <row r="499" spans="1:15" s="9" customFormat="1">
       <c r="B499" s="57"/>
       <c r="C499" s="58"/>
-      <c r="D499" s="65"/>
+      <c r="D499" s="58"/>
       <c r="E499" s="58"/>
       <c r="F499" s="58"/>
       <c r="G499" s="57"/>
@@ -18017,10 +17175,10 @@
       <c r="I499" s="57"/>
       <c r="J499" s="57"/>
     </row>
-    <row r="500" spans="2:10" s="9" customFormat="1">
+    <row r="500" spans="1:15" s="9" customFormat="1">
       <c r="B500" s="57"/>
       <c r="C500" s="58"/>
-      <c r="D500" s="65"/>
+      <c r="D500" s="58"/>
       <c r="E500" s="58"/>
       <c r="F500" s="58"/>
       <c r="G500" s="57"/>
@@ -18028,10 +17186,10 @@
       <c r="I500" s="57"/>
       <c r="J500" s="57"/>
     </row>
-    <row r="501" spans="2:10" s="9" customFormat="1">
+    <row r="501" spans="1:15" s="9" customFormat="1">
       <c r="B501" s="57"/>
-      <c r="C501" s="58"/>
-      <c r="D501" s="67"/>
+      <c r="C501" s="57"/>
+      <c r="D501" s="58"/>
       <c r="E501" s="58"/>
       <c r="F501" s="58"/>
       <c r="G501" s="57"/>
@@ -18039,10 +17197,10 @@
       <c r="I501" s="57"/>
       <c r="J501" s="57"/>
     </row>
-    <row r="502" spans="2:10" s="9" customFormat="1">
+    <row r="502" spans="1:15" s="9" customFormat="1">
       <c r="B502" s="57"/>
-      <c r="C502" s="58"/>
-      <c r="D502" s="67"/>
+      <c r="C502" s="57"/>
+      <c r="D502" s="58"/>
       <c r="E502" s="58"/>
       <c r="F502" s="58"/>
       <c r="G502" s="57"/>
@@ -18050,10 +17208,10 @@
       <c r="I502" s="57"/>
       <c r="J502" s="57"/>
     </row>
-    <row r="503" spans="2:10" s="9" customFormat="1">
+    <row r="503" spans="1:15" s="9" customFormat="1">
       <c r="B503" s="57"/>
-      <c r="C503" s="58"/>
-      <c r="D503" s="67"/>
+      <c r="C503" s="57"/>
+      <c r="D503" s="58"/>
       <c r="E503" s="58"/>
       <c r="F503" s="58"/>
       <c r="G503" s="57"/>
@@ -18061,10 +17219,10 @@
       <c r="I503" s="57"/>
       <c r="J503" s="57"/>
     </row>
-    <row r="504" spans="2:10" s="9" customFormat="1">
+    <row r="504" spans="1:15" s="9" customFormat="1">
       <c r="B504" s="57"/>
-      <c r="C504" s="58"/>
-      <c r="D504" s="67"/>
+      <c r="C504" s="57"/>
+      <c r="D504" s="58"/>
       <c r="E504" s="58"/>
       <c r="F504" s="58"/>
       <c r="G504" s="57"/>
@@ -18072,130 +17230,142 @@
       <c r="I504" s="57"/>
       <c r="J504" s="57"/>
     </row>
-    <row r="505" spans="2:10" s="12" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B505" s="58"/>
-      <c r="C505" s="58"/>
+    <row r="505" spans="1:15" s="9" customFormat="1">
+      <c r="B505" s="57"/>
+      <c r="C505" s="57"/>
       <c r="D505" s="58"/>
       <c r="E505" s="58"/>
       <c r="F505" s="58"/>
-      <c r="G505" s="58"/>
-      <c r="H505" s="58"/>
-      <c r="I505" s="58"/>
-      <c r="J505" s="58"/>
-    </row>
-    <row r="506" spans="2:10" s="9" customFormat="1">
+      <c r="G505" s="57"/>
+      <c r="H505" s="57"/>
+      <c r="I505" s="57"/>
+      <c r="J505" s="57"/>
+    </row>
+    <row r="506" spans="1:15" s="9" customFormat="1">
       <c r="B506" s="57"/>
       <c r="C506" s="57"/>
-      <c r="D506" s="57"/>
+      <c r="D506" s="58"/>
       <c r="E506" s="58"/>
       <c r="F506" s="58"/>
       <c r="G506" s="57"/>
-      <c r="H506" s="58"/>
+      <c r="H506" s="57"/>
       <c r="I506" s="57"/>
       <c r="J506" s="57"/>
     </row>
-    <row r="507" spans="2:10" s="9" customFormat="1">
+    <row r="507" spans="1:15" s="9" customFormat="1">
       <c r="B507" s="57"/>
       <c r="C507" s="57"/>
-      <c r="D507" s="57"/>
-      <c r="E507" s="57"/>
+      <c r="D507" s="58"/>
+      <c r="E507" s="58"/>
       <c r="F507" s="58"/>
       <c r="G507" s="57"/>
-      <c r="H507" s="58"/>
+      <c r="H507" s="57"/>
       <c r="I507" s="57"/>
       <c r="J507" s="57"/>
     </row>
-    <row r="508" spans="2:10" s="9" customFormat="1">
+    <row r="508" spans="1:15" s="9" customFormat="1">
       <c r="B508" s="57"/>
-      <c r="C508" s="58"/>
-      <c r="D508" s="57"/>
-      <c r="E508" s="57"/>
-      <c r="F508" s="57"/>
+      <c r="C508" s="57"/>
+      <c r="D508" s="58"/>
+      <c r="E508" s="58"/>
+      <c r="F508" s="58"/>
       <c r="G508" s="57"/>
-      <c r="H508" s="58"/>
+      <c r="H508" s="57"/>
       <c r="I508" s="57"/>
       <c r="J508" s="57"/>
     </row>
-    <row r="509" spans="2:10" s="9" customFormat="1" ht="16.5">
+    <row r="509" spans="1:15" s="39" customFormat="1">
+      <c r="A509" s="9"/>
       <c r="B509" s="57"/>
-      <c r="C509" s="58"/>
-      <c r="D509" s="66"/>
-      <c r="E509" s="58"/>
-      <c r="F509" s="68"/>
+      <c r="C509" s="59"/>
+      <c r="D509" s="59"/>
+      <c r="E509" s="59"/>
+      <c r="F509" s="59"/>
       <c r="G509" s="57"/>
-      <c r="H509" s="58"/>
-      <c r="I509" s="57"/>
+      <c r="H509" s="59"/>
+      <c r="I509" s="59"/>
       <c r="J509" s="57"/>
-    </row>
-    <row r="510" spans="2:10" s="9" customFormat="1" ht="16.5">
+      <c r="K509" s="9"/>
+      <c r="L509" s="9"/>
+      <c r="M509" s="9"/>
+      <c r="N509" s="9"/>
+      <c r="O509" s="9"/>
+    </row>
+    <row r="510" spans="1:15" s="39" customFormat="1">
+      <c r="A510" s="9"/>
       <c r="B510" s="57"/>
-      <c r="C510" s="62"/>
-      <c r="D510" s="58"/>
-      <c r="E510" s="68"/>
-      <c r="F510" s="57"/>
-      <c r="G510" s="58"/>
-      <c r="H510" s="58"/>
-      <c r="I510" s="57"/>
+      <c r="C510" s="59"/>
+      <c r="D510" s="59"/>
+      <c r="E510" s="59"/>
+      <c r="F510" s="59"/>
+      <c r="G510" s="57"/>
+      <c r="H510" s="59"/>
+      <c r="I510" s="59"/>
       <c r="J510" s="57"/>
-    </row>
-    <row r="511" spans="2:10" s="9" customFormat="1" ht="16.5">
+      <c r="K510" s="9"/>
+      <c r="L510" s="9"/>
+      <c r="M510" s="9"/>
+      <c r="N510" s="9"/>
+      <c r="O510" s="9"/>
+    </row>
+    <row r="511" spans="1:15" s="9" customFormat="1">
       <c r="B511" s="57"/>
-      <c r="C511" s="62"/>
+      <c r="C511" s="58"/>
       <c r="D511" s="58"/>
-      <c r="E511" s="68"/>
-      <c r="F511" s="57"/>
+      <c r="E511" s="58"/>
+      <c r="F511" s="58"/>
       <c r="G511" s="57"/>
-      <c r="H511" s="58"/>
+      <c r="H511" s="57"/>
       <c r="I511" s="57"/>
       <c r="J511" s="57"/>
     </row>
-    <row r="512" spans="2:10" s="9" customFormat="1" ht="16.5">
+    <row r="512" spans="1:15" s="9" customFormat="1">
       <c r="B512" s="57"/>
-      <c r="C512" s="62"/>
+      <c r="C512" s="57"/>
       <c r="D512" s="58"/>
-      <c r="E512" s="68"/>
-      <c r="F512" s="57"/>
-      <c r="G512" s="58"/>
-      <c r="H512" s="58"/>
+      <c r="E512" s="58"/>
+      <c r="F512" s="58"/>
+      <c r="G512" s="57"/>
+      <c r="H512" s="57"/>
       <c r="I512" s="57"/>
       <c r="J512" s="57"/>
     </row>
-    <row r="513" spans="1:15" s="9" customFormat="1" ht="16.5">
+    <row r="513" spans="2:10" s="9" customFormat="1">
       <c r="B513" s="57"/>
-      <c r="C513" s="62"/>
+      <c r="C513" s="57"/>
       <c r="D513" s="58"/>
-      <c r="E513" s="68"/>
-      <c r="F513" s="57"/>
+      <c r="E513" s="58"/>
+      <c r="F513" s="58"/>
       <c r="G513" s="57"/>
-      <c r="H513" s="58"/>
+      <c r="H513" s="57"/>
       <c r="I513" s="57"/>
       <c r="J513" s="57"/>
     </row>
-    <row r="514" spans="1:15" s="9" customFormat="1" ht="16.5">
+    <row r="514" spans="2:10" s="9" customFormat="1">
       <c r="B514" s="57"/>
-      <c r="C514" s="62"/>
+      <c r="C514" s="57"/>
       <c r="D514" s="58"/>
-      <c r="E514" s="68"/>
-      <c r="F514" s="57"/>
-      <c r="G514" s="58"/>
-      <c r="H514" s="58"/>
+      <c r="E514" s="58"/>
+      <c r="F514" s="58"/>
+      <c r="G514" s="57"/>
+      <c r="H514" s="57"/>
       <c r="I514" s="57"/>
       <c r="J514" s="57"/>
     </row>
-    <row r="515" spans="1:15" s="9" customFormat="1" ht="16.5">
+    <row r="515" spans="2:10" s="9" customFormat="1">
       <c r="B515" s="57"/>
-      <c r="C515" s="62"/>
+      <c r="C515" s="57"/>
       <c r="D515" s="58"/>
-      <c r="E515" s="68"/>
-      <c r="F515" s="57"/>
+      <c r="E515" s="58"/>
+      <c r="F515" s="58"/>
       <c r="G515" s="57"/>
-      <c r="H515" s="58"/>
+      <c r="H515" s="57"/>
       <c r="I515" s="57"/>
       <c r="J515" s="57"/>
     </row>
-    <row r="516" spans="1:15" s="9" customFormat="1">
+    <row r="516" spans="2:10" s="9" customFormat="1">
       <c r="B516" s="57"/>
-      <c r="C516" s="62"/>
+      <c r="C516" s="58"/>
       <c r="D516" s="58"/>
       <c r="E516" s="58"/>
       <c r="F516" s="58"/>
@@ -18204,18 +17374,18 @@
       <c r="I516" s="57"/>
       <c r="J516" s="57"/>
     </row>
-    <row r="517" spans="1:15" s="9" customFormat="1">
+    <row r="517" spans="2:10" s="9" customFormat="1">
       <c r="B517" s="57"/>
-      <c r="C517" s="62"/>
+      <c r="C517" s="57"/>
       <c r="D517" s="58"/>
       <c r="E517" s="58"/>
       <c r="F517" s="58"/>
-      <c r="G517" s="58"/>
+      <c r="G517" s="57"/>
       <c r="H517" s="57"/>
       <c r="I517" s="57"/>
       <c r="J517" s="57"/>
     </row>
-    <row r="518" spans="1:15" s="9" customFormat="1">
+    <row r="518" spans="2:10" s="9" customFormat="1">
       <c r="B518" s="57"/>
       <c r="C518" s="57"/>
       <c r="D518" s="58"/>
@@ -18226,64 +17396,64 @@
       <c r="I518" s="57"/>
       <c r="J518" s="57"/>
     </row>
-    <row r="519" spans="1:15" s="9" customFormat="1">
+    <row r="519" spans="2:10" s="9" customFormat="1">
       <c r="B519" s="57"/>
       <c r="C519" s="57"/>
       <c r="D519" s="58"/>
       <c r="E519" s="58"/>
       <c r="F519" s="58"/>
-      <c r="G519" s="58"/>
+      <c r="G519" s="57"/>
       <c r="H519" s="57"/>
       <c r="I519" s="57"/>
       <c r="J519" s="57"/>
     </row>
-    <row r="520" spans="1:15" s="9" customFormat="1">
+    <row r="520" spans="2:10" s="9" customFormat="1">
       <c r="B520" s="57"/>
       <c r="C520" s="57"/>
-      <c r="D520" s="58"/>
+      <c r="D520" s="57"/>
       <c r="E520" s="58"/>
       <c r="F520" s="58"/>
       <c r="G520" s="57"/>
-      <c r="H520" s="57"/>
+      <c r="H520" s="58"/>
       <c r="I520" s="57"/>
       <c r="J520" s="57"/>
     </row>
-    <row r="521" spans="1:15" s="9" customFormat="1">
+    <row r="521" spans="2:10" s="9" customFormat="1">
       <c r="B521" s="57"/>
       <c r="C521" s="57"/>
-      <c r="D521" s="58"/>
+      <c r="D521" s="57"/>
       <c r="E521" s="58"/>
       <c r="F521" s="58"/>
-      <c r="G521" s="58"/>
-      <c r="H521" s="57"/>
+      <c r="G521" s="57"/>
+      <c r="H521" s="58"/>
       <c r="I521" s="57"/>
       <c r="J521" s="57"/>
     </row>
-    <row r="522" spans="1:15" s="9" customFormat="1">
+    <row r="522" spans="2:10" s="9" customFormat="1">
       <c r="B522" s="57"/>
-      <c r="C522" s="57"/>
-      <c r="D522" s="58"/>
-      <c r="E522" s="58"/>
-      <c r="F522" s="58"/>
+      <c r="C522" s="58"/>
+      <c r="D522" s="57"/>
+      <c r="E522" s="57"/>
+      <c r="F522" s="57"/>
       <c r="G522" s="57"/>
-      <c r="H522" s="57"/>
+      <c r="H522" s="58"/>
       <c r="I522" s="57"/>
       <c r="J522" s="57"/>
     </row>
-    <row r="523" spans="1:15" s="9" customFormat="1">
+    <row r="523" spans="2:10" s="9" customFormat="1">
       <c r="B523" s="57"/>
-      <c r="C523" s="57"/>
+      <c r="C523" s="58"/>
       <c r="D523" s="58"/>
       <c r="E523" s="58"/>
       <c r="F523" s="58"/>
-      <c r="G523" s="58"/>
+      <c r="G523" s="57"/>
       <c r="H523" s="57"/>
       <c r="I523" s="57"/>
       <c r="J523" s="57"/>
     </row>
-    <row r="524" spans="1:15" s="9" customFormat="1">
+    <row r="524" spans="2:10" s="9" customFormat="1">
       <c r="B524" s="57"/>
-      <c r="C524" s="57"/>
+      <c r="C524" s="58"/>
       <c r="D524" s="58"/>
       <c r="E524" s="58"/>
       <c r="F524" s="58"/>
@@ -18292,57 +17462,51 @@
       <c r="I524" s="57"/>
       <c r="J524" s="57"/>
     </row>
-    <row r="525" spans="1:15" s="9" customFormat="1">
+    <row r="525" spans="2:10" s="9" customFormat="1">
       <c r="B525" s="57"/>
-      <c r="C525" s="57"/>
+      <c r="C525" s="58"/>
       <c r="D525" s="58"/>
       <c r="E525" s="58"/>
       <c r="F525" s="58"/>
-      <c r="G525" s="58"/>
+      <c r="G525" s="57"/>
       <c r="H525" s="57"/>
       <c r="I525" s="57"/>
       <c r="J525" s="57"/>
     </row>
-    <row r="526" spans="1:15" s="39" customFormat="1">
-      <c r="A526" s="9"/>
-      <c r="B526" s="59"/>
-      <c r="C526" s="59"/>
-      <c r="D526" s="59"/>
-      <c r="E526" s="59"/>
-      <c r="F526" s="59"/>
+    <row r="526" spans="2:10" s="9" customFormat="1">
+      <c r="B526" s="57"/>
+      <c r="C526" s="58"/>
+      <c r="D526" s="58"/>
+      <c r="E526" s="58"/>
+      <c r="F526" s="58"/>
       <c r="G526" s="57"/>
-      <c r="H526" s="59"/>
-      <c r="I526" s="59"/>
+      <c r="H526" s="57"/>
+      <c r="I526" s="57"/>
       <c r="J526" s="57"/>
-      <c r="K526" s="9"/>
-      <c r="L526" s="9"/>
-      <c r="M526" s="9"/>
-      <c r="N526" s="9"/>
-      <c r="O526" s="9"/>
-    </row>
-    <row r="527" spans="1:15" s="9" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="527" spans="2:10" s="9" customFormat="1">
       <c r="B527" s="57"/>
       <c r="C527" s="58"/>
       <c r="D527" s="58"/>
-      <c r="E527" s="68"/>
+      <c r="E527" s="58"/>
       <c r="F527" s="58"/>
       <c r="G527" s="57"/>
       <c r="H527" s="57"/>
       <c r="I527" s="57"/>
       <c r="J527" s="57"/>
     </row>
-    <row r="528" spans="1:15" s="9" customFormat="1" ht="13.5" customHeight="1">
+    <row r="528" spans="2:10" s="9" customFormat="1">
       <c r="B528" s="57"/>
       <c r="C528" s="58"/>
       <c r="D528" s="58"/>
-      <c r="E528" s="68"/>
+      <c r="E528" s="58"/>
       <c r="F528" s="58"/>
       <c r="G528" s="57"/>
       <c r="H528" s="57"/>
       <c r="I528" s="57"/>
       <c r="J528" s="57"/>
     </row>
-    <row r="529" spans="1:15" s="9" customFormat="1">
+    <row r="529" spans="1:17" s="9" customFormat="1">
       <c r="B529" s="57"/>
       <c r="C529" s="58"/>
       <c r="D529" s="58"/>
@@ -18353,7 +17517,7 @@
       <c r="I529" s="57"/>
       <c r="J529" s="57"/>
     </row>
-    <row r="530" spans="1:15" s="9" customFormat="1">
+    <row r="530" spans="1:17" s="9" customFormat="1">
       <c r="B530" s="57"/>
       <c r="C530" s="58"/>
       <c r="D530" s="58"/>
@@ -18364,20 +17528,26 @@
       <c r="I530" s="57"/>
       <c r="J530" s="57"/>
     </row>
-    <row r="531" spans="1:15" s="9" customFormat="1">
+    <row r="531" spans="1:17" s="39" customFormat="1">
+      <c r="A531" s="9"/>
       <c r="B531" s="57"/>
-      <c r="C531" s="57"/>
-      <c r="D531" s="58"/>
-      <c r="E531" s="58"/>
-      <c r="F531" s="58"/>
+      <c r="C531" s="59"/>
+      <c r="D531" s="59"/>
+      <c r="E531" s="59"/>
+      <c r="F531" s="59"/>
       <c r="G531" s="57"/>
-      <c r="H531" s="57"/>
-      <c r="I531" s="57"/>
+      <c r="H531" s="59"/>
+      <c r="I531" s="59"/>
       <c r="J531" s="57"/>
-    </row>
-    <row r="532" spans="1:15" s="9" customFormat="1">
+      <c r="K531" s="9"/>
+      <c r="L531" s="9"/>
+      <c r="M531" s="9"/>
+      <c r="N531" s="9"/>
+      <c r="O531" s="9"/>
+    </row>
+    <row r="532" spans="1:17" s="9" customFormat="1" ht="16.5">
       <c r="B532" s="57"/>
-      <c r="C532" s="57"/>
+      <c r="C532" s="58"/>
       <c r="D532" s="58"/>
       <c r="E532" s="58"/>
       <c r="F532" s="58"/>
@@ -18385,10 +17555,11 @@
       <c r="H532" s="57"/>
       <c r="I532" s="57"/>
       <c r="J532" s="57"/>
-    </row>
-    <row r="533" spans="1:15" s="9" customFormat="1">
+      <c r="Q532" s="24"/>
+    </row>
+    <row r="533" spans="1:17" s="9" customFormat="1">
       <c r="B533" s="57"/>
-      <c r="C533" s="57"/>
+      <c r="C533" s="58"/>
       <c r="D533" s="58"/>
       <c r="E533" s="58"/>
       <c r="F533" s="58"/>
@@ -18397,31 +17568,33 @@
       <c r="I533" s="57"/>
       <c r="J533" s="57"/>
     </row>
-    <row r="534" spans="1:15" s="9" customFormat="1">
+    <row r="534" spans="1:17" s="9" customFormat="1" ht="16.5">
       <c r="B534" s="57"/>
-      <c r="C534" s="57"/>
-      <c r="D534" s="58"/>
+      <c r="C534" s="58"/>
+      <c r="D534" s="57"/>
       <c r="E534" s="58"/>
       <c r="F534" s="58"/>
       <c r="G534" s="57"/>
       <c r="H534" s="57"/>
       <c r="I534" s="57"/>
       <c r="J534" s="57"/>
-    </row>
-    <row r="535" spans="1:15" s="9" customFormat="1">
+      <c r="Q534" s="24"/>
+    </row>
+    <row r="535" spans="1:17" s="9" customFormat="1" ht="16.5">
       <c r="B535" s="57"/>
-      <c r="C535" s="57"/>
-      <c r="D535" s="58"/>
+      <c r="C535" s="58"/>
+      <c r="D535" s="57"/>
       <c r="E535" s="58"/>
-      <c r="F535" s="58"/>
+      <c r="F535" s="57"/>
       <c r="G535" s="57"/>
       <c r="H535" s="57"/>
       <c r="I535" s="57"/>
       <c r="J535" s="57"/>
-    </row>
-    <row r="536" spans="1:15" s="9" customFormat="1">
+      <c r="Q535" s="24"/>
+    </row>
+    <row r="536" spans="1:17" s="9" customFormat="1" ht="16.5">
       <c r="B536" s="57"/>
-      <c r="C536" s="57"/>
+      <c r="C536" s="58"/>
       <c r="D536" s="58"/>
       <c r="E536" s="58"/>
       <c r="F536" s="58"/>
@@ -18429,10 +17602,11 @@
       <c r="H536" s="57"/>
       <c r="I536" s="57"/>
       <c r="J536" s="57"/>
-    </row>
-    <row r="537" spans="1:15" s="9" customFormat="1">
+      <c r="Q536" s="24"/>
+    </row>
+    <row r="537" spans="1:17" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="B537" s="57"/>
-      <c r="C537" s="57"/>
+      <c r="C537" s="58"/>
       <c r="D537" s="58"/>
       <c r="E537" s="58"/>
       <c r="F537" s="58"/>
@@ -18441,53 +17615,57 @@
       <c r="I537" s="57"/>
       <c r="J537" s="57"/>
     </row>
-    <row r="538" spans="1:15" s="9" customFormat="1">
-      <c r="B538" s="57"/>
-      <c r="C538" s="57"/>
-      <c r="D538" s="58"/>
-      <c r="E538" s="58"/>
-      <c r="F538" s="58"/>
+    <row r="538" spans="1:17" s="39" customFormat="1">
+      <c r="A538" s="9"/>
+      <c r="B538" s="59"/>
+      <c r="C538" s="59"/>
+      <c r="D538" s="59"/>
+      <c r="E538" s="59"/>
+      <c r="F538" s="59"/>
       <c r="G538" s="57"/>
-      <c r="H538" s="57"/>
-      <c r="I538" s="57"/>
+      <c r="H538" s="59"/>
+      <c r="I538" s="59"/>
       <c r="J538" s="57"/>
-    </row>
-    <row r="539" spans="1:15" s="39" customFormat="1">
-      <c r="A539" s="9"/>
-      <c r="B539" s="57"/>
-      <c r="C539" s="59"/>
-      <c r="D539" s="59"/>
-      <c r="E539" s="59"/>
-      <c r="F539" s="59"/>
+      <c r="K538" s="9"/>
+      <c r="L538" s="9"/>
+      <c r="M538" s="9"/>
+      <c r="N538" s="12"/>
+      <c r="O538" s="12"/>
+    </row>
+    <row r="539" spans="1:17" s="9" customFormat="1">
+      <c r="B539" s="59"/>
+      <c r="C539" s="58"/>
+      <c r="D539" s="58"/>
+      <c r="E539" s="58"/>
+      <c r="F539" s="58"/>
       <c r="G539" s="57"/>
-      <c r="H539" s="59"/>
-      <c r="I539" s="59"/>
+      <c r="H539" s="57"/>
+      <c r="I539" s="57"/>
       <c r="J539" s="57"/>
-      <c r="K539" s="9"/>
-      <c r="L539" s="9"/>
-      <c r="M539" s="9"/>
-      <c r="N539" s="9"/>
-      <c r="O539" s="9"/>
-    </row>
-    <row r="540" spans="1:15" s="39" customFormat="1">
-      <c r="A540" s="9"/>
-      <c r="B540" s="57"/>
-      <c r="C540" s="59"/>
-      <c r="D540" s="59"/>
-      <c r="E540" s="59"/>
-      <c r="F540" s="59"/>
+      <c r="K539" s="38"/>
+      <c r="L539" s="12"/>
+      <c r="M539" s="12"/>
+      <c r="N539" s="12"/>
+      <c r="O539" s="12"/>
+    </row>
+    <row r="540" spans="1:17" s="9" customFormat="1">
+      <c r="B540" s="59"/>
+      <c r="C540" s="58"/>
+      <c r="D540" s="58"/>
+      <c r="E540" s="58"/>
+      <c r="F540" s="58"/>
       <c r="G540" s="57"/>
-      <c r="H540" s="59"/>
-      <c r="I540" s="59"/>
+      <c r="H540" s="57"/>
+      <c r="I540" s="57"/>
       <c r="J540" s="57"/>
-      <c r="K540" s="9"/>
-      <c r="L540" s="9"/>
-      <c r="M540" s="9"/>
-      <c r="N540" s="9"/>
-      <c r="O540" s="9"/>
-    </row>
-    <row r="541" spans="1:15" s="9" customFormat="1">
-      <c r="B541" s="57"/>
+      <c r="K540" s="38"/>
+      <c r="L540" s="12"/>
+      <c r="M540" s="12"/>
+      <c r="N540" s="12"/>
+      <c r="O540" s="12"/>
+    </row>
+    <row r="541" spans="1:17" s="9" customFormat="1">
+      <c r="B541" s="59"/>
       <c r="C541" s="58"/>
       <c r="D541" s="58"/>
       <c r="E541" s="58"/>
@@ -18496,10 +17674,15 @@
       <c r="H541" s="57"/>
       <c r="I541" s="57"/>
       <c r="J541" s="57"/>
-    </row>
-    <row r="542" spans="1:15" s="9" customFormat="1">
-      <c r="B542" s="57"/>
-      <c r="C542" s="57"/>
+      <c r="K541" s="38"/>
+      <c r="L541" s="12"/>
+      <c r="M541" s="12"/>
+      <c r="N541" s="12"/>
+      <c r="O541" s="12"/>
+    </row>
+    <row r="542" spans="1:17" s="9" customFormat="1">
+      <c r="B542" s="59"/>
+      <c r="C542" s="58"/>
       <c r="D542" s="58"/>
       <c r="E542" s="58"/>
       <c r="F542" s="58"/>
@@ -18507,10 +17690,15 @@
       <c r="H542" s="57"/>
       <c r="I542" s="57"/>
       <c r="J542" s="57"/>
-    </row>
-    <row r="543" spans="1:15" s="9" customFormat="1">
-      <c r="B543" s="57"/>
-      <c r="C543" s="57"/>
+      <c r="K542" s="38"/>
+      <c r="L542" s="12"/>
+      <c r="M542" s="12"/>
+      <c r="N542" s="12"/>
+      <c r="O542" s="12"/>
+    </row>
+    <row r="543" spans="1:17" s="9" customFormat="1">
+      <c r="B543" s="59"/>
+      <c r="C543" s="58"/>
       <c r="D543" s="58"/>
       <c r="E543" s="58"/>
       <c r="F543" s="58"/>
@@ -18518,10 +17706,15 @@
       <c r="H543" s="57"/>
       <c r="I543" s="57"/>
       <c r="J543" s="57"/>
-    </row>
-    <row r="544" spans="1:15" s="9" customFormat="1">
-      <c r="B544" s="57"/>
-      <c r="C544" s="57"/>
+      <c r="K543" s="38"/>
+      <c r="L543" s="12"/>
+      <c r="M543" s="12"/>
+      <c r="N543" s="12"/>
+      <c r="O543" s="12"/>
+    </row>
+    <row r="544" spans="1:17" s="9" customFormat="1">
+      <c r="B544" s="59"/>
+      <c r="C544" s="58"/>
       <c r="D544" s="58"/>
       <c r="E544" s="58"/>
       <c r="F544" s="58"/>
@@ -18529,10 +17722,15 @@
       <c r="H544" s="57"/>
       <c r="I544" s="57"/>
       <c r="J544" s="57"/>
-    </row>
-    <row r="545" spans="2:10" s="9" customFormat="1">
-      <c r="B545" s="57"/>
-      <c r="C545" s="57"/>
+      <c r="K544" s="38"/>
+      <c r="L544" s="12"/>
+      <c r="M544" s="12"/>
+      <c r="N544" s="12"/>
+      <c r="O544" s="12"/>
+    </row>
+    <row r="545" spans="1:15" s="9" customFormat="1">
+      <c r="B545" s="59"/>
+      <c r="C545" s="58"/>
       <c r="D545" s="58"/>
       <c r="E545" s="58"/>
       <c r="F545" s="58"/>
@@ -18540,9 +17738,14 @@
       <c r="H545" s="57"/>
       <c r="I545" s="57"/>
       <c r="J545" s="57"/>
-    </row>
-    <row r="546" spans="2:10" s="9" customFormat="1">
-      <c r="B546" s="57"/>
+      <c r="K545" s="38"/>
+      <c r="L545" s="12"/>
+      <c r="M545" s="12"/>
+      <c r="N545" s="12"/>
+      <c r="O545" s="12"/>
+    </row>
+    <row r="546" spans="1:15" s="9" customFormat="1">
+      <c r="B546" s="59"/>
       <c r="C546" s="58"/>
       <c r="D546" s="58"/>
       <c r="E546" s="58"/>
@@ -18551,110 +17754,128 @@
       <c r="H546" s="57"/>
       <c r="I546" s="57"/>
       <c r="J546" s="57"/>
-    </row>
-    <row r="547" spans="2:10" s="9" customFormat="1">
-      <c r="B547" s="57"/>
-      <c r="C547" s="57"/>
-      <c r="D547" s="58"/>
-      <c r="E547" s="58"/>
-      <c r="F547" s="58"/>
+      <c r="K546" s="38"/>
+      <c r="L546" s="12"/>
+      <c r="M546" s="12"/>
+      <c r="N546" s="12"/>
+      <c r="O546" s="12"/>
+    </row>
+    <row r="547" spans="1:15" s="39" customFormat="1">
+      <c r="A547" s="9"/>
+      <c r="B547" s="59"/>
+      <c r="C547" s="59"/>
+      <c r="D547" s="59"/>
+      <c r="E547" s="59"/>
+      <c r="F547" s="59"/>
       <c r="G547" s="57"/>
-      <c r="H547" s="57"/>
-      <c r="I547" s="57"/>
+      <c r="H547" s="59"/>
+      <c r="I547" s="59"/>
       <c r="J547" s="57"/>
-    </row>
-    <row r="548" spans="2:10" s="9" customFormat="1">
-      <c r="B548" s="57"/>
-      <c r="C548" s="57"/>
+      <c r="K547" s="38"/>
+      <c r="L547" s="12"/>
+      <c r="M547" s="12"/>
+      <c r="N547" s="12"/>
+      <c r="O547" s="12"/>
+    </row>
+    <row r="548" spans="1:15" s="9" customFormat="1">
+      <c r="B548" s="59"/>
+      <c r="C548" s="58"/>
       <c r="D548" s="58"/>
       <c r="E548" s="58"/>
-      <c r="F548" s="58"/>
+      <c r="F548" s="57"/>
       <c r="G548" s="57"/>
       <c r="H548" s="57"/>
       <c r="I548" s="57"/>
       <c r="J548" s="57"/>
-    </row>
-    <row r="549" spans="2:10" s="9" customFormat="1">
-      <c r="B549" s="57"/>
-      <c r="C549" s="57"/>
+      <c r="K548" s="38"/>
+    </row>
+    <row r="549" spans="1:15" s="9" customFormat="1">
+      <c r="B549" s="59"/>
+      <c r="C549" s="58"/>
       <c r="D549" s="58"/>
       <c r="E549" s="58"/>
-      <c r="F549" s="58"/>
+      <c r="F549" s="57"/>
       <c r="G549" s="57"/>
       <c r="H549" s="57"/>
       <c r="I549" s="57"/>
       <c r="J549" s="57"/>
-    </row>
-    <row r="550" spans="2:10" s="9" customFormat="1">
-      <c r="B550" s="57"/>
-      <c r="C550" s="57"/>
-      <c r="D550" s="57"/>
+      <c r="K549" s="38"/>
+    </row>
+    <row r="550" spans="1:15" s="9" customFormat="1">
+      <c r="B550" s="59"/>
+      <c r="C550" s="58"/>
+      <c r="D550" s="58"/>
       <c r="E550" s="58"/>
-      <c r="F550" s="58"/>
+      <c r="F550" s="57"/>
       <c r="G550" s="57"/>
-      <c r="H550" s="58"/>
+      <c r="H550" s="57"/>
       <c r="I550" s="57"/>
       <c r="J550" s="57"/>
-    </row>
-    <row r="551" spans="2:10" s="9" customFormat="1">
-      <c r="B551" s="57"/>
-      <c r="C551" s="57"/>
-      <c r="D551" s="57"/>
+      <c r="K550" s="38"/>
+    </row>
+    <row r="551" spans="1:15" s="9" customFormat="1">
+      <c r="B551" s="59"/>
+      <c r="C551" s="58"/>
+      <c r="D551" s="58"/>
       <c r="E551" s="58"/>
-      <c r="F551" s="58"/>
+      <c r="F551" s="57"/>
       <c r="G551" s="57"/>
-      <c r="H551" s="58"/>
+      <c r="H551" s="57"/>
       <c r="I551" s="57"/>
       <c r="J551" s="57"/>
-    </row>
-    <row r="552" spans="2:10" s="9" customFormat="1">
-      <c r="B552" s="57"/>
+      <c r="K551" s="38"/>
+    </row>
+    <row r="552" spans="1:15" s="9" customFormat="1">
+      <c r="B552" s="59"/>
       <c r="C552" s="58"/>
-      <c r="D552" s="57"/>
-      <c r="E552" s="57"/>
+      <c r="D552" s="58"/>
+      <c r="E552" s="58"/>
       <c r="F552" s="57"/>
       <c r="G552" s="57"/>
-      <c r="H552" s="58"/>
+      <c r="H552" s="57"/>
       <c r="I552" s="57"/>
       <c r="J552" s="57"/>
-    </row>
-    <row r="553" spans="2:10" s="9" customFormat="1">
-      <c r="B553" s="57"/>
+      <c r="K552" s="38"/>
+    </row>
+    <row r="553" spans="1:15" s="9" customFormat="1">
+      <c r="B553" s="59"/>
       <c r="C553" s="58"/>
       <c r="D553" s="58"/>
       <c r="E553" s="58"/>
-      <c r="F553" s="58"/>
+      <c r="F553" s="57"/>
       <c r="G553" s="57"/>
       <c r="H553" s="57"/>
       <c r="I553" s="57"/>
       <c r="J553" s="57"/>
-    </row>
-    <row r="554" spans="2:10" s="9" customFormat="1">
-      <c r="B554" s="57"/>
+      <c r="K553" s="38"/>
+    </row>
+    <row r="554" spans="1:15" s="9" customFormat="1">
+      <c r="B554" s="59"/>
       <c r="C554" s="58"/>
       <c r="D554" s="58"/>
       <c r="E554" s="58"/>
-      <c r="F554" s="58"/>
+      <c r="F554" s="57"/>
       <c r="G554" s="57"/>
       <c r="H554" s="57"/>
       <c r="I554" s="57"/>
       <c r="J554" s="57"/>
-    </row>
-    <row r="555" spans="2:10" s="9" customFormat="1">
+      <c r="K554" s="38"/>
+    </row>
+    <row r="555" spans="1:15" s="9" customFormat="1">
       <c r="B555" s="57"/>
-      <c r="C555" s="58"/>
-      <c r="D555" s="58"/>
+      <c r="C555" s="57"/>
+      <c r="D555" s="57"/>
       <c r="E555" s="58"/>
-      <c r="F555" s="58"/>
+      <c r="F555" s="57"/>
       <c r="G555" s="57"/>
       <c r="H555" s="57"/>
       <c r="I555" s="57"/>
       <c r="J555" s="57"/>
     </row>
-    <row r="556" spans="2:10" s="9" customFormat="1">
+    <row r="556" spans="1:15" s="9" customFormat="1">
       <c r="B556" s="57"/>
-      <c r="C556" s="58"/>
-      <c r="D556" s="58"/>
+      <c r="C556" s="57"/>
+      <c r="D556" s="57"/>
       <c r="E556" s="58"/>
       <c r="F556" s="58"/>
       <c r="G556" s="57"/>
@@ -18662,10 +17883,10 @@
       <c r="I556" s="57"/>
       <c r="J556" s="57"/>
     </row>
-    <row r="557" spans="2:10" s="9" customFormat="1">
+    <row r="557" spans="1:15" s="9" customFormat="1">
       <c r="B557" s="57"/>
-      <c r="C557" s="58"/>
-      <c r="D557" s="58"/>
+      <c r="C557" s="57"/>
+      <c r="D557" s="57"/>
       <c r="E557" s="58"/>
       <c r="F557" s="58"/>
       <c r="G557" s="57"/>
@@ -18673,10 +17894,10 @@
       <c r="I557" s="57"/>
       <c r="J557" s="57"/>
     </row>
-    <row r="558" spans="2:10" s="9" customFormat="1">
+    <row r="558" spans="1:15" s="9" customFormat="1">
       <c r="B558" s="57"/>
-      <c r="C558" s="58"/>
-      <c r="D558" s="58"/>
+      <c r="C558" s="57"/>
+      <c r="D558" s="57"/>
       <c r="E558" s="58"/>
       <c r="F558" s="58"/>
       <c r="G558" s="57"/>
@@ -18684,9 +17905,9 @@
       <c r="I558" s="57"/>
       <c r="J558" s="57"/>
     </row>
-    <row r="559" spans="2:10" s="9" customFormat="1">
+    <row r="559" spans="1:15" s="9" customFormat="1">
       <c r="B559" s="57"/>
-      <c r="C559" s="58"/>
+      <c r="C559" s="57"/>
       <c r="D559" s="58"/>
       <c r="E559" s="58"/>
       <c r="F559" s="58"/>
@@ -18695,10 +17916,10 @@
       <c r="I559" s="57"/>
       <c r="J559" s="57"/>
     </row>
-    <row r="560" spans="2:10" s="9" customFormat="1">
+    <row r="560" spans="1:15" s="9" customFormat="1">
       <c r="B560" s="57"/>
-      <c r="C560" s="58"/>
-      <c r="D560" s="58"/>
+      <c r="C560" s="57"/>
+      <c r="D560" s="57"/>
       <c r="E560" s="58"/>
       <c r="F560" s="58"/>
       <c r="G560" s="57"/>
@@ -18706,39 +17927,32 @@
       <c r="I560" s="57"/>
       <c r="J560" s="57"/>
     </row>
-    <row r="561" spans="1:17" s="39" customFormat="1">
-      <c r="A561" s="9"/>
+    <row r="561" spans="2:10" s="9" customFormat="1">
       <c r="B561" s="57"/>
-      <c r="C561" s="59"/>
-      <c r="D561" s="59"/>
-      <c r="E561" s="59"/>
-      <c r="F561" s="59"/>
+      <c r="C561" s="57"/>
+      <c r="D561" s="57"/>
+      <c r="E561" s="58"/>
+      <c r="F561" s="58"/>
       <c r="G561" s="57"/>
-      <c r="H561" s="59"/>
-      <c r="I561" s="59"/>
+      <c r="H561" s="57"/>
+      <c r="I561" s="57"/>
       <c r="J561" s="57"/>
-      <c r="K561" s="9"/>
-      <c r="L561" s="9"/>
-      <c r="M561" s="9"/>
-      <c r="N561" s="9"/>
-      <c r="O561" s="9"/>
-    </row>
-    <row r="562" spans="1:17" s="9" customFormat="1" ht="16.5">
+    </row>
+    <row r="562" spans="2:10" s="9" customFormat="1">
       <c r="B562" s="57"/>
-      <c r="C562" s="58"/>
-      <c r="D562" s="58"/>
+      <c r="C562" s="57"/>
+      <c r="D562" s="57"/>
       <c r="E562" s="58"/>
       <c r="F562" s="58"/>
       <c r="G562" s="57"/>
       <c r="H562" s="57"/>
       <c r="I562" s="57"/>
       <c r="J562" s="57"/>
-      <c r="Q562" s="24"/>
-    </row>
-    <row r="563" spans="1:17" s="9" customFormat="1">
+    </row>
+    <row r="563" spans="2:10" s="9" customFormat="1">
       <c r="B563" s="57"/>
-      <c r="C563" s="58"/>
-      <c r="D563" s="58"/>
+      <c r="C563" s="57"/>
+      <c r="D563" s="57"/>
       <c r="E563" s="58"/>
       <c r="F563" s="58"/>
       <c r="G563" s="57"/>
@@ -18746,33 +17960,31 @@
       <c r="I563" s="57"/>
       <c r="J563" s="57"/>
     </row>
-    <row r="564" spans="1:17" s="9" customFormat="1" ht="16.5">
+    <row r="564" spans="2:10" s="9" customFormat="1">
       <c r="B564" s="57"/>
-      <c r="C564" s="58"/>
-      <c r="D564" s="57"/>
+      <c r="C564" s="57"/>
+      <c r="D564" s="58"/>
       <c r="E564" s="58"/>
       <c r="F564" s="58"/>
       <c r="G564" s="57"/>
       <c r="H564" s="57"/>
       <c r="I564" s="57"/>
       <c r="J564" s="57"/>
-      <c r="Q564" s="24"/>
-    </row>
-    <row r="565" spans="1:17" s="9" customFormat="1" ht="16.5">
+    </row>
+    <row r="565" spans="2:10" s="9" customFormat="1">
       <c r="B565" s="57"/>
-      <c r="C565" s="58"/>
-      <c r="D565" s="57"/>
+      <c r="C565" s="57"/>
+      <c r="D565" s="58"/>
       <c r="E565" s="58"/>
-      <c r="F565" s="57"/>
+      <c r="F565" s="58"/>
       <c r="G565" s="57"/>
       <c r="H565" s="57"/>
       <c r="I565" s="57"/>
       <c r="J565" s="57"/>
-      <c r="Q565" s="24"/>
-    </row>
-    <row r="566" spans="1:17" s="9" customFormat="1" ht="16.5">
+    </row>
+    <row r="566" spans="2:10" s="9" customFormat="1">
       <c r="B566" s="57"/>
-      <c r="C566" s="58"/>
+      <c r="C566" s="57"/>
       <c r="D566" s="58"/>
       <c r="E566" s="58"/>
       <c r="F566" s="58"/>
@@ -18780,11 +17992,10 @@
       <c r="H566" s="57"/>
       <c r="I566" s="57"/>
       <c r="J566" s="57"/>
-      <c r="Q566" s="24"/>
-    </row>
-    <row r="567" spans="1:17" s="9" customFormat="1" ht="15" customHeight="1">
+    </row>
+    <row r="567" spans="2:10" s="9" customFormat="1">
       <c r="B567" s="57"/>
-      <c r="C567" s="58"/>
+      <c r="C567" s="57"/>
       <c r="D567" s="58"/>
       <c r="E567" s="58"/>
       <c r="F567" s="58"/>
@@ -18793,26 +18004,20 @@
       <c r="I567" s="57"/>
       <c r="J567" s="57"/>
     </row>
-    <row r="568" spans="1:17" s="39" customFormat="1">
-      <c r="A568" s="9"/>
-      <c r="B568" s="59"/>
-      <c r="C568" s="59"/>
-      <c r="D568" s="59"/>
-      <c r="E568" s="59"/>
-      <c r="F568" s="59"/>
+    <row r="568" spans="2:10" s="9" customFormat="1">
+      <c r="B568" s="57"/>
+      <c r="C568" s="57"/>
+      <c r="D568" s="58"/>
+      <c r="E568" s="58"/>
+      <c r="F568" s="58"/>
       <c r="G568" s="57"/>
-      <c r="H568" s="59"/>
-      <c r="I568" s="59"/>
+      <c r="H568" s="57"/>
+      <c r="I568" s="57"/>
       <c r="J568" s="57"/>
-      <c r="K568" s="9"/>
-      <c r="L568" s="9"/>
-      <c r="M568" s="9"/>
-      <c r="N568" s="12"/>
-      <c r="O568" s="12"/>
-    </row>
-    <row r="569" spans="1:17" s="9" customFormat="1">
-      <c r="B569" s="59"/>
-      <c r="C569" s="58"/>
+    </row>
+    <row r="569" spans="2:10" s="9" customFormat="1">
+      <c r="B569" s="57"/>
+      <c r="C569" s="57"/>
       <c r="D569" s="58"/>
       <c r="E569" s="58"/>
       <c r="F569" s="58"/>
@@ -18820,240 +18025,188 @@
       <c r="H569" s="57"/>
       <c r="I569" s="57"/>
       <c r="J569" s="57"/>
-      <c r="K569" s="38"/>
-      <c r="L569" s="12"/>
-      <c r="M569" s="12"/>
-      <c r="N569" s="12"/>
-      <c r="O569" s="12"/>
-    </row>
-    <row r="570" spans="1:17" s="9" customFormat="1">
-      <c r="B570" s="59"/>
-      <c r="C570" s="58"/>
+    </row>
+    <row r="570" spans="2:10" s="9" customFormat="1">
+      <c r="B570" s="57"/>
+      <c r="C570" s="57"/>
       <c r="D570" s="58"/>
-      <c r="E570" s="58"/>
+      <c r="E570" s="65"/>
       <c r="F570" s="58"/>
       <c r="G570" s="57"/>
       <c r="H570" s="57"/>
       <c r="I570" s="57"/>
       <c r="J570" s="57"/>
-      <c r="K570" s="38"/>
-      <c r="L570" s="12"/>
-      <c r="M570" s="12"/>
-      <c r="N570" s="12"/>
-      <c r="O570" s="12"/>
-    </row>
-    <row r="571" spans="1:17" s="9" customFormat="1">
-      <c r="B571" s="59"/>
-      <c r="C571" s="58"/>
+    </row>
+    <row r="571" spans="2:10" s="9" customFormat="1">
+      <c r="B571" s="57"/>
+      <c r="C571" s="57"/>
       <c r="D571" s="58"/>
-      <c r="E571" s="58"/>
+      <c r="E571" s="65"/>
       <c r="F571" s="58"/>
       <c r="G571" s="57"/>
       <c r="H571" s="57"/>
       <c r="I571" s="57"/>
       <c r="J571" s="57"/>
-      <c r="K571" s="38"/>
-      <c r="L571" s="12"/>
-      <c r="M571" s="12"/>
-      <c r="N571" s="12"/>
-      <c r="O571" s="12"/>
-    </row>
-    <row r="572" spans="1:17" s="9" customFormat="1">
-      <c r="B572" s="59"/>
-      <c r="C572" s="58"/>
+    </row>
+    <row r="572" spans="2:10" s="9" customFormat="1">
+      <c r="B572" s="57"/>
+      <c r="C572" s="57"/>
       <c r="D572" s="58"/>
-      <c r="E572" s="58"/>
+      <c r="E572" s="65"/>
       <c r="F572" s="58"/>
       <c r="G572" s="57"/>
       <c r="H572" s="57"/>
       <c r="I572" s="57"/>
       <c r="J572" s="57"/>
-      <c r="K572" s="38"/>
-      <c r="L572" s="12"/>
-      <c r="M572" s="12"/>
-      <c r="N572" s="12"/>
-      <c r="O572" s="12"/>
-    </row>
-    <row r="573" spans="1:17" s="9" customFormat="1">
-      <c r="B573" s="59"/>
-      <c r="C573" s="58"/>
+    </row>
+    <row r="573" spans="2:10" s="9" customFormat="1">
+      <c r="B573" s="57"/>
+      <c r="C573" s="57"/>
       <c r="D573" s="58"/>
-      <c r="E573" s="58"/>
+      <c r="E573" s="65"/>
       <c r="F573" s="58"/>
       <c r="G573" s="57"/>
       <c r="H573" s="57"/>
       <c r="I573" s="57"/>
       <c r="J573" s="57"/>
-      <c r="K573" s="38"/>
-      <c r="L573" s="12"/>
-      <c r="M573" s="12"/>
-      <c r="N573" s="12"/>
-      <c r="O573" s="12"/>
-    </row>
-    <row r="574" spans="1:17" s="9" customFormat="1">
-      <c r="B574" s="59"/>
-      <c r="C574" s="58"/>
+    </row>
+    <row r="574" spans="2:10" s="9" customFormat="1">
+      <c r="B574" s="57"/>
+      <c r="C574" s="57"/>
       <c r="D574" s="58"/>
-      <c r="E574" s="58"/>
+      <c r="E574" s="65"/>
       <c r="F574" s="58"/>
       <c r="G574" s="57"/>
       <c r="H574" s="57"/>
       <c r="I574" s="57"/>
       <c r="J574" s="57"/>
-      <c r="K574" s="38"/>
-      <c r="L574" s="12"/>
-      <c r="M574" s="12"/>
-      <c r="N574" s="12"/>
-      <c r="O574" s="12"/>
-    </row>
-    <row r="575" spans="1:17" s="9" customFormat="1">
-      <c r="B575" s="59"/>
-      <c r="C575" s="58"/>
+    </row>
+    <row r="575" spans="2:10" s="9" customFormat="1">
+      <c r="B575" s="57"/>
+      <c r="C575" s="57"/>
       <c r="D575" s="58"/>
-      <c r="E575" s="58"/>
+      <c r="E575" s="65"/>
       <c r="F575" s="58"/>
       <c r="G575" s="57"/>
       <c r="H575" s="57"/>
       <c r="I575" s="57"/>
       <c r="J575" s="57"/>
-      <c r="K575" s="38"/>
-      <c r="L575" s="12"/>
-      <c r="M575" s="12"/>
-      <c r="N575" s="12"/>
-      <c r="O575" s="12"/>
-    </row>
-    <row r="576" spans="1:17" s="9" customFormat="1">
-      <c r="B576" s="59"/>
-      <c r="C576" s="58"/>
+    </row>
+    <row r="576" spans="2:10" s="9" customFormat="1">
+      <c r="B576" s="57"/>
+      <c r="C576" s="57"/>
       <c r="D576" s="58"/>
-      <c r="E576" s="58"/>
+      <c r="E576" s="65"/>
       <c r="F576" s="58"/>
       <c r="G576" s="57"/>
       <c r="H576" s="57"/>
       <c r="I576" s="57"/>
       <c r="J576" s="57"/>
-      <c r="K576" s="38"/>
-      <c r="L576" s="12"/>
-      <c r="M576" s="12"/>
-      <c r="N576" s="12"/>
-      <c r="O576" s="12"/>
-    </row>
-    <row r="577" spans="1:15" s="39" customFormat="1">
-      <c r="A577" s="9"/>
-      <c r="B577" s="59"/>
-      <c r="C577" s="59"/>
-      <c r="D577" s="59"/>
-      <c r="E577" s="59"/>
-      <c r="F577" s="59"/>
+    </row>
+    <row r="577" spans="2:14" s="9" customFormat="1">
+      <c r="B577" s="57"/>
+      <c r="C577" s="57"/>
+      <c r="D577" s="58"/>
+      <c r="E577" s="65"/>
+      <c r="F577" s="58"/>
       <c r="G577" s="57"/>
-      <c r="H577" s="59"/>
-      <c r="I577" s="59"/>
+      <c r="H577" s="57"/>
+      <c r="I577" s="57"/>
       <c r="J577" s="57"/>
-      <c r="K577" s="38"/>
-      <c r="L577" s="12"/>
-      <c r="M577" s="12"/>
-      <c r="N577" s="12"/>
-      <c r="O577" s="12"/>
-    </row>
-    <row r="578" spans="1:15" s="9" customFormat="1">
-      <c r="B578" s="59"/>
+    </row>
+    <row r="578" spans="2:14" s="9" customFormat="1">
+      <c r="B578" s="57"/>
       <c r="C578" s="58"/>
       <c r="D578" s="58"/>
-      <c r="E578" s="58"/>
-      <c r="F578" s="57"/>
+      <c r="E578" s="65"/>
+      <c r="F578" s="58"/>
       <c r="G578" s="57"/>
       <c r="H578" s="57"/>
       <c r="I578" s="57"/>
       <c r="J578" s="57"/>
-      <c r="K578" s="38"/>
-    </row>
-    <row r="579" spans="1:15" s="9" customFormat="1">
-      <c r="B579" s="59"/>
+      <c r="N578" s="12"/>
+    </row>
+    <row r="579" spans="2:14" s="9" customFormat="1">
+      <c r="B579" s="57"/>
       <c r="C579" s="58"/>
-      <c r="D579" s="58"/>
+      <c r="D579" s="57"/>
       <c r="E579" s="58"/>
-      <c r="F579" s="57"/>
+      <c r="F579" s="58"/>
       <c r="G579" s="57"/>
       <c r="H579" s="57"/>
       <c r="I579" s="57"/>
       <c r="J579" s="57"/>
-      <c r="K579" s="38"/>
-    </row>
-    <row r="580" spans="1:15" s="9" customFormat="1">
-      <c r="B580" s="59"/>
+    </row>
+    <row r="580" spans="2:14" s="9" customFormat="1">
+      <c r="B580" s="57"/>
       <c r="C580" s="58"/>
-      <c r="D580" s="58"/>
+      <c r="D580" s="57"/>
       <c r="E580" s="58"/>
-      <c r="F580" s="57"/>
+      <c r="F580" s="58"/>
       <c r="G580" s="57"/>
       <c r="H580" s="57"/>
       <c r="I580" s="57"/>
       <c r="J580" s="57"/>
-      <c r="K580" s="38"/>
-    </row>
-    <row r="581" spans="1:15" s="9" customFormat="1">
-      <c r="B581" s="59"/>
+    </row>
+    <row r="581" spans="2:14" s="9" customFormat="1">
+      <c r="B581" s="57"/>
       <c r="C581" s="58"/>
-      <c r="D581" s="58"/>
+      <c r="D581" s="57"/>
       <c r="E581" s="58"/>
-      <c r="F581" s="57"/>
+      <c r="F581" s="58"/>
       <c r="G581" s="57"/>
       <c r="H581" s="57"/>
       <c r="I581" s="57"/>
       <c r="J581" s="57"/>
-      <c r="K581" s="38"/>
-    </row>
-    <row r="582" spans="1:15" s="9" customFormat="1">
-      <c r="B582" s="59"/>
+    </row>
+    <row r="582" spans="2:14" s="9" customFormat="1">
+      <c r="B582" s="57"/>
       <c r="C582" s="58"/>
       <c r="D582" s="58"/>
       <c r="E582" s="58"/>
-      <c r="F582" s="57"/>
+      <c r="F582" s="58"/>
       <c r="G582" s="57"/>
       <c r="H582" s="57"/>
       <c r="I582" s="57"/>
       <c r="J582" s="57"/>
-      <c r="K582" s="38"/>
-    </row>
-    <row r="583" spans="1:15" s="9" customFormat="1">
-      <c r="B583" s="59"/>
+    </row>
+    <row r="583" spans="2:14" s="9" customFormat="1">
+      <c r="B583" s="57"/>
       <c r="C583" s="58"/>
       <c r="D583" s="58"/>
       <c r="E583" s="58"/>
-      <c r="F583" s="57"/>
+      <c r="F583" s="58"/>
       <c r="G583" s="57"/>
       <c r="H583" s="57"/>
       <c r="I583" s="57"/>
       <c r="J583" s="57"/>
-      <c r="K583" s="38"/>
-    </row>
-    <row r="584" spans="1:15" s="9" customFormat="1">
-      <c r="B584" s="59"/>
+    </row>
+    <row r="584" spans="2:14" s="9" customFormat="1">
+      <c r="B584" s="57"/>
       <c r="C584" s="58"/>
       <c r="D584" s="58"/>
       <c r="E584" s="58"/>
-      <c r="F584" s="57"/>
+      <c r="F584" s="58"/>
       <c r="G584" s="57"/>
       <c r="H584" s="57"/>
       <c r="I584" s="57"/>
       <c r="J584" s="57"/>
-      <c r="K584" s="38"/>
-    </row>
-    <row r="585" spans="1:15" s="9" customFormat="1">
+    </row>
+    <row r="585" spans="2:14" s="9" customFormat="1">
       <c r="B585" s="57"/>
-      <c r="C585" s="57"/>
-      <c r="D585" s="57"/>
+      <c r="C585" s="58"/>
+      <c r="D585" s="58"/>
       <c r="E585" s="58"/>
-      <c r="F585" s="57"/>
+      <c r="F585" s="58"/>
       <c r="G585" s="57"/>
       <c r="H585" s="57"/>
       <c r="I585" s="57"/>
       <c r="J585" s="57"/>
     </row>
-    <row r="586" spans="1:15" s="9" customFormat="1">
+    <row r="586" spans="2:14" s="9" customFormat="1">
       <c r="B586" s="57"/>
-      <c r="C586" s="57"/>
-      <c r="D586" s="57"/>
+      <c r="C586" s="58"/>
+      <c r="D586" s="58"/>
       <c r="E586" s="58"/>
       <c r="F586" s="58"/>
       <c r="G586" s="57"/>
@@ -19061,10 +18214,10 @@
       <c r="I586" s="57"/>
       <c r="J586" s="57"/>
     </row>
-    <row r="587" spans="1:15" s="9" customFormat="1">
+    <row r="587" spans="2:14" s="9" customFormat="1">
       <c r="B587" s="57"/>
-      <c r="C587" s="57"/>
-      <c r="D587" s="57"/>
+      <c r="C587" s="58"/>
+      <c r="D587" s="58"/>
       <c r="E587" s="58"/>
       <c r="F587" s="58"/>
       <c r="G587" s="57"/>
@@ -19072,10 +18225,10 @@
       <c r="I587" s="57"/>
       <c r="J587" s="57"/>
     </row>
-    <row r="588" spans="1:15" s="9" customFormat="1">
+    <row r="588" spans="2:14" s="9" customFormat="1">
       <c r="B588" s="57"/>
-      <c r="C588" s="57"/>
-      <c r="D588" s="57"/>
+      <c r="C588" s="58"/>
+      <c r="D588" s="58"/>
       <c r="E588" s="58"/>
       <c r="F588" s="58"/>
       <c r="G588" s="57"/>
@@ -19083,9 +18236,9 @@
       <c r="I588" s="57"/>
       <c r="J588" s="57"/>
     </row>
-    <row r="589" spans="1:15" s="9" customFormat="1">
+    <row r="589" spans="2:14" s="9" customFormat="1">
       <c r="B589" s="57"/>
-      <c r="C589" s="57"/>
+      <c r="C589" s="58"/>
       <c r="D589" s="58"/>
       <c r="E589" s="58"/>
       <c r="F589" s="58"/>
@@ -19094,10 +18247,10 @@
       <c r="I589" s="57"/>
       <c r="J589" s="57"/>
     </row>
-    <row r="590" spans="1:15" s="9" customFormat="1">
+    <row r="590" spans="2:14" s="9" customFormat="1">
       <c r="B590" s="57"/>
-      <c r="C590" s="57"/>
-      <c r="D590" s="57"/>
+      <c r="C590" s="58"/>
+      <c r="D590" s="58"/>
       <c r="E590" s="58"/>
       <c r="F590" s="58"/>
       <c r="G590" s="57"/>
@@ -19105,10 +18258,10 @@
       <c r="I590" s="57"/>
       <c r="J590" s="57"/>
     </row>
-    <row r="591" spans="1:15" s="9" customFormat="1">
+    <row r="591" spans="2:14" s="9" customFormat="1">
       <c r="B591" s="57"/>
-      <c r="C591" s="57"/>
-      <c r="D591" s="57"/>
+      <c r="C591" s="58"/>
+      <c r="D591" s="58"/>
       <c r="E591" s="58"/>
       <c r="F591" s="58"/>
       <c r="G591" s="57"/>
@@ -19116,10 +18269,10 @@
       <c r="I591" s="57"/>
       <c r="J591" s="57"/>
     </row>
-    <row r="592" spans="1:15" s="9" customFormat="1">
+    <row r="592" spans="2:14" s="9" customFormat="1">
       <c r="B592" s="57"/>
-      <c r="C592" s="57"/>
-      <c r="D592" s="57"/>
+      <c r="C592" s="58"/>
+      <c r="D592" s="58"/>
       <c r="E592" s="58"/>
       <c r="F592" s="58"/>
       <c r="G592" s="57"/>
@@ -19129,8 +18282,8 @@
     </row>
     <row r="593" spans="2:14" s="9" customFormat="1">
       <c r="B593" s="57"/>
-      <c r="C593" s="57"/>
-      <c r="D593" s="57"/>
+      <c r="C593" s="58"/>
+      <c r="D593" s="58"/>
       <c r="E593" s="58"/>
       <c r="F593" s="58"/>
       <c r="G593" s="57"/>
@@ -19140,7 +18293,7 @@
     </row>
     <row r="594" spans="2:14" s="9" customFormat="1">
       <c r="B594" s="57"/>
-      <c r="C594" s="57"/>
+      <c r="C594" s="58"/>
       <c r="D594" s="58"/>
       <c r="E594" s="58"/>
       <c r="F594" s="58"/>
@@ -19151,7 +18304,7 @@
     </row>
     <row r="595" spans="2:14" s="9" customFormat="1">
       <c r="B595" s="57"/>
-      <c r="C595" s="57"/>
+      <c r="C595" s="58"/>
       <c r="D595" s="58"/>
       <c r="E595" s="58"/>
       <c r="F595" s="58"/>
@@ -19162,8 +18315,8 @@
     </row>
     <row r="596" spans="2:14" s="9" customFormat="1">
       <c r="B596" s="57"/>
-      <c r="C596" s="57"/>
-      <c r="D596" s="58"/>
+      <c r="C596" s="58"/>
+      <c r="D596" s="57"/>
       <c r="E596" s="58"/>
       <c r="F596" s="58"/>
       <c r="G596" s="57"/>
@@ -19175,7 +18328,7 @@
       <c r="B597" s="57"/>
       <c r="C597" s="57"/>
       <c r="D597" s="58"/>
-      <c r="E597" s="58"/>
+      <c r="E597" s="65"/>
       <c r="F597" s="58"/>
       <c r="G597" s="57"/>
       <c r="H597" s="57"/>
@@ -19186,7 +18339,7 @@
       <c r="B598" s="57"/>
       <c r="C598" s="57"/>
       <c r="D598" s="58"/>
-      <c r="E598" s="58"/>
+      <c r="E598" s="65"/>
       <c r="F598" s="58"/>
       <c r="G598" s="57"/>
       <c r="H598" s="57"/>
@@ -19197,7 +18350,7 @@
       <c r="B599" s="57"/>
       <c r="C599" s="57"/>
       <c r="D599" s="58"/>
-      <c r="E599" s="58"/>
+      <c r="E599" s="65"/>
       <c r="F599" s="58"/>
       <c r="G599" s="57"/>
       <c r="H599" s="57"/>
@@ -19269,12 +18422,13 @@
       <c r="H605" s="57"/>
       <c r="I605" s="57"/>
       <c r="J605" s="57"/>
+      <c r="N605" s="12"/>
     </row>
     <row r="606" spans="2:14" s="9" customFormat="1">
       <c r="B606" s="57"/>
       <c r="C606" s="57"/>
       <c r="D606" s="58"/>
-      <c r="E606" s="65"/>
+      <c r="E606" s="58"/>
       <c r="F606" s="58"/>
       <c r="G606" s="57"/>
       <c r="H606" s="57"/>
@@ -19285,7 +18439,7 @@
       <c r="B607" s="57"/>
       <c r="C607" s="57"/>
       <c r="D607" s="58"/>
-      <c r="E607" s="65"/>
+      <c r="E607" s="58"/>
       <c r="F607" s="58"/>
       <c r="G607" s="57"/>
       <c r="H607" s="57"/>
@@ -19294,20 +18448,19 @@
     </row>
     <row r="608" spans="2:14" s="9" customFormat="1">
       <c r="B608" s="57"/>
-      <c r="C608" s="58"/>
+      <c r="C608" s="57"/>
       <c r="D608" s="58"/>
-      <c r="E608" s="65"/>
+      <c r="E608" s="58"/>
       <c r="F608" s="58"/>
       <c r="G608" s="57"/>
       <c r="H608" s="57"/>
       <c r="I608" s="57"/>
       <c r="J608" s="57"/>
-      <c r="N608" s="12"/>
-    </row>
-    <row r="609" spans="2:10" s="9" customFormat="1">
+    </row>
+    <row r="609" spans="2:14" s="9" customFormat="1">
       <c r="B609" s="57"/>
-      <c r="C609" s="58"/>
-      <c r="D609" s="57"/>
+      <c r="C609" s="57"/>
+      <c r="D609" s="58"/>
       <c r="E609" s="58"/>
       <c r="F609" s="58"/>
       <c r="G609" s="57"/>
@@ -19315,10 +18468,10 @@
       <c r="I609" s="57"/>
       <c r="J609" s="57"/>
     </row>
-    <row r="610" spans="2:10" s="9" customFormat="1">
+    <row r="610" spans="2:14" s="9" customFormat="1">
       <c r="B610" s="57"/>
-      <c r="C610" s="58"/>
-      <c r="D610" s="57"/>
+      <c r="C610" s="57"/>
+      <c r="D610" s="58"/>
       <c r="E610" s="58"/>
       <c r="F610" s="58"/>
       <c r="G610" s="57"/>
@@ -19326,10 +18479,10 @@
       <c r="I610" s="57"/>
       <c r="J610" s="57"/>
     </row>
-    <row r="611" spans="2:10" s="9" customFormat="1">
+    <row r="611" spans="2:14" s="9" customFormat="1">
       <c r="B611" s="57"/>
-      <c r="C611" s="58"/>
-      <c r="D611" s="57"/>
+      <c r="C611" s="57"/>
+      <c r="D611" s="58"/>
       <c r="E611" s="58"/>
       <c r="F611" s="58"/>
       <c r="G611" s="57"/>
@@ -19337,9 +18490,9 @@
       <c r="I611" s="57"/>
       <c r="J611" s="57"/>
     </row>
-    <row r="612" spans="2:10" s="9" customFormat="1">
+    <row r="612" spans="2:14" s="9" customFormat="1">
       <c r="B612" s="57"/>
-      <c r="C612" s="58"/>
+      <c r="C612" s="57"/>
       <c r="D612" s="58"/>
       <c r="E612" s="58"/>
       <c r="F612" s="58"/>
@@ -19348,9 +18501,9 @@
       <c r="I612" s="57"/>
       <c r="J612" s="57"/>
     </row>
-    <row r="613" spans="2:10" s="9" customFormat="1">
+    <row r="613" spans="2:14" s="9" customFormat="1">
       <c r="B613" s="57"/>
-      <c r="C613" s="58"/>
+      <c r="C613" s="57"/>
       <c r="D613" s="58"/>
       <c r="E613" s="58"/>
       <c r="F613" s="58"/>
@@ -19359,9 +18512,9 @@
       <c r="I613" s="57"/>
       <c r="J613" s="57"/>
     </row>
-    <row r="614" spans="2:10" s="9" customFormat="1">
+    <row r="614" spans="2:14" s="9" customFormat="1">
       <c r="B614" s="57"/>
-      <c r="C614" s="58"/>
+      <c r="C614" s="57"/>
       <c r="D614" s="58"/>
       <c r="E614" s="58"/>
       <c r="F614" s="58"/>
@@ -19369,8 +18522,9 @@
       <c r="H614" s="57"/>
       <c r="I614" s="57"/>
       <c r="J614" s="57"/>
-    </row>
-    <row r="615" spans="2:10" s="9" customFormat="1">
+      <c r="N614" s="12"/>
+    </row>
+    <row r="615" spans="2:14" s="9" customFormat="1">
       <c r="B615" s="57"/>
       <c r="C615" s="58"/>
       <c r="D615" s="58"/>
@@ -19381,7 +18535,7 @@
       <c r="I615" s="57"/>
       <c r="J615" s="57"/>
     </row>
-    <row r="616" spans="2:10" s="9" customFormat="1">
+    <row r="616" spans="2:14" s="9" customFormat="1">
       <c r="B616" s="57"/>
       <c r="C616" s="58"/>
       <c r="D616" s="58"/>
@@ -19392,7 +18546,7 @@
       <c r="I616" s="57"/>
       <c r="J616" s="57"/>
     </row>
-    <row r="617" spans="2:10" s="9" customFormat="1">
+    <row r="617" spans="2:14" s="9" customFormat="1">
       <c r="B617" s="57"/>
       <c r="C617" s="58"/>
       <c r="D617" s="58"/>
@@ -19402,19 +18556,20 @@
       <c r="H617" s="57"/>
       <c r="I617" s="57"/>
       <c r="J617" s="57"/>
-    </row>
-    <row r="618" spans="2:10" s="9" customFormat="1">
+      <c r="L617" s="12"/>
+    </row>
+    <row r="618" spans="2:14" s="9" customFormat="1">
       <c r="B618" s="57"/>
       <c r="C618" s="58"/>
       <c r="D618" s="58"/>
       <c r="E618" s="58"/>
       <c r="F618" s="58"/>
-      <c r="G618" s="57"/>
-      <c r="H618" s="57"/>
-      <c r="I618" s="57"/>
+      <c r="G618" s="58"/>
+      <c r="H618" s="58"/>
+      <c r="I618" s="58"/>
       <c r="J618" s="57"/>
     </row>
-    <row r="619" spans="2:10" s="9" customFormat="1">
+    <row r="619" spans="2:14" s="9" customFormat="1">
       <c r="B619" s="57"/>
       <c r="C619" s="58"/>
       <c r="D619" s="58"/>
@@ -19425,10 +18580,10 @@
       <c r="I619" s="57"/>
       <c r="J619" s="57"/>
     </row>
-    <row r="620" spans="2:10" s="9" customFormat="1">
+    <row r="620" spans="2:14" s="9" customFormat="1">
       <c r="B620" s="57"/>
       <c r="C620" s="58"/>
-      <c r="D620" s="58"/>
+      <c r="D620" s="57"/>
       <c r="E620" s="58"/>
       <c r="F620" s="58"/>
       <c r="G620" s="57"/>
@@ -19436,10 +18591,10 @@
       <c r="I620" s="57"/>
       <c r="J620" s="57"/>
     </row>
-    <row r="621" spans="2:10" s="9" customFormat="1">
+    <row r="621" spans="2:14" s="9" customFormat="1">
       <c r="B621" s="57"/>
       <c r="C621" s="58"/>
-      <c r="D621" s="58"/>
+      <c r="D621" s="57"/>
       <c r="E621" s="58"/>
       <c r="F621" s="58"/>
       <c r="G621" s="57"/>
@@ -19447,18 +18602,18 @@
       <c r="I621" s="57"/>
       <c r="J621" s="57"/>
     </row>
-    <row r="622" spans="2:10" s="9" customFormat="1">
+    <row r="622" spans="2:14" s="9" customFormat="1">
       <c r="B622" s="57"/>
       <c r="C622" s="58"/>
       <c r="D622" s="58"/>
       <c r="E622" s="58"/>
       <c r="F622" s="58"/>
-      <c r="G622" s="57"/>
+      <c r="G622" s="58"/>
       <c r="H622" s="57"/>
       <c r="I622" s="57"/>
       <c r="J622" s="57"/>
     </row>
-    <row r="623" spans="2:10" s="9" customFormat="1">
+    <row r="623" spans="2:14" s="9" customFormat="1">
       <c r="B623" s="57"/>
       <c r="C623" s="58"/>
       <c r="D623" s="58"/>
@@ -19469,7 +18624,7 @@
       <c r="I623" s="57"/>
       <c r="J623" s="57"/>
     </row>
-    <row r="624" spans="2:10" s="9" customFormat="1">
+    <row r="624" spans="2:14" s="9" customFormat="1">
       <c r="B624" s="57"/>
       <c r="C624" s="58"/>
       <c r="D624" s="58"/>
@@ -19480,7 +18635,7 @@
       <c r="I624" s="57"/>
       <c r="J624" s="57"/>
     </row>
-    <row r="625" spans="2:14" s="9" customFormat="1">
+    <row r="625" spans="2:10" s="9" customFormat="1">
       <c r="B625" s="57"/>
       <c r="C625" s="58"/>
       <c r="D625" s="58"/>
@@ -19491,10 +18646,10 @@
       <c r="I625" s="57"/>
       <c r="J625" s="57"/>
     </row>
-    <row r="626" spans="2:14" s="9" customFormat="1">
+    <row r="626" spans="2:10" s="9" customFormat="1">
       <c r="B626" s="57"/>
       <c r="C626" s="58"/>
-      <c r="D626" s="57"/>
+      <c r="D626" s="58"/>
       <c r="E626" s="58"/>
       <c r="F626" s="58"/>
       <c r="G626" s="57"/>
@@ -19502,109 +18657,108 @@
       <c r="I626" s="57"/>
       <c r="J626" s="57"/>
     </row>
-    <row r="627" spans="2:14" s="9" customFormat="1">
+    <row r="627" spans="2:10" s="9" customFormat="1">
       <c r="B627" s="57"/>
-      <c r="C627" s="57"/>
+      <c r="C627" s="58"/>
       <c r="D627" s="58"/>
-      <c r="E627" s="65"/>
+      <c r="E627" s="58"/>
       <c r="F627" s="58"/>
       <c r="G627" s="57"/>
       <c r="H627" s="57"/>
       <c r="I627" s="57"/>
       <c r="J627" s="57"/>
     </row>
-    <row r="628" spans="2:14" s="9" customFormat="1">
+    <row r="628" spans="2:10" s="9" customFormat="1">
       <c r="B628" s="57"/>
-      <c r="C628" s="57"/>
+      <c r="C628" s="58"/>
       <c r="D628" s="58"/>
-      <c r="E628" s="65"/>
+      <c r="E628" s="58"/>
       <c r="F628" s="58"/>
-      <c r="G628" s="57"/>
+      <c r="G628" s="58"/>
       <c r="H628" s="57"/>
       <c r="I628" s="57"/>
       <c r="J628" s="57"/>
     </row>
-    <row r="629" spans="2:14" s="9" customFormat="1">
+    <row r="629" spans="2:10" s="9" customFormat="1">
       <c r="B629" s="57"/>
-      <c r="C629" s="57"/>
+      <c r="C629" s="58"/>
       <c r="D629" s="58"/>
-      <c r="E629" s="65"/>
+      <c r="E629" s="58"/>
       <c r="F629" s="58"/>
       <c r="G629" s="57"/>
       <c r="H629" s="57"/>
       <c r="I629" s="57"/>
       <c r="J629" s="57"/>
     </row>
-    <row r="630" spans="2:14" s="9" customFormat="1">
+    <row r="630" spans="2:10" s="9" customFormat="1">
       <c r="B630" s="57"/>
-      <c r="C630" s="57"/>
+      <c r="C630" s="58"/>
       <c r="D630" s="58"/>
-      <c r="E630" s="65"/>
+      <c r="E630" s="58"/>
       <c r="F630" s="58"/>
       <c r="G630" s="57"/>
       <c r="H630" s="57"/>
       <c r="I630" s="57"/>
       <c r="J630" s="57"/>
     </row>
-    <row r="631" spans="2:14" s="9" customFormat="1">
+    <row r="631" spans="2:10" s="9" customFormat="1">
       <c r="B631" s="57"/>
-      <c r="C631" s="57"/>
+      <c r="C631" s="58"/>
       <c r="D631" s="58"/>
-      <c r="E631" s="65"/>
+      <c r="E631" s="58"/>
       <c r="F631" s="58"/>
       <c r="G631" s="57"/>
       <c r="H631" s="57"/>
       <c r="I631" s="57"/>
       <c r="J631" s="57"/>
     </row>
-    <row r="632" spans="2:14" s="9" customFormat="1">
+    <row r="632" spans="2:10" s="9" customFormat="1">
       <c r="B632" s="57"/>
-      <c r="C632" s="57"/>
+      <c r="C632" s="58"/>
       <c r="D632" s="58"/>
-      <c r="E632" s="65"/>
+      <c r="E632" s="58"/>
       <c r="F632" s="58"/>
-      <c r="G632" s="57"/>
+      <c r="G632" s="58"/>
       <c r="H632" s="57"/>
       <c r="I632" s="57"/>
       <c r="J632" s="57"/>
     </row>
-    <row r="633" spans="2:14" s="9" customFormat="1">
+    <row r="633" spans="2:10" s="9" customFormat="1">
       <c r="B633" s="57"/>
-      <c r="C633" s="57"/>
+      <c r="C633" s="58"/>
       <c r="D633" s="58"/>
-      <c r="E633" s="65"/>
+      <c r="E633" s="58"/>
       <c r="F633" s="58"/>
       <c r="G633" s="57"/>
       <c r="H633" s="57"/>
       <c r="I633" s="57"/>
       <c r="J633" s="57"/>
     </row>
-    <row r="634" spans="2:14" s="9" customFormat="1">
+    <row r="634" spans="2:10" s="9" customFormat="1">
       <c r="B634" s="57"/>
-      <c r="C634" s="57"/>
+      <c r="C634" s="58"/>
       <c r="D634" s="58"/>
-      <c r="E634" s="65"/>
+      <c r="E634" s="58"/>
       <c r="F634" s="58"/>
       <c r="G634" s="57"/>
       <c r="H634" s="57"/>
       <c r="I634" s="57"/>
       <c r="J634" s="57"/>
     </row>
-    <row r="635" spans="2:14" s="9" customFormat="1">
+    <row r="635" spans="2:10" s="9" customFormat="1">
       <c r="B635" s="57"/>
-      <c r="C635" s="57"/>
+      <c r="C635" s="58"/>
       <c r="D635" s="58"/>
-      <c r="E635" s="65"/>
+      <c r="E635" s="58"/>
       <c r="F635" s="58"/>
       <c r="G635" s="57"/>
       <c r="H635" s="57"/>
       <c r="I635" s="57"/>
       <c r="J635" s="57"/>
-      <c r="N635" s="12"/>
-    </row>
-    <row r="636" spans="2:14" s="9" customFormat="1">
+    </row>
+    <row r="636" spans="2:10" s="9" customFormat="1">
       <c r="B636" s="57"/>
-      <c r="C636" s="57"/>
+      <c r="C636" s="58"/>
       <c r="D636" s="58"/>
       <c r="E636" s="58"/>
       <c r="F636" s="58"/>
@@ -19613,9 +18767,9 @@
       <c r="I636" s="57"/>
       <c r="J636" s="57"/>
     </row>
-    <row r="637" spans="2:14" s="9" customFormat="1">
+    <row r="637" spans="2:10" s="9" customFormat="1">
       <c r="B637" s="57"/>
-      <c r="C637" s="57"/>
+      <c r="C637" s="58"/>
       <c r="D637" s="58"/>
       <c r="E637" s="58"/>
       <c r="F637" s="58"/>
@@ -19624,7 +18778,7 @@
       <c r="I637" s="57"/>
       <c r="J637" s="57"/>
     </row>
-    <row r="638" spans="2:14" s="9" customFormat="1">
+    <row r="638" spans="2:10" s="9" customFormat="1">
       <c r="B638" s="57"/>
       <c r="C638" s="57"/>
       <c r="D638" s="58"/>
@@ -19635,7 +18789,7 @@
       <c r="I638" s="57"/>
       <c r="J638" s="57"/>
     </row>
-    <row r="639" spans="2:14" s="9" customFormat="1">
+    <row r="639" spans="2:10" s="9" customFormat="1">
       <c r="B639" s="57"/>
       <c r="C639" s="57"/>
       <c r="D639" s="58"/>
@@ -19646,7 +18800,7 @@
       <c r="I639" s="57"/>
       <c r="J639" s="57"/>
     </row>
-    <row r="640" spans="2:14" s="9" customFormat="1">
+    <row r="640" spans="2:10" s="9" customFormat="1">
       <c r="B640" s="57"/>
       <c r="C640" s="57"/>
       <c r="D640" s="58"/>
@@ -19663,7 +18817,7 @@
       <c r="D641" s="58"/>
       <c r="E641" s="58"/>
       <c r="F641" s="58"/>
-      <c r="G641" s="57"/>
+      <c r="G641" s="58"/>
       <c r="H641" s="57"/>
       <c r="I641" s="57"/>
       <c r="J641" s="57"/>
@@ -19700,11 +18854,10 @@
       <c r="H644" s="57"/>
       <c r="I644" s="57"/>
       <c r="J644" s="57"/>
-      <c r="N644" s="12"/>
     </row>
     <row r="645" spans="2:14" s="9" customFormat="1">
       <c r="B645" s="57"/>
-      <c r="C645" s="58"/>
+      <c r="C645" s="57"/>
       <c r="D645" s="58"/>
       <c r="E645" s="58"/>
       <c r="F645" s="58"/>
@@ -19715,7 +18868,7 @@
     </row>
     <row r="646" spans="2:14" s="9" customFormat="1">
       <c r="B646" s="57"/>
-      <c r="C646" s="58"/>
+      <c r="C646" s="57"/>
       <c r="D646" s="58"/>
       <c r="E646" s="58"/>
       <c r="F646" s="58"/>
@@ -19723,10 +18876,11 @@
       <c r="H646" s="57"/>
       <c r="I646" s="57"/>
       <c r="J646" s="57"/>
+      <c r="N646" s="12"/>
     </row>
     <row r="647" spans="2:14" s="9" customFormat="1">
       <c r="B647" s="57"/>
-      <c r="C647" s="58"/>
+      <c r="C647" s="57"/>
       <c r="D647" s="58"/>
       <c r="E647" s="58"/>
       <c r="F647" s="58"/>
@@ -19734,22 +18888,21 @@
       <c r="H647" s="57"/>
       <c r="I647" s="57"/>
       <c r="J647" s="57"/>
-      <c r="L647" s="12"/>
     </row>
     <row r="648" spans="2:14" s="9" customFormat="1">
       <c r="B648" s="57"/>
-      <c r="C648" s="58"/>
+      <c r="C648" s="57"/>
       <c r="D648" s="58"/>
       <c r="E648" s="58"/>
       <c r="F648" s="58"/>
-      <c r="G648" s="58"/>
-      <c r="H648" s="58"/>
-      <c r="I648" s="58"/>
+      <c r="G648" s="57"/>
+      <c r="H648" s="57"/>
+      <c r="I648" s="57"/>
       <c r="J648" s="57"/>
     </row>
     <row r="649" spans="2:14" s="9" customFormat="1">
       <c r="B649" s="57"/>
-      <c r="C649" s="58"/>
+      <c r="C649" s="57"/>
       <c r="D649" s="58"/>
       <c r="E649" s="58"/>
       <c r="F649" s="58"/>
@@ -19760,19 +18913,19 @@
     </row>
     <row r="650" spans="2:14" s="9" customFormat="1">
       <c r="B650" s="57"/>
-      <c r="C650" s="58"/>
-      <c r="D650" s="57"/>
+      <c r="C650" s="57"/>
+      <c r="D650" s="58"/>
       <c r="E650" s="58"/>
       <c r="F650" s="58"/>
-      <c r="G650" s="57"/>
+      <c r="G650" s="58"/>
       <c r="H650" s="57"/>
       <c r="I650" s="57"/>
       <c r="J650" s="57"/>
     </row>
     <row r="651" spans="2:14" s="9" customFormat="1">
       <c r="B651" s="57"/>
-      <c r="C651" s="58"/>
-      <c r="D651" s="57"/>
+      <c r="C651" s="57"/>
+      <c r="D651" s="58"/>
       <c r="E651" s="58"/>
       <c r="F651" s="58"/>
       <c r="G651" s="57"/>
@@ -19782,18 +18935,18 @@
     </row>
     <row r="652" spans="2:14" s="9" customFormat="1">
       <c r="B652" s="57"/>
-      <c r="C652" s="58"/>
+      <c r="C652" s="57"/>
       <c r="D652" s="58"/>
       <c r="E652" s="58"/>
       <c r="F652" s="58"/>
-      <c r="G652" s="58"/>
+      <c r="G652" s="57"/>
       <c r="H652" s="57"/>
       <c r="I652" s="57"/>
       <c r="J652" s="57"/>
     </row>
     <row r="653" spans="2:14" s="9" customFormat="1">
       <c r="B653" s="57"/>
-      <c r="C653" s="58"/>
+      <c r="C653" s="57"/>
       <c r="D653" s="58"/>
       <c r="E653" s="58"/>
       <c r="F653" s="58"/>
@@ -19804,7 +18957,7 @@
     </row>
     <row r="654" spans="2:14" s="9" customFormat="1">
       <c r="B654" s="57"/>
-      <c r="C654" s="58"/>
+      <c r="C654" s="57"/>
       <c r="D654" s="58"/>
       <c r="E654" s="58"/>
       <c r="F654" s="58"/>
@@ -19815,7 +18968,7 @@
     </row>
     <row r="655" spans="2:14" s="9" customFormat="1">
       <c r="B655" s="57"/>
-      <c r="C655" s="58"/>
+      <c r="C655" s="57"/>
       <c r="D655" s="58"/>
       <c r="E655" s="58"/>
       <c r="F655" s="58"/>
@@ -19823,6 +18976,7 @@
       <c r="H655" s="57"/>
       <c r="I655" s="57"/>
       <c r="J655" s="57"/>
+      <c r="N655" s="12"/>
     </row>
     <row r="656" spans="2:14" s="9" customFormat="1">
       <c r="B656" s="57"/>
@@ -19832,78 +18986,78 @@
       <c r="F656" s="58"/>
       <c r="G656" s="57"/>
       <c r="H656" s="57"/>
-      <c r="I656" s="57"/>
+      <c r="I656" s="58"/>
       <c r="J656" s="57"/>
     </row>
-    <row r="657" spans="2:10" s="9" customFormat="1">
+    <row r="657" spans="2:14" s="9" customFormat="1">
       <c r="B657" s="57"/>
       <c r="C657" s="58"/>
       <c r="D657" s="58"/>
       <c r="E657" s="58"/>
-      <c r="F657" s="58"/>
+      <c r="F657" s="57"/>
       <c r="G657" s="57"/>
       <c r="H657" s="57"/>
       <c r="I657" s="57"/>
       <c r="J657" s="57"/>
     </row>
-    <row r="658" spans="2:10" s="9" customFormat="1">
+    <row r="658" spans="2:14" s="9" customFormat="1">
       <c r="B658" s="57"/>
       <c r="C658" s="58"/>
       <c r="D658" s="58"/>
       <c r="E658" s="58"/>
-      <c r="F658" s="58"/>
-      <c r="G658" s="58"/>
+      <c r="F658" s="57"/>
+      <c r="G658" s="57"/>
       <c r="H658" s="57"/>
       <c r="I658" s="57"/>
       <c r="J658" s="57"/>
     </row>
-    <row r="659" spans="2:10" s="9" customFormat="1">
+    <row r="659" spans="2:14" s="9" customFormat="1">
       <c r="B659" s="57"/>
       <c r="C659" s="58"/>
       <c r="D659" s="58"/>
       <c r="E659" s="58"/>
-      <c r="F659" s="58"/>
+      <c r="F659" s="57"/>
       <c r="G659" s="57"/>
       <c r="H659" s="57"/>
       <c r="I659" s="57"/>
       <c r="J659" s="57"/>
     </row>
-    <row r="660" spans="2:10" s="9" customFormat="1">
+    <row r="660" spans="2:14" s="9" customFormat="1">
       <c r="B660" s="57"/>
       <c r="C660" s="58"/>
       <c r="D660" s="58"/>
       <c r="E660" s="58"/>
-      <c r="F660" s="58"/>
+      <c r="F660" s="57"/>
       <c r="G660" s="57"/>
       <c r="H660" s="57"/>
       <c r="I660" s="57"/>
       <c r="J660" s="57"/>
     </row>
-    <row r="661" spans="2:10" s="9" customFormat="1">
+    <row r="661" spans="2:14" s="9" customFormat="1">
       <c r="B661" s="57"/>
       <c r="C661" s="58"/>
-      <c r="D661" s="58"/>
+      <c r="D661" s="57"/>
       <c r="E661" s="58"/>
-      <c r="F661" s="58"/>
+      <c r="F661" s="57"/>
       <c r="G661" s="57"/>
       <c r="H661" s="57"/>
       <c r="I661" s="57"/>
       <c r="J661" s="57"/>
     </row>
-    <row r="662" spans="2:10" s="9" customFormat="1">
+    <row r="662" spans="2:14" s="9" customFormat="1">
       <c r="B662" s="57"/>
-      <c r="C662" s="58"/>
+      <c r="C662" s="57"/>
       <c r="D662" s="58"/>
       <c r="E662" s="58"/>
       <c r="F662" s="58"/>
-      <c r="G662" s="58"/>
+      <c r="G662" s="57"/>
       <c r="H662" s="57"/>
       <c r="I662" s="57"/>
       <c r="J662" s="57"/>
     </row>
-    <row r="663" spans="2:10" s="9" customFormat="1">
+    <row r="663" spans="2:14" s="9" customFormat="1">
       <c r="B663" s="57"/>
-      <c r="C663" s="58"/>
+      <c r="C663" s="57"/>
       <c r="D663" s="58"/>
       <c r="E663" s="58"/>
       <c r="F663" s="58"/>
@@ -19912,9 +19066,9 @@
       <c r="I663" s="57"/>
       <c r="J663" s="57"/>
     </row>
-    <row r="664" spans="2:10" s="9" customFormat="1">
+    <row r="664" spans="2:14" s="9" customFormat="1">
       <c r="B664" s="57"/>
-      <c r="C664" s="58"/>
+      <c r="C664" s="57"/>
       <c r="D664" s="58"/>
       <c r="E664" s="58"/>
       <c r="F664" s="58"/>
@@ -19923,9 +19077,9 @@
       <c r="I664" s="57"/>
       <c r="J664" s="57"/>
     </row>
-    <row r="665" spans="2:10" s="9" customFormat="1">
+    <row r="665" spans="2:14" s="9" customFormat="1">
       <c r="B665" s="57"/>
-      <c r="C665" s="58"/>
+      <c r="C665" s="57"/>
       <c r="D665" s="58"/>
       <c r="E665" s="58"/>
       <c r="F665" s="58"/>
@@ -19934,9 +19088,9 @@
       <c r="I665" s="57"/>
       <c r="J665" s="57"/>
     </row>
-    <row r="666" spans="2:10" s="9" customFormat="1">
+    <row r="666" spans="2:14" s="9" customFormat="1">
       <c r="B666" s="57"/>
-      <c r="C666" s="58"/>
+      <c r="C666" s="57"/>
       <c r="D666" s="58"/>
       <c r="E666" s="58"/>
       <c r="F666" s="58"/>
@@ -19945,9 +19099,9 @@
       <c r="I666" s="57"/>
       <c r="J666" s="57"/>
     </row>
-    <row r="667" spans="2:10" s="9" customFormat="1">
+    <row r="667" spans="2:14" s="9" customFormat="1">
       <c r="B667" s="57"/>
-      <c r="C667" s="58"/>
+      <c r="C667" s="57"/>
       <c r="D667" s="58"/>
       <c r="E667" s="58"/>
       <c r="F667" s="58"/>
@@ -19956,7 +19110,7 @@
       <c r="I667" s="57"/>
       <c r="J667" s="57"/>
     </row>
-    <row r="668" spans="2:10" s="9" customFormat="1">
+    <row r="668" spans="2:14" s="9" customFormat="1">
       <c r="B668" s="57"/>
       <c r="C668" s="57"/>
       <c r="D668" s="58"/>
@@ -19967,7 +19121,7 @@
       <c r="I668" s="57"/>
       <c r="J668" s="57"/>
     </row>
-    <row r="669" spans="2:10" s="9" customFormat="1">
+    <row r="669" spans="2:14" s="9" customFormat="1">
       <c r="B669" s="57"/>
       <c r="C669" s="57"/>
       <c r="D669" s="58"/>
@@ -19978,7 +19132,7 @@
       <c r="I669" s="57"/>
       <c r="J669" s="57"/>
     </row>
-    <row r="670" spans="2:10" s="9" customFormat="1">
+    <row r="670" spans="2:14" s="9" customFormat="1">
       <c r="B670" s="57"/>
       <c r="C670" s="57"/>
       <c r="D670" s="58"/>
@@ -19988,19 +19142,20 @@
       <c r="H670" s="57"/>
       <c r="I670" s="57"/>
       <c r="J670" s="57"/>
-    </row>
-    <row r="671" spans="2:10" s="9" customFormat="1">
+      <c r="N670" s="12"/>
+    </row>
+    <row r="671" spans="2:14" s="9" customFormat="1">
       <c r="B671" s="57"/>
       <c r="C671" s="57"/>
       <c r="D671" s="58"/>
       <c r="E671" s="58"/>
       <c r="F671" s="58"/>
-      <c r="G671" s="58"/>
+      <c r="G671" s="57"/>
       <c r="H671" s="57"/>
       <c r="I671" s="57"/>
       <c r="J671" s="57"/>
     </row>
-    <row r="672" spans="2:10" s="9" customFormat="1">
+    <row r="672" spans="2:14" s="9" customFormat="1">
       <c r="B672" s="57"/>
       <c r="C672" s="57"/>
       <c r="D672" s="58"/>
@@ -20054,7 +19209,6 @@
       <c r="H676" s="57"/>
       <c r="I676" s="57"/>
       <c r="J676" s="57"/>
-      <c r="N676" s="12"/>
     </row>
     <row r="677" spans="2:14" s="9" customFormat="1">
       <c r="B677" s="57"/>
@@ -20088,22 +19242,23 @@
       <c r="H679" s="57"/>
       <c r="I679" s="57"/>
       <c r="J679" s="57"/>
+      <c r="N679" s="12"/>
     </row>
     <row r="680" spans="2:14" s="9" customFormat="1">
       <c r="B680" s="57"/>
-      <c r="C680" s="57"/>
+      <c r="C680" s="58"/>
       <c r="D680" s="58"/>
       <c r="E680" s="58"/>
       <c r="F680" s="58"/>
-      <c r="G680" s="58"/>
+      <c r="G680" s="57"/>
       <c r="H680" s="57"/>
       <c r="I680" s="57"/>
       <c r="J680" s="57"/>
     </row>
     <row r="681" spans="2:14" s="9" customFormat="1">
       <c r="B681" s="57"/>
-      <c r="C681" s="57"/>
-      <c r="D681" s="58"/>
+      <c r="C681" s="58"/>
+      <c r="D681" s="57"/>
       <c r="E681" s="58"/>
       <c r="F681" s="58"/>
       <c r="G681" s="57"/>
@@ -20113,8 +19268,8 @@
     </row>
     <row r="682" spans="2:14" s="9" customFormat="1">
       <c r="B682" s="57"/>
-      <c r="C682" s="57"/>
-      <c r="D682" s="58"/>
+      <c r="C682" s="58"/>
+      <c r="D682" s="57"/>
       <c r="E682" s="58"/>
       <c r="F682" s="58"/>
       <c r="G682" s="57"/>
@@ -20124,7 +19279,7 @@
     </row>
     <row r="683" spans="2:14" s="9" customFormat="1">
       <c r="B683" s="57"/>
-      <c r="C683" s="57"/>
+      <c r="C683" s="58"/>
       <c r="D683" s="58"/>
       <c r="E683" s="58"/>
       <c r="F683" s="58"/>
@@ -20135,7 +19290,7 @@
     </row>
     <row r="684" spans="2:14" s="9" customFormat="1">
       <c r="B684" s="57"/>
-      <c r="C684" s="57"/>
+      <c r="C684" s="58"/>
       <c r="D684" s="58"/>
       <c r="E684" s="58"/>
       <c r="F684" s="58"/>
@@ -20146,7 +19301,7 @@
     </row>
     <row r="685" spans="2:14" s="9" customFormat="1">
       <c r="B685" s="57"/>
-      <c r="C685" s="57"/>
+      <c r="C685" s="58"/>
       <c r="D685" s="58"/>
       <c r="E685" s="58"/>
       <c r="F685" s="58"/>
@@ -20154,7 +19309,6 @@
       <c r="H685" s="57"/>
       <c r="I685" s="57"/>
       <c r="J685" s="57"/>
-      <c r="N685" s="12"/>
     </row>
     <row r="686" spans="2:14" s="9" customFormat="1">
       <c r="B686" s="57"/>
@@ -20164,7 +19318,7 @@
       <c r="F686" s="58"/>
       <c r="G686" s="57"/>
       <c r="H686" s="57"/>
-      <c r="I686" s="58"/>
+      <c r="I686" s="57"/>
       <c r="J686" s="57"/>
     </row>
     <row r="687" spans="2:14" s="9" customFormat="1">
@@ -20172,7 +19326,7 @@
       <c r="C687" s="58"/>
       <c r="D687" s="58"/>
       <c r="E687" s="58"/>
-      <c r="F687" s="57"/>
+      <c r="F687" s="58"/>
       <c r="G687" s="57"/>
       <c r="H687" s="57"/>
       <c r="I687" s="57"/>
@@ -20183,48 +19337,48 @@
       <c r="C688" s="58"/>
       <c r="D688" s="58"/>
       <c r="E688" s="58"/>
-      <c r="F688" s="57"/>
+      <c r="F688" s="58"/>
       <c r="G688" s="57"/>
       <c r="H688" s="57"/>
       <c r="I688" s="57"/>
       <c r="J688" s="57"/>
     </row>
-    <row r="689" spans="2:14" s="9" customFormat="1">
+    <row r="689" spans="2:10" s="9" customFormat="1">
       <c r="B689" s="57"/>
       <c r="C689" s="58"/>
       <c r="D689" s="58"/>
       <c r="E689" s="58"/>
-      <c r="F689" s="57"/>
+      <c r="F689" s="58"/>
       <c r="G689" s="57"/>
       <c r="H689" s="57"/>
       <c r="I689" s="57"/>
       <c r="J689" s="57"/>
     </row>
-    <row r="690" spans="2:14" s="9" customFormat="1">
+    <row r="690" spans="2:10" s="9" customFormat="1">
       <c r="B690" s="57"/>
       <c r="C690" s="58"/>
       <c r="D690" s="58"/>
       <c r="E690" s="58"/>
-      <c r="F690" s="57"/>
+      <c r="F690" s="58"/>
       <c r="G690" s="57"/>
       <c r="H690" s="57"/>
       <c r="I690" s="57"/>
       <c r="J690" s="57"/>
     </row>
-    <row r="691" spans="2:14" s="9" customFormat="1">
+    <row r="691" spans="2:10" s="9" customFormat="1">
       <c r="B691" s="57"/>
       <c r="C691" s="58"/>
-      <c r="D691" s="57"/>
+      <c r="D691" s="58"/>
       <c r="E691" s="58"/>
-      <c r="F691" s="57"/>
+      <c r="F691" s="58"/>
       <c r="G691" s="57"/>
       <c r="H691" s="57"/>
       <c r="I691" s="57"/>
       <c r="J691" s="57"/>
     </row>
-    <row r="692" spans="2:14" s="9" customFormat="1">
+    <row r="692" spans="2:10" s="9" customFormat="1">
       <c r="B692" s="57"/>
-      <c r="C692" s="57"/>
+      <c r="C692" s="58"/>
       <c r="D692" s="58"/>
       <c r="E692" s="58"/>
       <c r="F692" s="58"/>
@@ -20233,9 +19387,9 @@
       <c r="I692" s="57"/>
       <c r="J692" s="57"/>
     </row>
-    <row r="693" spans="2:14" s="9" customFormat="1">
+    <row r="693" spans="2:10" s="9" customFormat="1">
       <c r="B693" s="57"/>
-      <c r="C693" s="57"/>
+      <c r="C693" s="58"/>
       <c r="D693" s="58"/>
       <c r="E693" s="58"/>
       <c r="F693" s="58"/>
@@ -20244,9 +19398,9 @@
       <c r="I693" s="57"/>
       <c r="J693" s="57"/>
     </row>
-    <row r="694" spans="2:14" s="9" customFormat="1">
+    <row r="694" spans="2:10" s="9" customFormat="1">
       <c r="B694" s="57"/>
-      <c r="C694" s="57"/>
+      <c r="C694" s="58"/>
       <c r="D694" s="58"/>
       <c r="E694" s="58"/>
       <c r="F694" s="58"/>
@@ -20255,9 +19409,9 @@
       <c r="I694" s="57"/>
       <c r="J694" s="57"/>
     </row>
-    <row r="695" spans="2:14" s="9" customFormat="1">
+    <row r="695" spans="2:10" s="9" customFormat="1">
       <c r="B695" s="57"/>
-      <c r="C695" s="57"/>
+      <c r="C695" s="58"/>
       <c r="D695" s="58"/>
       <c r="E695" s="58"/>
       <c r="F695" s="58"/>
@@ -20266,9 +19420,9 @@
       <c r="I695" s="57"/>
       <c r="J695" s="57"/>
     </row>
-    <row r="696" spans="2:14" s="9" customFormat="1">
+    <row r="696" spans="2:10" s="9" customFormat="1">
       <c r="B696" s="57"/>
-      <c r="C696" s="57"/>
+      <c r="C696" s="58"/>
       <c r="D696" s="58"/>
       <c r="E696" s="58"/>
       <c r="F696" s="58"/>
@@ -20277,9 +19431,9 @@
       <c r="I696" s="57"/>
       <c r="J696" s="57"/>
     </row>
-    <row r="697" spans="2:14" s="9" customFormat="1">
+    <row r="697" spans="2:10" s="9" customFormat="1">
       <c r="B697" s="57"/>
-      <c r="C697" s="57"/>
+      <c r="C697" s="58"/>
       <c r="D697" s="58"/>
       <c r="E697" s="58"/>
       <c r="F697" s="58"/>
@@ -20288,9 +19442,9 @@
       <c r="I697" s="57"/>
       <c r="J697" s="57"/>
     </row>
-    <row r="698" spans="2:14" s="9" customFormat="1">
+    <row r="698" spans="2:10" s="9" customFormat="1">
       <c r="B698" s="57"/>
-      <c r="C698" s="57"/>
+      <c r="C698" s="58"/>
       <c r="D698" s="58"/>
       <c r="E698" s="58"/>
       <c r="F698" s="58"/>
@@ -20299,63 +19453,62 @@
       <c r="I698" s="57"/>
       <c r="J698" s="57"/>
     </row>
-    <row r="699" spans="2:14" s="9" customFormat="1">
+    <row r="699" spans="2:10" s="9" customFormat="1">
       <c r="B699" s="57"/>
-      <c r="C699" s="57"/>
+      <c r="C699" s="58"/>
       <c r="D699" s="58"/>
       <c r="E699" s="58"/>
-      <c r="F699" s="58"/>
+      <c r="F699" s="57"/>
       <c r="G699" s="57"/>
       <c r="H699" s="57"/>
       <c r="I699" s="57"/>
       <c r="J699" s="57"/>
     </row>
-    <row r="700" spans="2:14" s="9" customFormat="1">
+    <row r="700" spans="2:10" s="9" customFormat="1">
       <c r="B700" s="57"/>
-      <c r="C700" s="57"/>
+      <c r="C700" s="58"/>
       <c r="D700" s="58"/>
       <c r="E700" s="58"/>
-      <c r="F700" s="58"/>
+      <c r="F700" s="57"/>
       <c r="G700" s="57"/>
       <c r="H700" s="57"/>
       <c r="I700" s="57"/>
       <c r="J700" s="57"/>
-      <c r="N700" s="12"/>
-    </row>
-    <row r="701" spans="2:14" s="9" customFormat="1">
+    </row>
+    <row r="701" spans="2:10" s="9" customFormat="1">
       <c r="B701" s="57"/>
-      <c r="C701" s="57"/>
+      <c r="C701" s="58"/>
       <c r="D701" s="58"/>
       <c r="E701" s="58"/>
-      <c r="F701" s="58"/>
+      <c r="F701" s="57"/>
       <c r="G701" s="57"/>
       <c r="H701" s="57"/>
       <c r="I701" s="57"/>
       <c r="J701" s="57"/>
     </row>
-    <row r="702" spans="2:14" s="9" customFormat="1">
+    <row r="702" spans="2:10" s="9" customFormat="1">
       <c r="B702" s="57"/>
-      <c r="C702" s="57"/>
+      <c r="C702" s="58"/>
       <c r="D702" s="58"/>
       <c r="E702" s="58"/>
-      <c r="F702" s="58"/>
+      <c r="F702" s="57"/>
       <c r="G702" s="57"/>
       <c r="H702" s="57"/>
       <c r="I702" s="57"/>
       <c r="J702" s="57"/>
     </row>
-    <row r="703" spans="2:14" s="9" customFormat="1">
+    <row r="703" spans="2:10" s="9" customFormat="1">
       <c r="B703" s="57"/>
-      <c r="C703" s="57"/>
+      <c r="C703" s="58"/>
       <c r="D703" s="58"/>
       <c r="E703" s="58"/>
-      <c r="F703" s="58"/>
+      <c r="F703" s="57"/>
       <c r="G703" s="57"/>
       <c r="H703" s="57"/>
       <c r="I703" s="57"/>
       <c r="J703" s="57"/>
     </row>
-    <row r="704" spans="2:14" s="9" customFormat="1">
+    <row r="704" spans="2:10" s="9" customFormat="1">
       <c r="B704" s="57"/>
       <c r="C704" s="57"/>
       <c r="D704" s="58"/>
@@ -20420,11 +19573,10 @@
       <c r="H709" s="57"/>
       <c r="I709" s="57"/>
       <c r="J709" s="57"/>
-      <c r="N709" s="12"/>
     </row>
     <row r="710" spans="2:14" s="9" customFormat="1">
       <c r="B710" s="57"/>
-      <c r="C710" s="58"/>
+      <c r="C710" s="57"/>
       <c r="D710" s="58"/>
       <c r="E710" s="58"/>
       <c r="F710" s="58"/>
@@ -20435,8 +19587,8 @@
     </row>
     <row r="711" spans="2:14" s="9" customFormat="1">
       <c r="B711" s="57"/>
-      <c r="C711" s="58"/>
-      <c r="D711" s="57"/>
+      <c r="C711" s="57"/>
+      <c r="D711" s="58"/>
       <c r="E711" s="58"/>
       <c r="F711" s="58"/>
       <c r="G711" s="57"/>
@@ -20446,19 +19598,20 @@
     </row>
     <row r="712" spans="2:14" s="9" customFormat="1">
       <c r="B712" s="57"/>
-      <c r="C712" s="58"/>
-      <c r="D712" s="57"/>
+      <c r="C712" s="57"/>
+      <c r="D712" s="58"/>
       <c r="E712" s="58"/>
       <c r="F712" s="58"/>
       <c r="G712" s="57"/>
       <c r="H712" s="57"/>
       <c r="I712" s="57"/>
       <c r="J712" s="57"/>
+      <c r="N712" s="12"/>
     </row>
     <row r="713" spans="2:14" s="9" customFormat="1">
       <c r="B713" s="57"/>
       <c r="C713" s="58"/>
-      <c r="D713" s="58"/>
+      <c r="D713" s="57"/>
       <c r="E713" s="58"/>
       <c r="F713" s="58"/>
       <c r="G713" s="57"/>
@@ -20469,7 +19622,7 @@
     <row r="714" spans="2:14" s="9" customFormat="1">
       <c r="B714" s="57"/>
       <c r="C714" s="58"/>
-      <c r="D714" s="58"/>
+      <c r="D714" s="57"/>
       <c r="E714" s="58"/>
       <c r="F714" s="58"/>
       <c r="G714" s="57"/>
@@ -20636,7 +19789,7 @@
       <c r="C729" s="58"/>
       <c r="D729" s="58"/>
       <c r="E729" s="58"/>
-      <c r="F729" s="57"/>
+      <c r="F729" s="58"/>
       <c r="G729" s="57"/>
       <c r="H729" s="57"/>
       <c r="I729" s="57"/>
@@ -20647,7 +19800,7 @@
       <c r="C730" s="58"/>
       <c r="D730" s="58"/>
       <c r="E730" s="58"/>
-      <c r="F730" s="57"/>
+      <c r="F730" s="58"/>
       <c r="G730" s="57"/>
       <c r="H730" s="57"/>
       <c r="I730" s="57"/>
@@ -20655,8 +19808,8 @@
     </row>
     <row r="731" spans="2:10" s="9" customFormat="1">
       <c r="B731" s="57"/>
-      <c r="C731" s="58"/>
-      <c r="D731" s="58"/>
+      <c r="C731" s="57"/>
+      <c r="D731" s="57"/>
       <c r="E731" s="58"/>
       <c r="F731" s="57"/>
       <c r="G731" s="57"/>
@@ -20666,8 +19819,8 @@
     </row>
     <row r="732" spans="2:10" s="9" customFormat="1">
       <c r="B732" s="57"/>
-      <c r="C732" s="58"/>
-      <c r="D732" s="58"/>
+      <c r="C732" s="57"/>
+      <c r="D732" s="57"/>
       <c r="E732" s="58"/>
       <c r="F732" s="57"/>
       <c r="G732" s="57"/>
@@ -20677,9 +19830,9 @@
     </row>
     <row r="733" spans="2:10" s="9" customFormat="1">
       <c r="B733" s="57"/>
-      <c r="C733" s="58"/>
-      <c r="D733" s="58"/>
-      <c r="E733" s="58"/>
+      <c r="C733" s="57"/>
+      <c r="D733" s="57"/>
+      <c r="E733" s="57"/>
       <c r="F733" s="57"/>
       <c r="G733" s="57"/>
       <c r="H733" s="57"/>
@@ -20689,9 +19842,9 @@
     <row r="734" spans="2:10" s="9" customFormat="1">
       <c r="B734" s="57"/>
       <c r="C734" s="57"/>
-      <c r="D734" s="58"/>
-      <c r="E734" s="58"/>
-      <c r="F734" s="58"/>
+      <c r="D734" s="57"/>
+      <c r="E734" s="57"/>
+      <c r="F734" s="57"/>
       <c r="G734" s="57"/>
       <c r="H734" s="57"/>
       <c r="I734" s="57"/>
@@ -20700,9 +19853,9 @@
     <row r="735" spans="2:10" s="9" customFormat="1">
       <c r="B735" s="57"/>
       <c r="C735" s="57"/>
-      <c r="D735" s="58"/>
-      <c r="E735" s="58"/>
-      <c r="F735" s="58"/>
+      <c r="D735" s="57"/>
+      <c r="E735" s="57"/>
+      <c r="F735" s="57"/>
       <c r="G735" s="57"/>
       <c r="H735" s="57"/>
       <c r="I735" s="57"/>
@@ -20711,93 +19864,92 @@
     <row r="736" spans="2:10" s="9" customFormat="1">
       <c r="B736" s="57"/>
       <c r="C736" s="57"/>
-      <c r="D736" s="58"/>
-      <c r="E736" s="58"/>
-      <c r="F736" s="58"/>
+      <c r="D736" s="57"/>
+      <c r="E736" s="57"/>
+      <c r="F736" s="57"/>
       <c r="G736" s="57"/>
       <c r="H736" s="57"/>
       <c r="I736" s="57"/>
       <c r="J736" s="57"/>
     </row>
-    <row r="737" spans="2:14" s="9" customFormat="1">
+    <row r="737" spans="2:10" s="9" customFormat="1">
       <c r="B737" s="57"/>
       <c r="C737" s="57"/>
-      <c r="D737" s="58"/>
-      <c r="E737" s="58"/>
-      <c r="F737" s="58"/>
+      <c r="D737" s="57"/>
+      <c r="E737" s="57"/>
+      <c r="F737" s="57"/>
       <c r="G737" s="57"/>
       <c r="H737" s="57"/>
       <c r="I737" s="57"/>
       <c r="J737" s="57"/>
     </row>
-    <row r="738" spans="2:14" s="9" customFormat="1">
+    <row r="738" spans="2:10" s="9" customFormat="1">
       <c r="B738" s="57"/>
-      <c r="C738" s="57"/>
-      <c r="D738" s="58"/>
+      <c r="C738" s="58"/>
+      <c r="D738" s="57"/>
       <c r="E738" s="58"/>
-      <c r="F738" s="58"/>
+      <c r="F738" s="57"/>
       <c r="G738" s="57"/>
       <c r="H738" s="57"/>
       <c r="I738" s="57"/>
       <c r="J738" s="57"/>
     </row>
-    <row r="739" spans="2:14" s="9" customFormat="1">
+    <row r="739" spans="2:10" s="9" customFormat="1">
       <c r="B739" s="57"/>
-      <c r="C739" s="57"/>
-      <c r="D739" s="58"/>
+      <c r="C739" s="58"/>
+      <c r="D739" s="57"/>
       <c r="E739" s="58"/>
-      <c r="F739" s="58"/>
+      <c r="F739" s="57"/>
       <c r="G739" s="57"/>
       <c r="H739" s="57"/>
       <c r="I739" s="57"/>
       <c r="J739" s="57"/>
     </row>
-    <row r="740" spans="2:14" s="9" customFormat="1">
+    <row r="740" spans="2:10" s="9" customFormat="1">
       <c r="B740" s="57"/>
-      <c r="C740" s="57"/>
-      <c r="D740" s="58"/>
+      <c r="C740" s="58"/>
+      <c r="D740" s="57"/>
       <c r="E740" s="58"/>
-      <c r="F740" s="58"/>
+      <c r="F740" s="57"/>
       <c r="G740" s="57"/>
       <c r="H740" s="57"/>
       <c r="I740" s="57"/>
       <c r="J740" s="57"/>
     </row>
-    <row r="741" spans="2:14" s="9" customFormat="1">
+    <row r="741" spans="2:10" s="9" customFormat="1">
       <c r="B741" s="57"/>
-      <c r="C741" s="57"/>
-      <c r="D741" s="58"/>
+      <c r="C741" s="58"/>
+      <c r="D741" s="57"/>
       <c r="E741" s="58"/>
-      <c r="F741" s="58"/>
+      <c r="F741" s="57"/>
       <c r="G741" s="57"/>
       <c r="H741" s="57"/>
       <c r="I741" s="57"/>
       <c r="J741" s="57"/>
     </row>
-    <row r="742" spans="2:14" s="9" customFormat="1">
+    <row r="742" spans="2:10" s="9" customFormat="1">
       <c r="B742" s="57"/>
-      <c r="C742" s="57"/>
-      <c r="D742" s="58"/>
+      <c r="C742" s="58"/>
+      <c r="D742" s="57"/>
       <c r="E742" s="58"/>
-      <c r="F742" s="58"/>
+      <c r="F742" s="57"/>
       <c r="G742" s="57"/>
       <c r="H742" s="57"/>
       <c r="I742" s="57"/>
       <c r="J742" s="57"/>
-      <c r="N742" s="12"/>
-    </row>
-    <row r="743" spans="2:14" s="9" customFormat="1">
+    </row>
+    <row r="743" spans="2:10" s="9" customFormat="1">
       <c r="B743" s="57"/>
       <c r="C743" s="58"/>
       <c r="D743" s="57"/>
       <c r="E743" s="58"/>
-      <c r="F743" s="58"/>
+      <c r="F743" s="57"/>
       <c r="G743" s="57"/>
       <c r="H743" s="57"/>
       <c r="I743" s="57"/>
       <c r="J743" s="57"/>
     </row>
-    <row r="744" spans="2:14" s="9" customFormat="1">
+    <row r="744" spans="2:10" s="9" customFormat="1">
       <c r="B744" s="57"/>
       <c r="C744" s="58"/>
       <c r="D744" s="57"/>
@@ -20808,10 +19960,10 @@
       <c r="I744" s="57"/>
       <c r="J744" s="57"/>
     </row>
-    <row r="745" spans="2:14" s="9" customFormat="1">
+    <row r="745" spans="2:10" s="9" customFormat="1">
       <c r="B745" s="57"/>
       <c r="C745" s="58"/>
-      <c r="D745" s="58"/>
+      <c r="D745" s="57"/>
       <c r="E745" s="58"/>
       <c r="F745" s="58"/>
       <c r="G745" s="57"/>
@@ -20819,7 +19971,7 @@
       <c r="I745" s="57"/>
       <c r="J745" s="57"/>
     </row>
-    <row r="746" spans="2:14" s="9" customFormat="1">
+    <row r="746" spans="2:10" s="9" customFormat="1">
       <c r="B746" s="57"/>
       <c r="C746" s="58"/>
       <c r="D746" s="58"/>
@@ -20830,7 +19982,7 @@
       <c r="I746" s="57"/>
       <c r="J746" s="57"/>
     </row>
-    <row r="747" spans="2:14" s="9" customFormat="1">
+    <row r="747" spans="2:10" s="9" customFormat="1">
       <c r="B747" s="57"/>
       <c r="C747" s="58"/>
       <c r="D747" s="58"/>
@@ -20841,7 +19993,7 @@
       <c r="I747" s="57"/>
       <c r="J747" s="57"/>
     </row>
-    <row r="748" spans="2:14" s="9" customFormat="1">
+    <row r="748" spans="2:10" s="9" customFormat="1">
       <c r="B748" s="57"/>
       <c r="C748" s="58"/>
       <c r="D748" s="58"/>
@@ -20852,7 +20004,7 @@
       <c r="I748" s="57"/>
       <c r="J748" s="57"/>
     </row>
-    <row r="749" spans="2:14" s="9" customFormat="1">
+    <row r="749" spans="2:10" s="9" customFormat="1">
       <c r="B749" s="57"/>
       <c r="C749" s="58"/>
       <c r="D749" s="58"/>
@@ -20863,7 +20015,7 @@
       <c r="I749" s="57"/>
       <c r="J749" s="57"/>
     </row>
-    <row r="750" spans="2:14" s="9" customFormat="1">
+    <row r="750" spans="2:10" s="9" customFormat="1">
       <c r="B750" s="57"/>
       <c r="C750" s="58"/>
       <c r="D750" s="58"/>
@@ -20874,7 +20026,7 @@
       <c r="I750" s="57"/>
       <c r="J750" s="57"/>
     </row>
-    <row r="751" spans="2:14" s="9" customFormat="1">
+    <row r="751" spans="2:10" s="9" customFormat="1">
       <c r="B751" s="57"/>
       <c r="C751" s="58"/>
       <c r="D751" s="58"/>
@@ -20885,7 +20037,7 @@
       <c r="I751" s="57"/>
       <c r="J751" s="57"/>
     </row>
-    <row r="752" spans="2:14" s="9" customFormat="1">
+    <row r="752" spans="2:10" s="9" customFormat="1">
       <c r="B752" s="57"/>
       <c r="C752" s="58"/>
       <c r="D752" s="58"/>
@@ -20896,7 +20048,7 @@
       <c r="I752" s="57"/>
       <c r="J752" s="57"/>
     </row>
-    <row r="753" spans="2:10" s="9" customFormat="1">
+    <row r="753" spans="2:12" s="9" customFormat="1">
       <c r="B753" s="57"/>
       <c r="C753" s="58"/>
       <c r="D753" s="58"/>
@@ -20907,7 +20059,7 @@
       <c r="I753" s="57"/>
       <c r="J753" s="57"/>
     </row>
-    <row r="754" spans="2:10" s="9" customFormat="1">
+    <row r="754" spans="2:12" s="9" customFormat="1">
       <c r="B754" s="57"/>
       <c r="C754" s="58"/>
       <c r="D754" s="58"/>
@@ -20918,7 +20070,7 @@
       <c r="I754" s="57"/>
       <c r="J754" s="57"/>
     </row>
-    <row r="755" spans="2:10" s="9" customFormat="1">
+    <row r="755" spans="2:12" s="9" customFormat="1">
       <c r="B755" s="57"/>
       <c r="C755" s="58"/>
       <c r="D755" s="58"/>
@@ -20929,7 +20081,7 @@
       <c r="I755" s="57"/>
       <c r="J755" s="57"/>
     </row>
-    <row r="756" spans="2:10" s="9" customFormat="1">
+    <row r="756" spans="2:12" s="9" customFormat="1">
       <c r="B756" s="57"/>
       <c r="C756" s="58"/>
       <c r="D756" s="58"/>
@@ -20940,7 +20092,7 @@
       <c r="I756" s="57"/>
       <c r="J756" s="57"/>
     </row>
-    <row r="757" spans="2:10" s="9" customFormat="1">
+    <row r="757" spans="2:12" s="9" customFormat="1">
       <c r="B757" s="57"/>
       <c r="C757" s="58"/>
       <c r="D757" s="58"/>
@@ -20951,7 +20103,7 @@
       <c r="I757" s="57"/>
       <c r="J757" s="57"/>
     </row>
-    <row r="758" spans="2:10" s="9" customFormat="1">
+    <row r="758" spans="2:12" s="9" customFormat="1">
       <c r="B758" s="57"/>
       <c r="C758" s="58"/>
       <c r="D758" s="58"/>
@@ -20962,7 +20114,7 @@
       <c r="I758" s="57"/>
       <c r="J758" s="57"/>
     </row>
-    <row r="759" spans="2:10" s="9" customFormat="1">
+    <row r="759" spans="2:12" s="9" customFormat="1">
       <c r="B759" s="57"/>
       <c r="C759" s="58"/>
       <c r="D759" s="58"/>
@@ -20973,7 +20125,7 @@
       <c r="I759" s="57"/>
       <c r="J759" s="57"/>
     </row>
-    <row r="760" spans="2:10" s="9" customFormat="1">
+    <row r="760" spans="2:12" s="9" customFormat="1">
       <c r="B760" s="57"/>
       <c r="C760" s="58"/>
       <c r="D760" s="58"/>
@@ -20984,64 +20136,64 @@
       <c r="I760" s="57"/>
       <c r="J760" s="57"/>
     </row>
-    <row r="761" spans="2:10" s="9" customFormat="1">
+    <row r="761" spans="2:12" s="9" customFormat="1">
       <c r="B761" s="57"/>
-      <c r="C761" s="57"/>
-      <c r="D761" s="57"/>
+      <c r="C761" s="58"/>
+      <c r="D761" s="58"/>
       <c r="E761" s="58"/>
-      <c r="F761" s="57"/>
+      <c r="F761" s="58"/>
       <c r="G761" s="57"/>
       <c r="H761" s="57"/>
       <c r="I761" s="57"/>
       <c r="J761" s="57"/>
     </row>
-    <row r="762" spans="2:10" s="9" customFormat="1">
+    <row r="762" spans="2:12" s="9" customFormat="1">
       <c r="B762" s="57"/>
-      <c r="C762" s="57"/>
-      <c r="D762" s="57"/>
+      <c r="C762" s="58"/>
+      <c r="D762" s="58"/>
       <c r="E762" s="58"/>
-      <c r="F762" s="57"/>
+      <c r="F762" s="58"/>
       <c r="G762" s="57"/>
       <c r="H762" s="57"/>
       <c r="I762" s="57"/>
       <c r="J762" s="57"/>
     </row>
-    <row r="763" spans="2:10" s="9" customFormat="1">
+    <row r="763" spans="2:12" s="9" customFormat="1">
       <c r="B763" s="57"/>
-      <c r="C763" s="57"/>
-      <c r="D763" s="57"/>
-      <c r="E763" s="57"/>
-      <c r="F763" s="57"/>
+      <c r="C763" s="58"/>
+      <c r="D763" s="58"/>
+      <c r="E763" s="58"/>
+      <c r="F763" s="58"/>
       <c r="G763" s="57"/>
       <c r="H763" s="57"/>
       <c r="I763" s="57"/>
       <c r="J763" s="57"/>
     </row>
-    <row r="764" spans="2:10" s="9" customFormat="1">
+    <row r="764" spans="2:12" s="9" customFormat="1">
       <c r="B764" s="57"/>
       <c r="C764" s="57"/>
       <c r="D764" s="57"/>
-      <c r="E764" s="57"/>
-      <c r="F764" s="57"/>
+      <c r="E764" s="58"/>
+      <c r="F764" s="58"/>
       <c r="G764" s="57"/>
       <c r="H764" s="57"/>
       <c r="I764" s="57"/>
       <c r="J764" s="57"/>
     </row>
-    <row r="765" spans="2:10" s="9" customFormat="1">
+    <row r="765" spans="2:12" s="9" customFormat="1">
       <c r="B765" s="57"/>
       <c r="C765" s="57"/>
       <c r="D765" s="57"/>
-      <c r="E765" s="57"/>
-      <c r="F765" s="57"/>
+      <c r="E765" s="58"/>
+      <c r="F765" s="58"/>
       <c r="G765" s="57"/>
       <c r="H765" s="57"/>
       <c r="I765" s="57"/>
       <c r="J765" s="57"/>
     </row>
-    <row r="766" spans="2:10" s="9" customFormat="1">
+    <row r="766" spans="2:12" s="9" customFormat="1">
       <c r="B766" s="57"/>
-      <c r="C766" s="57"/>
+      <c r="C766" s="58"/>
       <c r="D766" s="57"/>
       <c r="E766" s="57"/>
       <c r="F766" s="57"/>
@@ -21049,107 +20201,111 @@
       <c r="H766" s="57"/>
       <c r="I766" s="57"/>
       <c r="J766" s="57"/>
-    </row>
-    <row r="767" spans="2:10" s="9" customFormat="1">
+      <c r="L766" s="12"/>
+    </row>
+    <row r="767" spans="2:12" s="9" customFormat="1">
       <c r="B767" s="57"/>
-      <c r="C767" s="57"/>
-      <c r="D767" s="57"/>
-      <c r="E767" s="57"/>
-      <c r="F767" s="57"/>
+      <c r="C767" s="58"/>
+      <c r="D767" s="58"/>
+      <c r="E767" s="65"/>
+      <c r="F767" s="58"/>
       <c r="G767" s="57"/>
       <c r="H767" s="57"/>
       <c r="I767" s="57"/>
       <c r="J767" s="57"/>
     </row>
-    <row r="768" spans="2:10" s="9" customFormat="1">
+    <row r="768" spans="2:12" s="9" customFormat="1">
       <c r="B768" s="57"/>
       <c r="C768" s="58"/>
-      <c r="D768" s="57"/>
-      <c r="E768" s="58"/>
-      <c r="F768" s="57"/>
+      <c r="D768" s="58"/>
+      <c r="E768" s="65"/>
+      <c r="F768" s="58"/>
       <c r="G768" s="57"/>
       <c r="H768" s="57"/>
       <c r="I768" s="57"/>
       <c r="J768" s="57"/>
     </row>
-    <row r="769" spans="2:10" s="9" customFormat="1">
+    <row r="769" spans="2:14" s="9" customFormat="1">
       <c r="B769" s="57"/>
       <c r="C769" s="58"/>
-      <c r="D769" s="57"/>
-      <c r="E769" s="58"/>
-      <c r="F769" s="57"/>
+      <c r="D769" s="58"/>
+      <c r="E769" s="65"/>
+      <c r="F769" s="58"/>
       <c r="G769" s="57"/>
       <c r="H769" s="57"/>
       <c r="I769" s="57"/>
       <c r="J769" s="57"/>
-    </row>
-    <row r="770" spans="2:10" s="9" customFormat="1">
+      <c r="L769" s="12"/>
+    </row>
+    <row r="770" spans="2:14" s="9" customFormat="1">
       <c r="B770" s="57"/>
       <c r="C770" s="58"/>
-      <c r="D770" s="57"/>
-      <c r="E770" s="58"/>
-      <c r="F770" s="57"/>
+      <c r="D770" s="58"/>
+      <c r="E770" s="65"/>
+      <c r="F770" s="58"/>
       <c r="G770" s="57"/>
       <c r="H770" s="57"/>
       <c r="I770" s="57"/>
       <c r="J770" s="57"/>
     </row>
-    <row r="771" spans="2:10" s="9" customFormat="1">
+    <row r="771" spans="2:14" s="9" customFormat="1">
       <c r="B771" s="57"/>
       <c r="C771" s="58"/>
-      <c r="D771" s="57"/>
-      <c r="E771" s="58"/>
-      <c r="F771" s="57"/>
+      <c r="D771" s="58"/>
+      <c r="E771" s="65"/>
+      <c r="F771" s="58"/>
       <c r="G771" s="57"/>
       <c r="H771" s="57"/>
       <c r="I771" s="57"/>
       <c r="J771" s="57"/>
     </row>
-    <row r="772" spans="2:10" s="9" customFormat="1">
+    <row r="772" spans="2:14" s="9" customFormat="1">
       <c r="B772" s="57"/>
       <c r="C772" s="58"/>
-      <c r="D772" s="57"/>
-      <c r="E772" s="58"/>
-      <c r="F772" s="57"/>
+      <c r="D772" s="58"/>
+      <c r="E772" s="65"/>
+      <c r="F772" s="58"/>
       <c r="G772" s="57"/>
       <c r="H772" s="57"/>
       <c r="I772" s="57"/>
       <c r="J772" s="57"/>
-    </row>
-    <row r="773" spans="2:10" s="9" customFormat="1">
+      <c r="L772" s="12"/>
+    </row>
+    <row r="773" spans="2:14" s="9" customFormat="1">
       <c r="B773" s="57"/>
       <c r="C773" s="58"/>
-      <c r="D773" s="57"/>
-      <c r="E773" s="58"/>
-      <c r="F773" s="57"/>
+      <c r="D773" s="58"/>
+      <c r="E773" s="65"/>
+      <c r="F773" s="58"/>
       <c r="G773" s="57"/>
       <c r="H773" s="57"/>
       <c r="I773" s="57"/>
       <c r="J773" s="57"/>
     </row>
-    <row r="774" spans="2:10" s="9" customFormat="1">
+    <row r="774" spans="2:14" s="9" customFormat="1">
       <c r="B774" s="57"/>
       <c r="C774" s="58"/>
-      <c r="D774" s="57"/>
-      <c r="E774" s="58"/>
+      <c r="D774" s="58"/>
+      <c r="E774" s="65"/>
       <c r="F774" s="58"/>
       <c r="G774" s="57"/>
       <c r="H774" s="57"/>
       <c r="I774" s="57"/>
       <c r="J774" s="57"/>
     </row>
-    <row r="775" spans="2:10" s="9" customFormat="1">
+    <row r="775" spans="2:14" s="9" customFormat="1">
       <c r="B775" s="57"/>
       <c r="C775" s="58"/>
-      <c r="D775" s="57"/>
-      <c r="E775" s="58"/>
+      <c r="D775" s="58"/>
+      <c r="E775" s="65"/>
       <c r="F775" s="58"/>
       <c r="G775" s="57"/>
       <c r="H775" s="57"/>
       <c r="I775" s="57"/>
       <c r="J775" s="57"/>
-    </row>
-    <row r="776" spans="2:10" s="9" customFormat="1">
+      <c r="L775" s="12"/>
+    </row>
+    <row r="776" spans="2:14" s="9" customFormat="1">
       <c r="B776" s="57"/>
       <c r="C776" s="58"/>
       <c r="D776" s="58"/>
@@ -21159,377 +20315,43 @@
       <c r="H776" s="57"/>
       <c r="I776" s="57"/>
       <c r="J776" s="57"/>
-    </row>
-    <row r="777" spans="2:10" s="9" customFormat="1">
-      <c r="B777" s="57"/>
-      <c r="C777" s="58"/>
-      <c r="D777" s="58"/>
-      <c r="E777" s="58"/>
-      <c r="F777" s="58"/>
-      <c r="G777" s="57"/>
-      <c r="H777" s="57"/>
-      <c r="I777" s="57"/>
-      <c r="J777" s="57"/>
-    </row>
-    <row r="778" spans="2:10" s="9" customFormat="1">
-      <c r="B778" s="57"/>
-      <c r="C778" s="58"/>
-      <c r="D778" s="58"/>
-      <c r="E778" s="58"/>
-      <c r="F778" s="58"/>
-      <c r="G778" s="57"/>
-      <c r="H778" s="57"/>
-      <c r="I778" s="57"/>
-      <c r="J778" s="57"/>
-    </row>
-    <row r="779" spans="2:10" s="9" customFormat="1">
-      <c r="B779" s="57"/>
-      <c r="C779" s="58"/>
-      <c r="D779" s="58"/>
-      <c r="E779" s="58"/>
-      <c r="F779" s="58"/>
-      <c r="G779" s="57"/>
-      <c r="H779" s="57"/>
-      <c r="I779" s="57"/>
-      <c r="J779" s="57"/>
-    </row>
-    <row r="780" spans="2:10" s="9" customFormat="1">
-      <c r="B780" s="57"/>
-      <c r="C780" s="58"/>
-      <c r="D780" s="58"/>
-      <c r="E780" s="58"/>
-      <c r="F780" s="58"/>
-      <c r="G780" s="57"/>
-      <c r="H780" s="57"/>
-      <c r="I780" s="57"/>
-      <c r="J780" s="57"/>
-    </row>
-    <row r="781" spans="2:10" s="9" customFormat="1">
+      <c r="N776" s="12"/>
+    </row>
+    <row r="781" spans="2:14" s="9" customFormat="1">
       <c r="B781" s="57"/>
-      <c r="C781" s="58"/>
-      <c r="D781" s="58"/>
+      <c r="C781" s="57"/>
+      <c r="D781" s="57"/>
       <c r="E781" s="58"/>
       <c r="F781" s="58"/>
       <c r="G781" s="57"/>
-      <c r="H781" s="57"/>
+      <c r="H781" s="58"/>
       <c r="I781" s="57"/>
       <c r="J781" s="57"/>
     </row>
-    <row r="782" spans="2:10" s="9" customFormat="1">
+    <row r="782" spans="2:14" s="9" customFormat="1">
       <c r="B782" s="57"/>
-      <c r="C782" s="58"/>
-      <c r="D782" s="58"/>
+      <c r="C782" s="57"/>
+      <c r="D782" s="57"/>
       <c r="E782" s="58"/>
       <c r="F782" s="58"/>
       <c r="G782" s="57"/>
-      <c r="H782" s="57"/>
+      <c r="H782" s="58"/>
       <c r="I782" s="57"/>
       <c r="J782" s="57"/>
     </row>
-    <row r="783" spans="2:10" s="9" customFormat="1">
+    <row r="783" spans="2:14" s="9" customFormat="1">
       <c r="B783" s="57"/>
       <c r="C783" s="58"/>
-      <c r="D783" s="58"/>
-      <c r="E783" s="58"/>
-      <c r="F783" s="58"/>
+      <c r="D783" s="57"/>
+      <c r="E783" s="57"/>
+      <c r="F783" s="57"/>
       <c r="G783" s="57"/>
-      <c r="H783" s="57"/>
+      <c r="H783" s="58"/>
       <c r="I783" s="57"/>
       <c r="J783" s="57"/>
     </row>
-    <row r="784" spans="2:10" s="9" customFormat="1">
-      <c r="B784" s="57"/>
-      <c r="C784" s="58"/>
-      <c r="D784" s="58"/>
-      <c r="E784" s="58"/>
-      <c r="F784" s="58"/>
-      <c r="G784" s="57"/>
-      <c r="H784" s="57"/>
-      <c r="I784" s="57"/>
-      <c r="J784" s="57"/>
-    </row>
-    <row r="785" spans="2:12" s="9" customFormat="1">
-      <c r="B785" s="57"/>
-      <c r="C785" s="58"/>
-      <c r="D785" s="58"/>
-      <c r="E785" s="58"/>
-      <c r="F785" s="58"/>
-      <c r="G785" s="57"/>
-      <c r="H785" s="57"/>
-      <c r="I785" s="57"/>
-      <c r="J785" s="57"/>
-    </row>
-    <row r="786" spans="2:12" s="9" customFormat="1">
-      <c r="B786" s="57"/>
-      <c r="C786" s="58"/>
-      <c r="D786" s="58"/>
-      <c r="E786" s="58"/>
-      <c r="F786" s="58"/>
-      <c r="G786" s="57"/>
-      <c r="H786" s="57"/>
-      <c r="I786" s="57"/>
-      <c r="J786" s="57"/>
-    </row>
-    <row r="787" spans="2:12" s="9" customFormat="1">
-      <c r="B787" s="57"/>
-      <c r="C787" s="58"/>
-      <c r="D787" s="58"/>
-      <c r="E787" s="58"/>
-      <c r="F787" s="58"/>
-      <c r="G787" s="57"/>
-      <c r="H787" s="57"/>
-      <c r="I787" s="57"/>
-      <c r="J787" s="57"/>
-    </row>
-    <row r="788" spans="2:12" s="9" customFormat="1">
-      <c r="B788" s="57"/>
-      <c r="C788" s="58"/>
-      <c r="D788" s="58"/>
-      <c r="E788" s="58"/>
-      <c r="F788" s="58"/>
-      <c r="G788" s="57"/>
-      <c r="H788" s="57"/>
-      <c r="I788" s="57"/>
-      <c r="J788" s="57"/>
-    </row>
-    <row r="789" spans="2:12" s="9" customFormat="1">
-      <c r="B789" s="57"/>
-      <c r="C789" s="58"/>
-      <c r="D789" s="58"/>
-      <c r="E789" s="58"/>
-      <c r="F789" s="58"/>
-      <c r="G789" s="57"/>
-      <c r="H789" s="57"/>
-      <c r="I789" s="57"/>
-      <c r="J789" s="57"/>
-    </row>
-    <row r="790" spans="2:12" s="9" customFormat="1">
-      <c r="B790" s="57"/>
-      <c r="C790" s="58"/>
-      <c r="D790" s="58"/>
-      <c r="E790" s="58"/>
-      <c r="F790" s="58"/>
-      <c r="G790" s="57"/>
-      <c r="H790" s="57"/>
-      <c r="I790" s="57"/>
-      <c r="J790" s="57"/>
-    </row>
-    <row r="791" spans="2:12" s="9" customFormat="1">
-      <c r="B791" s="57"/>
-      <c r="C791" s="58"/>
-      <c r="D791" s="58"/>
-      <c r="E791" s="58"/>
-      <c r="F791" s="58"/>
-      <c r="G791" s="57"/>
-      <c r="H791" s="57"/>
-      <c r="I791" s="57"/>
-      <c r="J791" s="57"/>
-    </row>
-    <row r="792" spans="2:12" s="9" customFormat="1">
-      <c r="B792" s="57"/>
-      <c r="C792" s="58"/>
-      <c r="D792" s="58"/>
-      <c r="E792" s="58"/>
-      <c r="F792" s="58"/>
-      <c r="G792" s="57"/>
-      <c r="H792" s="57"/>
-      <c r="I792" s="57"/>
-      <c r="J792" s="57"/>
-    </row>
-    <row r="793" spans="2:12" s="9" customFormat="1">
-      <c r="B793" s="57"/>
-      <c r="C793" s="58"/>
-      <c r="D793" s="58"/>
-      <c r="E793" s="58"/>
-      <c r="F793" s="58"/>
-      <c r="G793" s="57"/>
-      <c r="H793" s="57"/>
-      <c r="I793" s="57"/>
-      <c r="J793" s="57"/>
-    </row>
-    <row r="794" spans="2:12" s="9" customFormat="1">
-      <c r="B794" s="57"/>
-      <c r="C794" s="57"/>
-      <c r="D794" s="57"/>
-      <c r="E794" s="58"/>
-      <c r="F794" s="58"/>
-      <c r="G794" s="57"/>
-      <c r="H794" s="57"/>
-      <c r="I794" s="57"/>
-      <c r="J794" s="57"/>
-    </row>
-    <row r="795" spans="2:12" s="9" customFormat="1">
-      <c r="B795" s="57"/>
-      <c r="C795" s="57"/>
-      <c r="D795" s="57"/>
-      <c r="E795" s="58"/>
-      <c r="F795" s="58"/>
-      <c r="G795" s="57"/>
-      <c r="H795" s="57"/>
-      <c r="I795" s="57"/>
-      <c r="J795" s="57"/>
-    </row>
-    <row r="796" spans="2:12" s="9" customFormat="1">
-      <c r="B796" s="57"/>
-      <c r="C796" s="58"/>
-      <c r="D796" s="57"/>
-      <c r="E796" s="57"/>
-      <c r="F796" s="57"/>
-      <c r="G796" s="57"/>
-      <c r="H796" s="57"/>
-      <c r="I796" s="57"/>
-      <c r="J796" s="57"/>
-      <c r="L796" s="12"/>
-    </row>
-    <row r="797" spans="2:12" s="9" customFormat="1">
-      <c r="B797" s="57"/>
-      <c r="C797" s="58"/>
-      <c r="D797" s="58"/>
-      <c r="E797" s="65"/>
-      <c r="F797" s="58"/>
-      <c r="G797" s="57"/>
-      <c r="H797" s="57"/>
-      <c r="I797" s="57"/>
-      <c r="J797" s="57"/>
-    </row>
-    <row r="798" spans="2:12" s="9" customFormat="1">
-      <c r="B798" s="57"/>
-      <c r="C798" s="58"/>
-      <c r="D798" s="58"/>
-      <c r="E798" s="65"/>
-      <c r="F798" s="58"/>
-      <c r="G798" s="57"/>
-      <c r="H798" s="57"/>
-      <c r="I798" s="57"/>
-      <c r="J798" s="57"/>
-    </row>
-    <row r="799" spans="2:12" s="9" customFormat="1">
-      <c r="B799" s="57"/>
-      <c r="C799" s="58"/>
-      <c r="D799" s="58"/>
-      <c r="E799" s="65"/>
-      <c r="F799" s="58"/>
-      <c r="G799" s="57"/>
-      <c r="H799" s="57"/>
-      <c r="I799" s="57"/>
-      <c r="J799" s="57"/>
-      <c r="L799" s="12"/>
-    </row>
-    <row r="800" spans="2:12" s="9" customFormat="1">
-      <c r="B800" s="57"/>
-      <c r="C800" s="58"/>
-      <c r="D800" s="58"/>
-      <c r="E800" s="65"/>
-      <c r="F800" s="58"/>
-      <c r="G800" s="57"/>
-      <c r="H800" s="57"/>
-      <c r="I800" s="57"/>
-      <c r="J800" s="57"/>
-    </row>
-    <row r="801" spans="2:14" s="9" customFormat="1">
-      <c r="B801" s="57"/>
-      <c r="C801" s="58"/>
-      <c r="D801" s="58"/>
-      <c r="E801" s="65"/>
-      <c r="F801" s="58"/>
-      <c r="G801" s="57"/>
-      <c r="H801" s="57"/>
-      <c r="I801" s="57"/>
-      <c r="J801" s="57"/>
-    </row>
-    <row r="802" spans="2:14" s="9" customFormat="1">
-      <c r="B802" s="57"/>
-      <c r="C802" s="58"/>
-      <c r="D802" s="58"/>
-      <c r="E802" s="65"/>
-      <c r="F802" s="58"/>
-      <c r="G802" s="57"/>
-      <c r="H802" s="57"/>
-      <c r="I802" s="57"/>
-      <c r="J802" s="57"/>
-      <c r="L802" s="12"/>
-    </row>
-    <row r="803" spans="2:14" s="9" customFormat="1">
-      <c r="B803" s="57"/>
-      <c r="C803" s="58"/>
-      <c r="D803" s="58"/>
-      <c r="E803" s="65"/>
-      <c r="F803" s="58"/>
-      <c r="G803" s="57"/>
-      <c r="H803" s="57"/>
-      <c r="I803" s="57"/>
-      <c r="J803" s="57"/>
-    </row>
-    <row r="804" spans="2:14" s="9" customFormat="1">
-      <c r="B804" s="57"/>
-      <c r="C804" s="58"/>
-      <c r="D804" s="58"/>
-      <c r="E804" s="65"/>
-      <c r="F804" s="58"/>
-      <c r="G804" s="57"/>
-      <c r="H804" s="57"/>
-      <c r="I804" s="57"/>
-      <c r="J804" s="57"/>
-    </row>
-    <row r="805" spans="2:14" s="9" customFormat="1">
-      <c r="B805" s="57"/>
-      <c r="C805" s="58"/>
-      <c r="D805" s="58"/>
-      <c r="E805" s="65"/>
-      <c r="F805" s="58"/>
-      <c r="G805" s="57"/>
-      <c r="H805" s="57"/>
-      <c r="I805" s="57"/>
-      <c r="J805" s="57"/>
-      <c r="L805" s="12"/>
-    </row>
-    <row r="806" spans="2:14" s="9" customFormat="1">
-      <c r="B806" s="57"/>
-      <c r="C806" s="58"/>
-      <c r="D806" s="58"/>
-      <c r="E806" s="58"/>
-      <c r="F806" s="58"/>
-      <c r="G806" s="57"/>
-      <c r="H806" s="57"/>
-      <c r="I806" s="57"/>
-      <c r="J806" s="57"/>
-      <c r="N806" s="12"/>
-    </row>
-    <row r="811" spans="2:14" s="9" customFormat="1">
-      <c r="B811" s="57"/>
-      <c r="C811" s="57"/>
-      <c r="D811" s="57"/>
-      <c r="E811" s="58"/>
-      <c r="F811" s="58"/>
-      <c r="G811" s="57"/>
-      <c r="H811" s="58"/>
-      <c r="I811" s="57"/>
-      <c r="J811" s="57"/>
-    </row>
-    <row r="812" spans="2:14" s="9" customFormat="1">
-      <c r="B812" s="57"/>
-      <c r="C812" s="57"/>
-      <c r="D812" s="57"/>
-      <c r="E812" s="58"/>
-      <c r="F812" s="58"/>
-      <c r="G812" s="57"/>
-      <c r="H812" s="58"/>
-      <c r="I812" s="57"/>
-      <c r="J812" s="57"/>
-    </row>
-    <row r="813" spans="2:14" s="9" customFormat="1">
-      <c r="B813" s="57"/>
-      <c r="C813" s="58"/>
-      <c r="D813" s="57"/>
-      <c r="E813" s="57"/>
-      <c r="F813" s="57"/>
-      <c r="G813" s="57"/>
-      <c r="H813" s="58"/>
-      <c r="I813" s="57"/>
-      <c r="J813" s="57"/>
-    </row>
   </sheetData>
-  <autoFilter ref="B1:B366"/>
+  <autoFilter ref="B1:B336"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -26114,7 +24936,7 @@
         <v>488</v>
       </c>
       <c r="I175" s="136" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="J175" s="135">
         <v>2</v>
@@ -26133,14 +24955,14 @@
       </c>
       <c r="E176" s="180"/>
       <c r="F176" s="181" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="G176" s="181"/>
       <c r="H176" s="182" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="I176" s="180" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="J176" s="183">
         <v>2</v>
@@ -26159,14 +24981,14 @@
       </c>
       <c r="E177" s="180"/>
       <c r="F177" s="181" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="G177" s="181"/>
       <c r="H177" s="182" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="I177" s="180" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="J177" s="183">
         <v>2</v>
@@ -26185,14 +25007,14 @@
       </c>
       <c r="E178" s="180"/>
       <c r="F178" s="181" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="G178" s="185"/>
       <c r="H178" s="182" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="I178" s="180" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="J178" s="183">
         <v>2</v>
@@ -26211,14 +25033,14 @@
       </c>
       <c r="E179" s="180"/>
       <c r="F179" s="181" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="G179" s="181"/>
       <c r="H179" s="182" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="I179" s="180" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="J179" s="183">
         <v>2</v>
@@ -26237,14 +25059,14 @@
       </c>
       <c r="E180" s="180"/>
       <c r="F180" s="181" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="G180" s="181"/>
       <c r="H180" s="182" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="I180" s="180" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="J180" s="183">
         <v>2</v>
@@ -26263,14 +25085,14 @@
       </c>
       <c r="E181" s="180"/>
       <c r="F181" s="181" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="G181" s="181"/>
       <c r="H181" s="182" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="I181" s="180" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="J181" s="183">
         <v>2</v>
@@ -26289,14 +25111,14 @@
       </c>
       <c r="E182" s="180"/>
       <c r="F182" s="181" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="G182" s="181"/>
       <c r="H182" s="182" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="I182" s="180" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="J182" s="183">
         <v>2</v>
@@ -26315,14 +25137,14 @@
       </c>
       <c r="E183" s="180"/>
       <c r="F183" s="181" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="G183" s="181"/>
       <c r="H183" s="182" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="I183" s="180" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="J183" s="183">
         <v>2</v>
@@ -26341,14 +25163,14 @@
       </c>
       <c r="E184" s="180"/>
       <c r="F184" s="181" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="G184" s="181"/>
       <c r="H184" s="182" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="I184" s="180" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="J184" s="183">
         <v>2</v>
@@ -26367,14 +25189,14 @@
       </c>
       <c r="E185" s="186"/>
       <c r="F185" s="181" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="G185" s="181"/>
       <c r="H185" s="182" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="I185" s="180" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="J185" s="183">
         <v>2</v>
@@ -26393,14 +25215,14 @@
       </c>
       <c r="E186" s="186"/>
       <c r="F186" s="181" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="G186" s="181"/>
       <c r="H186" s="182" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="I186" s="180" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="J186" s="183">
         <v>2</v>
@@ -26419,14 +25241,14 @@
       </c>
       <c r="E187" s="186"/>
       <c r="F187" s="181" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="G187" s="181"/>
       <c r="H187" s="182" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="I187" s="180" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="J187" s="183">
         <v>2</v>
@@ -26445,14 +25267,14 @@
       </c>
       <c r="E188" s="186"/>
       <c r="F188" s="181" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="G188" s="181"/>
       <c r="H188" s="182" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="I188" s="180" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="J188" s="183">
         <v>2</v>
@@ -26471,14 +25293,14 @@
       </c>
       <c r="E189" s="186"/>
       <c r="F189" s="181" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="G189" s="181"/>
       <c r="H189" s="182" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="I189" s="180" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="J189" s="183">
         <v>2</v>
@@ -26497,14 +25319,14 @@
       </c>
       <c r="E190" s="186"/>
       <c r="F190" s="181" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="G190" s="181"/>
       <c r="H190" s="182" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="I190" s="180" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="J190" s="183">
         <v>2</v>
@@ -26523,14 +25345,14 @@
       </c>
       <c r="E191" s="186"/>
       <c r="F191" s="181" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="G191" s="181"/>
       <c r="H191" s="182" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="I191" s="180" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="J191" s="183">
         <v>2</v>
@@ -26549,14 +25371,14 @@
       </c>
       <c r="E192" s="180"/>
       <c r="F192" s="181" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="G192" s="181"/>
       <c r="H192" s="182" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="I192" s="180" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="J192" s="183">
         <v>2</v>
@@ -26575,14 +25397,14 @@
       </c>
       <c r="E193" s="180"/>
       <c r="F193" s="181" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="G193" s="181"/>
       <c r="H193" s="182" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="I193" s="180" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="J193" s="183">
         <v>2</v>
@@ -26601,14 +25423,14 @@
       </c>
       <c r="E194" s="180"/>
       <c r="F194" s="181" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="G194" s="181"/>
       <c r="H194" s="182" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="I194" s="180" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="J194" s="183">
         <v>2</v>
@@ -26627,14 +25449,14 @@
       </c>
       <c r="E195" s="180"/>
       <c r="F195" s="181" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="G195" s="181"/>
       <c r="H195" s="182" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="I195" s="180" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="J195" s="183">
         <v>2</v>
@@ -26653,14 +25475,14 @@
       </c>
       <c r="E196" s="180"/>
       <c r="F196" s="181" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="G196" s="181"/>
       <c r="H196" s="182" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="I196" s="180" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="J196" s="183">
         <v>2</v>
@@ -26679,14 +25501,14 @@
       </c>
       <c r="E197" s="180"/>
       <c r="F197" s="181" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="G197" s="181"/>
       <c r="H197" s="182" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="I197" s="180" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="J197" s="183">
         <v>2</v>
@@ -26705,14 +25527,14 @@
       </c>
       <c r="E198" s="180"/>
       <c r="F198" s="181" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="G198" s="181"/>
       <c r="H198" s="182" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="I198" s="180" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="J198" s="183">
         <v>2</v>
@@ -26731,14 +25553,14 @@
       </c>
       <c r="E199" s="180"/>
       <c r="F199" s="181" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="G199" s="181"/>
       <c r="H199" s="182" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="I199" s="180" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="J199" s="183">
         <v>2</v>
@@ -26757,14 +25579,14 @@
       </c>
       <c r="E200" s="180"/>
       <c r="F200" s="181" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="G200" s="181"/>
       <c r="H200" s="182" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="I200" s="180" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="J200" s="183">
         <v>2</v>
@@ -26783,14 +25605,14 @@
       </c>
       <c r="E201" s="180"/>
       <c r="F201" s="181" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="G201" s="181"/>
       <c r="H201" s="182" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="I201" s="180" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="J201" s="183">
         <v>2</v>
@@ -26809,14 +25631,14 @@
       </c>
       <c r="E202" s="180"/>
       <c r="F202" s="181" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="G202" s="181"/>
       <c r="H202" s="182" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="I202" s="180" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="J202" s="183">
         <v>2</v>
@@ -26835,14 +25657,14 @@
       </c>
       <c r="E203" s="180"/>
       <c r="F203" s="181" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="G203" s="181"/>
       <c r="H203" s="182" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="I203" s="180" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="J203" s="183">
         <v>2</v>
@@ -26861,14 +25683,14 @@
       </c>
       <c r="E204" s="180"/>
       <c r="F204" s="181" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="G204" s="181"/>
       <c r="H204" s="182" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="I204" s="180" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="J204" s="183">
         <v>2</v>
@@ -26887,14 +25709,14 @@
       </c>
       <c r="E205" s="180"/>
       <c r="F205" s="181" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="G205" s="181"/>
       <c r="H205" s="182" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="I205" s="180" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="J205" s="183">
         <v>2</v>
@@ -33588,7 +32410,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="91" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D2" s="85">
         <v>1</v>
@@ -35823,7 +34645,7 @@
         <v>124</v>
       </c>
       <c r="C125" s="177" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D125" s="98">
         <v>119</v>
@@ -35931,7 +34753,7 @@
         <v>130</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D131" s="8">
         <v>124</v>
@@ -35949,7 +34771,7 @@
         <v>131</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D132" s="8">
         <v>125</v>
@@ -35967,7 +34789,7 @@
         <v>132</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D133" s="8">
         <v>126</v>
@@ -35985,7 +34807,7 @@
         <v>133</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D134" s="8">
         <v>127</v>
@@ -36003,7 +34825,7 @@
         <v>134</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D135" s="8">
         <v>128</v>
@@ -36273,7 +35095,7 @@
         <v>149</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D150" s="8">
         <v>143</v>
@@ -49640,7 +48462,7 @@
         <v>124</v>
       </c>
       <c r="C290" s="91" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D290" s="87" t="s">
         <v>969</v>
@@ -49663,7 +48485,7 @@
         <v>977</v>
       </c>
       <c r="D291" s="87" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="E291" s="85">
         <v>2</v>
@@ -49705,7 +48527,7 @@
         <v>978</v>
       </c>
       <c r="D293" s="87" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="E293" s="85">
         <v>2</v>
@@ -49747,7 +48569,7 @@
         <v>981</v>
       </c>
       <c r="D295" s="87" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="E295" s="85">
         <v>2</v>
@@ -49789,7 +48611,7 @@
         <v>980</v>
       </c>
       <c r="D297" s="87" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E297" s="85">
         <v>2</v>
@@ -49831,7 +48653,7 @@
         <v>979</v>
       </c>
       <c r="D299" s="87" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E299" s="85">
         <v>2</v>
@@ -49851,7 +48673,7 @@
         <v>143</v>
       </c>
       <c r="D300" s="100" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E300" s="8">
         <v>2</v>
@@ -49871,7 +48693,7 @@
         <v>146</v>
       </c>
       <c r="D301" s="100" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E301" s="8">
         <v>2</v>
@@ -49891,7 +48713,7 @@
         <v>147</v>
       </c>
       <c r="D302" s="100" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E302" s="8">
         <v>2</v>
@@ -49911,7 +48733,7 @@
         <v>148</v>
       </c>
       <c r="D303" s="100" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E303" s="8">
         <v>2</v>
@@ -49951,7 +48773,7 @@
         <v>143</v>
       </c>
       <c r="D305" s="100" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E305" s="8">
         <v>2</v>
@@ -50011,7 +48833,7 @@
         <v>148</v>
       </c>
       <c r="D308" s="100" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E308" s="8">
         <v>2</v>
@@ -50031,7 +48853,7 @@
         <v>189</v>
       </c>
       <c r="D309" s="100" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E309" s="8">
         <v>2</v>
@@ -50191,7 +49013,7 @@
         <v>147</v>
       </c>
       <c r="D317" s="100" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E317" s="8">
         <v>2</v>
@@ -50211,7 +49033,7 @@
         <v>148</v>
       </c>
       <c r="D318" s="100" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E318" s="8">
         <v>2</v>
@@ -50231,7 +49053,7 @@
         <v>189</v>
       </c>
       <c r="D319" s="100" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E319" s="8">
         <v>2</v>
@@ -50251,7 +49073,7 @@
         <v>143</v>
       </c>
       <c r="D320" s="97" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E320" s="8">
         <v>2</v>
@@ -50271,7 +49093,7 @@
         <v>146</v>
       </c>
       <c r="D321" s="93" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="E321" s="8">
         <v>2</v>
@@ -50289,10 +49111,10 @@
         <v>150</v>
       </c>
       <c r="C322" s="101" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D322" s="97" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E322" s="8">
         <v>2</v>
@@ -50310,10 +49132,10 @@
         <v>150</v>
       </c>
       <c r="C323" s="101" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D323" s="93" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="E323" s="8">
         <v>2</v>
@@ -50331,10 +49153,10 @@
         <v>151</v>
       </c>
       <c r="C324" s="101" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="D324" s="97" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E324" s="8">
         <v>2</v>
@@ -50352,10 +49174,10 @@
         <v>151</v>
       </c>
       <c r="C325" s="101" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D325" s="93" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="E325" s="8">
         <v>2</v>
@@ -50373,10 +49195,10 @@
         <v>152</v>
       </c>
       <c r="C326" s="101" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D326" s="97" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E326" s="8">
         <v>2</v>
@@ -50394,10 +49216,10 @@
         <v>152</v>
       </c>
       <c r="C327" s="101" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D327" s="93" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="E327" s="8">
         <v>2</v>
@@ -50415,10 +49237,10 @@
         <v>153</v>
       </c>
       <c r="C328" s="101" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D328" s="97" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E328" s="8">
         <v>2</v>
@@ -50436,10 +49258,10 @@
         <v>153</v>
       </c>
       <c r="C329" s="101" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D329" s="93" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="E329" s="8">
         <v>2</v>
@@ -51660,7 +50482,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:W1763"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C500" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -64970,10 +63792,10 @@
         <v>616</v>
       </c>
       <c r="D521" s="108" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="E521" s="11" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="F521" s="8">
         <v>1</v>

--- a/config_debug/task_xiaoxiaole_tower_week_server.xlsx
+++ b/config_debug/task_xiaoxiaole_tower_week_server.xlsx
@@ -1442,7 +1442,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3159" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3170" uniqueCount="710">
   <si>
     <t>id|任务id</t>
   </si>
@@ -3694,6 +3694,10 @@
     <t>出现一次幸运时刻</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>幸运时刻</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -25638,8 +25642,8 @@
   <dimension ref="A1:I959"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D116" sqref="D116"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D132" sqref="D132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -27082,7 +27086,7 @@
         <v>69</v>
       </c>
       <c r="D79" s="65">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="E79" s="118" t="s">
         <v>501</v>
@@ -27323,7 +27327,7 @@
         <v>69</v>
       </c>
       <c r="D92" s="154">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="E92" s="119" t="s">
         <v>505</v>
@@ -27564,7 +27568,7 @@
         <v>69</v>
       </c>
       <c r="D105" s="67">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="E105" s="118" t="s">
         <v>509</v>
@@ -27798,7 +27802,7 @@
         <v>69</v>
       </c>
       <c r="D118" s="154">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="E118" s="119" t="s">
         <v>513</v>
@@ -28032,7 +28036,7 @@
         <v>69</v>
       </c>
       <c r="D131" s="149">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="E131" s="118" t="s">
         <v>517</v>
@@ -34920,10 +34924,10 @@
   <dimension ref="A1:I611"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C540" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B127" sqref="B127"/>
+      <selection pane="bottomRight" activeCell="F563" sqref="F563:F567"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -38297,7 +38301,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="120">
-        <f>B76+12</f>
+        <f t="shared" ref="B130:B161" si="6">B76+12</f>
         <v>29</v>
       </c>
       <c r="C130" s="154" t="s">
@@ -38322,7 +38326,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="120">
-        <f>B77+12</f>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="C131" s="154" t="s">
@@ -38347,7 +38351,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="120">
-        <f>B78+12</f>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="C132" s="154" t="s">
@@ -38369,7 +38373,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="120">
-        <f>B79+12</f>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="C133" s="156" t="s">
@@ -38382,7 +38386,7 @@
         <v>2</v>
       </c>
       <c r="F133" s="118" t="str">
-        <f t="shared" ref="F133:F198" ca="1" si="6">INDIRECT("G"&amp;B133+1)</f>
+        <f t="shared" ref="F133:F198" ca="1" si="7">INDIRECT("G"&amp;B133+1)</f>
         <v>累计消除120个苹果，120个铃铛，120个西瓜</v>
       </c>
     </row>
@@ -38391,7 +38395,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="120">
-        <f>B80+12</f>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="C134" s="156" t="s">
@@ -38404,7 +38408,7 @@
         <v>3</v>
       </c>
       <c r="F134" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除120个苹果，120个铃铛，120个西瓜</v>
       </c>
       <c r="G134" s="158"/>
@@ -38414,7 +38418,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="120">
-        <f>B81+12</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="C135" s="154" t="s">
@@ -38427,7 +38431,7 @@
         <v>2</v>
       </c>
       <c r="F135" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除120个苹果，120个铃铛，60个7</v>
       </c>
       <c r="G135" s="158"/>
@@ -38437,7 +38441,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="120">
-        <f>B82+12</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="C136" s="154" t="s">
@@ -38450,7 +38454,7 @@
         <v>2</v>
       </c>
       <c r="F136" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除120个苹果，120个铃铛，60个7</v>
       </c>
       <c r="G136" s="158"/>
@@ -38460,7 +38464,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="120">
-        <f>B83+12</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="C137" s="154" t="s">
@@ -38473,7 +38477,7 @@
         <v>2</v>
       </c>
       <c r="F137" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除120个苹果，120个铃铛，60个7</v>
       </c>
       <c r="G137" s="158"/>
@@ -38483,7 +38487,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="120">
-        <f>B84+12</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="C138" s="156" t="s">
@@ -38496,7 +38500,7 @@
         <v>2</v>
       </c>
       <c r="F138" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除120个苹果，120个铃铛，60个7</v>
       </c>
       <c r="G138" s="158"/>
@@ -38506,7 +38510,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="120">
-        <f>B85+12</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="C139" s="156" t="s">
@@ -38519,7 +38523,7 @@
         <v>3</v>
       </c>
       <c r="F139" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除120个苹果，120个铃铛，60个7</v>
       </c>
       <c r="G139" s="158"/>
@@ -38529,7 +38533,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="120">
-        <f>B86+12</f>
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
       <c r="C140" s="154" t="s">
@@ -38542,7 +38546,7 @@
         <v>2</v>
       </c>
       <c r="F140" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除120个苹果，120个铃铛，60个BAR</v>
       </c>
       <c r="G140" s="158"/>
@@ -38552,7 +38556,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="120">
-        <f>B87+12</f>
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
       <c r="C141" s="154" t="s">
@@ -38565,7 +38569,7 @@
         <v>2</v>
       </c>
       <c r="F141" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除120个苹果，120个铃铛，60个BAR</v>
       </c>
       <c r="G141" s="158"/>
@@ -38575,7 +38579,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="120">
-        <f>B88+12</f>
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
       <c r="C142" s="154" t="s">
@@ -38588,7 +38592,7 @@
         <v>2</v>
       </c>
       <c r="F142" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除120个苹果，120个铃铛，60个BAR</v>
       </c>
       <c r="G142" s="158"/>
@@ -38598,7 +38602,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="120">
-        <f>B89+12</f>
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
       <c r="C143" s="156" t="s">
@@ -38611,7 +38615,7 @@
         <v>2</v>
       </c>
       <c r="F143" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除120个苹果，120个铃铛，60个BAR</v>
       </c>
       <c r="G143" s="158"/>
@@ -38621,7 +38625,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="120">
-        <f>B90+12</f>
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
       <c r="C144" s="156" t="s">
@@ -38634,7 +38638,7 @@
         <v>3</v>
       </c>
       <c r="F144" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除120个苹果，120个铃铛，60个BAR</v>
       </c>
       <c r="G144" s="158"/>
@@ -38644,7 +38648,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="120">
-        <f>B91+12</f>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="C145" s="154" t="s">
@@ -38657,7 +38661,7 @@
         <v>2</v>
       </c>
       <c r="F145" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除120个苹果，120个西瓜，60个7</v>
       </c>
       <c r="G145" s="158"/>
@@ -38667,7 +38671,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="120">
-        <f>B92+12</f>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="C146" s="154" t="s">
@@ -38680,7 +38684,7 @@
         <v>2</v>
       </c>
       <c r="F146" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除120个苹果，120个西瓜，60个7</v>
       </c>
       <c r="G146" s="158"/>
@@ -38690,7 +38694,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="120">
-        <f>B93+12</f>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="C147" s="154" t="s">
@@ -38703,7 +38707,7 @@
         <v>2</v>
       </c>
       <c r="F147" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除120个苹果，120个西瓜，60个7</v>
       </c>
       <c r="G147" s="158"/>
@@ -38713,7 +38717,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="120">
-        <f>B94+12</f>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="C148" s="156" t="s">
@@ -38726,7 +38730,7 @@
         <v>2</v>
       </c>
       <c r="F148" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除120个苹果，120个西瓜，60个7</v>
       </c>
       <c r="G148" s="158"/>
@@ -38736,7 +38740,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="120">
-        <f>B95+12</f>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="C149" s="156" t="s">
@@ -38749,7 +38753,7 @@
         <v>3</v>
       </c>
       <c r="F149" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除120个苹果，120个西瓜，60个7</v>
       </c>
       <c r="G149" s="158"/>
@@ -38759,7 +38763,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="120">
-        <f>B96+12</f>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="C150" s="154" t="s">
@@ -38772,7 +38776,7 @@
         <v>2</v>
       </c>
       <c r="F150" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除120个苹果，120个西瓜，60个BAR</v>
       </c>
       <c r="G150" s="158"/>
@@ -38782,7 +38786,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="120">
-        <f>B97+12</f>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="C151" s="154" t="s">
@@ -38795,7 +38799,7 @@
         <v>2</v>
       </c>
       <c r="F151" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除120个苹果，120个西瓜，60个BAR</v>
       </c>
       <c r="G151" s="158"/>
@@ -38805,7 +38809,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="120">
-        <f>B98+12</f>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="C152" s="154" t="s">
@@ -38818,7 +38822,7 @@
         <v>2</v>
       </c>
       <c r="F152" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除120个苹果，120个西瓜，60个BAR</v>
       </c>
       <c r="G152" s="158"/>
@@ -38828,7 +38832,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="120">
-        <f>B99+12</f>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="C153" s="156" t="s">
@@ -38841,7 +38845,7 @@
         <v>2</v>
       </c>
       <c r="F153" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除120个苹果，120个西瓜，60个BAR</v>
       </c>
       <c r="G153" s="158"/>
@@ -38851,7 +38855,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="120">
-        <f>B100+12</f>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="C154" s="156" t="s">
@@ -38864,7 +38868,7 @@
         <v>3</v>
       </c>
       <c r="F154" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除120个苹果，120个西瓜，60个BAR</v>
       </c>
       <c r="G154" s="158"/>
@@ -38874,7 +38878,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="120">
-        <f>B101+12</f>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
       <c r="C155" s="154" t="s">
@@ -38887,7 +38891,7 @@
         <v>2</v>
       </c>
       <c r="F155" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除120个苹果，60个7，60个BAR</v>
       </c>
       <c r="G155" s="158"/>
@@ -38897,7 +38901,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="120">
-        <f>B102+12</f>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
       <c r="C156" s="154" t="s">
@@ -38910,7 +38914,7 @@
         <v>2</v>
       </c>
       <c r="F156" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除120个苹果，60个7，60个BAR</v>
       </c>
       <c r="G156" s="158"/>
@@ -38920,7 +38924,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="120">
-        <f>B103+12</f>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
       <c r="C157" s="154" t="s">
@@ -38933,7 +38937,7 @@
         <v>2</v>
       </c>
       <c r="F157" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除120个苹果，60个7，60个BAR</v>
       </c>
       <c r="G157" s="158"/>
@@ -38943,7 +38947,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="120">
-        <f>B104+12</f>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
       <c r="C158" s="156" t="s">
@@ -38956,7 +38960,7 @@
         <v>2</v>
       </c>
       <c r="F158" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除120个苹果，60个7，60个BAR</v>
       </c>
       <c r="G158" s="158"/>
@@ -38966,7 +38970,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="120">
-        <f>B105+12</f>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
       <c r="C159" s="156" t="s">
@@ -38979,7 +38983,7 @@
         <v>3</v>
       </c>
       <c r="F159" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除120个苹果，60个7，60个BAR</v>
       </c>
       <c r="G159" s="158"/>
@@ -38989,7 +38993,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="120">
-        <f>B106+12</f>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="C160" s="154" t="s">
@@ -39002,7 +39006,7 @@
         <v>2</v>
       </c>
       <c r="F160" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除120个铃铛，60个7，60个BAR</v>
       </c>
       <c r="G160" s="158"/>
@@ -39012,7 +39016,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="120">
-        <f>B107+12</f>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="C161" s="154" t="s">
@@ -39025,7 +39029,7 @@
         <v>2</v>
       </c>
       <c r="F161" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除120个铃铛，60个7，60个BAR</v>
       </c>
       <c r="G161" s="158"/>
@@ -39035,7 +39039,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="120">
-        <f>B108+12</f>
+        <f t="shared" ref="B162:B193" si="8">B108+12</f>
         <v>35</v>
       </c>
       <c r="C162" s="154" t="s">
@@ -39048,7 +39052,7 @@
         <v>2</v>
       </c>
       <c r="F162" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除120个铃铛，60个7，60个BAR</v>
       </c>
       <c r="G162" s="158"/>
@@ -39058,7 +39062,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="120">
-        <f>B109+12</f>
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="C163" s="156" t="s">
@@ -39071,7 +39075,7 @@
         <v>2</v>
       </c>
       <c r="F163" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除120个铃铛，60个7，60个BAR</v>
       </c>
       <c r="G163" s="158"/>
@@ -39081,7 +39085,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="120">
-        <f>B110+12</f>
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="C164" s="156" t="s">
@@ -39094,7 +39098,7 @@
         <v>3</v>
       </c>
       <c r="F164" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除120个铃铛，60个7，60个BAR</v>
       </c>
       <c r="G164" s="158"/>
@@ -39104,7 +39108,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="120">
-        <f>B111+12</f>
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="C165" s="154" t="s">
@@ -39117,7 +39121,7 @@
         <v>2</v>
       </c>
       <c r="F165" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除120个铃铛，120个西瓜，60个7</v>
       </c>
       <c r="G165" s="158"/>
@@ -39127,7 +39131,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="120">
-        <f>B112+12</f>
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="C166" s="154" t="s">
@@ -39140,7 +39144,7 @@
         <v>2</v>
       </c>
       <c r="F166" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除120个铃铛，120个西瓜，60个7</v>
       </c>
       <c r="G166" s="158"/>
@@ -39150,7 +39154,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="120">
-        <f>B113+12</f>
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="C167" s="154" t="s">
@@ -39163,7 +39167,7 @@
         <v>2</v>
       </c>
       <c r="F167" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除120个铃铛，120个西瓜，60个7</v>
       </c>
       <c r="G167" s="158"/>
@@ -39173,7 +39177,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="120">
-        <f>B114+12</f>
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="C168" s="156" t="s">
@@ -39186,7 +39190,7 @@
         <v>2</v>
       </c>
       <c r="F168" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除120个铃铛，120个西瓜，60个7</v>
       </c>
       <c r="G168" s="158"/>
@@ -39196,7 +39200,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="120">
-        <f>B115+12</f>
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="C169" s="156" t="s">
@@ -39209,7 +39213,7 @@
         <v>3</v>
       </c>
       <c r="F169" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除120个铃铛，120个西瓜，60个7</v>
       </c>
       <c r="G169" s="158"/>
@@ -39219,7 +39223,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="120">
-        <f>B116+12</f>
+        <f t="shared" si="8"/>
         <v>37</v>
       </c>
       <c r="C170" s="154" t="s">
@@ -39232,7 +39236,7 @@
         <v>2</v>
       </c>
       <c r="F170" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除120个铃铛，120个西瓜，60个BAR</v>
       </c>
       <c r="G170" s="158"/>
@@ -39242,7 +39246,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="120">
-        <f>B117+12</f>
+        <f t="shared" si="8"/>
         <v>37</v>
       </c>
       <c r="C171" s="154" t="s">
@@ -39255,7 +39259,7 @@
         <v>2</v>
       </c>
       <c r="F171" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除120个铃铛，120个西瓜，60个BAR</v>
       </c>
       <c r="G171" s="158"/>
@@ -39265,7 +39269,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="120">
-        <f>B118+12</f>
+        <f t="shared" si="8"/>
         <v>37</v>
       </c>
       <c r="C172" s="154" t="s">
@@ -39278,7 +39282,7 @@
         <v>2</v>
       </c>
       <c r="F172" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除120个铃铛，120个西瓜，60个BAR</v>
       </c>
       <c r="G172" s="158"/>
@@ -39288,7 +39292,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="120">
-        <f>B119+12</f>
+        <f t="shared" si="8"/>
         <v>37</v>
       </c>
       <c r="C173" s="156" t="s">
@@ -39301,7 +39305,7 @@
         <v>2</v>
       </c>
       <c r="F173" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除120个铃铛，120个西瓜，60个BAR</v>
       </c>
       <c r="G173" s="158"/>
@@ -39311,7 +39315,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="120">
-        <f>B120+12</f>
+        <f t="shared" si="8"/>
         <v>37</v>
       </c>
       <c r="C174" s="156" t="s">
@@ -39324,7 +39328,7 @@
         <v>3</v>
       </c>
       <c r="F174" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除120个铃铛，120个西瓜，60个BAR</v>
       </c>
       <c r="G174" s="158"/>
@@ -39334,7 +39338,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="120">
-        <f>B121+12</f>
+        <f t="shared" si="8"/>
         <v>38</v>
       </c>
       <c r="C175" s="154" t="s">
@@ -39347,7 +39351,7 @@
         <v>2</v>
       </c>
       <c r="F175" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除120个西瓜，60个7，60个BAR</v>
       </c>
       <c r="G175" s="158"/>
@@ -39357,7 +39361,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="120">
-        <f>B122+12</f>
+        <f t="shared" si="8"/>
         <v>38</v>
       </c>
       <c r="C176" s="154" t="s">
@@ -39370,7 +39374,7 @@
         <v>2</v>
       </c>
       <c r="F176" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除120个西瓜，60个7，60个BAR</v>
       </c>
       <c r="G176" s="158"/>
@@ -39380,7 +39384,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="120">
-        <f>B123+12</f>
+        <f t="shared" si="8"/>
         <v>38</v>
       </c>
       <c r="C177" s="154" t="s">
@@ -39393,7 +39397,7 @@
         <v>2</v>
       </c>
       <c r="F177" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除120个西瓜，60个7，60个BAR</v>
       </c>
       <c r="G177" s="158"/>
@@ -39403,7 +39407,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="120">
-        <f>B124+12</f>
+        <f t="shared" si="8"/>
         <v>38</v>
       </c>
       <c r="C178" s="156" t="s">
@@ -39416,7 +39420,7 @@
         <v>2</v>
       </c>
       <c r="F178" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除120个西瓜，60个7，60个BAR</v>
       </c>
       <c r="G178" s="158"/>
@@ -39426,7 +39430,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="120">
-        <f>B125+12</f>
+        <f t="shared" si="8"/>
         <v>38</v>
       </c>
       <c r="C179" s="156" t="s">
@@ -39439,7 +39443,7 @@
         <v>3</v>
       </c>
       <c r="F179" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除120个西瓜，60个7，60个BAR</v>
       </c>
       <c r="G179" s="158"/>
@@ -39449,7 +39453,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="120">
-        <f>B126+12</f>
+        <f t="shared" si="8"/>
         <v>39</v>
       </c>
       <c r="C180" s="156" t="s">
@@ -39462,7 +39466,7 @@
         <v>3</v>
       </c>
       <c r="F180" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>单局消除6个及以上铃铛</v>
       </c>
       <c r="G180" s="158"/>
@@ -39484,7 +39488,7 @@
         <v>3</v>
       </c>
       <c r="F181" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>单局消除6个及以上铃铛</v>
       </c>
       <c r="G181" s="158"/>
@@ -39507,7 +39511,7 @@
         <v>3</v>
       </c>
       <c r="F182" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>单局消除6个及以上西瓜</v>
       </c>
       <c r="G182" s="158"/>
@@ -39529,7 +39533,7 @@
         <v>3</v>
       </c>
       <c r="F183" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>单局消除6个及以上西瓜</v>
       </c>
       <c r="G183" s="158"/>
@@ -39539,7 +39543,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="125">
-        <f>B130+12</f>
+        <f t="shared" ref="B184:B215" si="9">B130+12</f>
         <v>41</v>
       </c>
       <c r="C184" s="149" t="s">
@@ -39552,7 +39556,7 @@
         <v>2</v>
       </c>
       <c r="F184" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除150个苹果，150个铃铛，150个西瓜</v>
       </c>
       <c r="G184" s="159"/>
@@ -39562,7 +39566,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="125">
-        <f>B131+12</f>
+        <f t="shared" si="9"/>
         <v>41</v>
       </c>
       <c r="C185" s="149" t="s">
@@ -39575,7 +39579,7 @@
         <v>2</v>
       </c>
       <c r="F185" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除150个苹果，150个铃铛，150个西瓜</v>
       </c>
       <c r="G185" s="159"/>
@@ -39585,7 +39589,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="125">
-        <f>B132+12</f>
+        <f t="shared" si="9"/>
         <v>41</v>
       </c>
       <c r="C186" s="149" t="s">
@@ -39598,7 +39602,7 @@
         <v>2</v>
       </c>
       <c r="F186" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除150个苹果，150个铃铛，150个西瓜</v>
       </c>
       <c r="G186" s="159"/>
@@ -39608,7 +39612,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="125">
-        <f>B133+12</f>
+        <f t="shared" si="9"/>
         <v>41</v>
       </c>
       <c r="C187" s="151" t="s">
@@ -39621,7 +39625,7 @@
         <v>2</v>
       </c>
       <c r="F187" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除150个苹果，150个铃铛，150个西瓜</v>
       </c>
       <c r="G187" s="159"/>
@@ -39631,7 +39635,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="125">
-        <f>B134+12</f>
+        <f t="shared" si="9"/>
         <v>41</v>
       </c>
       <c r="C188" s="151" t="s">
@@ -39644,7 +39648,7 @@
         <v>3</v>
       </c>
       <c r="F188" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除150个苹果，150个铃铛，150个西瓜</v>
       </c>
       <c r="G188" s="159"/>
@@ -39654,7 +39658,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="125">
-        <f>B135+12</f>
+        <f t="shared" si="9"/>
         <v>42</v>
       </c>
       <c r="C189" s="149" t="s">
@@ -39667,7 +39671,7 @@
         <v>2</v>
       </c>
       <c r="F189" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除150个苹果，150个铃铛，80个7</v>
       </c>
       <c r="G189" s="159"/>
@@ -39677,7 +39681,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="125">
-        <f>B136+12</f>
+        <f t="shared" si="9"/>
         <v>42</v>
       </c>
       <c r="C190" s="149" t="s">
@@ -39690,7 +39694,7 @@
         <v>2</v>
       </c>
       <c r="F190" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除150个苹果，150个铃铛，80个7</v>
       </c>
       <c r="G190" s="159"/>
@@ -39700,7 +39704,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="125">
-        <f>B137+12</f>
+        <f t="shared" si="9"/>
         <v>42</v>
       </c>
       <c r="C191" s="149" t="s">
@@ -39713,7 +39717,7 @@
         <v>2</v>
       </c>
       <c r="F191" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除150个苹果，150个铃铛，80个7</v>
       </c>
       <c r="G191" s="159"/>
@@ -39723,7 +39727,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="125">
-        <f>B138+12</f>
+        <f t="shared" si="9"/>
         <v>42</v>
       </c>
       <c r="C192" s="151" t="s">
@@ -39736,7 +39740,7 @@
         <v>2</v>
       </c>
       <c r="F192" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除150个苹果，150个铃铛，80个7</v>
       </c>
       <c r="G192" s="159"/>
@@ -39746,7 +39750,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="125">
-        <f>B139+12</f>
+        <f t="shared" si="9"/>
         <v>42</v>
       </c>
       <c r="C193" s="151" t="s">
@@ -39759,7 +39763,7 @@
         <v>3</v>
       </c>
       <c r="F193" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除150个苹果，150个铃铛，80个7</v>
       </c>
       <c r="G193" s="159"/>
@@ -39769,7 +39773,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="125">
-        <f>B140+12</f>
+        <f t="shared" si="9"/>
         <v>43</v>
       </c>
       <c r="C194" s="149" t="s">
@@ -39782,7 +39786,7 @@
         <v>2</v>
       </c>
       <c r="F194" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除150个苹果，150个铃铛，80个BAR</v>
       </c>
       <c r="G194" s="159"/>
@@ -39792,7 +39796,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="125">
-        <f>B141+12</f>
+        <f t="shared" si="9"/>
         <v>43</v>
       </c>
       <c r="C195" s="149" t="s">
@@ -39805,7 +39809,7 @@
         <v>2</v>
       </c>
       <c r="F195" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除150个苹果，150个铃铛，80个BAR</v>
       </c>
       <c r="G195" s="159"/>
@@ -39815,7 +39819,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="125">
-        <f>B142+12</f>
+        <f t="shared" si="9"/>
         <v>43</v>
       </c>
       <c r="C196" s="149" t="s">
@@ -39828,7 +39832,7 @@
         <v>2</v>
       </c>
       <c r="F196" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除150个苹果，150个铃铛，80个BAR</v>
       </c>
       <c r="G196" s="159"/>
@@ -39838,7 +39842,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="125">
-        <f>B143+12</f>
+        <f t="shared" si="9"/>
         <v>43</v>
       </c>
       <c r="C197" s="151" t="s">
@@ -39851,7 +39855,7 @@
         <v>2</v>
       </c>
       <c r="F197" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除150个苹果，150个铃铛，80个BAR</v>
       </c>
       <c r="G197" s="159"/>
@@ -39861,7 +39865,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="125">
-        <f>B144+12</f>
+        <f t="shared" si="9"/>
         <v>43</v>
       </c>
       <c r="C198" s="151" t="s">
@@ -39874,7 +39878,7 @@
         <v>3</v>
       </c>
       <c r="F198" s="118" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>累计消除150个苹果，150个铃铛，80个BAR</v>
       </c>
       <c r="G198" s="159"/>
@@ -39884,7 +39888,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="125">
-        <f>B145+12</f>
+        <f t="shared" si="9"/>
         <v>44</v>
       </c>
       <c r="C199" s="149" t="s">
@@ -39897,7 +39901,7 @@
         <v>2</v>
       </c>
       <c r="F199" s="118" t="str">
-        <f t="shared" ref="F199:F264" ca="1" si="7">INDIRECT("G"&amp;B199+1)</f>
+        <f t="shared" ref="F199:F264" ca="1" si="10">INDIRECT("G"&amp;B199+1)</f>
         <v>累计消除150个苹果，150个西瓜，80个7</v>
       </c>
       <c r="G199" s="159"/>
@@ -39907,7 +39911,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="125">
-        <f>B146+12</f>
+        <f t="shared" si="9"/>
         <v>44</v>
       </c>
       <c r="C200" s="149" t="s">
@@ -39920,7 +39924,7 @@
         <v>2</v>
       </c>
       <c r="F200" s="118" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除150个苹果，150个西瓜，80个7</v>
       </c>
       <c r="G200" s="159"/>
@@ -39930,7 +39934,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="125">
-        <f>B147+12</f>
+        <f t="shared" si="9"/>
         <v>44</v>
       </c>
       <c r="C201" s="149" t="s">
@@ -39943,7 +39947,7 @@
         <v>2</v>
       </c>
       <c r="F201" s="118" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除150个苹果，150个西瓜，80个7</v>
       </c>
       <c r="G201" s="159"/>
@@ -39953,7 +39957,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="125">
-        <f>B148+12</f>
+        <f t="shared" si="9"/>
         <v>44</v>
       </c>
       <c r="C202" s="151" t="s">
@@ -39966,7 +39970,7 @@
         <v>2</v>
       </c>
       <c r="F202" s="118" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除150个苹果，150个西瓜，80个7</v>
       </c>
       <c r="G202" s="159"/>
@@ -39976,7 +39980,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="125">
-        <f>B149+12</f>
+        <f t="shared" si="9"/>
         <v>44</v>
       </c>
       <c r="C203" s="151" t="s">
@@ -39989,7 +39993,7 @@
         <v>3</v>
       </c>
       <c r="F203" s="118" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除150个苹果，150个西瓜，80个7</v>
       </c>
       <c r="G203" s="159"/>
@@ -39999,7 +40003,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="125">
-        <f>B150+12</f>
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
       <c r="C204" s="149" t="s">
@@ -40012,7 +40016,7 @@
         <v>2</v>
       </c>
       <c r="F204" s="118" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除150个苹果，150个西瓜，80个BAR</v>
       </c>
       <c r="G204" s="159"/>
@@ -40022,7 +40026,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="125">
-        <f>B151+12</f>
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
       <c r="C205" s="149" t="s">
@@ -40035,7 +40039,7 @@
         <v>2</v>
       </c>
       <c r="F205" s="118" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除150个苹果，150个西瓜，80个BAR</v>
       </c>
       <c r="G205" s="159"/>
@@ -40045,7 +40049,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="125">
-        <f>B152+12</f>
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
       <c r="C206" s="149" t="s">
@@ -40058,7 +40062,7 @@
         <v>2</v>
       </c>
       <c r="F206" s="118" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除150个苹果，150个西瓜，80个BAR</v>
       </c>
       <c r="G206" s="159"/>
@@ -40068,7 +40072,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="125">
-        <f>B153+12</f>
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
       <c r="C207" s="151" t="s">
@@ -40081,7 +40085,7 @@
         <v>2</v>
       </c>
       <c r="F207" s="118" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除150个苹果，150个西瓜，80个BAR</v>
       </c>
       <c r="G207" s="159"/>
@@ -40091,7 +40095,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="125">
-        <f>B154+12</f>
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
       <c r="C208" s="151" t="s">
@@ -40104,7 +40108,7 @@
         <v>3</v>
       </c>
       <c r="F208" s="118" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除150个苹果，150个西瓜，80个BAR</v>
       </c>
       <c r="G208" s="159"/>
@@ -40114,7 +40118,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="125">
-        <f>B155+12</f>
+        <f t="shared" si="9"/>
         <v>46</v>
       </c>
       <c r="C209" s="149" t="s">
@@ -40127,7 +40131,7 @@
         <v>2</v>
       </c>
       <c r="F209" s="118" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除150个苹果，80个7，80个BAR</v>
       </c>
       <c r="G209" s="159"/>
@@ -40137,7 +40141,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="125">
-        <f>B156+12</f>
+        <f t="shared" si="9"/>
         <v>46</v>
       </c>
       <c r="C210" s="149" t="s">
@@ -40150,7 +40154,7 @@
         <v>2</v>
       </c>
       <c r="F210" s="118" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除150个苹果，80个7，80个BAR</v>
       </c>
       <c r="G210" s="159"/>
@@ -40160,7 +40164,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="125">
-        <f>B157+12</f>
+        <f t="shared" si="9"/>
         <v>46</v>
       </c>
       <c r="C211" s="149" t="s">
@@ -40173,7 +40177,7 @@
         <v>2</v>
       </c>
       <c r="F211" s="118" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除150个苹果，80个7，80个BAR</v>
       </c>
       <c r="G211" s="159"/>
@@ -40183,7 +40187,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="125">
-        <f>B158+12</f>
+        <f t="shared" si="9"/>
         <v>46</v>
       </c>
       <c r="C212" s="151" t="s">
@@ -40196,7 +40200,7 @@
         <v>2</v>
       </c>
       <c r="F212" s="118" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除150个苹果，80个7，80个BAR</v>
       </c>
       <c r="G212" s="159"/>
@@ -40206,7 +40210,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="125">
-        <f>B159+12</f>
+        <f t="shared" si="9"/>
         <v>46</v>
       </c>
       <c r="C213" s="151" t="s">
@@ -40219,7 +40223,7 @@
         <v>3</v>
       </c>
       <c r="F213" s="118" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除150个苹果，80个7，80个BAR</v>
       </c>
       <c r="G213" s="159"/>
@@ -40229,7 +40233,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="125">
-        <f>B160+12</f>
+        <f t="shared" si="9"/>
         <v>47</v>
       </c>
       <c r="C214" s="149" t="s">
@@ -40242,7 +40246,7 @@
         <v>2</v>
       </c>
       <c r="F214" s="118" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除150个铃铛，80个7，80个BAR</v>
       </c>
       <c r="G214" s="159"/>
@@ -40252,7 +40256,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="125">
-        <f>B161+12</f>
+        <f t="shared" si="9"/>
         <v>47</v>
       </c>
       <c r="C215" s="149" t="s">
@@ -40265,7 +40269,7 @@
         <v>2</v>
       </c>
       <c r="F215" s="118" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除150个铃铛，80个7，80个BAR</v>
       </c>
       <c r="G215" s="159"/>
@@ -40275,7 +40279,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="125">
-        <f>B162+12</f>
+        <f t="shared" ref="B216:B247" si="11">B162+12</f>
         <v>47</v>
       </c>
       <c r="C216" s="149" t="s">
@@ -40288,7 +40292,7 @@
         <v>2</v>
       </c>
       <c r="F216" s="118" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除150个铃铛，80个7，80个BAR</v>
       </c>
       <c r="G216" s="159"/>
@@ -40298,7 +40302,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="125">
-        <f>B163+12</f>
+        <f t="shared" si="11"/>
         <v>47</v>
       </c>
       <c r="C217" s="151" t="s">
@@ -40311,7 +40315,7 @@
         <v>2</v>
       </c>
       <c r="F217" s="118" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除150个铃铛，80个7，80个BAR</v>
       </c>
       <c r="G217" s="159"/>
@@ -40321,7 +40325,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="125">
-        <f>B164+12</f>
+        <f t="shared" si="11"/>
         <v>47</v>
       </c>
       <c r="C218" s="151" t="s">
@@ -40334,7 +40338,7 @@
         <v>3</v>
       </c>
       <c r="F218" s="118" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除150个铃铛，80个7，80个BAR</v>
       </c>
       <c r="G218" s="159"/>
@@ -40344,7 +40348,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="125">
-        <f>B165+12</f>
+        <f t="shared" si="11"/>
         <v>48</v>
       </c>
       <c r="C219" s="149" t="s">
@@ -40357,7 +40361,7 @@
         <v>2</v>
       </c>
       <c r="F219" s="118" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除150个铃铛，150个西瓜，80个7</v>
       </c>
       <c r="G219" s="159"/>
@@ -40367,7 +40371,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="125">
-        <f>B166+12</f>
+        <f t="shared" si="11"/>
         <v>48</v>
       </c>
       <c r="C220" s="149" t="s">
@@ -40380,7 +40384,7 @@
         <v>2</v>
       </c>
       <c r="F220" s="118" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除150个铃铛，150个西瓜，80个7</v>
       </c>
       <c r="G220" s="159"/>
@@ -40390,7 +40394,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="125">
-        <f>B167+12</f>
+        <f t="shared" si="11"/>
         <v>48</v>
       </c>
       <c r="C221" s="149" t="s">
@@ -40403,7 +40407,7 @@
         <v>2</v>
       </c>
       <c r="F221" s="118" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除150个铃铛，150个西瓜，80个7</v>
       </c>
       <c r="G221" s="159"/>
@@ -40413,7 +40417,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="125">
-        <f>B168+12</f>
+        <f t="shared" si="11"/>
         <v>48</v>
       </c>
       <c r="C222" s="151" t="s">
@@ -40426,7 +40430,7 @@
         <v>2</v>
       </c>
       <c r="F222" s="118" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除150个铃铛，150个西瓜，80个7</v>
       </c>
       <c r="G222" s="159"/>
@@ -40436,7 +40440,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="125">
-        <f>B169+12</f>
+        <f t="shared" si="11"/>
         <v>48</v>
       </c>
       <c r="C223" s="151" t="s">
@@ -40449,7 +40453,7 @@
         <v>3</v>
       </c>
       <c r="F223" s="118" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除150个铃铛，150个西瓜，80个7</v>
       </c>
       <c r="G223" s="159"/>
@@ -40459,7 +40463,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="125">
-        <f>B170+12</f>
+        <f t="shared" si="11"/>
         <v>49</v>
       </c>
       <c r="C224" s="149" t="s">
@@ -40472,7 +40476,7 @@
         <v>2</v>
       </c>
       <c r="F224" s="118" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除150个铃铛，150个西瓜，80个BAR</v>
       </c>
       <c r="G224" s="159"/>
@@ -40482,7 +40486,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="125">
-        <f>B171+12</f>
+        <f t="shared" si="11"/>
         <v>49</v>
       </c>
       <c r="C225" s="149" t="s">
@@ -40495,7 +40499,7 @@
         <v>2</v>
       </c>
       <c r="F225" s="118" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除150个铃铛，150个西瓜，80个BAR</v>
       </c>
       <c r="G225" s="159"/>
@@ -40505,7 +40509,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="125">
-        <f>B172+12</f>
+        <f t="shared" si="11"/>
         <v>49</v>
       </c>
       <c r="C226" s="149" t="s">
@@ -40518,7 +40522,7 @@
         <v>2</v>
       </c>
       <c r="F226" s="118" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除150个铃铛，150个西瓜，80个BAR</v>
       </c>
       <c r="G226" s="159"/>
@@ -40528,7 +40532,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="125">
-        <f>B173+12</f>
+        <f t="shared" si="11"/>
         <v>49</v>
       </c>
       <c r="C227" s="151" t="s">
@@ -40541,7 +40545,7 @@
         <v>2</v>
       </c>
       <c r="F227" s="118" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除150个铃铛，150个西瓜，80个BAR</v>
       </c>
       <c r="G227" s="159"/>
@@ -40551,7 +40555,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="125">
-        <f>B174+12</f>
+        <f t="shared" si="11"/>
         <v>49</v>
       </c>
       <c r="C228" s="151" t="s">
@@ -40564,7 +40568,7 @@
         <v>3</v>
       </c>
       <c r="F228" s="118" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除150个铃铛，150个西瓜，80个BAR</v>
       </c>
       <c r="G228" s="159"/>
@@ -40574,7 +40578,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="125">
-        <f>B175+12</f>
+        <f t="shared" si="11"/>
         <v>50</v>
       </c>
       <c r="C229" s="149" t="s">
@@ -40587,7 +40591,7 @@
         <v>2</v>
       </c>
       <c r="F229" s="118" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除150个西瓜，80个7，80个BAR</v>
       </c>
       <c r="G229" s="159"/>
@@ -40597,7 +40601,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="125">
-        <f>B176+12</f>
+        <f t="shared" si="11"/>
         <v>50</v>
       </c>
       <c r="C230" s="149" t="s">
@@ -40610,7 +40614,7 @@
         <v>2</v>
       </c>
       <c r="F230" s="118" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除150个西瓜，80个7，80个BAR</v>
       </c>
       <c r="G230" s="159"/>
@@ -40620,7 +40624,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="125">
-        <f>B177+12</f>
+        <f t="shared" si="11"/>
         <v>50</v>
       </c>
       <c r="C231" s="149" t="s">
@@ -40633,7 +40637,7 @@
         <v>2</v>
       </c>
       <c r="F231" s="118" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除150个西瓜，80个7，80个BAR</v>
       </c>
       <c r="G231" s="159"/>
@@ -40643,7 +40647,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="125">
-        <f>B178+12</f>
+        <f t="shared" si="11"/>
         <v>50</v>
       </c>
       <c r="C232" s="151" t="s">
@@ -40656,7 +40660,7 @@
         <v>2</v>
       </c>
       <c r="F232" s="118" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除150个西瓜，80个7，80个BAR</v>
       </c>
       <c r="G232" s="159"/>
@@ -40666,7 +40670,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="125">
-        <f>B179+12</f>
+        <f t="shared" si="11"/>
         <v>50</v>
       </c>
       <c r="C233" s="151" t="s">
@@ -40679,7 +40683,7 @@
         <v>3</v>
       </c>
       <c r="F233" s="118" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除150个西瓜，80个7，80个BAR</v>
       </c>
       <c r="G233" s="159"/>
@@ -40689,7 +40693,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="125">
-        <f>B180+12</f>
+        <f t="shared" si="11"/>
         <v>51</v>
       </c>
       <c r="C234" s="151" t="s">
@@ -40702,7 +40706,7 @@
         <v>3</v>
       </c>
       <c r="F234" s="118" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>单局消除6个及以上7</v>
       </c>
       <c r="G234" s="159"/>
@@ -40743,7 +40747,7 @@
         <v>3</v>
       </c>
       <c r="F236" s="118" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>单局消除6个及以上BAR</v>
       </c>
       <c r="G236" s="159"/>
@@ -40772,7 +40776,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="120">
-        <f>B184+12</f>
+        <f t="shared" ref="B238:B269" si="12">B184+12</f>
         <v>53</v>
       </c>
       <c r="C238" s="154" t="s">
@@ -40785,7 +40789,7 @@
         <v>2</v>
       </c>
       <c r="F238" s="119" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除200个苹果，200个铃铛，200个西瓜</v>
       </c>
       <c r="G238" s="158"/>
@@ -40795,7 +40799,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="120">
-        <f>B185+12</f>
+        <f t="shared" si="12"/>
         <v>53</v>
       </c>
       <c r="C239" s="154" t="s">
@@ -40808,7 +40812,7 @@
         <v>2</v>
       </c>
       <c r="F239" s="119" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除200个苹果，200个铃铛，200个西瓜</v>
       </c>
       <c r="G239" s="158"/>
@@ -40818,7 +40822,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="120">
-        <f>B186+12</f>
+        <f t="shared" si="12"/>
         <v>53</v>
       </c>
       <c r="C240" s="154" t="s">
@@ -40831,7 +40835,7 @@
         <v>2</v>
       </c>
       <c r="F240" s="119" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除200个苹果，200个铃铛，200个西瓜</v>
       </c>
       <c r="G240" s="158"/>
@@ -40841,7 +40845,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="120">
-        <f>B187+12</f>
+        <f t="shared" si="12"/>
         <v>53</v>
       </c>
       <c r="C241" s="156" t="s">
@@ -40854,7 +40858,7 @@
         <v>2</v>
       </c>
       <c r="F241" s="119" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除200个苹果，200个铃铛，200个西瓜</v>
       </c>
       <c r="G241" s="158"/>
@@ -40864,7 +40868,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="120">
-        <f>B188+12</f>
+        <f t="shared" si="12"/>
         <v>53</v>
       </c>
       <c r="C242" s="156" t="s">
@@ -40877,7 +40881,7 @@
         <v>3</v>
       </c>
       <c r="F242" s="119" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除200个苹果，200个铃铛，200个西瓜</v>
       </c>
       <c r="G242" s="158"/>
@@ -40887,7 +40891,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="120">
-        <f>B189+12</f>
+        <f t="shared" si="12"/>
         <v>54</v>
       </c>
       <c r="C243" s="154" t="s">
@@ -40900,7 +40904,7 @@
         <v>2</v>
       </c>
       <c r="F243" s="119" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除200个苹果，200个铃铛，100个7</v>
       </c>
       <c r="G243" s="158"/>
@@ -40910,7 +40914,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="120">
-        <f>B190+12</f>
+        <f t="shared" si="12"/>
         <v>54</v>
       </c>
       <c r="C244" s="154" t="s">
@@ -40923,7 +40927,7 @@
         <v>2</v>
       </c>
       <c r="F244" s="119" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除200个苹果，200个铃铛，100个7</v>
       </c>
       <c r="G244" s="158"/>
@@ -40933,7 +40937,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="120">
-        <f>B191+12</f>
+        <f t="shared" si="12"/>
         <v>54</v>
       </c>
       <c r="C245" s="154" t="s">
@@ -40946,7 +40950,7 @@
         <v>2</v>
       </c>
       <c r="F245" s="119" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除200个苹果，200个铃铛，100个7</v>
       </c>
       <c r="G245" s="158"/>
@@ -40956,7 +40960,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="120">
-        <f>B192+12</f>
+        <f t="shared" si="12"/>
         <v>54</v>
       </c>
       <c r="C246" s="156" t="s">
@@ -40969,7 +40973,7 @@
         <v>2</v>
       </c>
       <c r="F246" s="119" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除200个苹果，200个铃铛，100个7</v>
       </c>
       <c r="G246" s="158"/>
@@ -40979,7 +40983,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="120">
-        <f>B193+12</f>
+        <f t="shared" si="12"/>
         <v>54</v>
       </c>
       <c r="C247" s="156" t="s">
@@ -40992,7 +40996,7 @@
         <v>3</v>
       </c>
       <c r="F247" s="119" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除200个苹果，200个铃铛，100个7</v>
       </c>
       <c r="G247" s="158"/>
@@ -41002,7 +41006,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="120">
-        <f>B194+12</f>
+        <f t="shared" si="12"/>
         <v>55</v>
       </c>
       <c r="C248" s="154" t="s">
@@ -41015,7 +41019,7 @@
         <v>2</v>
       </c>
       <c r="F248" s="119" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除200个苹果，200个铃铛，100个BAR</v>
       </c>
       <c r="G248" s="158"/>
@@ -41025,7 +41029,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="120">
-        <f>B195+12</f>
+        <f t="shared" si="12"/>
         <v>55</v>
       </c>
       <c r="C249" s="154" t="s">
@@ -41038,7 +41042,7 @@
         <v>2</v>
       </c>
       <c r="F249" s="119" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除200个苹果，200个铃铛，100个BAR</v>
       </c>
       <c r="G249" s="158"/>
@@ -41048,7 +41052,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="120">
-        <f>B196+12</f>
+        <f t="shared" si="12"/>
         <v>55</v>
       </c>
       <c r="C250" s="154" t="s">
@@ -41061,7 +41065,7 @@
         <v>2</v>
       </c>
       <c r="F250" s="119" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除200个苹果，200个铃铛，100个BAR</v>
       </c>
       <c r="G250" s="158"/>
@@ -41071,7 +41075,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="120">
-        <f>B197+12</f>
+        <f t="shared" si="12"/>
         <v>55</v>
       </c>
       <c r="C251" s="156" t="s">
@@ -41084,7 +41088,7 @@
         <v>2</v>
       </c>
       <c r="F251" s="119" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除200个苹果，200个铃铛，100个BAR</v>
       </c>
       <c r="G251" s="158"/>
@@ -41094,7 +41098,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="120">
-        <f>B198+12</f>
+        <f t="shared" si="12"/>
         <v>55</v>
       </c>
       <c r="C252" s="156" t="s">
@@ -41107,7 +41111,7 @@
         <v>3</v>
       </c>
       <c r="F252" s="119" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除200个苹果，200个铃铛，100个BAR</v>
       </c>
       <c r="G252" s="158"/>
@@ -41117,7 +41121,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="120">
-        <f>B199+12</f>
+        <f t="shared" si="12"/>
         <v>56</v>
       </c>
       <c r="C253" s="154" t="s">
@@ -41130,7 +41134,7 @@
         <v>2</v>
       </c>
       <c r="F253" s="119" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除200个苹果，200个西瓜，100个7</v>
       </c>
       <c r="G253" s="158"/>
@@ -41140,7 +41144,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="120">
-        <f>B200+12</f>
+        <f t="shared" si="12"/>
         <v>56</v>
       </c>
       <c r="C254" s="154" t="s">
@@ -41153,7 +41157,7 @@
         <v>2</v>
       </c>
       <c r="F254" s="119" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除200个苹果，200个西瓜，100个7</v>
       </c>
       <c r="G254" s="158"/>
@@ -41163,7 +41167,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="120">
-        <f>B201+12</f>
+        <f t="shared" si="12"/>
         <v>56</v>
       </c>
       <c r="C255" s="154" t="s">
@@ -41176,7 +41180,7 @@
         <v>2</v>
       </c>
       <c r="F255" s="119" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除200个苹果，200个西瓜，100个7</v>
       </c>
       <c r="G255" s="158"/>
@@ -41186,7 +41190,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="120">
-        <f>B202+12</f>
+        <f t="shared" si="12"/>
         <v>56</v>
       </c>
       <c r="C256" s="156" t="s">
@@ -41199,7 +41203,7 @@
         <v>2</v>
       </c>
       <c r="F256" s="119" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除200个苹果，200个西瓜，100个7</v>
       </c>
       <c r="G256" s="158"/>
@@ -41209,7 +41213,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="120">
-        <f>B203+12</f>
+        <f t="shared" si="12"/>
         <v>56</v>
       </c>
       <c r="C257" s="156" t="s">
@@ -41222,7 +41226,7 @@
         <v>3</v>
       </c>
       <c r="F257" s="119" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除200个苹果，200个西瓜，100个7</v>
       </c>
       <c r="G257" s="158"/>
@@ -41232,7 +41236,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="120">
-        <f>B204+12</f>
+        <f t="shared" si="12"/>
         <v>57</v>
       </c>
       <c r="C258" s="154" t="s">
@@ -41245,7 +41249,7 @@
         <v>2</v>
       </c>
       <c r="F258" s="119" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除200个苹果，200个西瓜，100个BAR</v>
       </c>
       <c r="G258" s="158"/>
@@ -41255,7 +41259,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="120">
-        <f>B205+12</f>
+        <f t="shared" si="12"/>
         <v>57</v>
       </c>
       <c r="C259" s="154" t="s">
@@ -41268,7 +41272,7 @@
         <v>2</v>
       </c>
       <c r="F259" s="119" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除200个苹果，200个西瓜，100个BAR</v>
       </c>
       <c r="G259" s="158"/>
@@ -41278,7 +41282,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="120">
-        <f>B206+12</f>
+        <f t="shared" si="12"/>
         <v>57</v>
       </c>
       <c r="C260" s="154" t="s">
@@ -41291,7 +41295,7 @@
         <v>2</v>
       </c>
       <c r="F260" s="119" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除200个苹果，200个西瓜，100个BAR</v>
       </c>
       <c r="G260" s="158"/>
@@ -41301,7 +41305,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="120">
-        <f>B207+12</f>
+        <f t="shared" si="12"/>
         <v>57</v>
       </c>
       <c r="C261" s="156" t="s">
@@ -41314,7 +41318,7 @@
         <v>2</v>
       </c>
       <c r="F261" s="119" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除200个苹果，200个西瓜，100个BAR</v>
       </c>
       <c r="G261" s="158"/>
@@ -41324,7 +41328,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="120">
-        <f>B208+12</f>
+        <f t="shared" si="12"/>
         <v>57</v>
       </c>
       <c r="C262" s="156" t="s">
@@ -41337,7 +41341,7 @@
         <v>3</v>
       </c>
       <c r="F262" s="119" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除200个苹果，200个西瓜，100个BAR</v>
       </c>
       <c r="G262" s="158"/>
@@ -41347,7 +41351,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="120">
-        <f>B209+12</f>
+        <f t="shared" si="12"/>
         <v>58</v>
       </c>
       <c r="C263" s="154" t="s">
@@ -41360,7 +41364,7 @@
         <v>2</v>
       </c>
       <c r="F263" s="119" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除200个苹果，100个7，100个BAR</v>
       </c>
       <c r="G263" s="158"/>
@@ -41370,7 +41374,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="120">
-        <f>B210+12</f>
+        <f t="shared" si="12"/>
         <v>58</v>
       </c>
       <c r="C264" s="154" t="s">
@@ -41383,7 +41387,7 @@
         <v>2</v>
       </c>
       <c r="F264" s="119" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>累计消除200个苹果，100个7，100个BAR</v>
       </c>
       <c r="G264" s="158"/>
@@ -41393,7 +41397,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="120">
-        <f>B211+12</f>
+        <f t="shared" si="12"/>
         <v>58</v>
       </c>
       <c r="C265" s="154" t="s">
@@ -41406,7 +41410,7 @@
         <v>2</v>
       </c>
       <c r="F265" s="119" t="str">
-        <f t="shared" ref="F265:F290" ca="1" si="8">INDIRECT("G"&amp;B265+1)</f>
+        <f t="shared" ref="F265:F290" ca="1" si="13">INDIRECT("G"&amp;B265+1)</f>
         <v>累计消除200个苹果，100个7，100个BAR</v>
       </c>
       <c r="G265" s="158"/>
@@ -41416,7 +41420,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="120">
-        <f>B212+12</f>
+        <f t="shared" si="12"/>
         <v>58</v>
       </c>
       <c r="C266" s="156" t="s">
@@ -41429,7 +41433,7 @@
         <v>2</v>
       </c>
       <c r="F266" s="119" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="13"/>
         <v>累计消除200个苹果，100个7，100个BAR</v>
       </c>
       <c r="G266" s="158"/>
@@ -41439,7 +41443,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="120">
-        <f>B213+12</f>
+        <f t="shared" si="12"/>
         <v>58</v>
       </c>
       <c r="C267" s="156" t="s">
@@ -41452,7 +41456,7 @@
         <v>3</v>
       </c>
       <c r="F267" s="119" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="13"/>
         <v>累计消除200个苹果，100个7，100个BAR</v>
       </c>
       <c r="G267" s="158"/>
@@ -41462,7 +41466,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="120">
-        <f>B214+12</f>
+        <f t="shared" si="12"/>
         <v>59</v>
       </c>
       <c r="C268" s="154" t="s">
@@ -41475,7 +41479,7 @@
         <v>2</v>
       </c>
       <c r="F268" s="119" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="13"/>
         <v>累计消除200个铃铛，100个7，100个BAR</v>
       </c>
       <c r="G268" s="158"/>
@@ -41485,7 +41489,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="120">
-        <f>B215+12</f>
+        <f t="shared" si="12"/>
         <v>59</v>
       </c>
       <c r="C269" s="154" t="s">
@@ -41498,7 +41502,7 @@
         <v>2</v>
       </c>
       <c r="F269" s="119" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="13"/>
         <v>累计消除200个铃铛，100个7，100个BAR</v>
       </c>
       <c r="G269" s="158"/>
@@ -41508,7 +41512,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="120">
-        <f>B216+12</f>
+        <f t="shared" ref="B270:B301" si="14">B216+12</f>
         <v>59</v>
       </c>
       <c r="C270" s="154" t="s">
@@ -41521,7 +41525,7 @@
         <v>2</v>
       </c>
       <c r="F270" s="119" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="13"/>
         <v>累计消除200个铃铛，100个7，100个BAR</v>
       </c>
       <c r="G270" s="158"/>
@@ -41531,7 +41535,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="120">
-        <f>B217+12</f>
+        <f t="shared" si="14"/>
         <v>59</v>
       </c>
       <c r="C271" s="156" t="s">
@@ -41544,7 +41548,7 @@
         <v>2</v>
       </c>
       <c r="F271" s="119" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="13"/>
         <v>累计消除200个铃铛，100个7，100个BAR</v>
       </c>
       <c r="G271" s="158"/>
@@ -41554,7 +41558,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="120">
-        <f>B218+12</f>
+        <f t="shared" si="14"/>
         <v>59</v>
       </c>
       <c r="C272" s="156" t="s">
@@ -41567,7 +41571,7 @@
         <v>3</v>
       </c>
       <c r="F272" s="119" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="13"/>
         <v>累计消除200个铃铛，100个7，100个BAR</v>
       </c>
       <c r="G272" s="158"/>
@@ -41577,7 +41581,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="120">
-        <f>B219+12</f>
+        <f t="shared" si="14"/>
         <v>60</v>
       </c>
       <c r="C273" s="154" t="s">
@@ -41590,7 +41594,7 @@
         <v>2</v>
       </c>
       <c r="F273" s="119" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="13"/>
         <v>累计消除200个铃铛，200个西瓜，100个7</v>
       </c>
       <c r="G273" s="158"/>
@@ -41600,7 +41604,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="120">
-        <f>B220+12</f>
+        <f t="shared" si="14"/>
         <v>60</v>
       </c>
       <c r="C274" s="154" t="s">
@@ -41613,7 +41617,7 @@
         <v>2</v>
       </c>
       <c r="F274" s="119" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="13"/>
         <v>累计消除200个铃铛，200个西瓜，100个7</v>
       </c>
       <c r="G274" s="158"/>
@@ -41623,7 +41627,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="120">
-        <f>B221+12</f>
+        <f t="shared" si="14"/>
         <v>60</v>
       </c>
       <c r="C275" s="154" t="s">
@@ -41636,7 +41640,7 @@
         <v>2</v>
       </c>
       <c r="F275" s="119" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="13"/>
         <v>累计消除200个铃铛，200个西瓜，100个7</v>
       </c>
       <c r="G275" s="158"/>
@@ -41646,7 +41650,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="120">
-        <f>B222+12</f>
+        <f t="shared" si="14"/>
         <v>60</v>
       </c>
       <c r="C276" s="156" t="s">
@@ -41659,7 +41663,7 @@
         <v>2</v>
       </c>
       <c r="F276" s="119" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="13"/>
         <v>累计消除200个铃铛，200个西瓜，100个7</v>
       </c>
       <c r="G276" s="158"/>
@@ -41669,7 +41673,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="120">
-        <f>B223+12</f>
+        <f t="shared" si="14"/>
         <v>60</v>
       </c>
       <c r="C277" s="156" t="s">
@@ -41682,7 +41686,7 @@
         <v>3</v>
       </c>
       <c r="F277" s="119" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="13"/>
         <v>累计消除200个铃铛，200个西瓜，100个7</v>
       </c>
       <c r="G277" s="158"/>
@@ -41692,7 +41696,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="120">
-        <f>B224+12</f>
+        <f t="shared" si="14"/>
         <v>61</v>
       </c>
       <c r="C278" s="154" t="s">
@@ -41705,7 +41709,7 @@
         <v>2</v>
       </c>
       <c r="F278" s="119" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="13"/>
         <v>累计消除200个铃铛，200个西瓜，100个BAR</v>
       </c>
       <c r="G278" s="158"/>
@@ -41715,7 +41719,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="120">
-        <f>B225+12</f>
+        <f t="shared" si="14"/>
         <v>61</v>
       </c>
       <c r="C279" s="154" t="s">
@@ -41728,7 +41732,7 @@
         <v>2</v>
       </c>
       <c r="F279" s="119" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="13"/>
         <v>累计消除200个铃铛，200个西瓜，100个BAR</v>
       </c>
       <c r="G279" s="158"/>
@@ -41738,7 +41742,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="120">
-        <f>B226+12</f>
+        <f t="shared" si="14"/>
         <v>61</v>
       </c>
       <c r="C280" s="154" t="s">
@@ -41751,7 +41755,7 @@
         <v>2</v>
       </c>
       <c r="F280" s="119" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="13"/>
         <v>累计消除200个铃铛，200个西瓜，100个BAR</v>
       </c>
       <c r="G280" s="158"/>
@@ -41761,7 +41765,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="120">
-        <f>B227+12</f>
+        <f t="shared" si="14"/>
         <v>61</v>
       </c>
       <c r="C281" s="156" t="s">
@@ -41774,7 +41778,7 @@
         <v>2</v>
       </c>
       <c r="F281" s="119" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="13"/>
         <v>累计消除200个铃铛，200个西瓜，100个BAR</v>
       </c>
       <c r="G281" s="158"/>
@@ -41784,7 +41788,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="120">
-        <f>B228+12</f>
+        <f t="shared" si="14"/>
         <v>61</v>
       </c>
       <c r="C282" s="156" t="s">
@@ -41797,7 +41801,7 @@
         <v>3</v>
       </c>
       <c r="F282" s="119" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="13"/>
         <v>累计消除200个铃铛，200个西瓜，100个BAR</v>
       </c>
       <c r="G282" s="158"/>
@@ -41807,7 +41811,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="120">
-        <f>B229+12</f>
+        <f t="shared" si="14"/>
         <v>62</v>
       </c>
       <c r="C283" s="154" t="s">
@@ -41820,7 +41824,7 @@
         <v>2</v>
       </c>
       <c r="F283" s="119" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="13"/>
         <v>累计消除200个西瓜，100个7，100个BAR</v>
       </c>
       <c r="G283" s="158"/>
@@ -41830,7 +41834,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="120">
-        <f>B230+12</f>
+        <f t="shared" si="14"/>
         <v>62</v>
       </c>
       <c r="C284" s="154" t="s">
@@ -41843,7 +41847,7 @@
         <v>2</v>
       </c>
       <c r="F284" s="119" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="13"/>
         <v>累计消除200个西瓜，100个7，100个BAR</v>
       </c>
       <c r="G284" s="158"/>
@@ -41853,7 +41857,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="120">
-        <f>B231+12</f>
+        <f t="shared" si="14"/>
         <v>62</v>
       </c>
       <c r="C285" s="154" t="s">
@@ -41866,7 +41870,7 @@
         <v>2</v>
       </c>
       <c r="F285" s="119" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="13"/>
         <v>累计消除200个西瓜，100个7，100个BAR</v>
       </c>
       <c r="G285" s="158"/>
@@ -41876,7 +41880,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="120">
-        <f>B232+12</f>
+        <f t="shared" si="14"/>
         <v>62</v>
       </c>
       <c r="C286" s="156" t="s">
@@ -41889,7 +41893,7 @@
         <v>2</v>
       </c>
       <c r="F286" s="119" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="13"/>
         <v>累计消除200个西瓜，100个7，100个BAR</v>
       </c>
       <c r="G286" s="158"/>
@@ -41899,7 +41903,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="120">
-        <f>B233+12</f>
+        <f t="shared" si="14"/>
         <v>62</v>
       </c>
       <c r="C287" s="156" t="s">
@@ -41912,7 +41916,7 @@
         <v>3</v>
       </c>
       <c r="F287" s="119" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="13"/>
         <v>累计消除200个西瓜，100个7，100个BAR</v>
       </c>
       <c r="G287" s="158"/>
@@ -41922,7 +41926,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="120">
-        <f>B234+12</f>
+        <f t="shared" si="14"/>
         <v>63</v>
       </c>
       <c r="C288" s="156" t="s">
@@ -41935,7 +41939,7 @@
         <v>3</v>
       </c>
       <c r="F288" s="119" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="13"/>
         <v>单局消除6个及以上苹果</v>
       </c>
       <c r="G288" s="158"/>
@@ -41977,7 +41981,7 @@
         <v>3</v>
       </c>
       <c r="F290" s="119" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="13"/>
         <v>单局消除6个及以上铃铛</v>
       </c>
       <c r="G290" s="158"/>
@@ -42006,7 +42010,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="125">
-        <f>B238+12</f>
+        <f t="shared" ref="B292:B323" si="15">B238+12</f>
         <v>65</v>
       </c>
       <c r="C292" s="149" t="s">
@@ -42029,7 +42033,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="125">
-        <f>B239+12</f>
+        <f t="shared" si="15"/>
         <v>65</v>
       </c>
       <c r="C293" s="149" t="s">
@@ -42042,7 +42046,7 @@
         <v>2</v>
       </c>
       <c r="F293" s="118" t="str">
-        <f t="shared" ref="F293:F344" ca="1" si="9">INDIRECT("G"&amp;B293+2)</f>
+        <f t="shared" ref="F293:F344" ca="1" si="16">INDIRECT("G"&amp;B293+2)</f>
         <v>累计消除300个苹果，300个铃铛，300个西瓜</v>
       </c>
       <c r="G293" s="159"/>
@@ -42052,7 +42056,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="125">
-        <f>B240+12</f>
+        <f t="shared" si="15"/>
         <v>65</v>
       </c>
       <c r="C294" s="149" t="s">
@@ -42065,7 +42069,7 @@
         <v>2</v>
       </c>
       <c r="F294" s="118" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>累计消除300个苹果，300个铃铛，300个西瓜</v>
       </c>
       <c r="G294" s="159"/>
@@ -42075,7 +42079,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="125">
-        <f>B241+12</f>
+        <f t="shared" si="15"/>
         <v>65</v>
       </c>
       <c r="C295" s="151" t="s">
@@ -42088,7 +42092,7 @@
         <v>2</v>
       </c>
       <c r="F295" s="118" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>累计消除300个苹果，300个铃铛，300个西瓜</v>
       </c>
       <c r="G295" s="159"/>
@@ -42098,7 +42102,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="125">
-        <f>B242+12</f>
+        <f t="shared" si="15"/>
         <v>65</v>
       </c>
       <c r="C296" s="151" t="s">
@@ -42111,7 +42115,7 @@
         <v>3</v>
       </c>
       <c r="F296" s="118" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>累计消除300个苹果，300个铃铛，300个西瓜</v>
       </c>
       <c r="G296" s="159"/>
@@ -42121,7 +42125,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="125">
-        <f>B243+12</f>
+        <f t="shared" si="15"/>
         <v>66</v>
       </c>
       <c r="C297" s="149" t="s">
@@ -42134,7 +42138,7 @@
         <v>2</v>
       </c>
       <c r="F297" s="118" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>累计消除300个苹果，300个铃铛，150个7</v>
       </c>
       <c r="G297" s="159"/>
@@ -42144,7 +42148,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="125">
-        <f>B244+12</f>
+        <f t="shared" si="15"/>
         <v>66</v>
       </c>
       <c r="C298" s="149" t="s">
@@ -42157,7 +42161,7 @@
         <v>2</v>
       </c>
       <c r="F298" s="118" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>累计消除300个苹果，300个铃铛，150个7</v>
       </c>
       <c r="G298" s="159"/>
@@ -42167,7 +42171,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="125">
-        <f>B245+12</f>
+        <f t="shared" si="15"/>
         <v>66</v>
       </c>
       <c r="C299" s="149" t="s">
@@ -42180,7 +42184,7 @@
         <v>2</v>
       </c>
       <c r="F299" s="118" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>累计消除300个苹果，300个铃铛，150个7</v>
       </c>
       <c r="G299" s="159"/>
@@ -42190,7 +42194,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="125">
-        <f>B246+12</f>
+        <f t="shared" si="15"/>
         <v>66</v>
       </c>
       <c r="C300" s="151" t="s">
@@ -42203,7 +42207,7 @@
         <v>2</v>
       </c>
       <c r="F300" s="118" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>累计消除300个苹果，300个铃铛，150个7</v>
       </c>
       <c r="G300" s="159"/>
@@ -42213,7 +42217,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="125">
-        <f>B247+12</f>
+        <f t="shared" si="15"/>
         <v>66</v>
       </c>
       <c r="C301" s="151" t="s">
@@ -42226,7 +42230,7 @@
         <v>3</v>
       </c>
       <c r="F301" s="118" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>累计消除300个苹果，300个铃铛，150个7</v>
       </c>
       <c r="G301" s="159"/>
@@ -42236,7 +42240,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="125">
-        <f>B248+12</f>
+        <f t="shared" si="15"/>
         <v>67</v>
       </c>
       <c r="C302" s="149" t="s">
@@ -42249,7 +42253,7 @@
         <v>2</v>
       </c>
       <c r="F302" s="118" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>累计消除300个苹果，300个铃铛，150个BAR</v>
       </c>
       <c r="G302" s="159"/>
@@ -42259,7 +42263,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="125">
-        <f>B249+12</f>
+        <f t="shared" si="15"/>
         <v>67</v>
       </c>
       <c r="C303" s="149" t="s">
@@ -42272,7 +42276,7 @@
         <v>2</v>
       </c>
       <c r="F303" s="118" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>累计消除300个苹果，300个铃铛，150个BAR</v>
       </c>
       <c r="G303" s="159"/>
@@ -42282,7 +42286,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="125">
-        <f>B250+12</f>
+        <f t="shared" si="15"/>
         <v>67</v>
       </c>
       <c r="C304" s="149" t="s">
@@ -42295,7 +42299,7 @@
         <v>2</v>
       </c>
       <c r="F304" s="118" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>累计消除300个苹果，300个铃铛，150个BAR</v>
       </c>
       <c r="G304" s="159"/>
@@ -42305,7 +42309,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="125">
-        <f>B251+12</f>
+        <f t="shared" si="15"/>
         <v>67</v>
       </c>
       <c r="C305" s="151" t="s">
@@ -42318,7 +42322,7 @@
         <v>2</v>
       </c>
       <c r="F305" s="118" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>累计消除300个苹果，300个铃铛，150个BAR</v>
       </c>
       <c r="G305" s="159"/>
@@ -42328,7 +42332,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="125">
-        <f>B252+12</f>
+        <f t="shared" si="15"/>
         <v>67</v>
       </c>
       <c r="C306" s="151" t="s">
@@ -42341,7 +42345,7 @@
         <v>3</v>
       </c>
       <c r="F306" s="118" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>累计消除300个苹果，300个铃铛，150个BAR</v>
       </c>
       <c r="G306" s="159"/>
@@ -42351,7 +42355,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="125">
-        <f>B253+12</f>
+        <f t="shared" si="15"/>
         <v>68</v>
       </c>
       <c r="C307" s="149" t="s">
@@ -42364,7 +42368,7 @@
         <v>2</v>
       </c>
       <c r="F307" s="118" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>累计消除300个苹果，300个西瓜，150个7</v>
       </c>
       <c r="G307" s="159"/>
@@ -42374,7 +42378,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="125">
-        <f>B254+12</f>
+        <f t="shared" si="15"/>
         <v>68</v>
       </c>
       <c r="C308" s="149" t="s">
@@ -42387,7 +42391,7 @@
         <v>2</v>
       </c>
       <c r="F308" s="118" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>累计消除300个苹果，300个西瓜，150个7</v>
       </c>
       <c r="G308" s="159"/>
@@ -42397,7 +42401,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="125">
-        <f>B255+12</f>
+        <f t="shared" si="15"/>
         <v>68</v>
       </c>
       <c r="C309" s="149" t="s">
@@ -42410,7 +42414,7 @@
         <v>2</v>
       </c>
       <c r="F309" s="118" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>累计消除300个苹果，300个西瓜，150个7</v>
       </c>
       <c r="G309" s="159"/>
@@ -42420,7 +42424,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="125">
-        <f>B256+12</f>
+        <f t="shared" si="15"/>
         <v>68</v>
       </c>
       <c r="C310" s="151" t="s">
@@ -42433,7 +42437,7 @@
         <v>2</v>
       </c>
       <c r="F310" s="118" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>累计消除300个苹果，300个西瓜，150个7</v>
       </c>
       <c r="G310" s="159"/>
@@ -42443,7 +42447,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="125">
-        <f>B257+12</f>
+        <f t="shared" si="15"/>
         <v>68</v>
       </c>
       <c r="C311" s="151" t="s">
@@ -42456,7 +42460,7 @@
         <v>3</v>
       </c>
       <c r="F311" s="118" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>累计消除300个苹果，300个西瓜，150个7</v>
       </c>
       <c r="G311" s="159"/>
@@ -42466,7 +42470,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="125">
-        <f>B258+12</f>
+        <f t="shared" si="15"/>
         <v>69</v>
       </c>
       <c r="C312" s="149" t="s">
@@ -42479,7 +42483,7 @@
         <v>2</v>
       </c>
       <c r="F312" s="118" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>累计消除300个苹果，300个西瓜，150个BAR</v>
       </c>
       <c r="G312" s="159"/>
@@ -42489,7 +42493,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="125">
-        <f>B259+12</f>
+        <f t="shared" si="15"/>
         <v>69</v>
       </c>
       <c r="C313" s="149" t="s">
@@ -42502,7 +42506,7 @@
         <v>2</v>
       </c>
       <c r="F313" s="118" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>累计消除300个苹果，300个西瓜，150个BAR</v>
       </c>
       <c r="G313" s="159"/>
@@ -42512,7 +42516,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="125">
-        <f>B260+12</f>
+        <f t="shared" si="15"/>
         <v>69</v>
       </c>
       <c r="C314" s="149" t="s">
@@ -42525,7 +42529,7 @@
         <v>2</v>
       </c>
       <c r="F314" s="118" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>累计消除300个苹果，300个西瓜，150个BAR</v>
       </c>
       <c r="G314" s="159"/>
@@ -42535,7 +42539,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="125">
-        <f>B261+12</f>
+        <f t="shared" si="15"/>
         <v>69</v>
       </c>
       <c r="C315" s="151" t="s">
@@ -42548,7 +42552,7 @@
         <v>2</v>
       </c>
       <c r="F315" s="118" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>累计消除300个苹果，300个西瓜，150个BAR</v>
       </c>
       <c r="G315" s="159"/>
@@ -42558,7 +42562,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="125">
-        <f>B262+12</f>
+        <f t="shared" si="15"/>
         <v>69</v>
       </c>
       <c r="C316" s="151" t="s">
@@ -42571,7 +42575,7 @@
         <v>3</v>
       </c>
       <c r="F316" s="118" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>累计消除300个苹果，300个西瓜，150个BAR</v>
       </c>
       <c r="G316" s="159"/>
@@ -42581,7 +42585,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="125">
-        <f>B263+12</f>
+        <f t="shared" si="15"/>
         <v>70</v>
       </c>
       <c r="C317" s="149" t="s">
@@ -42594,7 +42598,7 @@
         <v>2</v>
       </c>
       <c r="F317" s="118" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>累计消除300个苹果，150个7，150个BAR</v>
       </c>
       <c r="G317" s="159"/>
@@ -42604,7 +42608,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="125">
-        <f>B264+12</f>
+        <f t="shared" si="15"/>
         <v>70</v>
       </c>
       <c r="C318" s="149" t="s">
@@ -42617,7 +42621,7 @@
         <v>2</v>
       </c>
       <c r="F318" s="118" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>累计消除300个苹果，150个7，150个BAR</v>
       </c>
       <c r="G318" s="159"/>
@@ -42627,7 +42631,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="125">
-        <f>B265+12</f>
+        <f t="shared" si="15"/>
         <v>70</v>
       </c>
       <c r="C319" s="149" t="s">
@@ -42640,7 +42644,7 @@
         <v>2</v>
       </c>
       <c r="F319" s="118" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>累计消除300个苹果，150个7，150个BAR</v>
       </c>
       <c r="G319" s="159"/>
@@ -42650,7 +42654,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="125">
-        <f>B266+12</f>
+        <f t="shared" si="15"/>
         <v>70</v>
       </c>
       <c r="C320" s="151" t="s">
@@ -42663,7 +42667,7 @@
         <v>2</v>
       </c>
       <c r="F320" s="118" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>累计消除300个苹果，150个7，150个BAR</v>
       </c>
       <c r="G320" s="159"/>
@@ -42673,7 +42677,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="125">
-        <f>B267+12</f>
+        <f t="shared" si="15"/>
         <v>70</v>
       </c>
       <c r="C321" s="151" t="s">
@@ -42686,7 +42690,7 @@
         <v>3</v>
       </c>
       <c r="F321" s="118" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>累计消除300个苹果，150个7，150个BAR</v>
       </c>
       <c r="G321" s="159"/>
@@ -42696,7 +42700,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="125">
-        <f>B268+12</f>
+        <f t="shared" si="15"/>
         <v>71</v>
       </c>
       <c r="C322" s="149" t="s">
@@ -42709,7 +42713,7 @@
         <v>2</v>
       </c>
       <c r="F322" s="118" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>累计消除300个铃铛，150个7，150个BAR</v>
       </c>
       <c r="G322" s="159"/>
@@ -42719,7 +42723,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="125">
-        <f>B269+12</f>
+        <f t="shared" si="15"/>
         <v>71</v>
       </c>
       <c r="C323" s="149" t="s">
@@ -42732,7 +42736,7 @@
         <v>2</v>
       </c>
       <c r="F323" s="118" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>累计消除300个铃铛，150个7，150个BAR</v>
       </c>
       <c r="G323" s="159"/>
@@ -42742,7 +42746,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="125">
-        <f>B270+12</f>
+        <f t="shared" ref="B324:B355" si="17">B270+12</f>
         <v>71</v>
       </c>
       <c r="C324" s="149" t="s">
@@ -42755,7 +42759,7 @@
         <v>2</v>
       </c>
       <c r="F324" s="118" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>累计消除300个铃铛，150个7，150个BAR</v>
       </c>
       <c r="G324" s="159"/>
@@ -42765,7 +42769,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="125">
-        <f>B271+12</f>
+        <f t="shared" si="17"/>
         <v>71</v>
       </c>
       <c r="C325" s="151" t="s">
@@ -42778,7 +42782,7 @@
         <v>2</v>
       </c>
       <c r="F325" s="118" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>累计消除300个铃铛，150个7，150个BAR</v>
       </c>
       <c r="G325" s="159"/>
@@ -42788,7 +42792,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="125">
-        <f>B272+12</f>
+        <f t="shared" si="17"/>
         <v>71</v>
       </c>
       <c r="C326" s="151" t="s">
@@ -42801,7 +42805,7 @@
         <v>3</v>
       </c>
       <c r="F326" s="118" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>累计消除300个铃铛，150个7，150个BAR</v>
       </c>
       <c r="G326" s="159"/>
@@ -42811,7 +42815,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="125">
-        <f>B273+12</f>
+        <f t="shared" si="17"/>
         <v>72</v>
       </c>
       <c r="C327" s="149" t="s">
@@ -42824,7 +42828,7 @@
         <v>2</v>
       </c>
       <c r="F327" s="118" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>累计消除300个铃铛，300个西瓜，150个7</v>
       </c>
       <c r="G327" s="159"/>
@@ -42834,7 +42838,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="125">
-        <f>B274+12</f>
+        <f t="shared" si="17"/>
         <v>72</v>
       </c>
       <c r="C328" s="149" t="s">
@@ -42847,7 +42851,7 @@
         <v>2</v>
       </c>
       <c r="F328" s="118" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>累计消除300个铃铛，300个西瓜，150个7</v>
       </c>
       <c r="G328" s="159"/>
@@ -42857,7 +42861,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="125">
-        <f>B275+12</f>
+        <f t="shared" si="17"/>
         <v>72</v>
       </c>
       <c r="C329" s="149" t="s">
@@ -42870,7 +42874,7 @@
         <v>2</v>
       </c>
       <c r="F329" s="118" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>累计消除300个铃铛，300个西瓜，150个7</v>
       </c>
       <c r="G329" s="159"/>
@@ -42880,7 +42884,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="125">
-        <f>B276+12</f>
+        <f t="shared" si="17"/>
         <v>72</v>
       </c>
       <c r="C330" s="151" t="s">
@@ -42893,7 +42897,7 @@
         <v>2</v>
       </c>
       <c r="F330" s="118" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>累计消除300个铃铛，300个西瓜，150个7</v>
       </c>
       <c r="G330" s="159"/>
@@ -42903,7 +42907,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="125">
-        <f>B277+12</f>
+        <f t="shared" si="17"/>
         <v>72</v>
       </c>
       <c r="C331" s="151" t="s">
@@ -42916,7 +42920,7 @@
         <v>3</v>
       </c>
       <c r="F331" s="118" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>累计消除300个铃铛，300个西瓜，150个7</v>
       </c>
       <c r="G331" s="159"/>
@@ -42926,7 +42930,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="125">
-        <f>B278+12</f>
+        <f t="shared" si="17"/>
         <v>73</v>
       </c>
       <c r="C332" s="149" t="s">
@@ -42939,7 +42943,7 @@
         <v>2</v>
       </c>
       <c r="F332" s="118" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>累计消除300个铃铛，300个西瓜，150个BAR</v>
       </c>
       <c r="G332" s="159"/>
@@ -42949,7 +42953,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="125">
-        <f>B279+12</f>
+        <f t="shared" si="17"/>
         <v>73</v>
       </c>
       <c r="C333" s="149" t="s">
@@ -42962,7 +42966,7 @@
         <v>2</v>
       </c>
       <c r="F333" s="118" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>累计消除300个铃铛，300个西瓜，150个BAR</v>
       </c>
       <c r="G333" s="159"/>
@@ -42972,7 +42976,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="125">
-        <f>B280+12</f>
+        <f t="shared" si="17"/>
         <v>73</v>
       </c>
       <c r="C334" s="149" t="s">
@@ -42985,7 +42989,7 @@
         <v>2</v>
       </c>
       <c r="F334" s="118" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>累计消除300个铃铛，300个西瓜，150个BAR</v>
       </c>
       <c r="G334" s="159"/>
@@ -42995,7 +42999,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="125">
-        <f>B281+12</f>
+        <f t="shared" si="17"/>
         <v>73</v>
       </c>
       <c r="C335" s="151" t="s">
@@ -43008,7 +43012,7 @@
         <v>2</v>
       </c>
       <c r="F335" s="118" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>累计消除300个铃铛，300个西瓜，150个BAR</v>
       </c>
       <c r="G335" s="159"/>
@@ -43018,7 +43022,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="125">
-        <f>B282+12</f>
+        <f t="shared" si="17"/>
         <v>73</v>
       </c>
       <c r="C336" s="151" t="s">
@@ -43031,7 +43035,7 @@
         <v>3</v>
       </c>
       <c r="F336" s="118" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>累计消除300个铃铛，300个西瓜，150个BAR</v>
       </c>
       <c r="G336" s="159"/>
@@ -43041,7 +43045,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="125">
-        <f>B283+12</f>
+        <f t="shared" si="17"/>
         <v>74</v>
       </c>
       <c r="C337" s="149" t="s">
@@ -43054,7 +43058,7 @@
         <v>2</v>
       </c>
       <c r="F337" s="118" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>累计消除300个西瓜，150个7，150个BAR</v>
       </c>
       <c r="G337" s="159"/>
@@ -43064,7 +43068,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="125">
-        <f>B284+12</f>
+        <f t="shared" si="17"/>
         <v>74</v>
       </c>
       <c r="C338" s="149" t="s">
@@ -43077,7 +43081,7 @@
         <v>2</v>
       </c>
       <c r="F338" s="118" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>累计消除300个西瓜，150个7，150个BAR</v>
       </c>
       <c r="G338" s="159"/>
@@ -43087,7 +43091,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="125">
-        <f>B285+12</f>
+        <f t="shared" si="17"/>
         <v>74</v>
       </c>
       <c r="C339" s="149" t="s">
@@ -43100,7 +43104,7 @@
         <v>2</v>
       </c>
       <c r="F339" s="118" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>累计消除300个西瓜，150个7，150个BAR</v>
       </c>
       <c r="G339" s="159"/>
@@ -43110,7 +43114,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="125">
-        <f>B286+12</f>
+        <f t="shared" si="17"/>
         <v>74</v>
       </c>
       <c r="C340" s="151" t="s">
@@ -43123,7 +43127,7 @@
         <v>2</v>
       </c>
       <c r="F340" s="118" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>累计消除300个西瓜，150个7，150个BAR</v>
       </c>
       <c r="G340" s="159"/>
@@ -43133,7 +43137,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="125">
-        <f>B287+12</f>
+        <f t="shared" si="17"/>
         <v>74</v>
       </c>
       <c r="C341" s="151" t="s">
@@ -43146,7 +43150,7 @@
         <v>3</v>
       </c>
       <c r="F341" s="118" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>累计消除300个西瓜，150个7，150个BAR</v>
       </c>
       <c r="G341" s="159"/>
@@ -43156,7 +43160,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="125">
-        <f>B288+12</f>
+        <f t="shared" si="17"/>
         <v>75</v>
       </c>
       <c r="C342" s="151" t="s">
@@ -43169,7 +43173,7 @@
         <v>3</v>
       </c>
       <c r="F342" s="118" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>单局消除6个及以上铃铛</v>
       </c>
       <c r="G342" s="159"/>
@@ -43211,7 +43215,7 @@
         <v>3</v>
       </c>
       <c r="F344" s="118" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>单局消除6个及以上西瓜</v>
       </c>
       <c r="G344" s="159"/>
@@ -43240,7 +43244,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="125">
-        <f>B292+12</f>
+        <f t="shared" ref="B346:B377" si="18">B292+12</f>
         <v>77</v>
       </c>
       <c r="C346" s="154" t="s">
@@ -43262,7 +43266,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="125">
-        <f>B293+12</f>
+        <f t="shared" si="18"/>
         <v>77</v>
       </c>
       <c r="C347" s="154" t="s">
@@ -43275,7 +43279,7 @@
         <v>2</v>
       </c>
       <c r="F347" s="118" t="str">
-        <f t="shared" ref="F347:F398" ca="1" si="10">INDIRECT("G"&amp;B347+3)</f>
+        <f t="shared" ref="F347:F398" ca="1" si="19">INDIRECT("G"&amp;B347+3)</f>
         <v>累计消除400个苹果，400个铃铛，400个西瓜</v>
       </c>
     </row>
@@ -43284,7 +43288,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="125">
-        <f>B294+12</f>
+        <f t="shared" si="18"/>
         <v>77</v>
       </c>
       <c r="C348" s="154" t="s">
@@ -43297,7 +43301,7 @@
         <v>2</v>
       </c>
       <c r="F348" s="118" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>累计消除400个苹果，400个铃铛，400个西瓜</v>
       </c>
     </row>
@@ -43306,7 +43310,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="125">
-        <f>B295+12</f>
+        <f t="shared" si="18"/>
         <v>77</v>
       </c>
       <c r="C349" s="156" t="s">
@@ -43319,7 +43323,7 @@
         <v>2</v>
       </c>
       <c r="F349" s="118" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>累计消除400个苹果，400个铃铛，400个西瓜</v>
       </c>
     </row>
@@ -43328,7 +43332,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="125">
-        <f>B296+12</f>
+        <f t="shared" si="18"/>
         <v>77</v>
       </c>
       <c r="C350" s="156" t="s">
@@ -43341,7 +43345,7 @@
         <v>3</v>
       </c>
       <c r="F350" s="118" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>累计消除400个苹果，400个铃铛，400个西瓜</v>
       </c>
     </row>
@@ -43350,7 +43354,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="125">
-        <f>B297+12</f>
+        <f t="shared" si="18"/>
         <v>78</v>
       </c>
       <c r="C351" s="154" t="s">
@@ -43363,7 +43367,7 @@
         <v>2</v>
       </c>
       <c r="F351" s="118" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>累计消除400个苹果，400个铃铛，200个7</v>
       </c>
     </row>
@@ -43372,7 +43376,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="125">
-        <f>B298+12</f>
+        <f t="shared" si="18"/>
         <v>78</v>
       </c>
       <c r="C352" s="154" t="s">
@@ -43385,7 +43389,7 @@
         <v>2</v>
       </c>
       <c r="F352" s="118" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>累计消除400个苹果，400个铃铛，200个7</v>
       </c>
     </row>
@@ -43394,7 +43398,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="125">
-        <f>B299+12</f>
+        <f t="shared" si="18"/>
         <v>78</v>
       </c>
       <c r="C353" s="154" t="s">
@@ -43407,7 +43411,7 @@
         <v>2</v>
       </c>
       <c r="F353" s="118" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>累计消除400个苹果，400个铃铛，200个7</v>
       </c>
     </row>
@@ -43416,7 +43420,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="125">
-        <f>B300+12</f>
+        <f t="shared" si="18"/>
         <v>78</v>
       </c>
       <c r="C354" s="156" t="s">
@@ -43429,7 +43433,7 @@
         <v>2</v>
       </c>
       <c r="F354" s="118" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>累计消除400个苹果，400个铃铛，200个7</v>
       </c>
     </row>
@@ -43438,7 +43442,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="125">
-        <f>B301+12</f>
+        <f t="shared" si="18"/>
         <v>78</v>
       </c>
       <c r="C355" s="156" t="s">
@@ -43451,7 +43455,7 @@
         <v>3</v>
       </c>
       <c r="F355" s="118" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>累计消除400个苹果，400个铃铛，200个7</v>
       </c>
     </row>
@@ -43460,7 +43464,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="125">
-        <f>B302+12</f>
+        <f t="shared" si="18"/>
         <v>79</v>
       </c>
       <c r="C356" s="154" t="s">
@@ -43473,7 +43477,7 @@
         <v>2</v>
       </c>
       <c r="F356" s="118" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>累计消除400个苹果，400个铃铛，200个BAR</v>
       </c>
     </row>
@@ -43482,7 +43486,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="125">
-        <f>B303+12</f>
+        <f t="shared" si="18"/>
         <v>79</v>
       </c>
       <c r="C357" s="154" t="s">
@@ -43495,7 +43499,7 @@
         <v>2</v>
       </c>
       <c r="F357" s="118" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>累计消除400个苹果，400个铃铛，200个BAR</v>
       </c>
     </row>
@@ -43504,7 +43508,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="125">
-        <f>B304+12</f>
+        <f t="shared" si="18"/>
         <v>79</v>
       </c>
       <c r="C358" s="154" t="s">
@@ -43517,7 +43521,7 @@
         <v>2</v>
       </c>
       <c r="F358" s="118" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>累计消除400个苹果，400个铃铛，200个BAR</v>
       </c>
     </row>
@@ -43526,7 +43530,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="125">
-        <f>B305+12</f>
+        <f t="shared" si="18"/>
         <v>79</v>
       </c>
       <c r="C359" s="156" t="s">
@@ -43539,7 +43543,7 @@
         <v>2</v>
       </c>
       <c r="F359" s="118" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>累计消除400个苹果，400个铃铛，200个BAR</v>
       </c>
     </row>
@@ -43548,7 +43552,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="125">
-        <f>B306+12</f>
+        <f t="shared" si="18"/>
         <v>79</v>
       </c>
       <c r="C360" s="156" t="s">
@@ -43561,7 +43565,7 @@
         <v>3</v>
       </c>
       <c r="F360" s="118" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>累计消除400个苹果，400个铃铛，200个BAR</v>
       </c>
     </row>
@@ -43570,7 +43574,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="125">
-        <f>B307+12</f>
+        <f t="shared" si="18"/>
         <v>80</v>
       </c>
       <c r="C361" s="154" t="s">
@@ -43583,7 +43587,7 @@
         <v>2</v>
       </c>
       <c r="F361" s="118" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>累计消除400个苹果，400个西瓜，200个7</v>
       </c>
     </row>
@@ -43592,7 +43596,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="125">
-        <f>B308+12</f>
+        <f t="shared" si="18"/>
         <v>80</v>
       </c>
       <c r="C362" s="154" t="s">
@@ -43605,7 +43609,7 @@
         <v>2</v>
       </c>
       <c r="F362" s="118" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>累计消除400个苹果，400个西瓜，200个7</v>
       </c>
     </row>
@@ -43614,7 +43618,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="125">
-        <f>B309+12</f>
+        <f t="shared" si="18"/>
         <v>80</v>
       </c>
       <c r="C363" s="154" t="s">
@@ -43627,7 +43631,7 @@
         <v>2</v>
       </c>
       <c r="F363" s="118" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>累计消除400个苹果，400个西瓜，200个7</v>
       </c>
     </row>
@@ -43636,7 +43640,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="125">
-        <f>B310+12</f>
+        <f t="shared" si="18"/>
         <v>80</v>
       </c>
       <c r="C364" s="156" t="s">
@@ -43649,7 +43653,7 @@
         <v>2</v>
       </c>
       <c r="F364" s="118" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>累计消除400个苹果，400个西瓜，200个7</v>
       </c>
     </row>
@@ -43658,7 +43662,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="125">
-        <f>B311+12</f>
+        <f t="shared" si="18"/>
         <v>80</v>
       </c>
       <c r="C365" s="156" t="s">
@@ -43671,7 +43675,7 @@
         <v>3</v>
       </c>
       <c r="F365" s="118" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>累计消除400个苹果，400个西瓜，200个7</v>
       </c>
     </row>
@@ -43680,7 +43684,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="125">
-        <f>B312+12</f>
+        <f t="shared" si="18"/>
         <v>81</v>
       </c>
       <c r="C366" s="154" t="s">
@@ -43693,7 +43697,7 @@
         <v>2</v>
       </c>
       <c r="F366" s="118" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>累计消除400个苹果，400个西瓜，200个BAR</v>
       </c>
     </row>
@@ -43702,7 +43706,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="125">
-        <f>B313+12</f>
+        <f t="shared" si="18"/>
         <v>81</v>
       </c>
       <c r="C367" s="154" t="s">
@@ -43715,7 +43719,7 @@
         <v>2</v>
       </c>
       <c r="F367" s="118" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>累计消除400个苹果，400个西瓜，200个BAR</v>
       </c>
     </row>
@@ -43724,7 +43728,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="125">
-        <f>B314+12</f>
+        <f t="shared" si="18"/>
         <v>81</v>
       </c>
       <c r="C368" s="154" t="s">
@@ -43737,7 +43741,7 @@
         <v>2</v>
       </c>
       <c r="F368" s="118" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>累计消除400个苹果，400个西瓜，200个BAR</v>
       </c>
     </row>
@@ -43746,7 +43750,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="125">
-        <f>B315+12</f>
+        <f t="shared" si="18"/>
         <v>81</v>
       </c>
       <c r="C369" s="156" t="s">
@@ -43759,7 +43763,7 @@
         <v>2</v>
       </c>
       <c r="F369" s="118" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>累计消除400个苹果，400个西瓜，200个BAR</v>
       </c>
     </row>
@@ -43768,7 +43772,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="125">
-        <f>B316+12</f>
+        <f t="shared" si="18"/>
         <v>81</v>
       </c>
       <c r="C370" s="156" t="s">
@@ -43781,7 +43785,7 @@
         <v>3</v>
       </c>
       <c r="F370" s="118" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>累计消除400个苹果，400个西瓜，200个BAR</v>
       </c>
     </row>
@@ -43790,7 +43794,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="125">
-        <f>B317+12</f>
+        <f t="shared" si="18"/>
         <v>82</v>
       </c>
       <c r="C371" s="154" t="s">
@@ -43803,7 +43807,7 @@
         <v>2</v>
       </c>
       <c r="F371" s="118" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>累计消除400个苹果，200个7，200个BAR</v>
       </c>
     </row>
@@ -43812,7 +43816,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="125">
-        <f>B318+12</f>
+        <f t="shared" si="18"/>
         <v>82</v>
       </c>
       <c r="C372" s="154" t="s">
@@ -43825,7 +43829,7 @@
         <v>2</v>
       </c>
       <c r="F372" s="118" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>累计消除400个苹果，200个7，200个BAR</v>
       </c>
     </row>
@@ -43834,7 +43838,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="125">
-        <f>B319+12</f>
+        <f t="shared" si="18"/>
         <v>82</v>
       </c>
       <c r="C373" s="154" t="s">
@@ -43847,7 +43851,7 @@
         <v>2</v>
       </c>
       <c r="F373" s="118" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>累计消除400个苹果，200个7，200个BAR</v>
       </c>
     </row>
@@ -43856,7 +43860,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="125">
-        <f>B320+12</f>
+        <f t="shared" si="18"/>
         <v>82</v>
       </c>
       <c r="C374" s="156" t="s">
@@ -43869,7 +43873,7 @@
         <v>2</v>
       </c>
       <c r="F374" s="118" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>累计消除400个苹果，200个7，200个BAR</v>
       </c>
     </row>
@@ -43878,7 +43882,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="125">
-        <f>B321+12</f>
+        <f t="shared" si="18"/>
         <v>82</v>
       </c>
       <c r="C375" s="156" t="s">
@@ -43891,7 +43895,7 @@
         <v>3</v>
       </c>
       <c r="F375" s="118" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>累计消除400个苹果，200个7，200个BAR</v>
       </c>
     </row>
@@ -43900,7 +43904,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="125">
-        <f>B322+12</f>
+        <f t="shared" si="18"/>
         <v>83</v>
       </c>
       <c r="C376" s="154" t="s">
@@ -43913,7 +43917,7 @@
         <v>2</v>
       </c>
       <c r="F376" s="118" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>累计消除400个铃铛，200个7，200个BAR</v>
       </c>
     </row>
@@ -43922,7 +43926,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="125">
-        <f>B323+12</f>
+        <f t="shared" si="18"/>
         <v>83</v>
       </c>
       <c r="C377" s="154" t="s">
@@ -43935,7 +43939,7 @@
         <v>2</v>
       </c>
       <c r="F377" s="118" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>累计消除400个铃铛，200个7，200个BAR</v>
       </c>
     </row>
@@ -43944,7 +43948,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="125">
-        <f>B324+12</f>
+        <f t="shared" ref="B378:B409" si="20">B324+12</f>
         <v>83</v>
       </c>
       <c r="C378" s="154" t="s">
@@ -43957,7 +43961,7 @@
         <v>2</v>
       </c>
       <c r="F378" s="118" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>累计消除400个铃铛，200个7，200个BAR</v>
       </c>
     </row>
@@ -43966,7 +43970,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="125">
-        <f>B325+12</f>
+        <f t="shared" si="20"/>
         <v>83</v>
       </c>
       <c r="C379" s="156" t="s">
@@ -43979,7 +43983,7 @@
         <v>2</v>
       </c>
       <c r="F379" s="118" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>累计消除400个铃铛，200个7，200个BAR</v>
       </c>
     </row>
@@ -43988,7 +43992,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="125">
-        <f>B326+12</f>
+        <f t="shared" si="20"/>
         <v>83</v>
       </c>
       <c r="C380" s="156" t="s">
@@ -44001,7 +44005,7 @@
         <v>3</v>
       </c>
       <c r="F380" s="118" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>累计消除400个铃铛，200个7，200个BAR</v>
       </c>
     </row>
@@ -44010,7 +44014,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="125">
-        <f>B327+12</f>
+        <f t="shared" si="20"/>
         <v>84</v>
       </c>
       <c r="C381" s="154" t="s">
@@ -44023,7 +44027,7 @@
         <v>2</v>
       </c>
       <c r="F381" s="118" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>累计消除400个铃铛，400个西瓜，200个7</v>
       </c>
     </row>
@@ -44032,7 +44036,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="125">
-        <f>B328+12</f>
+        <f t="shared" si="20"/>
         <v>84</v>
       </c>
       <c r="C382" s="154" t="s">
@@ -44045,7 +44049,7 @@
         <v>2</v>
       </c>
       <c r="F382" s="118" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>累计消除400个铃铛，400个西瓜，200个7</v>
       </c>
     </row>
@@ -44054,7 +44058,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="125">
-        <f>B329+12</f>
+        <f t="shared" si="20"/>
         <v>84</v>
       </c>
       <c r="C383" s="154" t="s">
@@ -44067,7 +44071,7 @@
         <v>2</v>
       </c>
       <c r="F383" s="118" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>累计消除400个铃铛，400个西瓜，200个7</v>
       </c>
     </row>
@@ -44076,7 +44080,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="125">
-        <f>B330+12</f>
+        <f t="shared" si="20"/>
         <v>84</v>
       </c>
       <c r="C384" s="156" t="s">
@@ -44089,7 +44093,7 @@
         <v>2</v>
       </c>
       <c r="F384" s="118" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>累计消除400个铃铛，400个西瓜，200个7</v>
       </c>
     </row>
@@ -44098,7 +44102,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="125">
-        <f>B331+12</f>
+        <f t="shared" si="20"/>
         <v>84</v>
       </c>
       <c r="C385" s="156" t="s">
@@ -44111,7 +44115,7 @@
         <v>3</v>
       </c>
       <c r="F385" s="118" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>累计消除400个铃铛，400个西瓜，200个7</v>
       </c>
     </row>
@@ -44120,7 +44124,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="125">
-        <f>B332+12</f>
+        <f t="shared" si="20"/>
         <v>85</v>
       </c>
       <c r="C386" s="154" t="s">
@@ -44133,7 +44137,7 @@
         <v>2</v>
       </c>
       <c r="F386" s="118" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>累计消除400个铃铛，400个西瓜，200个BAR</v>
       </c>
     </row>
@@ -44142,7 +44146,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="125">
-        <f>B333+12</f>
+        <f t="shared" si="20"/>
         <v>85</v>
       </c>
       <c r="C387" s="154" t="s">
@@ -44155,7 +44159,7 @@
         <v>2</v>
       </c>
       <c r="F387" s="118" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>累计消除400个铃铛，400个西瓜，200个BAR</v>
       </c>
     </row>
@@ -44164,7 +44168,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="125">
-        <f>B334+12</f>
+        <f t="shared" si="20"/>
         <v>85</v>
       </c>
       <c r="C388" s="154" t="s">
@@ -44177,7 +44181,7 @@
         <v>2</v>
       </c>
       <c r="F388" s="118" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>累计消除400个铃铛，400个西瓜，200个BAR</v>
       </c>
     </row>
@@ -44186,7 +44190,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="125">
-        <f>B335+12</f>
+        <f t="shared" si="20"/>
         <v>85</v>
       </c>
       <c r="C389" s="156" t="s">
@@ -44199,7 +44203,7 @@
         <v>2</v>
       </c>
       <c r="F389" s="118" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>累计消除400个铃铛，400个西瓜，200个BAR</v>
       </c>
     </row>
@@ -44208,7 +44212,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="125">
-        <f>B336+12</f>
+        <f t="shared" si="20"/>
         <v>85</v>
       </c>
       <c r="C390" s="156" t="s">
@@ -44221,7 +44225,7 @@
         <v>3</v>
       </c>
       <c r="F390" s="118" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>累计消除400个铃铛，400个西瓜，200个BAR</v>
       </c>
     </row>
@@ -44230,7 +44234,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="125">
-        <f>B337+12</f>
+        <f t="shared" si="20"/>
         <v>86</v>
       </c>
       <c r="C391" s="154" t="s">
@@ -44243,7 +44247,7 @@
         <v>2</v>
       </c>
       <c r="F391" s="118" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>累计消除400个西瓜，200个7，200个BAR</v>
       </c>
     </row>
@@ -44252,7 +44256,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="125">
-        <f>B338+12</f>
+        <f t="shared" si="20"/>
         <v>86</v>
       </c>
       <c r="C392" s="154" t="s">
@@ -44265,7 +44269,7 @@
         <v>2</v>
       </c>
       <c r="F392" s="118" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>累计消除400个西瓜，200个7，200个BAR</v>
       </c>
     </row>
@@ -44274,7 +44278,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="125">
-        <f>B339+12</f>
+        <f t="shared" si="20"/>
         <v>86</v>
       </c>
       <c r="C393" s="154" t="s">
@@ -44287,7 +44291,7 @@
         <v>2</v>
       </c>
       <c r="F393" s="118" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>累计消除400个西瓜，200个7，200个BAR</v>
       </c>
     </row>
@@ -44296,7 +44300,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="125">
-        <f>B340+12</f>
+        <f t="shared" si="20"/>
         <v>86</v>
       </c>
       <c r="C394" s="156" t="s">
@@ -44309,7 +44313,7 @@
         <v>2</v>
       </c>
       <c r="F394" s="118" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>累计消除400个西瓜，200个7，200个BAR</v>
       </c>
     </row>
@@ -44318,7 +44322,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="125">
-        <f>B341+12</f>
+        <f t="shared" si="20"/>
         <v>86</v>
       </c>
       <c r="C395" s="156" t="s">
@@ -44331,7 +44335,7 @@
         <v>3</v>
       </c>
       <c r="F395" s="118" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>累计消除400个西瓜，200个7，200个BAR</v>
       </c>
     </row>
@@ -44340,7 +44344,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="125">
-        <f>B342+12</f>
+        <f t="shared" si="20"/>
         <v>87</v>
       </c>
       <c r="C396" s="156" t="s">
@@ -44353,7 +44357,7 @@
         <v>3</v>
       </c>
       <c r="F396" s="118" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>单局消除6个及以上7</v>
       </c>
     </row>
@@ -44393,7 +44397,7 @@
         <v>3</v>
       </c>
       <c r="F398" s="118" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>单局消除6个及以上BAR</v>
       </c>
     </row>
@@ -44420,7 +44424,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="125">
-        <f>B346+12</f>
+        <f t="shared" ref="B400:B431" si="21">B346+12</f>
         <v>89</v>
       </c>
       <c r="C400" s="149" t="s">
@@ -44442,7 +44446,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="125">
-        <f>B347+12</f>
+        <f t="shared" si="21"/>
         <v>89</v>
       </c>
       <c r="C401" s="149" t="s">
@@ -44455,7 +44459,7 @@
         <v>2</v>
       </c>
       <c r="F401" s="118" t="str">
-        <f t="shared" ref="F401:F452" ca="1" si="11">INDIRECT("G"&amp;B401+4)</f>
+        <f t="shared" ref="F401:F452" ca="1" si="22">INDIRECT("G"&amp;B401+4)</f>
         <v>累计消除500个苹果，500个铃铛，500个西瓜</v>
       </c>
     </row>
@@ -44464,7 +44468,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="125">
-        <f>B348+12</f>
+        <f t="shared" si="21"/>
         <v>89</v>
       </c>
       <c r="C402" s="149" t="s">
@@ -44477,7 +44481,7 @@
         <v>2</v>
       </c>
       <c r="F402" s="118" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="22"/>
         <v>累计消除500个苹果，500个铃铛，500个西瓜</v>
       </c>
     </row>
@@ -44486,7 +44490,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="125">
-        <f>B349+12</f>
+        <f t="shared" si="21"/>
         <v>89</v>
       </c>
       <c r="C403" s="151" t="s">
@@ -44499,7 +44503,7 @@
         <v>2</v>
       </c>
       <c r="F403" s="118" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="22"/>
         <v>累计消除500个苹果，500个铃铛，500个西瓜</v>
       </c>
     </row>
@@ -44508,7 +44512,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="125">
-        <f>B350+12</f>
+        <f t="shared" si="21"/>
         <v>89</v>
       </c>
       <c r="C404" s="151" t="s">
@@ -44521,7 +44525,7 @@
         <v>3</v>
       </c>
       <c r="F404" s="118" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="22"/>
         <v>累计消除500个苹果，500个铃铛，500个西瓜</v>
       </c>
     </row>
@@ -44530,7 +44534,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="125">
-        <f>B351+12</f>
+        <f t="shared" si="21"/>
         <v>90</v>
       </c>
       <c r="C405" s="149" t="s">
@@ -44543,7 +44547,7 @@
         <v>2</v>
       </c>
       <c r="F405" s="118" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="22"/>
         <v>累计消除500个苹果，500个铃铛，250个7</v>
       </c>
     </row>
@@ -44552,7 +44556,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="125">
-        <f>B352+12</f>
+        <f t="shared" si="21"/>
         <v>90</v>
       </c>
       <c r="C406" s="149" t="s">
@@ -44565,7 +44569,7 @@
         <v>2</v>
       </c>
       <c r="F406" s="118" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="22"/>
         <v>累计消除500个苹果，500个铃铛，250个7</v>
       </c>
     </row>
@@ -44574,7 +44578,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="125">
-        <f>B353+12</f>
+        <f t="shared" si="21"/>
         <v>90</v>
       </c>
       <c r="C407" s="149" t="s">
@@ -44587,7 +44591,7 @@
         <v>2</v>
       </c>
       <c r="F407" s="118" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="22"/>
         <v>累计消除500个苹果，500个铃铛，250个7</v>
       </c>
     </row>
@@ -44596,7 +44600,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="125">
-        <f>B354+12</f>
+        <f t="shared" si="21"/>
         <v>90</v>
       </c>
       <c r="C408" s="151" t="s">
@@ -44609,7 +44613,7 @@
         <v>2</v>
       </c>
       <c r="F408" s="118" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="22"/>
         <v>累计消除500个苹果，500个铃铛，250个7</v>
       </c>
     </row>
@@ -44618,7 +44622,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="125">
-        <f>B355+12</f>
+        <f t="shared" si="21"/>
         <v>90</v>
       </c>
       <c r="C409" s="151" t="s">
@@ -44631,7 +44635,7 @@
         <v>3</v>
       </c>
       <c r="F409" s="118" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="22"/>
         <v>累计消除500个苹果，500个铃铛，250个7</v>
       </c>
     </row>
@@ -44640,7 +44644,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="125">
-        <f>B356+12</f>
+        <f t="shared" si="21"/>
         <v>91</v>
       </c>
       <c r="C410" s="149" t="s">
@@ -44653,7 +44657,7 @@
         <v>2</v>
       </c>
       <c r="F410" s="118" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="22"/>
         <v>累计消除500个苹果，500个铃铛，250个BAR</v>
       </c>
     </row>
@@ -44662,7 +44666,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="125">
-        <f>B357+12</f>
+        <f t="shared" si="21"/>
         <v>91</v>
       </c>
       <c r="C411" s="149" t="s">
@@ -44675,7 +44679,7 @@
         <v>2</v>
       </c>
       <c r="F411" s="118" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="22"/>
         <v>累计消除500个苹果，500个铃铛，250个BAR</v>
       </c>
     </row>
@@ -44684,7 +44688,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="125">
-        <f>B358+12</f>
+        <f t="shared" si="21"/>
         <v>91</v>
       </c>
       <c r="C412" s="149" t="s">
@@ -44697,7 +44701,7 @@
         <v>2</v>
       </c>
       <c r="F412" s="118" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="22"/>
         <v>累计消除500个苹果，500个铃铛，250个BAR</v>
       </c>
     </row>
@@ -44706,7 +44710,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="125">
-        <f>B359+12</f>
+        <f t="shared" si="21"/>
         <v>91</v>
       </c>
       <c r="C413" s="151" t="s">
@@ -44719,7 +44723,7 @@
         <v>2</v>
       </c>
       <c r="F413" s="118" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="22"/>
         <v>累计消除500个苹果，500个铃铛，250个BAR</v>
       </c>
     </row>
@@ -44728,7 +44732,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="125">
-        <f>B360+12</f>
+        <f t="shared" si="21"/>
         <v>91</v>
       </c>
       <c r="C414" s="151" t="s">
@@ -44741,7 +44745,7 @@
         <v>3</v>
       </c>
       <c r="F414" s="118" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="22"/>
         <v>累计消除500个苹果，500个铃铛，250个BAR</v>
       </c>
     </row>
@@ -44750,7 +44754,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="125">
-        <f>B361+12</f>
+        <f t="shared" si="21"/>
         <v>92</v>
       </c>
       <c r="C415" s="149" t="s">
@@ -44763,7 +44767,7 @@
         <v>2</v>
       </c>
       <c r="F415" s="118" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="22"/>
         <v>累计消除500个苹果，500个西瓜，250个7</v>
       </c>
     </row>
@@ -44772,7 +44776,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="125">
-        <f>B362+12</f>
+        <f t="shared" si="21"/>
         <v>92</v>
       </c>
       <c r="C416" s="149" t="s">
@@ -44785,7 +44789,7 @@
         <v>2</v>
       </c>
       <c r="F416" s="118" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="22"/>
         <v>累计消除500个苹果，500个西瓜，250个7</v>
       </c>
     </row>
@@ -44794,7 +44798,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="125">
-        <f>B363+12</f>
+        <f t="shared" si="21"/>
         <v>92</v>
       </c>
       <c r="C417" s="149" t="s">
@@ -44807,7 +44811,7 @@
         <v>2</v>
       </c>
       <c r="F417" s="118" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="22"/>
         <v>累计消除500个苹果，500个西瓜，250个7</v>
       </c>
     </row>
@@ -44816,7 +44820,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="125">
-        <f>B364+12</f>
+        <f t="shared" si="21"/>
         <v>92</v>
       </c>
       <c r="C418" s="151" t="s">
@@ -44829,7 +44833,7 @@
         <v>2</v>
       </c>
       <c r="F418" s="118" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="22"/>
         <v>累计消除500个苹果，500个西瓜，250个7</v>
       </c>
     </row>
@@ -44838,7 +44842,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="125">
-        <f>B365+12</f>
+        <f t="shared" si="21"/>
         <v>92</v>
       </c>
       <c r="C419" s="151" t="s">
@@ -44851,7 +44855,7 @@
         <v>3</v>
       </c>
       <c r="F419" s="118" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="22"/>
         <v>累计消除500个苹果，500个西瓜，250个7</v>
       </c>
     </row>
@@ -44860,7 +44864,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="125">
-        <f>B366+12</f>
+        <f t="shared" si="21"/>
         <v>93</v>
       </c>
       <c r="C420" s="149" t="s">
@@ -44873,7 +44877,7 @@
         <v>2</v>
       </c>
       <c r="F420" s="118" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="22"/>
         <v>累计消除500个苹果，500个西瓜，250个BAR</v>
       </c>
     </row>
@@ -44882,7 +44886,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="125">
-        <f>B367+12</f>
+        <f t="shared" si="21"/>
         <v>93</v>
       </c>
       <c r="C421" s="149" t="s">
@@ -44895,7 +44899,7 @@
         <v>2</v>
       </c>
       <c r="F421" s="118" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="22"/>
         <v>累计消除500个苹果，500个西瓜，250个BAR</v>
       </c>
     </row>
@@ -44904,7 +44908,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="125">
-        <f>B368+12</f>
+        <f t="shared" si="21"/>
         <v>93</v>
       </c>
       <c r="C422" s="149" t="s">
@@ -44917,7 +44921,7 @@
         <v>2</v>
       </c>
       <c r="F422" s="118" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="22"/>
         <v>累计消除500个苹果，500个西瓜，250个BAR</v>
       </c>
     </row>
@@ -44926,7 +44930,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="125">
-        <f>B369+12</f>
+        <f t="shared" si="21"/>
         <v>93</v>
       </c>
       <c r="C423" s="151" t="s">
@@ -44939,7 +44943,7 @@
         <v>2</v>
       </c>
       <c r="F423" s="118" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="22"/>
         <v>累计消除500个苹果，500个西瓜，250个BAR</v>
       </c>
     </row>
@@ -44948,7 +44952,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="125">
-        <f>B370+12</f>
+        <f t="shared" si="21"/>
         <v>93</v>
       </c>
       <c r="C424" s="151" t="s">
@@ -44961,7 +44965,7 @@
         <v>3</v>
       </c>
       <c r="F424" s="118" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="22"/>
         <v>累计消除500个苹果，500个西瓜，250个BAR</v>
       </c>
     </row>
@@ -44970,7 +44974,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="125">
-        <f>B371+12</f>
+        <f t="shared" si="21"/>
         <v>94</v>
       </c>
       <c r="C425" s="149" t="s">
@@ -44983,7 +44987,7 @@
         <v>2</v>
       </c>
       <c r="F425" s="118" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="22"/>
         <v>累计消除500个苹果，250个7，250个BAR</v>
       </c>
     </row>
@@ -44992,7 +44996,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="125">
-        <f>B372+12</f>
+        <f t="shared" si="21"/>
         <v>94</v>
       </c>
       <c r="C426" s="149" t="s">
@@ -45005,7 +45009,7 @@
         <v>2</v>
       </c>
       <c r="F426" s="118" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="22"/>
         <v>累计消除500个苹果，250个7，250个BAR</v>
       </c>
     </row>
@@ -45014,7 +45018,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="125">
-        <f>B373+12</f>
+        <f t="shared" si="21"/>
         <v>94</v>
       </c>
       <c r="C427" s="149" t="s">
@@ -45027,7 +45031,7 @@
         <v>2</v>
       </c>
       <c r="F427" s="118" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="22"/>
         <v>累计消除500个苹果，250个7，250个BAR</v>
       </c>
     </row>
@@ -45036,7 +45040,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="125">
-        <f>B374+12</f>
+        <f t="shared" si="21"/>
         <v>94</v>
       </c>
       <c r="C428" s="151" t="s">
@@ -45049,7 +45053,7 @@
         <v>2</v>
       </c>
       <c r="F428" s="118" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="22"/>
         <v>累计消除500个苹果，250个7，250个BAR</v>
       </c>
     </row>
@@ -45058,7 +45062,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="125">
-        <f>B375+12</f>
+        <f t="shared" si="21"/>
         <v>94</v>
       </c>
       <c r="C429" s="151" t="s">
@@ -45071,7 +45075,7 @@
         <v>3</v>
       </c>
       <c r="F429" s="118" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="22"/>
         <v>累计消除500个苹果，250个7，250个BAR</v>
       </c>
     </row>
@@ -45080,7 +45084,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="125">
-        <f>B376+12</f>
+        <f t="shared" si="21"/>
         <v>95</v>
       </c>
       <c r="C430" s="149" t="s">
@@ -45093,7 +45097,7 @@
         <v>2</v>
       </c>
       <c r="F430" s="118" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="22"/>
         <v>累计消除500个铃铛，250个7，250个BAR</v>
       </c>
     </row>
@@ -45102,7 +45106,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="125">
-        <f>B377+12</f>
+        <f t="shared" si="21"/>
         <v>95</v>
       </c>
       <c r="C431" s="149" t="s">
@@ -45115,7 +45119,7 @@
         <v>2</v>
       </c>
       <c r="F431" s="118" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="22"/>
         <v>累计消除500个铃铛，250个7，250个BAR</v>
       </c>
     </row>
@@ -45124,7 +45128,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="125">
-        <f>B378+12</f>
+        <f t="shared" ref="B432:B463" si="23">B378+12</f>
         <v>95</v>
       </c>
       <c r="C432" s="149" t="s">
@@ -45137,7 +45141,7 @@
         <v>2</v>
       </c>
       <c r="F432" s="118" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="22"/>
         <v>累计消除500个铃铛，250个7，250个BAR</v>
       </c>
     </row>
@@ -45146,7 +45150,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="125">
-        <f>B379+12</f>
+        <f t="shared" si="23"/>
         <v>95</v>
       </c>
       <c r="C433" s="151" t="s">
@@ -45159,7 +45163,7 @@
         <v>2</v>
       </c>
       <c r="F433" s="118" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="22"/>
         <v>累计消除500个铃铛，250个7，250个BAR</v>
       </c>
     </row>
@@ -45168,7 +45172,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="125">
-        <f>B380+12</f>
+        <f t="shared" si="23"/>
         <v>95</v>
       </c>
       <c r="C434" s="151" t="s">
@@ -45181,7 +45185,7 @@
         <v>3</v>
       </c>
       <c r="F434" s="118" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="22"/>
         <v>累计消除500个铃铛，250个7，250个BAR</v>
       </c>
     </row>
@@ -45190,7 +45194,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="125">
-        <f>B381+12</f>
+        <f t="shared" si="23"/>
         <v>96</v>
       </c>
       <c r="C435" s="149" t="s">
@@ -45203,7 +45207,7 @@
         <v>2</v>
       </c>
       <c r="F435" s="118" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="22"/>
         <v>累计消除500个铃铛，500个西瓜，250个7</v>
       </c>
     </row>
@@ -45212,7 +45216,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="125">
-        <f>B382+12</f>
+        <f t="shared" si="23"/>
         <v>96</v>
       </c>
       <c r="C436" s="149" t="s">
@@ -45225,7 +45229,7 @@
         <v>2</v>
       </c>
       <c r="F436" s="118" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="22"/>
         <v>累计消除500个铃铛，500个西瓜，250个7</v>
       </c>
     </row>
@@ -45234,7 +45238,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="125">
-        <f>B383+12</f>
+        <f t="shared" si="23"/>
         <v>96</v>
       </c>
       <c r="C437" s="149" t="s">
@@ -45247,7 +45251,7 @@
         <v>2</v>
       </c>
       <c r="F437" s="118" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="22"/>
         <v>累计消除500个铃铛，500个西瓜，250个7</v>
       </c>
     </row>
@@ -45256,7 +45260,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="125">
-        <f>B384+12</f>
+        <f t="shared" si="23"/>
         <v>96</v>
       </c>
       <c r="C438" s="151" t="s">
@@ -45269,7 +45273,7 @@
         <v>2</v>
       </c>
       <c r="F438" s="118" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="22"/>
         <v>累计消除500个铃铛，500个西瓜，250个7</v>
       </c>
     </row>
@@ -45278,7 +45282,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="125">
-        <f>B385+12</f>
+        <f t="shared" si="23"/>
         <v>96</v>
       </c>
       <c r="C439" s="151" t="s">
@@ -45291,7 +45295,7 @@
         <v>3</v>
       </c>
       <c r="F439" s="118" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="22"/>
         <v>累计消除500个铃铛，500个西瓜，250个7</v>
       </c>
     </row>
@@ -45300,7 +45304,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="125">
-        <f>B386+12</f>
+        <f t="shared" si="23"/>
         <v>97</v>
       </c>
       <c r="C440" s="149" t="s">
@@ -45313,7 +45317,7 @@
         <v>2</v>
       </c>
       <c r="F440" s="118" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="22"/>
         <v>累计消除500个铃铛，500个西瓜，250个BAR</v>
       </c>
     </row>
@@ -45322,7 +45326,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="125">
-        <f>B387+12</f>
+        <f t="shared" si="23"/>
         <v>97</v>
       </c>
       <c r="C441" s="149" t="s">
@@ -45335,7 +45339,7 @@
         <v>2</v>
       </c>
       <c r="F441" s="118" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="22"/>
         <v>累计消除500个铃铛，500个西瓜，250个BAR</v>
       </c>
     </row>
@@ -45344,7 +45348,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="125">
-        <f>B388+12</f>
+        <f t="shared" si="23"/>
         <v>97</v>
       </c>
       <c r="C442" s="149" t="s">
@@ -45357,7 +45361,7 @@
         <v>2</v>
       </c>
       <c r="F442" s="118" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="22"/>
         <v>累计消除500个铃铛，500个西瓜，250个BAR</v>
       </c>
     </row>
@@ -45366,7 +45370,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="125">
-        <f>B389+12</f>
+        <f t="shared" si="23"/>
         <v>97</v>
       </c>
       <c r="C443" s="151" t="s">
@@ -45379,7 +45383,7 @@
         <v>2</v>
       </c>
       <c r="F443" s="118" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="22"/>
         <v>累计消除500个铃铛，500个西瓜，250个BAR</v>
       </c>
     </row>
@@ -45388,7 +45392,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="125">
-        <f>B390+12</f>
+        <f t="shared" si="23"/>
         <v>97</v>
       </c>
       <c r="C444" s="151" t="s">
@@ -45401,7 +45405,7 @@
         <v>3</v>
       </c>
       <c r="F444" s="118" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="22"/>
         <v>累计消除500个铃铛，500个西瓜，250个BAR</v>
       </c>
     </row>
@@ -45410,7 +45414,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="125">
-        <f>B391+12</f>
+        <f t="shared" si="23"/>
         <v>98</v>
       </c>
       <c r="C445" s="149" t="s">
@@ -45423,7 +45427,7 @@
         <v>2</v>
       </c>
       <c r="F445" s="118" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="22"/>
         <v>累计消除500个西瓜，250个7，250个BAR</v>
       </c>
     </row>
@@ -45432,7 +45436,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="125">
-        <f>B392+12</f>
+        <f t="shared" si="23"/>
         <v>98</v>
       </c>
       <c r="C446" s="149" t="s">
@@ -45445,7 +45449,7 @@
         <v>2</v>
       </c>
       <c r="F446" s="118" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="22"/>
         <v>累计消除500个西瓜，250个7，250个BAR</v>
       </c>
     </row>
@@ -45454,7 +45458,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="125">
-        <f>B393+12</f>
+        <f t="shared" si="23"/>
         <v>98</v>
       </c>
       <c r="C447" s="149" t="s">
@@ -45467,7 +45471,7 @@
         <v>2</v>
       </c>
       <c r="F447" s="118" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="22"/>
         <v>累计消除500个西瓜，250个7，250个BAR</v>
       </c>
     </row>
@@ -45476,7 +45480,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="125">
-        <f>B394+12</f>
+        <f t="shared" si="23"/>
         <v>98</v>
       </c>
       <c r="C448" s="151" t="s">
@@ -45489,7 +45493,7 @@
         <v>2</v>
       </c>
       <c r="F448" s="118" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="22"/>
         <v>累计消除500个西瓜，250个7，250个BAR</v>
       </c>
     </row>
@@ -45498,7 +45502,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="125">
-        <f>B395+12</f>
+        <f t="shared" si="23"/>
         <v>98</v>
       </c>
       <c r="C449" s="151" t="s">
@@ -45511,7 +45515,7 @@
         <v>3</v>
       </c>
       <c r="F449" s="118" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="22"/>
         <v>累计消除500个西瓜，250个7，250个BAR</v>
       </c>
     </row>
@@ -45520,7 +45524,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="125">
-        <f>B396+12</f>
+        <f t="shared" si="23"/>
         <v>99</v>
       </c>
       <c r="C450" s="151" t="s">
@@ -45533,7 +45537,7 @@
         <v>3</v>
       </c>
       <c r="F450" s="118" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="22"/>
         <v>单局消除9个及以上苹果</v>
       </c>
     </row>
@@ -45573,7 +45577,7 @@
         <v>3</v>
       </c>
       <c r="F452" s="118" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="22"/>
         <v>单局消除9个及以上铃铛</v>
       </c>
     </row>
@@ -45600,7 +45604,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="125">
-        <f>B400+12</f>
+        <f t="shared" ref="B454:B485" si="24">B400+12</f>
         <v>101</v>
       </c>
       <c r="C454" s="154" t="s">
@@ -45622,7 +45626,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="125">
-        <f>B401+12</f>
+        <f t="shared" si="24"/>
         <v>101</v>
       </c>
       <c r="C455" s="154" t="s">
@@ -45635,7 +45639,7 @@
         <v>2</v>
       </c>
       <c r="F455" s="118" t="str">
-        <f t="shared" ref="F455:F506" ca="1" si="12">INDIRECT("G"&amp;B455+5)</f>
+        <f t="shared" ref="F455:F506" ca="1" si="25">INDIRECT("G"&amp;B455+5)</f>
         <v>累计消除600个苹果，600个铃铛，600个西瓜</v>
       </c>
     </row>
@@ -45644,7 +45648,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="125">
-        <f>B402+12</f>
+        <f t="shared" si="24"/>
         <v>101</v>
       </c>
       <c r="C456" s="154" t="s">
@@ -45657,7 +45661,7 @@
         <v>2</v>
       </c>
       <c r="F456" s="118" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="25"/>
         <v>累计消除600个苹果，600个铃铛，600个西瓜</v>
       </c>
     </row>
@@ -45666,7 +45670,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="125">
-        <f>B403+12</f>
+        <f t="shared" si="24"/>
         <v>101</v>
       </c>
       <c r="C457" s="156" t="s">
@@ -45679,7 +45683,7 @@
         <v>2</v>
       </c>
       <c r="F457" s="118" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="25"/>
         <v>累计消除600个苹果，600个铃铛，600个西瓜</v>
       </c>
     </row>
@@ -45688,7 +45692,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="125">
-        <f>B404+12</f>
+        <f t="shared" si="24"/>
         <v>101</v>
       </c>
       <c r="C458" s="156" t="s">
@@ -45701,7 +45705,7 @@
         <v>3</v>
       </c>
       <c r="F458" s="118" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="25"/>
         <v>累计消除600个苹果，600个铃铛，600个西瓜</v>
       </c>
     </row>
@@ -45710,7 +45714,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="125">
-        <f>B405+12</f>
+        <f t="shared" si="24"/>
         <v>102</v>
       </c>
       <c r="C459" s="154" t="s">
@@ -45723,7 +45727,7 @@
         <v>2</v>
       </c>
       <c r="F459" s="118" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="25"/>
         <v>累计消除600个苹果，600个铃铛，300个7</v>
       </c>
     </row>
@@ -45732,7 +45736,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="125">
-        <f>B406+12</f>
+        <f t="shared" si="24"/>
         <v>102</v>
       </c>
       <c r="C460" s="154" t="s">
@@ -45745,7 +45749,7 @@
         <v>2</v>
       </c>
       <c r="F460" s="118" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="25"/>
         <v>累计消除600个苹果，600个铃铛，300个7</v>
       </c>
     </row>
@@ -45754,7 +45758,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="125">
-        <f>B407+12</f>
+        <f t="shared" si="24"/>
         <v>102</v>
       </c>
       <c r="C461" s="154" t="s">
@@ -45767,7 +45771,7 @@
         <v>2</v>
       </c>
       <c r="F461" s="118" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="25"/>
         <v>累计消除600个苹果，600个铃铛，300个7</v>
       </c>
     </row>
@@ -45776,7 +45780,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="125">
-        <f>B408+12</f>
+        <f t="shared" si="24"/>
         <v>102</v>
       </c>
       <c r="C462" s="156" t="s">
@@ -45789,7 +45793,7 @@
         <v>2</v>
       </c>
       <c r="F462" s="118" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="25"/>
         <v>累计消除600个苹果，600个铃铛，300个7</v>
       </c>
     </row>
@@ -45798,7 +45802,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="125">
-        <f>B409+12</f>
+        <f t="shared" si="24"/>
         <v>102</v>
       </c>
       <c r="C463" s="156" t="s">
@@ -45811,7 +45815,7 @@
         <v>3</v>
       </c>
       <c r="F463" s="118" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="25"/>
         <v>累计消除600个苹果，600个铃铛，300个7</v>
       </c>
     </row>
@@ -45820,7 +45824,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="125">
-        <f>B410+12</f>
+        <f t="shared" si="24"/>
         <v>103</v>
       </c>
       <c r="C464" s="154" t="s">
@@ -45833,7 +45837,7 @@
         <v>2</v>
       </c>
       <c r="F464" s="118" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="25"/>
         <v>累计消除600个苹果，600个铃铛，300个BAR</v>
       </c>
     </row>
@@ -45842,7 +45846,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="125">
-        <f>B411+12</f>
+        <f t="shared" si="24"/>
         <v>103</v>
       </c>
       <c r="C465" s="154" t="s">
@@ -45855,7 +45859,7 @@
         <v>2</v>
       </c>
       <c r="F465" s="118" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="25"/>
         <v>累计消除600个苹果，600个铃铛，300个BAR</v>
       </c>
     </row>
@@ -45864,7 +45868,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="125">
-        <f>B412+12</f>
+        <f t="shared" si="24"/>
         <v>103</v>
       </c>
       <c r="C466" s="154" t="s">
@@ -45877,7 +45881,7 @@
         <v>2</v>
       </c>
       <c r="F466" s="118" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="25"/>
         <v>累计消除600个苹果，600个铃铛，300个BAR</v>
       </c>
     </row>
@@ -45886,7 +45890,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="125">
-        <f>B413+12</f>
+        <f t="shared" si="24"/>
         <v>103</v>
       </c>
       <c r="C467" s="156" t="s">
@@ -45899,7 +45903,7 @@
         <v>2</v>
       </c>
       <c r="F467" s="118" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="25"/>
         <v>累计消除600个苹果，600个铃铛，300个BAR</v>
       </c>
     </row>
@@ -45908,7 +45912,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="125">
-        <f>B414+12</f>
+        <f t="shared" si="24"/>
         <v>103</v>
       </c>
       <c r="C468" s="156" t="s">
@@ -45921,7 +45925,7 @@
         <v>3</v>
       </c>
       <c r="F468" s="118" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="25"/>
         <v>累计消除600个苹果，600个铃铛，300个BAR</v>
       </c>
     </row>
@@ -45930,7 +45934,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="125">
-        <f>B415+12</f>
+        <f t="shared" si="24"/>
         <v>104</v>
       </c>
       <c r="C469" s="154" t="s">
@@ -45943,7 +45947,7 @@
         <v>2</v>
       </c>
       <c r="F469" s="118" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="25"/>
         <v>累计消除600个苹果，600个西瓜，300个7</v>
       </c>
     </row>
@@ -45952,7 +45956,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="125">
-        <f>B416+12</f>
+        <f t="shared" si="24"/>
         <v>104</v>
       </c>
       <c r="C470" s="154" t="s">
@@ -45965,7 +45969,7 @@
         <v>2</v>
       </c>
       <c r="F470" s="118" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="25"/>
         <v>累计消除600个苹果，600个西瓜，300个7</v>
       </c>
     </row>
@@ -45974,7 +45978,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="125">
-        <f>B417+12</f>
+        <f t="shared" si="24"/>
         <v>104</v>
       </c>
       <c r="C471" s="154" t="s">
@@ -45987,7 +45991,7 @@
         <v>2</v>
       </c>
       <c r="F471" s="118" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="25"/>
         <v>累计消除600个苹果，600个西瓜，300个7</v>
       </c>
     </row>
@@ -45996,7 +46000,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="125">
-        <f>B418+12</f>
+        <f t="shared" si="24"/>
         <v>104</v>
       </c>
       <c r="C472" s="156" t="s">
@@ -46009,7 +46013,7 @@
         <v>2</v>
       </c>
       <c r="F472" s="118" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="25"/>
         <v>累计消除600个苹果，600个西瓜，300个7</v>
       </c>
     </row>
@@ -46018,7 +46022,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="125">
-        <f>B419+12</f>
+        <f t="shared" si="24"/>
         <v>104</v>
       </c>
       <c r="C473" s="156" t="s">
@@ -46031,7 +46035,7 @@
         <v>3</v>
       </c>
       <c r="F473" s="118" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="25"/>
         <v>累计消除600个苹果，600个西瓜，300个7</v>
       </c>
     </row>
@@ -46040,7 +46044,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="125">
-        <f>B420+12</f>
+        <f t="shared" si="24"/>
         <v>105</v>
       </c>
       <c r="C474" s="154" t="s">
@@ -46053,7 +46057,7 @@
         <v>2</v>
       </c>
       <c r="F474" s="118" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="25"/>
         <v>累计消除600个苹果，600个西瓜，300个BAR</v>
       </c>
     </row>
@@ -46062,7 +46066,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="125">
-        <f>B421+12</f>
+        <f t="shared" si="24"/>
         <v>105</v>
       </c>
       <c r="C475" s="154" t="s">
@@ -46075,7 +46079,7 @@
         <v>2</v>
       </c>
       <c r="F475" s="118" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="25"/>
         <v>累计消除600个苹果，600个西瓜，300个BAR</v>
       </c>
     </row>
@@ -46084,7 +46088,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="125">
-        <f>B422+12</f>
+        <f t="shared" si="24"/>
         <v>105</v>
       </c>
       <c r="C476" s="154" t="s">
@@ -46097,7 +46101,7 @@
         <v>2</v>
       </c>
       <c r="F476" s="118" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="25"/>
         <v>累计消除600个苹果，600个西瓜，300个BAR</v>
       </c>
     </row>
@@ -46106,7 +46110,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="125">
-        <f>B423+12</f>
+        <f t="shared" si="24"/>
         <v>105</v>
       </c>
       <c r="C477" s="156" t="s">
@@ -46119,7 +46123,7 @@
         <v>2</v>
       </c>
       <c r="F477" s="118" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="25"/>
         <v>累计消除600个苹果，600个西瓜，300个BAR</v>
       </c>
     </row>
@@ -46128,7 +46132,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="125">
-        <f>B424+12</f>
+        <f t="shared" si="24"/>
         <v>105</v>
       </c>
       <c r="C478" s="156" t="s">
@@ -46141,7 +46145,7 @@
         <v>3</v>
       </c>
       <c r="F478" s="118" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="25"/>
         <v>累计消除600个苹果，600个西瓜，300个BAR</v>
       </c>
     </row>
@@ -46150,7 +46154,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="125">
-        <f>B425+12</f>
+        <f t="shared" si="24"/>
         <v>106</v>
       </c>
       <c r="C479" s="154" t="s">
@@ -46163,7 +46167,7 @@
         <v>2</v>
       </c>
       <c r="F479" s="118" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="25"/>
         <v>累计消除600个苹果，300个7，300个BAR</v>
       </c>
     </row>
@@ -46172,7 +46176,7 @@
         <v>479</v>
       </c>
       <c r="B480" s="125">
-        <f>B426+12</f>
+        <f t="shared" si="24"/>
         <v>106</v>
       </c>
       <c r="C480" s="154" t="s">
@@ -46185,7 +46189,7 @@
         <v>2</v>
       </c>
       <c r="F480" s="118" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="25"/>
         <v>累计消除600个苹果，300个7，300个BAR</v>
       </c>
     </row>
@@ -46194,7 +46198,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="125">
-        <f>B427+12</f>
+        <f t="shared" si="24"/>
         <v>106</v>
       </c>
       <c r="C481" s="154" t="s">
@@ -46207,7 +46211,7 @@
         <v>2</v>
       </c>
       <c r="F481" s="118" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="25"/>
         <v>累计消除600个苹果，300个7，300个BAR</v>
       </c>
     </row>
@@ -46216,7 +46220,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="125">
-        <f>B428+12</f>
+        <f t="shared" si="24"/>
         <v>106</v>
       </c>
       <c r="C482" s="156" t="s">
@@ -46229,7 +46233,7 @@
         <v>2</v>
       </c>
       <c r="F482" s="118" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="25"/>
         <v>累计消除600个苹果，300个7，300个BAR</v>
       </c>
     </row>
@@ -46238,7 +46242,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="125">
-        <f>B429+12</f>
+        <f t="shared" si="24"/>
         <v>106</v>
       </c>
       <c r="C483" s="156" t="s">
@@ -46251,7 +46255,7 @@
         <v>3</v>
       </c>
       <c r="F483" s="118" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="25"/>
         <v>累计消除600个苹果，300个7，300个BAR</v>
       </c>
     </row>
@@ -46260,7 +46264,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="125">
-        <f>B430+12</f>
+        <f t="shared" si="24"/>
         <v>107</v>
       </c>
       <c r="C484" s="154" t="s">
@@ -46273,7 +46277,7 @@
         <v>2</v>
       </c>
       <c r="F484" s="118" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="25"/>
         <v>累计消除600个铃铛，300个7，300个BAR</v>
       </c>
     </row>
@@ -46282,7 +46286,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="125">
-        <f>B431+12</f>
+        <f t="shared" si="24"/>
         <v>107</v>
       </c>
       <c r="C485" s="154" t="s">
@@ -46295,7 +46299,7 @@
         <v>2</v>
       </c>
       <c r="F485" s="118" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="25"/>
         <v>累计消除600个铃铛，300个7，300个BAR</v>
       </c>
     </row>
@@ -46304,7 +46308,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="125">
-        <f>B432+12</f>
+        <f t="shared" ref="B486:B517" si="26">B432+12</f>
         <v>107</v>
       </c>
       <c r="C486" s="154" t="s">
@@ -46317,7 +46321,7 @@
         <v>2</v>
       </c>
       <c r="F486" s="118" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="25"/>
         <v>累计消除600个铃铛，300个7，300个BAR</v>
       </c>
     </row>
@@ -46326,7 +46330,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="125">
-        <f>B433+12</f>
+        <f t="shared" si="26"/>
         <v>107</v>
       </c>
       <c r="C487" s="156" t="s">
@@ -46339,7 +46343,7 @@
         <v>2</v>
       </c>
       <c r="F487" s="118" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="25"/>
         <v>累计消除600个铃铛，300个7，300个BAR</v>
       </c>
     </row>
@@ -46348,7 +46352,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="125">
-        <f>B434+12</f>
+        <f t="shared" si="26"/>
         <v>107</v>
       </c>
       <c r="C488" s="156" t="s">
@@ -46361,7 +46365,7 @@
         <v>3</v>
       </c>
       <c r="F488" s="118" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="25"/>
         <v>累计消除600个铃铛，300个7，300个BAR</v>
       </c>
     </row>
@@ -46370,7 +46374,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="125">
-        <f>B435+12</f>
+        <f t="shared" si="26"/>
         <v>108</v>
       </c>
       <c r="C489" s="154" t="s">
@@ -46383,7 +46387,7 @@
         <v>2</v>
       </c>
       <c r="F489" s="118" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="25"/>
         <v>累计消除600个铃铛，600个西瓜，300个7</v>
       </c>
     </row>
@@ -46392,7 +46396,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="125">
-        <f>B436+12</f>
+        <f t="shared" si="26"/>
         <v>108</v>
       </c>
       <c r="C490" s="154" t="s">
@@ -46405,7 +46409,7 @@
         <v>2</v>
       </c>
       <c r="F490" s="118" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="25"/>
         <v>累计消除600个铃铛，600个西瓜，300个7</v>
       </c>
     </row>
@@ -46414,7 +46418,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="125">
-        <f>B437+12</f>
+        <f t="shared" si="26"/>
         <v>108</v>
       </c>
       <c r="C491" s="154" t="s">
@@ -46427,7 +46431,7 @@
         <v>2</v>
       </c>
       <c r="F491" s="118" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="25"/>
         <v>累计消除600个铃铛，600个西瓜，300个7</v>
       </c>
     </row>
@@ -46436,7 +46440,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="125">
-        <f>B438+12</f>
+        <f t="shared" si="26"/>
         <v>108</v>
       </c>
       <c r="C492" s="156" t="s">
@@ -46449,7 +46453,7 @@
         <v>2</v>
       </c>
       <c r="F492" s="118" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="25"/>
         <v>累计消除600个铃铛，600个西瓜，300个7</v>
       </c>
     </row>
@@ -46458,7 +46462,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="125">
-        <f>B439+12</f>
+        <f t="shared" si="26"/>
         <v>108</v>
       </c>
       <c r="C493" s="156" t="s">
@@ -46471,7 +46475,7 @@
         <v>3</v>
       </c>
       <c r="F493" s="118" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="25"/>
         <v>累计消除600个铃铛，600个西瓜，300个7</v>
       </c>
     </row>
@@ -46480,7 +46484,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="125">
-        <f>B440+12</f>
+        <f t="shared" si="26"/>
         <v>109</v>
       </c>
       <c r="C494" s="154" t="s">
@@ -46493,7 +46497,7 @@
         <v>2</v>
       </c>
       <c r="F494" s="118" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="25"/>
         <v>累计消除600个铃铛，600个西瓜，300个BAR</v>
       </c>
     </row>
@@ -46502,7 +46506,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="125">
-        <f>B441+12</f>
+        <f t="shared" si="26"/>
         <v>109</v>
       </c>
       <c r="C495" s="154" t="s">
@@ -46515,7 +46519,7 @@
         <v>2</v>
       </c>
       <c r="F495" s="118" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="25"/>
         <v>累计消除600个铃铛，600个西瓜，300个BAR</v>
       </c>
     </row>
@@ -46524,7 +46528,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="125">
-        <f>B442+12</f>
+        <f t="shared" si="26"/>
         <v>109</v>
       </c>
       <c r="C496" s="154" t="s">
@@ -46537,7 +46541,7 @@
         <v>2</v>
       </c>
       <c r="F496" s="118" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="25"/>
         <v>累计消除600个铃铛，600个西瓜，300个BAR</v>
       </c>
     </row>
@@ -46546,7 +46550,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="125">
-        <f>B443+12</f>
+        <f t="shared" si="26"/>
         <v>109</v>
       </c>
       <c r="C497" s="156" t="s">
@@ -46559,7 +46563,7 @@
         <v>2</v>
       </c>
       <c r="F497" s="118" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="25"/>
         <v>累计消除600个铃铛，600个西瓜，300个BAR</v>
       </c>
     </row>
@@ -46568,7 +46572,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="125">
-        <f>B444+12</f>
+        <f t="shared" si="26"/>
         <v>109</v>
       </c>
       <c r="C498" s="156" t="s">
@@ -46581,7 +46585,7 @@
         <v>3</v>
       </c>
       <c r="F498" s="118" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="25"/>
         <v>累计消除600个铃铛，600个西瓜，300个BAR</v>
       </c>
     </row>
@@ -46590,7 +46594,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="125">
-        <f>B445+12</f>
+        <f t="shared" si="26"/>
         <v>110</v>
       </c>
       <c r="C499" s="154" t="s">
@@ -46603,7 +46607,7 @@
         <v>2</v>
       </c>
       <c r="F499" s="118" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="25"/>
         <v>累计消除600个西瓜，300个7，300个BAR</v>
       </c>
     </row>
@@ -46612,7 +46616,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="125">
-        <f>B446+12</f>
+        <f t="shared" si="26"/>
         <v>110</v>
       </c>
       <c r="C500" s="154" t="s">
@@ -46625,7 +46629,7 @@
         <v>2</v>
       </c>
       <c r="F500" s="118" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="25"/>
         <v>累计消除600个西瓜，300个7，300个BAR</v>
       </c>
     </row>
@@ -46634,7 +46638,7 @@
         <v>500</v>
       </c>
       <c r="B501" s="125">
-        <f>B447+12</f>
+        <f t="shared" si="26"/>
         <v>110</v>
       </c>
       <c r="C501" s="154" t="s">
@@ -46647,7 +46651,7 @@
         <v>2</v>
       </c>
       <c r="F501" s="118" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="25"/>
         <v>累计消除600个西瓜，300个7，300个BAR</v>
       </c>
       <c r="G501" s="153"/>
@@ -46657,7 +46661,7 @@
         <v>501</v>
       </c>
       <c r="B502" s="125">
-        <f>B448+12</f>
+        <f t="shared" si="26"/>
         <v>110</v>
       </c>
       <c r="C502" s="156" t="s">
@@ -46670,7 +46674,7 @@
         <v>2</v>
       </c>
       <c r="F502" s="118" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="25"/>
         <v>累计消除600个西瓜，300个7，300个BAR</v>
       </c>
       <c r="G502" s="153"/>
@@ -46680,7 +46684,7 @@
         <v>502</v>
       </c>
       <c r="B503" s="125">
-        <f>B449+12</f>
+        <f t="shared" si="26"/>
         <v>110</v>
       </c>
       <c r="C503" s="156" t="s">
@@ -46693,7 +46697,7 @@
         <v>3</v>
       </c>
       <c r="F503" s="118" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="25"/>
         <v>累计消除600个西瓜，300个7，300个BAR</v>
       </c>
       <c r="G503" s="153"/>
@@ -46703,7 +46707,7 @@
         <v>503</v>
       </c>
       <c r="B504" s="125">
-        <f>B450+12</f>
+        <f t="shared" si="26"/>
         <v>111</v>
       </c>
       <c r="C504" s="156" t="s">
@@ -46716,7 +46720,7 @@
         <v>3</v>
       </c>
       <c r="F504" s="118" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="25"/>
         <v>单局消除9个及以上铃铛</v>
       </c>
       <c r="G504" s="153"/>
@@ -46757,7 +46761,7 @@
         <v>3</v>
       </c>
       <c r="F506" s="118" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="25"/>
         <v>单局消除9个及以上西瓜</v>
       </c>
       <c r="G506" s="153"/>
@@ -46786,7 +46790,7 @@
         <v>507</v>
       </c>
       <c r="B508" s="125">
-        <f>B454+12</f>
+        <f t="shared" ref="B508:B539" si="27">B454+12</f>
         <v>113</v>
       </c>
       <c r="C508" s="149" t="s">
@@ -46809,7 +46813,7 @@
         <v>508</v>
       </c>
       <c r="B509" s="125">
-        <f>B455+12</f>
+        <f t="shared" si="27"/>
         <v>113</v>
       </c>
       <c r="C509" s="149" t="s">
@@ -46822,7 +46826,7 @@
         <v>2</v>
       </c>
       <c r="F509" s="118" t="str">
-        <f t="shared" ref="F509:F561" ca="1" si="13">INDIRECT("G"&amp;B509+6)</f>
+        <f t="shared" ref="F509:F561" ca="1" si="28">INDIRECT("G"&amp;B509+6)</f>
         <v>累计消除800个苹果，800个铃铛，800个西瓜</v>
       </c>
       <c r="G509" s="153"/>
@@ -46832,7 +46836,7 @@
         <v>509</v>
       </c>
       <c r="B510" s="125">
-        <f>B456+12</f>
+        <f t="shared" si="27"/>
         <v>113</v>
       </c>
       <c r="C510" s="149" t="s">
@@ -46845,7 +46849,7 @@
         <v>2</v>
       </c>
       <c r="F510" s="118" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="28"/>
         <v>累计消除800个苹果，800个铃铛，800个西瓜</v>
       </c>
       <c r="G510" s="153"/>
@@ -46855,7 +46859,7 @@
         <v>510</v>
       </c>
       <c r="B511" s="125">
-        <f>B457+12</f>
+        <f t="shared" si="27"/>
         <v>113</v>
       </c>
       <c r="C511" s="151" t="s">
@@ -46868,7 +46872,7 @@
         <v>2</v>
       </c>
       <c r="F511" s="118" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="28"/>
         <v>累计消除800个苹果，800个铃铛，800个西瓜</v>
       </c>
     </row>
@@ -46877,7 +46881,7 @@
         <v>511</v>
       </c>
       <c r="B512" s="125">
-        <f>B458+12</f>
+        <f t="shared" si="27"/>
         <v>113</v>
       </c>
       <c r="C512" s="151" t="s">
@@ -46890,7 +46894,7 @@
         <v>3</v>
       </c>
       <c r="F512" s="118" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="28"/>
         <v>累计消除800个苹果，800个铃铛，800个西瓜</v>
       </c>
     </row>
@@ -46899,7 +46903,7 @@
         <v>512</v>
       </c>
       <c r="B513" s="125">
-        <f>B459+12</f>
+        <f t="shared" si="27"/>
         <v>114</v>
       </c>
       <c r="C513" s="149" t="s">
@@ -46912,7 +46916,7 @@
         <v>2</v>
       </c>
       <c r="F513" s="118" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="28"/>
         <v>累计消除800个苹果，800个铃铛，400个7</v>
       </c>
     </row>
@@ -46921,7 +46925,7 @@
         <v>513</v>
       </c>
       <c r="B514" s="125">
-        <f>B460+12</f>
+        <f t="shared" si="27"/>
         <v>114</v>
       </c>
       <c r="C514" s="149" t="s">
@@ -46934,7 +46938,7 @@
         <v>2</v>
       </c>
       <c r="F514" s="118" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="28"/>
         <v>累计消除800个苹果，800个铃铛，400个7</v>
       </c>
       <c r="G514" s="153"/>
@@ -46944,7 +46948,7 @@
         <v>514</v>
       </c>
       <c r="B515" s="125">
-        <f>B461+12</f>
+        <f t="shared" si="27"/>
         <v>114</v>
       </c>
       <c r="C515" s="149" t="s">
@@ -46957,7 +46961,7 @@
         <v>2</v>
       </c>
       <c r="F515" s="118" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="28"/>
         <v>累计消除800个苹果，800个铃铛，400个7</v>
       </c>
       <c r="G515" s="153"/>
@@ -46967,7 +46971,7 @@
         <v>515</v>
       </c>
       <c r="B516" s="125">
-        <f>B462+12</f>
+        <f t="shared" si="27"/>
         <v>114</v>
       </c>
       <c r="C516" s="151" t="s">
@@ -46980,7 +46984,7 @@
         <v>2</v>
       </c>
       <c r="F516" s="118" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="28"/>
         <v>累计消除800个苹果，800个铃铛，400个7</v>
       </c>
       <c r="G516" s="153"/>
@@ -46990,7 +46994,7 @@
         <v>516</v>
       </c>
       <c r="B517" s="125">
-        <f>B463+12</f>
+        <f t="shared" si="27"/>
         <v>114</v>
       </c>
       <c r="C517" s="151" t="s">
@@ -47003,7 +47007,7 @@
         <v>3</v>
       </c>
       <c r="F517" s="118" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="28"/>
         <v>累计消除800个苹果，800个铃铛，400个7</v>
       </c>
       <c r="G517" s="153"/>
@@ -47013,7 +47017,7 @@
         <v>517</v>
       </c>
       <c r="B518" s="125">
-        <f>B464+12</f>
+        <f t="shared" si="27"/>
         <v>115</v>
       </c>
       <c r="C518" s="149" t="s">
@@ -47026,7 +47030,7 @@
         <v>2</v>
       </c>
       <c r="F518" s="118" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="28"/>
         <v>累计消除800个苹果，800个铃铛，400个BAR</v>
       </c>
       <c r="G518" s="153"/>
@@ -47036,7 +47040,7 @@
         <v>518</v>
       </c>
       <c r="B519" s="125">
-        <f>B465+12</f>
+        <f t="shared" si="27"/>
         <v>115</v>
       </c>
       <c r="C519" s="149" t="s">
@@ -47049,7 +47053,7 @@
         <v>2</v>
       </c>
       <c r="F519" s="118" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="28"/>
         <v>累计消除800个苹果，800个铃铛，400个BAR</v>
       </c>
       <c r="G519" s="153"/>
@@ -47059,7 +47063,7 @@
         <v>519</v>
       </c>
       <c r="B520" s="125">
-        <f>B466+12</f>
+        <f t="shared" si="27"/>
         <v>115</v>
       </c>
       <c r="C520" s="149" t="s">
@@ -47072,7 +47076,7 @@
         <v>2</v>
       </c>
       <c r="F520" s="118" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="28"/>
         <v>累计消除800个苹果，800个铃铛，400个BAR</v>
       </c>
       <c r="G520" s="153"/>
@@ -47082,7 +47086,7 @@
         <v>520</v>
       </c>
       <c r="B521" s="125">
-        <f>B467+12</f>
+        <f t="shared" si="27"/>
         <v>115</v>
       </c>
       <c r="C521" s="151" t="s">
@@ -47095,7 +47099,7 @@
         <v>2</v>
       </c>
       <c r="F521" s="118" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="28"/>
         <v>累计消除800个苹果，800个铃铛，400个BAR</v>
       </c>
       <c r="G521" s="153"/>
@@ -47105,7 +47109,7 @@
         <v>521</v>
       </c>
       <c r="B522" s="125">
-        <f>B468+12</f>
+        <f t="shared" si="27"/>
         <v>115</v>
       </c>
       <c r="C522" s="151" t="s">
@@ -47118,7 +47122,7 @@
         <v>3</v>
       </c>
       <c r="F522" s="118" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="28"/>
         <v>累计消除800个苹果，800个铃铛，400个BAR</v>
       </c>
     </row>
@@ -47127,7 +47131,7 @@
         <v>522</v>
       </c>
       <c r="B523" s="125">
-        <f>B469+12</f>
+        <f t="shared" si="27"/>
         <v>116</v>
       </c>
       <c r="C523" s="149" t="s">
@@ -47140,7 +47144,7 @@
         <v>2</v>
       </c>
       <c r="F523" s="118" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="28"/>
         <v>累计消除800个苹果，800个西瓜，400个7</v>
       </c>
       <c r="G523" s="153"/>
@@ -47150,7 +47154,7 @@
         <v>523</v>
       </c>
       <c r="B524" s="125">
-        <f>B470+12</f>
+        <f t="shared" si="27"/>
         <v>116</v>
       </c>
       <c r="C524" s="149" t="s">
@@ -47163,7 +47167,7 @@
         <v>2</v>
       </c>
       <c r="F524" s="118" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="28"/>
         <v>累计消除800个苹果，800个西瓜，400个7</v>
       </c>
       <c r="G524" s="153"/>
@@ -47173,7 +47177,7 @@
         <v>524</v>
       </c>
       <c r="B525" s="125">
-        <f>B471+12</f>
+        <f t="shared" si="27"/>
         <v>116</v>
       </c>
       <c r="C525" s="149" t="s">
@@ -47186,7 +47190,7 @@
         <v>2</v>
       </c>
       <c r="F525" s="118" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="28"/>
         <v>累计消除800个苹果，800个西瓜，400个7</v>
       </c>
       <c r="G525" s="153"/>
@@ -47196,7 +47200,7 @@
         <v>525</v>
       </c>
       <c r="B526" s="125">
-        <f>B472+12</f>
+        <f t="shared" si="27"/>
         <v>116</v>
       </c>
       <c r="C526" s="151" t="s">
@@ -47209,7 +47213,7 @@
         <v>2</v>
       </c>
       <c r="F526" s="118" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="28"/>
         <v>累计消除800个苹果，800个西瓜，400个7</v>
       </c>
       <c r="G526" s="153"/>
@@ -47219,7 +47223,7 @@
         <v>526</v>
       </c>
       <c r="B527" s="125">
-        <f>B473+12</f>
+        <f t="shared" si="27"/>
         <v>116</v>
       </c>
       <c r="C527" s="151" t="s">
@@ -47232,7 +47236,7 @@
         <v>3</v>
       </c>
       <c r="F527" s="118" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="28"/>
         <v>累计消除800个苹果，800个西瓜，400个7</v>
       </c>
       <c r="G527" s="153"/>
@@ -47242,7 +47246,7 @@
         <v>527</v>
       </c>
       <c r="B528" s="125">
-        <f>B474+12</f>
+        <f t="shared" si="27"/>
         <v>117</v>
       </c>
       <c r="C528" s="149" t="s">
@@ -47255,7 +47259,7 @@
         <v>2</v>
       </c>
       <c r="F528" s="118" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="28"/>
         <v>累计消除800个苹果，800个西瓜，400个BAR</v>
       </c>
       <c r="G528" s="153"/>
@@ -47265,7 +47269,7 @@
         <v>528</v>
       </c>
       <c r="B529" s="125">
-        <f>B475+12</f>
+        <f t="shared" si="27"/>
         <v>117</v>
       </c>
       <c r="C529" s="149" t="s">
@@ -47278,7 +47282,7 @@
         <v>2</v>
       </c>
       <c r="F529" s="118" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="28"/>
         <v>累计消除800个苹果，800个西瓜，400个BAR</v>
       </c>
       <c r="G529" s="153"/>
@@ -47288,7 +47292,7 @@
         <v>529</v>
       </c>
       <c r="B530" s="125">
-        <f>B476+12</f>
+        <f t="shared" si="27"/>
         <v>117</v>
       </c>
       <c r="C530" s="149" t="s">
@@ -47301,7 +47305,7 @@
         <v>2</v>
       </c>
       <c r="F530" s="118" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="28"/>
         <v>累计消除800个苹果，800个西瓜，400个BAR</v>
       </c>
       <c r="G530" s="153"/>
@@ -47311,7 +47315,7 @@
         <v>530</v>
       </c>
       <c r="B531" s="125">
-        <f>B477+12</f>
+        <f t="shared" si="27"/>
         <v>117</v>
       </c>
       <c r="C531" s="151" t="s">
@@ -47324,7 +47328,7 @@
         <v>2</v>
       </c>
       <c r="F531" s="118" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="28"/>
         <v>累计消除800个苹果，800个西瓜，400个BAR</v>
       </c>
     </row>
@@ -47333,7 +47337,7 @@
         <v>531</v>
       </c>
       <c r="B532" s="125">
-        <f>B478+12</f>
+        <f t="shared" si="27"/>
         <v>117</v>
       </c>
       <c r="C532" s="151" t="s">
@@ -47346,7 +47350,7 @@
         <v>3</v>
       </c>
       <c r="F532" s="118" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="28"/>
         <v>累计消除800个苹果，800个西瓜，400个BAR</v>
       </c>
     </row>
@@ -47355,7 +47359,7 @@
         <v>532</v>
       </c>
       <c r="B533" s="125">
-        <f>B479+12</f>
+        <f t="shared" si="27"/>
         <v>118</v>
       </c>
       <c r="C533" s="149" t="s">
@@ -47368,7 +47372,7 @@
         <v>2</v>
       </c>
       <c r="F533" s="118" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="28"/>
         <v>累计消除800个苹果，400个7，400个BAR</v>
       </c>
     </row>
@@ -47377,7 +47381,7 @@
         <v>533</v>
       </c>
       <c r="B534" s="125">
-        <f>B480+12</f>
+        <f t="shared" si="27"/>
         <v>118</v>
       </c>
       <c r="C534" s="149" t="s">
@@ -47390,7 +47394,7 @@
         <v>2</v>
       </c>
       <c r="F534" s="118" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="28"/>
         <v>累计消除800个苹果，400个7，400个BAR</v>
       </c>
     </row>
@@ -47399,7 +47403,7 @@
         <v>534</v>
       </c>
       <c r="B535" s="125">
-        <f>B481+12</f>
+        <f t="shared" si="27"/>
         <v>118</v>
       </c>
       <c r="C535" s="149" t="s">
@@ -47412,7 +47416,7 @@
         <v>2</v>
       </c>
       <c r="F535" s="118" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="28"/>
         <v>累计消除800个苹果，400个7，400个BAR</v>
       </c>
     </row>
@@ -47421,7 +47425,7 @@
         <v>535</v>
       </c>
       <c r="B536" s="125">
-        <f>B482+12</f>
+        <f t="shared" si="27"/>
         <v>118</v>
       </c>
       <c r="C536" s="151" t="s">
@@ -47434,7 +47438,7 @@
         <v>2</v>
       </c>
       <c r="F536" s="118" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="28"/>
         <v>累计消除800个苹果，400个7，400个BAR</v>
       </c>
     </row>
@@ -47443,7 +47447,7 @@
         <v>536</v>
       </c>
       <c r="B537" s="125">
-        <f>B483+12</f>
+        <f t="shared" si="27"/>
         <v>118</v>
       </c>
       <c r="C537" s="151" t="s">
@@ -47456,7 +47460,7 @@
         <v>3</v>
       </c>
       <c r="F537" s="118" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="28"/>
         <v>累计消除800个苹果，400个7，400个BAR</v>
       </c>
     </row>
@@ -47465,7 +47469,7 @@
         <v>537</v>
       </c>
       <c r="B538" s="125">
-        <f>B484+12</f>
+        <f t="shared" si="27"/>
         <v>119</v>
       </c>
       <c r="C538" s="149" t="s">
@@ -47478,7 +47482,7 @@
         <v>2</v>
       </c>
       <c r="F538" s="118" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="28"/>
         <v>累计消除800个铃铛，400个7，400个BAR</v>
       </c>
     </row>
@@ -47487,7 +47491,7 @@
         <v>538</v>
       </c>
       <c r="B539" s="125">
-        <f>B485+12</f>
+        <f t="shared" si="27"/>
         <v>119</v>
       </c>
       <c r="C539" s="149" t="s">
@@ -47500,7 +47504,7 @@
         <v>2</v>
       </c>
       <c r="F539" s="118" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="28"/>
         <v>累计消除800个铃铛，400个7，400个BAR</v>
       </c>
     </row>
@@ -47509,7 +47513,7 @@
         <v>539</v>
       </c>
       <c r="B540" s="125">
-        <f>B486+12</f>
+        <f t="shared" ref="B540:B571" si="29">B486+12</f>
         <v>119</v>
       </c>
       <c r="C540" s="149" t="s">
@@ -47522,7 +47526,7 @@
         <v>2</v>
       </c>
       <c r="F540" s="118" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="28"/>
         <v>累计消除800个铃铛，400个7，400个BAR</v>
       </c>
     </row>
@@ -47531,7 +47535,7 @@
         <v>540</v>
       </c>
       <c r="B541" s="125">
-        <f>B487+12</f>
+        <f t="shared" si="29"/>
         <v>119</v>
       </c>
       <c r="C541" s="151" t="s">
@@ -47544,7 +47548,7 @@
         <v>2</v>
       </c>
       <c r="F541" s="118" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="28"/>
         <v>累计消除800个铃铛，400个7，400个BAR</v>
       </c>
     </row>
@@ -47553,7 +47557,7 @@
         <v>541</v>
       </c>
       <c r="B542" s="125">
-        <f>B488+12</f>
+        <f t="shared" si="29"/>
         <v>119</v>
       </c>
       <c r="C542" s="151" t="s">
@@ -47566,7 +47570,7 @@
         <v>3</v>
       </c>
       <c r="F542" s="118" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="28"/>
         <v>累计消除800个铃铛，400个7，400个BAR</v>
       </c>
     </row>
@@ -47575,7 +47579,7 @@
         <v>542</v>
       </c>
       <c r="B543" s="125">
-        <f>B489+12</f>
+        <f t="shared" si="29"/>
         <v>120</v>
       </c>
       <c r="C543" s="149" t="s">
@@ -47588,7 +47592,7 @@
         <v>2</v>
       </c>
       <c r="F543" s="118" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="28"/>
         <v>累计消除800个铃铛，800个西瓜，400个7</v>
       </c>
     </row>
@@ -47597,7 +47601,7 @@
         <v>543</v>
       </c>
       <c r="B544" s="125">
-        <f>B490+12</f>
+        <f t="shared" si="29"/>
         <v>120</v>
       </c>
       <c r="C544" s="149" t="s">
@@ -47610,7 +47614,7 @@
         <v>2</v>
       </c>
       <c r="F544" s="118" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="28"/>
         <v>累计消除800个铃铛，800个西瓜，400个7</v>
       </c>
     </row>
@@ -47619,7 +47623,7 @@
         <v>544</v>
       </c>
       <c r="B545" s="125">
-        <f>B491+12</f>
+        <f t="shared" si="29"/>
         <v>120</v>
       </c>
       <c r="C545" s="149" t="s">
@@ -47632,7 +47636,7 @@
         <v>2</v>
       </c>
       <c r="F545" s="118" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="28"/>
         <v>累计消除800个铃铛，800个西瓜，400个7</v>
       </c>
     </row>
@@ -47641,7 +47645,7 @@
         <v>545</v>
       </c>
       <c r="B546" s="125">
-        <f>B492+12</f>
+        <f t="shared" si="29"/>
         <v>120</v>
       </c>
       <c r="C546" s="151" t="s">
@@ -47654,7 +47658,7 @@
         <v>2</v>
       </c>
       <c r="F546" s="118" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="28"/>
         <v>累计消除800个铃铛，800个西瓜，400个7</v>
       </c>
     </row>
@@ -47663,7 +47667,7 @@
         <v>546</v>
       </c>
       <c r="B547" s="125">
-        <f>B493+12</f>
+        <f t="shared" si="29"/>
         <v>120</v>
       </c>
       <c r="C547" s="151" t="s">
@@ -47676,7 +47680,7 @@
         <v>3</v>
       </c>
       <c r="F547" s="118" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="28"/>
         <v>累计消除800个铃铛，800个西瓜，400个7</v>
       </c>
     </row>
@@ -47685,7 +47689,7 @@
         <v>547</v>
       </c>
       <c r="B548" s="125">
-        <f>B494+12</f>
+        <f t="shared" si="29"/>
         <v>121</v>
       </c>
       <c r="C548" s="149" t="s">
@@ -47698,7 +47702,7 @@
         <v>2</v>
       </c>
       <c r="F548" s="118" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="28"/>
         <v>累计消除800个铃铛，800个西瓜，400个BAR</v>
       </c>
     </row>
@@ -47707,7 +47711,7 @@
         <v>548</v>
       </c>
       <c r="B549" s="125">
-        <f>B495+12</f>
+        <f t="shared" si="29"/>
         <v>121</v>
       </c>
       <c r="C549" s="149" t="s">
@@ -47720,7 +47724,7 @@
         <v>2</v>
       </c>
       <c r="F549" s="118" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="28"/>
         <v>累计消除800个铃铛，800个西瓜，400个BAR</v>
       </c>
     </row>
@@ -47729,7 +47733,7 @@
         <v>549</v>
       </c>
       <c r="B550" s="125">
-        <f>B496+12</f>
+        <f t="shared" si="29"/>
         <v>121</v>
       </c>
       <c r="C550" s="149" t="s">
@@ -47742,7 +47746,7 @@
         <v>2</v>
       </c>
       <c r="F550" s="118" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="28"/>
         <v>累计消除800个铃铛，800个西瓜，400个BAR</v>
       </c>
     </row>
@@ -47751,7 +47755,7 @@
         <v>550</v>
       </c>
       <c r="B551" s="125">
-        <f>B497+12</f>
+        <f t="shared" si="29"/>
         <v>121</v>
       </c>
       <c r="C551" s="151" t="s">
@@ -47764,7 +47768,7 @@
         <v>2</v>
       </c>
       <c r="F551" s="118" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="28"/>
         <v>累计消除800个铃铛，800个西瓜，400个BAR</v>
       </c>
     </row>
@@ -47773,7 +47777,7 @@
         <v>551</v>
       </c>
       <c r="B552" s="125">
-        <f>B498+12</f>
+        <f t="shared" si="29"/>
         <v>121</v>
       </c>
       <c r="C552" s="151" t="s">
@@ -47786,7 +47790,7 @@
         <v>3</v>
       </c>
       <c r="F552" s="118" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="28"/>
         <v>累计消除800个铃铛，800个西瓜，400个BAR</v>
       </c>
     </row>
@@ -47795,7 +47799,7 @@
         <v>552</v>
       </c>
       <c r="B553" s="125">
-        <f>B499+12</f>
+        <f t="shared" si="29"/>
         <v>122</v>
       </c>
       <c r="C553" s="149" t="s">
@@ -47808,7 +47812,7 @@
         <v>2</v>
       </c>
       <c r="F553" s="118" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="28"/>
         <v>累计消除800个西瓜，400个7，400个BAR</v>
       </c>
     </row>
@@ -47817,7 +47821,7 @@
         <v>553</v>
       </c>
       <c r="B554" s="125">
-        <f>B500+12</f>
+        <f t="shared" si="29"/>
         <v>122</v>
       </c>
       <c r="C554" s="149" t="s">
@@ -47830,7 +47834,7 @@
         <v>2</v>
       </c>
       <c r="F554" s="118" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="28"/>
         <v>累计消除800个西瓜，400个7，400个BAR</v>
       </c>
     </row>
@@ -47839,7 +47843,7 @@
         <v>554</v>
       </c>
       <c r="B555" s="125">
-        <f>B501+12</f>
+        <f t="shared" si="29"/>
         <v>122</v>
       </c>
       <c r="C555" s="149" t="s">
@@ -47852,7 +47856,7 @@
         <v>2</v>
       </c>
       <c r="F555" s="118" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="28"/>
         <v>累计消除800个西瓜，400个7，400个BAR</v>
       </c>
     </row>
@@ -47861,7 +47865,7 @@
         <v>555</v>
       </c>
       <c r="B556" s="125">
-        <f>B502+12</f>
+        <f t="shared" si="29"/>
         <v>122</v>
       </c>
       <c r="C556" s="151" t="s">
@@ -47874,7 +47878,7 @@
         <v>2</v>
       </c>
       <c r="F556" s="118" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="28"/>
         <v>累计消除800个西瓜，400个7，400个BAR</v>
       </c>
     </row>
@@ -47883,7 +47887,7 @@
         <v>556</v>
       </c>
       <c r="B557" s="125">
-        <f>B503+12</f>
+        <f t="shared" si="29"/>
         <v>122</v>
       </c>
       <c r="C557" s="151" t="s">
@@ -47896,7 +47900,7 @@
         <v>3</v>
       </c>
       <c r="F557" s="118" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="28"/>
         <v>累计消除800个西瓜，400个7，400个BAR</v>
       </c>
     </row>
@@ -47905,7 +47909,7 @@
         <v>557</v>
       </c>
       <c r="B558" s="125">
-        <f>B504+12</f>
+        <f t="shared" si="29"/>
         <v>123</v>
       </c>
       <c r="C558" s="151" t="s">
@@ -47918,7 +47922,7 @@
         <v>3</v>
       </c>
       <c r="F558" s="118" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="28"/>
         <v>单局消除9个及以上7</v>
       </c>
     </row>
@@ -47939,7 +47943,7 @@
         <v>3</v>
       </c>
       <c r="F559" s="118" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="28"/>
         <v>单局消除9个及以上7</v>
       </c>
     </row>
@@ -47948,7 +47952,7 @@
         <v>559</v>
       </c>
       <c r="B560" s="125">
-        <f t="shared" ref="B560" si="14">B506+12</f>
+        <f t="shared" ref="B560" si="30">B506+12</f>
         <v>124</v>
       </c>
       <c r="C560" s="151" t="s">
@@ -47961,7 +47965,7 @@
         <v>3</v>
       </c>
       <c r="F560" s="118" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="28"/>
         <v>单局消除9个及以上BAR</v>
       </c>
     </row>
@@ -47982,39 +47986,130 @@
         <v>3</v>
       </c>
       <c r="F561" s="118" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="28"/>
         <v>单局消除9个及以上BAR</v>
       </c>
     </row>
     <row r="562" spans="1:6">
-      <c r="C562" s="32"/>
-      <c r="D562" s="17"/>
-      <c r="E562" s="32"/>
+      <c r="A562" s="125">
+        <v>561</v>
+      </c>
+      <c r="B562" s="9">
+        <v>124</v>
+      </c>
+      <c r="C562" s="151" t="s">
+        <v>521</v>
+      </c>
+      <c r="D562" s="163">
+        <v>10240000</v>
+      </c>
+      <c r="E562" s="149">
+        <v>3</v>
+      </c>
+      <c r="F562" s="118" t="str">
+        <f t="shared" ref="F562" ca="1" si="31">INDIRECT("G"&amp;B562+6)</f>
+        <v>单局消除9个及以上BAR</v>
+      </c>
     </row>
     <row r="563" spans="1:6">
-      <c r="C563" s="32"/>
-      <c r="D563" s="17"/>
-      <c r="E563" s="32"/>
+      <c r="A563" s="125">
+        <v>562</v>
+      </c>
+      <c r="B563" s="9">
+        <v>125</v>
+      </c>
+      <c r="C563" s="151" t="s">
+        <v>521</v>
+      </c>
+      <c r="D563" s="163">
+        <v>480000</v>
+      </c>
+      <c r="E563" s="149">
+        <v>3</v>
+      </c>
+      <c r="F563" s="10" t="s">
+        <v>709</v>
+      </c>
     </row>
     <row r="564" spans="1:6">
-      <c r="C564" s="32"/>
-      <c r="D564" s="17"/>
-      <c r="E564" s="32"/>
+      <c r="A564" s="125">
+        <v>563</v>
+      </c>
+      <c r="B564" s="9">
+        <v>126</v>
+      </c>
+      <c r="C564" s="151" t="s">
+        <v>521</v>
+      </c>
+      <c r="D564" s="163">
+        <v>960000</v>
+      </c>
+      <c r="E564" s="149">
+        <v>3</v>
+      </c>
+      <c r="F564" s="10" t="s">
+        <v>709</v>
+      </c>
     </row>
     <row r="565" spans="1:6">
-      <c r="C565" s="32"/>
-      <c r="D565" s="17"/>
-      <c r="E565" s="32"/>
+      <c r="A565" s="125">
+        <v>564</v>
+      </c>
+      <c r="B565" s="9">
+        <v>127</v>
+      </c>
+      <c r="C565" s="151" t="s">
+        <v>521</v>
+      </c>
+      <c r="D565" s="163">
+        <v>1920000</v>
+      </c>
+      <c r="E565" s="149">
+        <v>3</v>
+      </c>
+      <c r="F565" s="10" t="s">
+        <v>709</v>
+      </c>
     </row>
     <row r="566" spans="1:6">
-      <c r="C566" s="32"/>
-      <c r="D566" s="17"/>
-      <c r="E566" s="32"/>
+      <c r="A566" s="125">
+        <v>565</v>
+      </c>
+      <c r="B566" s="9">
+        <v>128</v>
+      </c>
+      <c r="C566" s="151" t="s">
+        <v>521</v>
+      </c>
+      <c r="D566" s="163">
+        <v>5120000</v>
+      </c>
+      <c r="E566" s="149">
+        <v>3</v>
+      </c>
+      <c r="F566" s="10" t="s">
+        <v>709</v>
+      </c>
     </row>
     <row r="567" spans="1:6">
-      <c r="C567" s="32"/>
-      <c r="D567" s="17"/>
-      <c r="E567" s="32"/>
+      <c r="A567" s="125">
+        <v>566</v>
+      </c>
+      <c r="B567" s="9">
+        <v>129</v>
+      </c>
+      <c r="C567" s="151" t="s">
+        <v>521</v>
+      </c>
+      <c r="D567" s="163">
+        <v>10240000</v>
+      </c>
+      <c r="E567" s="149">
+        <v>3</v>
+      </c>
+      <c r="F567" s="10" t="s">
+        <v>709</v>
+      </c>
     </row>
     <row r="568" spans="1:6">
       <c r="C568" s="32"/>

--- a/config_debug/task_xiaoxiaole_tower_week_server.xlsx
+++ b/config_debug/task_xiaoxiaole_tower_week_server.xlsx
@@ -1442,7 +1442,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3182" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3184" uniqueCount="721">
   <si>
     <t>id|任务id</t>
   </si>
@@ -3695,18 +3695,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>5000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>8000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>3000</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -3740,6 +3728,18 @@
   </si>
   <si>
     <t>20</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>600</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>300</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -48367,10 +48367,10 @@
   <dimension ref="A1:W1631"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C173" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C256" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E191" sqref="E191"/>
+      <selection pane="bottomRight" activeCell="E274" sqref="E274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -52990,7 +52990,7 @@
         <v>539</v>
       </c>
       <c r="E188" s="11" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="F188" s="8">
         <v>1</v>
@@ -53104,7 +53104,7 @@
         <v>539</v>
       </c>
       <c r="E191" s="11" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="F191" s="8">
         <v>1</v>
@@ -54472,7 +54472,7 @@
         <v>539</v>
       </c>
       <c r="E227" s="11" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="F227" s="8">
         <v>1</v>
@@ -54586,7 +54586,7 @@
         <v>539</v>
       </c>
       <c r="E230" s="11" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="F230" s="8">
         <v>1</v>
@@ -55618,7 +55618,7 @@
         <v>539</v>
       </c>
       <c r="E266" s="11" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="F266" s="8">
         <v>1</v>
@@ -55690,7 +55690,7 @@
         <v>539</v>
       </c>
       <c r="E269" s="11" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="F269" s="8">
         <v>1</v>
@@ -55761,8 +55761,8 @@
       <c r="D272" s="72" t="s">
         <v>539</v>
       </c>
-      <c r="E272" s="11">
-        <v>500</v>
+      <c r="E272" s="11" t="s">
+        <v>720</v>
       </c>
       <c r="F272" s="8">
         <v>1</v>
@@ -56554,7 +56554,7 @@
         <v>539</v>
       </c>
       <c r="E305" s="11" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="F305" s="8">
         <v>1</v>
@@ -56626,7 +56626,7 @@
         <v>539</v>
       </c>
       <c r="E308" s="11" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="F308" s="8">
         <v>1</v>
@@ -56697,8 +56697,8 @@
       <c r="D311" s="72" t="s">
         <v>539</v>
       </c>
-      <c r="E311" s="11">
-        <v>800</v>
+      <c r="E311" s="11" t="s">
+        <v>719</v>
       </c>
       <c r="F311" s="8">
         <v>1</v>
@@ -57490,7 +57490,7 @@
         <v>539</v>
       </c>
       <c r="E344" s="11" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="F344" s="8">
         <v>1</v>
@@ -57562,7 +57562,7 @@
         <v>539</v>
       </c>
       <c r="E347" s="11" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="F347" s="8">
         <v>1</v>
@@ -57634,7 +57634,7 @@
         <v>539</v>
       </c>
       <c r="E350" s="11" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="F350" s="8">
         <v>1</v>
@@ -58426,7 +58426,7 @@
         <v>539</v>
       </c>
       <c r="E383" s="11" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="F383" s="8">
         <v>1</v>
@@ -58498,7 +58498,7 @@
         <v>539</v>
       </c>
       <c r="E386" s="11" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="F386" s="8">
         <v>1</v>
@@ -58570,7 +58570,7 @@
         <v>539</v>
       </c>
       <c r="E389" s="11" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F389" s="8">
         <v>1</v>
